--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C027E715-16E2-1C47-A41C-18F1CEA03816}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428BA2F5-986A-FC42-A2B5-C713F3E4FF5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="800" windowWidth="27640" windowHeight="19440" activeTab="1" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="3580" yWindow="600" windowWidth="27640" windowHeight="19440" activeTab="1" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Queries" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="748">
   <si>
     <t>valueChain</t>
   </si>
@@ -5258,6 +5258,12 @@
   </si>
   <si>
     <t>c("cereal", "rice", "maize", "corn", "wheat", "sorghum", "millet",  "buckwheat", "fonio", "rye", "teff")</t>
+  </si>
+  <si>
+    <t>searchStrings.nutrients</t>
+  </si>
+  <si>
+    <t>c("protein", "fat", "carbohydrate*", "fiber", "fibre", "vitamin*", "mineral*")</t>
   </si>
 </sst>
 </file>
@@ -5786,7 +5792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -6624,10 +6630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B44446-4EFF-1748-B076-59F83F2A5201}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6809,6 +6815,14 @@
       </c>
       <c r="B22" s="21" t="s">
         <v>742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -9521,15 +9535,87 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A236"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="C267:C268"/>
     <mergeCell ref="A269:A270"/>
@@ -9544,87 +9630,15 @@
     <mergeCell ref="B261:B263"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="A230:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A129:A136"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="C284:C285"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428BA2F5-986A-FC42-A2B5-C713F3E4FF5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD1B514-10C0-1E41-87A1-99DB25A8D1E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="600" windowWidth="27640" windowHeight="19440" activeTab="1" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="3580" yWindow="500" windowWidth="27640" windowHeight="19440" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Queries" sheetId="1" r:id="rId1"/>
@@ -5197,9 +5197,6 @@
     <t xml:space="preserve">c("profit*", "financ*", "econ*", "price", "price variability") </t>
   </si>
   <si>
-    <t>carrot* OR cassava OR potato* OR sweet potatoes* OR turnip* OR yam* OR taro* OR cocoyam* OR onion* OR garlic OR ginger OR leek</t>
-  </si>
-  <si>
     <t>(genet* AND crop*)</t>
   </si>
   <si>
@@ -5264,13 +5261,16 @@
   </si>
   <si>
     <t>c("protein", "fat", "carbohydrate*", "fiber", "fibre", "vitamin*", "mineral*")</t>
+  </si>
+  <si>
+    <t>tuber* OR root OR carrot* OR cassava OR potato* OR sweet potatoes* OR turnip* OR yam* OR taro* OR cocoyam* OR onion* OR garlic OR ginger OR leek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5368,6 +5368,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF1F497D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5438,7 +5444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5475,6 +5481,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5792,8 +5799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5892,7 +5899,7 @@
         <v>111</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5907,7 +5914,7 @@
         <v>113</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5922,7 +5929,7 @@
         <v>175</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6060,7 +6067,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6071,8 +6078,8 @@
       <c r="D18" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>725</v>
+      <c r="E18" s="24" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -6177,7 +6184,7 @@
         <v>715</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -6267,7 +6274,7 @@
         <v>118</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -6402,7 +6409,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -6632,7 +6639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B44446-4EFF-1748-B076-59F83F2A5201}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -6694,7 +6701,7 @@
         <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -6702,7 +6709,7 @@
         <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -6771,58 +6778,58 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>730</v>
+      </c>
+      <c r="B17" t="s">
         <v>731</v>
-      </c>
-      <c r="B17" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>737</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>739</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>741</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>746</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -9535,87 +9542,15 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A129:A136"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="A230:A234"/>
-    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="C284:C285"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="C267:C268"/>
     <mergeCell ref="A269:A270"/>
@@ -9630,15 +9565,87 @@
     <mergeCell ref="B261:B263"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD1B514-10C0-1E41-87A1-99DB25A8D1E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA3462-ED3C-D548-B89F-3205C185A08F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="500" windowWidth="27640" windowHeight="19440" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="39920" yWindow="1740" windowWidth="30520" windowHeight="19340" activeTab="1" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Queries" sheetId="1" r:id="rId1"/>
-    <sheet name="searchTerms" sheetId="3" r:id="rId2"/>
-    <sheet name="CCSearchString" sheetId="5" r:id="rId3"/>
-    <sheet name="SCOPUSSearchOperators" sheetId="4" r:id="rId4"/>
-    <sheet name="WOSSearchOperators" sheetId="2" r:id="rId5"/>
+    <sheet name="Notes" sheetId="6" r:id="rId2"/>
+    <sheet name="searchTerms" sheetId="3" r:id="rId3"/>
+    <sheet name="CCSearchString" sheetId="5" r:id="rId4"/>
+    <sheet name="SCOPUSSearchOperators" sheetId="4" r:id="rId5"/>
+    <sheet name="WOSSearchOperators" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Queries!$A$1:$E$1</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="760">
   <si>
     <t>valueChain</t>
   </si>
@@ -653,42 +654,15 @@
     </r>
   </si>
   <si>
-    <t>"food value chain"</t>
-  </si>
-  <si>
-    <t>"free air ozone" experiment*</t>
-  </si>
-  <si>
-    <t>"price var*"</t>
-  </si>
-  <si>
-    <t>"crop insurance"</t>
-  </si>
-  <si>
-    <t>"food waste"</t>
-  </si>
-  <si>
     <t>intlTrade</t>
   </si>
   <si>
     <t>SSP_RCPs</t>
   </si>
   <si>
-    <t>"free air carbon dioxide" experiment*</t>
-  </si>
-  <si>
-    <t>"storage loss" AND (crop OR livestock or fish)</t>
-  </si>
-  <si>
-    <t>"food system"</t>
-  </si>
-  <si>
     <t>agroecology</t>
   </si>
   <si>
-    <t>agroeco* OR agro-ecolog* OR "diversified farming" OR "ecological agriculture" OR "agricultural ecology" OR agrobiodivers* OR agro-biodivers*</t>
-  </si>
-  <si>
     <t>foodSecurity</t>
   </si>
   <si>
@@ -743,21 +717,12 @@
     <t>consumption</t>
   </si>
   <si>
-    <t>crop AND (ozone or "air quality")</t>
-  </si>
-  <si>
     <t>queryNumber</t>
   </si>
   <si>
     <t>aquaculture</t>
   </si>
   <si>
-    <t>Aquaculture OR Aquacultural</t>
-  </si>
-  <si>
-    <t>"medicinal plant*" OR "wild edible*" OR "aquatic algae" or "aromatic plant*" OR seaweed*</t>
-  </si>
-  <si>
     <t>sectionName</t>
   </si>
   <si>
@@ -788,27 +753,12 @@
     <t xml:space="preserve">5.2.1 Methodologies for assessing impacts and risks </t>
   </si>
   <si>
-    <t>biofuel* OR bioenergy OR agrofuel* OR BECCS OR "bioenergy with carbon capture and storage"</t>
-  </si>
-  <si>
-    <t>"international trade" AND (agriculture OR food)</t>
-  </si>
-  <si>
-    <t>food AND (nutrition* OR nutrition* status OR nutrition* outcome* OR nutrition* health OR anthropometry OR diet)</t>
-  </si>
-  <si>
     <t>impactsCrop</t>
   </si>
   <si>
     <t>impactsLivestock</t>
   </si>
   <si>
-    <t>impact* AND livestock</t>
-  </si>
-  <si>
-    <t>impact* AND fish</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.7.1 Food security and climate change </t>
   </si>
   <si>
@@ -932,51 +882,24 @@
     <t>searchString</t>
   </si>
   <si>
-    <t>"livestock systems" OR "pastoral systems"</t>
-  </si>
-  <si>
     <t>maladaptation</t>
   </si>
   <si>
-    <t>consum* OR "dietary choice" OR "food choice"</t>
-  </si>
-  <si>
     <t>fiber OR fibre</t>
   </si>
   <si>
     <t>livestock AND (rangeland OR feed OR forag*)</t>
   </si>
   <si>
-    <t xml:space="preserve"> flood OR drought OR "sea level rise" OR "extreme event" OR "heat wave"</t>
-  </si>
-  <si>
-    <t>food AND (*securit* OR access* OR afford* OR insecur* OR *sufficien* OR choice* OR availab* OR utiliz* OR stabil* OR quality)</t>
-  </si>
-  <si>
-    <t>adaptation OR adaptive OR "adaptive capacity" OR "risk sharing" OR "risk spreading"</t>
-  </si>
-  <si>
-    <t>Fisheries OR fishing OR "fish resource" OR "fish products"</t>
-  </si>
-  <si>
     <t>food AND vulnerability</t>
   </si>
   <si>
-    <t>"social protection" OR cooperation OR migration OR "climate services" OR "climate information"</t>
-  </si>
-  <si>
-    <t>"cropping system" AND (intercrop OR "sequential crop" OR "relay crop" OR "multi* crop" OR "crop rotation" OR "mix tree-crop*" OR "traditional crop" or "indigenous crop" perennial OR "minor crop")</t>
-  </si>
-  <si>
     <t>fruit</t>
   </si>
   <si>
     <t>vegetable</t>
   </si>
   <si>
-    <t>"grain quality" OR "nutrient composition"</t>
-  </si>
-  <si>
     <t>legume</t>
   </si>
   <si>
@@ -5140,9 +5063,6 @@
     </r>
   </si>
   <si>
-    <t>"climate change" OR "climate variability" OR "global warming" OR "greenhouse effect" OR "extreme weather" OR "climate hazard" OR "heat stress" OR "heat wave" OR "precipitation variability" OR "temperature variability" OR drought</t>
-  </si>
-  <si>
     <t>smallGrains</t>
   </si>
   <si>
@@ -5152,15 +5072,9 @@
     <t>spices</t>
   </si>
   <si>
-    <t>spice* OR nutmeg* OR cardamon* OR cinnamon* OR clove* OR pepper OR  vanilla* OR mustard</t>
-  </si>
-  <si>
     <t>oilCrop</t>
   </si>
   <si>
-    <t>"oil crop*" OR "oil palm*" OR sunflower* OR sesame* OR safflower</t>
-  </si>
-  <si>
     <t>citrus</t>
   </si>
   <si>
@@ -5179,36 +5093,15 @@
     <t>rootsNtubers</t>
   </si>
   <si>
-    <t>agriculture AND (SSP OR "shared socioeconomic profile*" OR RCP OR "representative concentration pathway")</t>
-  </si>
-  <si>
-    <t>"*forestry system*" OR agroforestry OR agriforestry</t>
-  </si>
-  <si>
     <t>vegetabl* OR broccoli OR cauliflower OR broccoli OR okra OR pumpkin OR chili* OR spinach OR pea OR tomato</t>
   </si>
   <si>
-    <t>legume* OR bean* OR pulses OR pea OR lentil OR chickpea OR cowpea OR "pigeon pea" OR "pigeonpea"</t>
-  </si>
-  <si>
     <t>c("ruminant",  "cattle", "beef", "goat", "sheep", "pig", "swine",   "pork", "chicken", "poultry")</t>
   </si>
   <si>
-    <t xml:space="preserve">c("profit*", "financ*", "econ*", "price", "price variability") </t>
-  </si>
-  <si>
-    <t>(genet* AND crop*)</t>
-  </si>
-  <si>
-    <t>(genet* AND livestoc*)</t>
-  </si>
-  <si>
     <t>groundnut* OR cashew* OR coconut* OR pistach* OR cashew</t>
   </si>
   <si>
-    <t>(flood OR drought OR storm OR "sea level rise" OR "extreme event" OR "heat wave") AND crop*</t>
-  </si>
-  <si>
     <t xml:space="preserve"> financial* AND agriculture</t>
   </si>
   <si>
@@ -5263,14 +5156,158 @@
     <t>c("protein", "fat", "carbohydrate*", "fiber", "fibre", "vitamin*", "mineral*")</t>
   </si>
   <si>
-    <t>tuber* OR root OR carrot* OR cassava OR potato* OR sweet potatoes* OR turnip* OR yam* OR taro* OR cocoyam* OR onion* OR garlic OR ginger OR leek</t>
+    <t>forestryAdapt</t>
+  </si>
+  <si>
+    <t>woodTrade</t>
+  </si>
+  <si>
+    <t>spice* OR nutmeg* OR cardamon* OR cinnamon* OR clove* OR pepper OR vanilla* OR mustard</t>
+  </si>
+  <si>
+    <t>legume* OR bean* OR pulses OR pea OR lentil OR chickpea OR cowpea OR {pigeon pea} OR pigeonpea</t>
+  </si>
+  <si>
+    <t>agroeco* OR agro-ecolog* OR {diversified farming} OR {ecological agriculture} OR {agricultural ecology} OR agrobiodivers* OR agro-biodivers*</t>
+  </si>
+  <si>
+    <t>{livestock systems} OR {pastoral systems}</t>
+  </si>
+  <si>
+    <t>{free air carbon dioxide} experiment*</t>
+  </si>
+  <si>
+    <t>{free air ozone} experiment*</t>
+  </si>
+  <si>
+    <t>{medicinal plant*} OR {wild edible*} OR {aquatic algae} OR {aromatic plant*} OR seaweed*</t>
+  </si>
+  <si>
+    <t>{cropping system} AND (intercrop OR {sequential crop} OR {relay crop} OR {multi* crop} OR {crop rotation} OR {mix tree-crop*} OR {traditional crop} OR {indigenous crop} OR perennial OR {minor crop})</t>
+  </si>
+  <si>
+    <t>crop AND (ozone OR {air quality })</t>
+  </si>
+  <si>
+    <t>{grain quality} OR {nutrient composition}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are phrases where the words must be exactly in the same position. SCOPUS identifies them with {}. WOS uses double quotations "". </t>
+  </si>
+  <si>
+    <t>Bound phrases</t>
+  </si>
+  <si>
+    <t>In the Queries worksheet use {} to indicate bound queries. These will be replaced with "" in the code.</t>
+  </si>
+  <si>
+    <t>Fisheries OR fishing OR {fish resource} OR {fish product*}</t>
+  </si>
+  <si>
+    <t>{food system}</t>
+  </si>
+  <si>
+    <t>{food waste}</t>
+  </si>
+  <si>
+    <t>{international trade} AND (agriculture OR food)</t>
+  </si>
+  <si>
+    <t>food AND (nutrition* OR {nutrition* status} OR {nutrition* outcome*} OR {nutrition* health} OR anthropometry OR diet)</t>
+  </si>
+  <si>
+    <t>flood OR drought OR {sea level rise} OR {extreme event} OR {heat wave}</t>
+  </si>
+  <si>
+    <t>{crop insurance}</t>
+  </si>
+  <si>
+    <t>(adapt*) AND ({*forest management} OR agroforestry OR agriforestry)</t>
+  </si>
+  <si>
+    <t>(global OR international) AND (wood OR forestry OR {forest products} trade)</t>
+  </si>
+  <si>
+    <t>{climate change} OR {climate variability} OR {global warming} OR {greenhouse effect} OR {extreme weather} OR {climate hazard} OR {heat stress} OR {heat wave} OR {precipitation variability} OR {temperature variability} OR drought</t>
+  </si>
+  <si>
+    <t>agriculture AND (SSP OR {shared socioeconomic profile*} OR RCP OR {representative concentration pathway})</t>
+  </si>
+  <si>
+    <t>biofuel* OR bioenergy OR agrofuel* OR BECCS OR {bioenergy with carbon capture and storage}</t>
+  </si>
+  <si>
+    <t>{oil crop*} OR {oil palm*} OR sunflower* OR sesame* OR safflower</t>
+  </si>
+  <si>
+    <t>{*forestry system*} OR agroforestry OR agriforestry</t>
+  </si>
+  <si>
+    <t>{storage loss} AND (crop OR livestock or fish)</t>
+  </si>
+  <si>
+    <t>{food *securit*} OR {food access*} OR {food afford*} OR {food insecur*} OR {food *sufficien*} OR {food choice*} OR {food availab*} OR {food utiliz*} OR {food stabil*} OR {food quality}</t>
+  </si>
+  <si>
+    <t>livestock AND impact*</t>
+  </si>
+  <si>
+    <t>fish AND impact*</t>
+  </si>
+  <si>
+    <t>genet* AND livestoc*</t>
+  </si>
+  <si>
+    <t>genet* AND crop*</t>
+  </si>
+  <si>
+    <t>aquacultur*</t>
+  </si>
+  <si>
+    <t>adaptation OR {adaptive capacity} OR {risk sharing} OR {risk spreading}</t>
+  </si>
+  <si>
+    <t>{social protection} OR migration OR {climate services} OR {climate information} or insurance</t>
+  </si>
+  <si>
+    <t>consump* OR {dietary choice} OR {food choice}</t>
+  </si>
+  <si>
+    <t>searchStrings.climateChange1</t>
+  </si>
+  <si>
+    <t>searchStrings.climateChange2</t>
+  </si>
+  <si>
+    <t>flood  OR {sea level rise} OR {extreme event} AND crop* AND impact*</t>
+  </si>
+  <si>
+    <t>carrot* OR cassava OR potato* OR {sweet potat*} OR turnip* OR yam* OR taro* OR cocoyam* OR onion* OR garlic OR ginger OR leek</t>
+  </si>
+  <si>
+    <t>c("climate change", "climate variability", "global warming", "greenhouse effect", "extreme weather", "climate hazard", "heat stress", "heat wave", "precipitation variability", "temperature variability", "drought")</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("profit*", "financ*", "econ*", "price", "price variability", "price increase") </t>
+  </si>
+  <si>
+    <t>(food value chain)</t>
+  </si>
+  <si>
+    <t>In the Queries worksheet use () to indicate words separated by AND</t>
+  </si>
+  <si>
+    <t>The searchTerms worksheet has rows that are used to search for words or phrases after the reference information is downloaded from SCOPUS. Add a row in searchTerms to add a new column in the output spreadsheet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5369,10 +5406,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
+      <color rgb="FF323232"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF1F497D"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5444,7 +5489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5479,9 +5524,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5799,8 +5845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5813,13 +5859,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>9</v>
@@ -5833,13 +5879,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5848,28 +5894,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>163</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A54" si="0">A3+1</f>
+        <f t="shared" ref="A4:A56" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5878,508 +5924,508 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>A36+1</f>
+        <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>104</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>166</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>91</v>
+        <v>689</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>747</v>
+        <v>86</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>93</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>95</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>176</v>
+        <v>680</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>721</v>
+        <v>681</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>178</v>
+        <v>682</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>715</v>
+        <v>684</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>727</v>
+        <v>685</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>711</v>
+        <v>85</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>177</v>
+        <v>104</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>A37+1</f>
+        <v>36</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>A30+1</f>
+        <v>32</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>120</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>A32+1</f>
+        <v>33</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>720</v>
+        <v>78</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>A5+1</f>
+        <v>5</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>171</v>
+        <v>99</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f>A33+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>A34+1</f>
+        <v>6</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>A35+1</f>
+        <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>121</v>
+        <v>92</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>70</v>
+        <v>757</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -6388,13 +6434,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>79</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -6403,13 +6449,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -6418,13 +6464,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>78</v>
+        <v>740</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -6433,13 +6479,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>72</v>
+        <v>755</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -6448,13 +6494,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>74</v>
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -6463,13 +6509,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>116</v>
+        <v>729</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -6478,13 +6524,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>169</v>
+        <v>741</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -6493,13 +6539,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>117</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -6508,13 +6554,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>165</v>
+        <v>749</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -6523,13 +6569,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>81</v>
+        <v>715</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -6538,13 +6584,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>168</v>
+        <v>731</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -6553,13 +6599,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>170</v>
+        <v>747</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -6568,13 +6614,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -6583,13 +6629,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>173</v>
+        <v>748</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -6598,13 +6644,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -6613,13 +6659,43 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>73</v>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.2">
@@ -6636,11 +6712,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4E69CB-1358-C447-B5CD-4220B2095136}">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B44446-4EFF-1748-B076-59F83F2A5201}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6650,186 +6764,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>750</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>751</v>
       </c>
       <c r="B6" t="s">
-        <v>723</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>744</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>742</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>717</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>716</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>688</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>724</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>730</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>731</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>732</v>
+        <v>694</v>
       </c>
       <c r="B18" t="s">
-        <v>734</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="B19" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>736</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>737</v>
+      <c r="A20" t="s">
+        <v>697</v>
+      </c>
+      <c r="B20" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>739</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>741</v>
+      <c r="A22" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>745</v>
+        <v>704</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>746</v>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -6837,12 +6959,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5825E51-79F8-3943-A43A-0FB9AED7F8CD}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6852,18 +6974,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>706</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -6871,11 +6993,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB3225A-4DA2-B449-9413-FA03533C994C}">
   <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -6887,12 +7009,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -6900,12 +7022,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -6913,54 +7035,54 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6968,113 +7090,113 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="15" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="15" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="15" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>203</v>
+      <c r="A24" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="15" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>206</v>
+      <c r="A31" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="15" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -7082,32 +7204,32 @@
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -7115,217 +7237,217 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>223</v>
+        <v>194</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43" s="23"/>
+        <v>195</v>
+      </c>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B44" s="23"/>
+        <v>196</v>
+      </c>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="24"/>
+      <c r="B51" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="24"/>
+      <c r="B52" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="24"/>
+      <c r="B53" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="15" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="15" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="15" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="15" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
-        <v>199</v>
+      <c r="A59" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
+      <c r="A60" s="24"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="15" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
-        <v>206</v>
+      <c r="A70" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="15" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="15" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -7333,82 +7455,82 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -7416,20 +7538,20 @@
     </row>
     <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -7437,68 +7559,68 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="22" t="s">
-        <v>271</v>
+      <c r="A97" s="24" t="s">
+        <v>245</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="22"/>
+      <c r="A98" s="24"/>
       <c r="B98" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="22"/>
+      <c r="A99" s="24"/>
       <c r="B99" s="15" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="22"/>
+      <c r="A100" s="24"/>
       <c r="B100" s="15" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -7506,10 +7628,10 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -7517,7 +7639,7 @@
     </row>
     <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -7525,58 +7647,58 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="22" t="s">
-        <v>199</v>
+      <c r="A112" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="22"/>
+      <c r="A113" s="24"/>
       <c r="B113" s="15" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="22" t="s">
-        <v>206</v>
+      <c r="A115" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="22"/>
+      <c r="A116" s="24"/>
       <c r="B116" s="15" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="22"/>
+      <c r="A117" s="24"/>
       <c r="B117" s="15" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="22"/>
+      <c r="A118" s="24"/>
       <c r="B118" s="15" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -7584,7 +7706,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -7592,1946 +7714,1946 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="24"/>
+      <c r="B124" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" s="25"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="24"/>
+      <c r="B126" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" s="25"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="24"/>
+      <c r="B128" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C128" s="25"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="24"/>
+      <c r="B130" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="24"/>
+      <c r="B131" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="24"/>
+      <c r="B132" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="24"/>
+      <c r="B133" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B122" s="16" t="s">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="24"/>
+      <c r="B134" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C134" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C122" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="22" t="s">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="24"/>
+      <c r="B135" s="15"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="24"/>
+      <c r="B136" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B137" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C137" s="15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="22"/>
-      <c r="B124" s="17" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="24"/>
+      <c r="B138" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C124" s="23"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="22" t="s">
+      <c r="C138" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="B125" s="15" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="B139" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="24"/>
+      <c r="B140" s="15" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="22"/>
-      <c r="B126" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C126" s="23"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="B127" s="15" t="s">
+      <c r="C140" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C127" s="23" t="s">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141" s="15" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="22"/>
-      <c r="B128" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C128" s="23"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="22" t="s">
+      <c r="C141" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="24"/>
+      <c r="B142" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B129" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C129" s="15" t="s">
+      <c r="C142" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="24"/>
+      <c r="B144" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="24"/>
+      <c r="C145" s="15" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="22"/>
-      <c r="B130" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C130" s="15" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="24" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="22"/>
-      <c r="B131" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C131" s="15" t="s">
+      <c r="B146" s="15" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="22"/>
-      <c r="B132" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C132" s="15" t="s">
+      <c r="C146" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="24"/>
+      <c r="B147" s="15" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="22"/>
-      <c r="B133" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="22"/>
-      <c r="B134" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C134" s="15" t="s">
+      <c r="C147" s="25"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="24" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="22"/>
-      <c r="B135" s="15"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="22"/>
-      <c r="B136" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="22" t="s">
+      <c r="B148" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="C148" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="24"/>
+      <c r="B149" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="C137" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="22"/>
-      <c r="B138" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="22"/>
-      <c r="B140" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="22" t="s">
+      <c r="C149" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="B141" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="22"/>
-      <c r="B142" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="22"/>
-      <c r="B144" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="22"/>
-      <c r="C145" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C146" s="23" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="22"/>
-      <c r="B147" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C147" s="23"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="22"/>
-      <c r="B149" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>352</v>
-      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="22"/>
+      <c r="A150" s="24"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="22"/>
+      <c r="A151" s="24"/>
       <c r="B151" s="15" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="22"/>
+      <c r="A152" s="24"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="22"/>
+      <c r="A153" s="24"/>
       <c r="B153" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="24"/>
+      <c r="B154" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="24"/>
+      <c r="B155" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="24"/>
+      <c r="B156" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="24"/>
+      <c r="B157" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="24"/>
+      <c r="B158" s="15"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="24"/>
+      <c r="B159" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="24"/>
+      <c r="B160" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="24"/>
+      <c r="B162" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="24"/>
+      <c r="B163" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="24"/>
+      <c r="B164" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="24"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="24"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="24"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C153" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="22"/>
-      <c r="B154" s="15" t="s">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="24"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="22"/>
-      <c r="B155" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="22"/>
-      <c r="B156" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="22"/>
-      <c r="B157" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="22"/>
-      <c r="B158" s="15"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="22"/>
-      <c r="B159" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="22"/>
-      <c r="B160" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="22"/>
-      <c r="B162" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="22"/>
-      <c r="B163" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="22"/>
-      <c r="B164" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="B165" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="22"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="22"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="22"/>
-      <c r="B168" s="23"/>
-      <c r="C168" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="22"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="15" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="22" t="s">
-        <v>376</v>
+      <c r="A171" s="24" t="s">
+        <v>350</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="C171" s="23" t="s">
-        <v>379</v>
+        <v>351</v>
+      </c>
+      <c r="C171" s="25" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="22"/>
+      <c r="A172" s="24"/>
       <c r="B172" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="C172" s="23"/>
+        <v>352</v>
+      </c>
+      <c r="C172" s="25"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="16" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="22" t="s">
-        <v>383</v>
+      <c r="A174" s="24" t="s">
+        <v>357</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="C174" s="23" t="s">
-        <v>386</v>
+        <v>358</v>
+      </c>
+      <c r="C174" s="25" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="22"/>
+      <c r="A175" s="24"/>
       <c r="B175" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="C175" s="23"/>
+        <v>359</v>
+      </c>
+      <c r="C175" s="25"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="22" t="s">
-        <v>387</v>
+      <c r="A176" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C176" s="23" t="s">
-        <v>390</v>
+        <v>362</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="22"/>
+      <c r="A177" s="24"/>
       <c r="B177" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C177" s="23"/>
+        <v>363</v>
+      </c>
+      <c r="C177" s="25"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="16" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="24"/>
+      <c r="B181" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B182" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="24"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B184" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="24"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="B186" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="24"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="24"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C189" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="24"/>
+      <c r="B190" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C190" s="25"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C191" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="24"/>
+      <c r="B192" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B179" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="22"/>
-      <c r="B181" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A182" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="B182" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="22"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="B184" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="22"/>
-      <c r="B185" s="23"/>
-      <c r="C185" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="B186" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="22"/>
-      <c r="B187" s="23"/>
-      <c r="C187" s="15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="22"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="C189" s="23" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="22"/>
-      <c r="B190" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C190" s="23"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="B191" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C191" s="23" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="22"/>
-      <c r="B192" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="C192" s="23"/>
+      <c r="C192" s="25"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="16" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="22" t="s">
-        <v>425</v>
+      <c r="A194" s="24" t="s">
+        <v>399</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C194" s="23" t="s">
-        <v>428</v>
+        <v>400</v>
+      </c>
+      <c r="C194" s="25" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="22"/>
+      <c r="A195" s="24"/>
       <c r="B195" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="C195" s="23"/>
+        <v>401</v>
+      </c>
+      <c r="C195" s="25"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="22" t="s">
-        <v>432</v>
+      <c r="A197" s="24" t="s">
+        <v>406</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="C197" s="23" t="s">
-        <v>435</v>
+        <v>407</v>
+      </c>
+      <c r="C197" s="25" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="22"/>
+      <c r="A198" s="24"/>
       <c r="B198" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="C198" s="23"/>
+        <v>408</v>
+      </c>
+      <c r="C198" s="25"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="22" t="s">
-        <v>436</v>
+      <c r="A199" s="24" t="s">
+        <v>410</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="C199" s="23" t="s">
-        <v>440</v>
+        <v>411</v>
+      </c>
+      <c r="C199" s="25" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="22"/>
+      <c r="A200" s="24"/>
       <c r="B200" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="C200" s="23"/>
+        <v>412</v>
+      </c>
+      <c r="C200" s="25"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="22"/>
+      <c r="A201" s="24"/>
       <c r="B201" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="C201" s="23"/>
+        <v>413</v>
+      </c>
+      <c r="C201" s="25"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="22" t="s">
-        <v>441</v>
+      <c r="A202" s="24" t="s">
+        <v>415</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="C202" s="23" t="s">
-        <v>444</v>
+        <v>416</v>
+      </c>
+      <c r="C202" s="25" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="22"/>
+      <c r="A203" s="24"/>
       <c r="B203" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="C203" s="23"/>
+        <v>417</v>
+      </c>
+      <c r="C203" s="25"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="16" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="16" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="24"/>
+      <c r="B208" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C208" s="25"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C209" s="25" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="24"/>
+      <c r="B210" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C210" s="25"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C211" s="15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="24"/>
+      <c r="B212" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C213" s="25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="24"/>
+      <c r="B214" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C214" s="25"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C215" s="25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="24"/>
+      <c r="B216" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C216" s="25"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C217" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="24"/>
+      <c r="B218" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="B206" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C206" s="15" t="s">
+      <c r="C218" s="25"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="24" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="22" t="s">
+      <c r="B219" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="C219" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="24"/>
+      <c r="B220" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="C207" s="23" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="22"/>
-      <c r="B208" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C208" s="23"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="B209" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="22"/>
-      <c r="B210" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="C210" s="23"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="B211" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="22"/>
-      <c r="B212" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="B213" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="C213" s="23" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="22"/>
-      <c r="B214" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="C214" s="23"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="B215" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="C215" s="23" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="22"/>
-      <c r="B216" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="C216" s="23"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="B217" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="C217" s="23" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="22"/>
-      <c r="B218" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="C218" s="23"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="B219" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="C219" s="23" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="22"/>
-      <c r="B220" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C220" s="23"/>
+      <c r="C220" s="25"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C221" s="15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B222" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C222" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="24"/>
+      <c r="B223" s="25"/>
+      <c r="C223" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="B224" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="24"/>
+      <c r="B225" s="25"/>
+      <c r="C225" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="24"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="B227" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="24"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="24"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="24"/>
+      <c r="B231" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="24"/>
+      <c r="C232" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="24"/>
+      <c r="C233" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="24"/>
+      <c r="C234" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="C235" s="25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="24"/>
+      <c r="B236" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C236" s="25"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="B237" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="C237" s="25" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="24"/>
+      <c r="B238" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="C221" s="15" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="22" t="s">
+      <c r="C238" s="25"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="B222" s="23" t="s">
+      <c r="B239" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="C222" s="15" t="s">
+      <c r="C239" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="24"/>
+      <c r="B240" s="15" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="22"/>
-      <c r="B223" s="23"/>
-      <c r="C223" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="22" t="s">
+      <c r="C240" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="B224" s="23" t="s">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="24"/>
+      <c r="C241" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="C224" s="15" t="s">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="24" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="22"/>
-      <c r="B225" s="23"/>
-      <c r="C225" s="15" t="s">
+      <c r="B242" s="15" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="22"/>
-      <c r="B226" s="23"/>
-      <c r="C226" s="15" t="s">
+      <c r="C242" s="15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="24"/>
+      <c r="B243" s="15" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="22" t="s">
+      <c r="C243" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="24"/>
+      <c r="B244" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="B227" s="23" t="s">
+      <c r="C244" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="24"/>
+      <c r="B245" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="C227" s="15" t="s">
+      <c r="C245" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="24"/>
+      <c r="B246" s="15" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="22"/>
-      <c r="B228" s="23"/>
-      <c r="C228" s="15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="22"/>
-      <c r="B229" s="23"/>
-      <c r="C229" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="22" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="24"/>
+      <c r="B247" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="B230" s="15" t="s">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="24"/>
+      <c r="B248" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C230" s="15" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="22"/>
-      <c r="B231" s="15" t="s">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="24"/>
+      <c r="B249" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="C231" s="15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="22"/>
-      <c r="C232" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="22"/>
-      <c r="C233" s="15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="22"/>
-      <c r="C234" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="B235" s="15" t="s">
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="C235" s="23" t="s">
+      <c r="B250" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C250" s="25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="24"/>
+      <c r="B251" s="15" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="22"/>
-      <c r="B236" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C236" s="23"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="22" t="s">
+      <c r="C251" s="25"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="24"/>
+      <c r="B252" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="B237" s="15" t="s">
+      <c r="C252" s="25"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="24"/>
+      <c r="B253" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="C237" s="23" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="22"/>
-      <c r="B238" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="C238" s="23"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="B239" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="22"/>
-      <c r="B240" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="C240" s="15" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="22"/>
-      <c r="C241" s="15" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="B242" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="C242" s="15" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="22"/>
-      <c r="B243" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="C243" s="15" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="22"/>
-      <c r="B244" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="C244" s="15" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="22"/>
-      <c r="B245" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="C245" s="15" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="22"/>
-      <c r="B246" s="15" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="22"/>
-      <c r="B247" s="15" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="22"/>
-      <c r="B248" s="15" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="22"/>
-      <c r="B249" s="15" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="B250" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="C250" s="23" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="22"/>
-      <c r="B251" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="C251" s="23"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="22"/>
-      <c r="B252" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="C252" s="23"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="22"/>
-      <c r="B253" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="C253" s="23"/>
+      <c r="C253" s="25"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="16" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="B255" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C255" s="15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B256" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C256" s="25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="24"/>
+      <c r="B257" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="C257" s="25"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="24"/>
+      <c r="B259" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="24"/>
+      <c r="C260" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="B261" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="24"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="24"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="B264" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="24"/>
+      <c r="B265" s="25"/>
+      <c r="C265" s="15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="24"/>
+      <c r="B266" s="25"/>
+      <c r="C266" s="15" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="B267" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="C267" s="25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="24"/>
+      <c r="B268" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="C268" s="25"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="C269" s="25" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="24"/>
+      <c r="B270" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="B255" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="C255" s="15" t="s">
+      <c r="C270" s="25"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="24" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="22" t="s">
+      <c r="B271" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="B256" s="15" t="s">
+      <c r="C271" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="24"/>
+      <c r="B272" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="C256" s="23" t="s">
+      <c r="C272" s="15" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="22"/>
-      <c r="B257" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="C257" s="23"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="22" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="24"/>
+      <c r="C273" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="B258" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C258" s="15" t="s">
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="24"/>
+      <c r="C274" s="15" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="22"/>
-      <c r="B259" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="22"/>
-      <c r="C260" s="15" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="24" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="22" t="s">
+      <c r="B275" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="B261" s="23" t="s">
+      <c r="C275" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="C261" s="15" t="s">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="24"/>
+      <c r="B276" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C276" s="25"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="24" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="22"/>
-      <c r="B262" s="23"/>
-      <c r="C262" s="15" t="s">
+      <c r="B277" s="15" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="22"/>
-      <c r="B263" s="23"/>
-      <c r="C263" s="15" t="s">
+      <c r="C277" s="25" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="22" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="24"/>
+      <c r="B278" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C278" s="25"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="B264" s="23" t="s">
+      <c r="B279" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="C279" s="25" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="24"/>
+      <c r="B280" s="15" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="22"/>
-      <c r="B265" s="23"/>
-      <c r="C265" s="15" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="22"/>
-      <c r="B266" s="23"/>
-      <c r="C266" s="15" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="B267" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="C267" s="23" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="22"/>
-      <c r="B268" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="C268" s="23"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="B269" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="C269" s="23" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="22"/>
-      <c r="B270" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="C270" s="23"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="B271" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="22"/>
-      <c r="B272" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="C272" s="15" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="22"/>
-      <c r="C273" s="15" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="22"/>
-      <c r="C274" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="B275" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="C275" s="23" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="22"/>
-      <c r="B276" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C276" s="23"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="B277" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="C277" s="23" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="22"/>
-      <c r="B278" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C278" s="23"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="B279" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="C279" s="23" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="22"/>
-      <c r="B280" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="C280" s="23"/>
+      <c r="C280" s="25"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="16" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="16" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="16" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="22" t="s">
-        <v>594</v>
+      <c r="A284" s="24" t="s">
+        <v>568</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="C284" s="23" t="s">
-        <v>596</v>
+        <v>569</v>
+      </c>
+      <c r="C284" s="25" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="22"/>
+      <c r="A285" s="24"/>
       <c r="B285" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="C285" s="23"/>
+        <v>447</v>
+      </c>
+      <c r="C285" s="25"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="16" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="22" t="s">
-        <v>206</v>
+      <c r="A287" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="22"/>
+      <c r="A288" s="24"/>
       <c r="B288" s="15" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="22" t="s">
-        <v>206</v>
+      <c r="A289" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="22"/>
+      <c r="A290" s="24"/>
       <c r="B290" s="15" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="16" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="16" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="16" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="16" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="16" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="16" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="16" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="16" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="16" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="16" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="16" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="16" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="16" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="16" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="16" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="16" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="22" t="s">
-        <v>206</v>
+      <c r="A308" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="22"/>
+      <c r="A309" s="24"/>
       <c r="B309" s="15" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="22"/>
+      <c r="A310" s="24"/>
       <c r="B310" s="15" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="22"/>
+      <c r="A311" s="24"/>
       <c r="B311" s="15" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="22"/>
+      <c r="A312" s="24"/>
       <c r="B312" s="15" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="16" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="16" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="16" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="16" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="16" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="16" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="16" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="16" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="16" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="16" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="16" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="16" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="16" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="B325" s="15" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="16" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="16" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="B327" s="15" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="16" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="16" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="16" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="16" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="16" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="16" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="16" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="16" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="16" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="16" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="16" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="16" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="16" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="16" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="16" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="16" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="16" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="16" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="16" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="16" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="15" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -9651,7 +9773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652E5710-150B-C14C-9032-4451AF876B8C}">
   <dimension ref="A1:A121"/>
   <sheetViews>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA3462-ED3C-D548-B89F-3205C185A08F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826B33EC-0E25-F147-B7D5-8F90F0D23ACB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39920" yWindow="1740" windowWidth="30520" windowHeight="19340" activeTab="1" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="47380" yWindow="-6340" windowWidth="37460" windowHeight="20580" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Queries" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="764">
   <si>
     <t>valueChain</t>
   </si>
@@ -765,9 +765,6 @@
     <t xml:space="preserve">5.7.2 Current state of food security and nutrition (FSN) including over &amp; undernutrition </t>
   </si>
   <si>
-    <t>impactsGeneral</t>
-  </si>
-  <si>
     <t>pests</t>
   </si>
   <si>
@@ -5216,15 +5213,9 @@
     <t>food AND (nutrition* OR {nutrition* status} OR {nutrition* outcome*} OR {nutrition* health} OR anthropometry OR diet)</t>
   </si>
   <si>
-    <t>flood OR drought OR {sea level rise} OR {extreme event} OR {heat wave}</t>
-  </si>
-  <si>
     <t>{crop insurance}</t>
   </si>
   <si>
-    <t>(adapt*) AND ({*forest management} OR agroforestry OR agriforestry)</t>
-  </si>
-  <si>
     <t>(global OR international) AND (wood OR forestry OR {forest products} trade)</t>
   </si>
   <si>
@@ -5301,6 +5292,27 @@
   </si>
   <si>
     <t>The searchTerms worksheet has rows that are used to search for words or phrases after the reference information is downloaded from SCOPUS. Add a row in searchTerms to add a new column in the output spreadsheet.</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>conflict AND (fisheries OR biofuels OR {livestock crop})</t>
+  </si>
+  <si>
+    <t>impactsNutrition</t>
+  </si>
+  <si>
+    <t>foodSecurity2</t>
+  </si>
+  <si>
+    <t>impacts AND ({food security} OR nutrition)</t>
+  </si>
+  <si>
+    <t>{food secur*} OR {food insecur*} OR {food suppl*} OR {food afford*} OR {food sufficien*} OR {food insufficien*} OR {food availab*} OR {food access*} OR {food utiliz*} OR {food stabil*} OR *nutritio* OR anthropometry OR micronutrient</t>
+  </si>
+  <si>
+    <t>adapt* AND ({*forest management} OR agroforestry OR agriforestry OR afforestation)</t>
   </si>
 </sst>
 </file>
@@ -5489,7 +5501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5526,6 +5538,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -5843,14 +5859,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="24"/>
     <col min="2" max="2" width="30.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="20" style="6" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="6" customWidth="1"/>
@@ -5858,7 +5875,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -5875,7 +5892,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -5885,11 +5902,11 @@
         <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="24">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -5897,61 +5914,61 @@
         <v>97</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f t="shared" ref="A4:A56" si="0">A3+1</f>
+      <c r="A4" s="24">
+        <f t="shared" ref="A4" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="0"/>
+      <c r="A5" s="24">
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f>A36+1</f>
-        <v>7</v>
+      <c r="A6" s="24">
+        <f t="shared" ref="A6:A58" si="1">A5+1</f>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="A7" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>97</v>
@@ -5960,13 +5977,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="A8" s="24">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>97</v>
@@ -5975,13 +5992,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="A9" s="24">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>97</v>
@@ -5990,13 +6007,13 @@
         <v>75</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="A10" s="24">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>97</v>
@@ -6005,13 +6022,13 @@
         <v>76</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>12</v>
+      <c r="A11" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>97</v>
@@ -6020,13 +6037,13 @@
         <v>77</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="A12" s="24">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>97</v>
@@ -6035,13 +6052,13 @@
         <v>79</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>14</v>
+      <c r="A13" s="24">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>97</v>
@@ -6054,9 +6071,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="A14" s="24">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>97</v>
@@ -6069,9 +6086,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="A15" s="24">
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>97</v>
@@ -6084,24 +6101,24 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="A16" s="24">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="A17" s="24">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>97</v>
@@ -6114,9 +6131,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="A18" s="24">
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>97</v>
@@ -6129,114 +6146,114 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="A19" s="24">
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="A20" s="24">
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="A21" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>681</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="A22" s="24">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="A23" s="24">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="A24" s="24">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>26</v>
+      <c r="A25" s="24">
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>685</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="A26" s="24">
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>97</v>
@@ -6245,43 +6262,43 @@
         <v>85</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="A27" s="24">
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="A28" s="24">
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="A29" s="24">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>97</v>
@@ -6290,13 +6307,13 @@
         <v>103</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>31</v>
+      <c r="A30" s="24">
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>97</v>
@@ -6305,43 +6322,43 @@
         <v>104</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f>A37+1</f>
-        <v>36</v>
+      <c r="A31" s="24">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f>A30+1</f>
-        <v>32</v>
+      <c r="A32" s="24">
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f>A32+1</f>
-        <v>33</v>
+      <c r="A33" s="24">
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>95</v>
@@ -6350,13 +6367,13 @@
         <v>78</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f>A5+1</f>
-        <v>5</v>
+      <c r="A34" s="24">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>97</v>
@@ -6365,12 +6382,12 @@
         <v>99</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f>A33+1</f>
+      <c r="A35" s="24">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -6380,13 +6397,13 @@
         <v>100</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f>A34+1</f>
-        <v>6</v>
+      <c r="A36" s="24">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>97</v>
@@ -6395,13 +6412,13 @@
         <v>101</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f>A35+1</f>
-        <v>35</v>
+      <c r="A37" s="24">
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>96</v>
@@ -6410,12 +6427,12 @@
         <v>92</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f>A31+1</f>
+      <c r="A38" s="24">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -6425,12 +6442,12 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <f t="shared" si="0"/>
+      <c r="A39" s="24">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -6440,12 +6457,12 @@
         <v>1</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f t="shared" si="0"/>
+      <c r="A40" s="24">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -6455,12 +6472,12 @@
         <v>2</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="0"/>
+      <c r="A41" s="24">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -6470,12 +6487,12 @@
         <v>3</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <f t="shared" si="0"/>
+      <c r="A42" s="24">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -6485,12 +6502,12 @@
         <v>6</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="0"/>
+      <c r="A43" s="24">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -6500,12 +6517,12 @@
         <v>10</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f t="shared" si="0"/>
+      <c r="A44" s="24">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -6515,12 +6532,12 @@
         <v>70</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" si="0"/>
+      <c r="A45" s="24">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -6530,12 +6547,12 @@
         <v>73</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f t="shared" si="0"/>
+      <c r="A46" s="24">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -6545,12 +6562,12 @@
         <v>74</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="0"/>
+      <c r="A47" s="24">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -6560,117 +6577,117 @@
         <v>90</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="0"/>
+      <c r="A48" s="24">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="0"/>
+      <c r="A49" s="24">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f t="shared" si="0"/>
+      <c r="A50" s="24">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>747</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <f t="shared" si="0"/>
+      <c r="A51" s="24">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>146</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f t="shared" si="0"/>
+      <c r="A52" s="24">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>748</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="0"/>
+      <c r="A53" s="24">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>149</v>
+        <v>7</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="0"/>
+      <c r="A54" s="24">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>120</v>
+      <c r="B54" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>7</v>
+        <v>710</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="0"/>
+      <c r="A55" s="24">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -6679,32 +6696,62 @@
       <c r="D55" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>733</v>
+      <c r="E55" s="22" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="0"/>
+      <c r="A56" s="24">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>712</v>
+      <c r="B56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>757</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E72" s="11"/>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="24">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="24">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{EB323E7F-C5BD-C24A-9909-3B5183F7D633}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E54">
-      <sortCondition ref="B1:B54"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
+      <sortCondition ref="B1:B53"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6715,7 +6762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4E69CB-1358-C447-B5CD-4220B2095136}">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6723,25 +6770,25 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -6764,194 +6811,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
         <v>130</v>
-      </c>
-      <c r="B12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
         <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
         <v>136</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>693</v>
+      </c>
+      <c r="B18" t="s">
         <v>694</v>
-      </c>
-      <c r="B18" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>700</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>702</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>704</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>709</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -6974,18 +7021,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -7009,12 +7056,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7022,12 +7069,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -7035,54 +7082,54 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -7090,113 +7137,113 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="16" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="16" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="15" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="15" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="15" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="B24" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B24" s="15" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="15" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="15" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>180</v>
+      <c r="A31" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="15" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="15" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -7204,32 +7251,32 @@
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -7237,217 +7284,217 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="25"/>
+        <v>194</v>
+      </c>
+      <c r="B43" s="27"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B44" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="B44" s="27"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
-        <v>180</v>
+      <c r="A50" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="26"/>
+      <c r="B51" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="15" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="26"/>
+      <c r="B52" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="15" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="26"/>
+      <c r="B53" s="15" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="15" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="26"/>
+      <c r="B54" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="15" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="26"/>
+      <c r="B55" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="15" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="26"/>
+      <c r="B56" s="15" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="15" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" s="15" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="26"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="15" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="24"/>
-      <c r="B61" s="15" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
-        <v>180</v>
+      <c r="A70" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="B70" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="26"/>
+      <c r="B71" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="26"/>
+      <c r="B72" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="24"/>
-      <c r="B71" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
-      <c r="B72" s="15" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="26"/>
+      <c r="B73" s="15" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="24"/>
-      <c r="B73" s="15" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -7455,82 +7502,82 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -7538,20 +7585,20 @@
     </row>
     <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -7559,68 +7606,68 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>241</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B96" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B96" s="15" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="26" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="24" t="s">
+      <c r="B97" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B97" s="15" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="26"/>
+      <c r="B98" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="26"/>
+      <c r="B99" s="15" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="24"/>
-      <c r="B98" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="24"/>
-      <c r="B99" s="15" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="26"/>
+      <c r="B100" s="15" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="24"/>
-      <c r="B100" s="15" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -7628,10 +7675,10 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -7639,7 +7686,7 @@
     </row>
     <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -7647,58 +7694,58 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="24" t="s">
-        <v>173</v>
+      <c r="A112" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="B112" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="26"/>
+      <c r="B113" s="15" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="24"/>
-      <c r="B113" s="15" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="24" t="s">
-        <v>180</v>
+      <c r="A115" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="26"/>
+      <c r="B116" s="15" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="24"/>
-      <c r="B116" s="15" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="26"/>
+      <c r="B117" s="15" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="24"/>
-      <c r="B117" s="15" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="26"/>
+      <c r="B118" s="15" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="24"/>
-      <c r="B118" s="15" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -7706,7 +7753,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -7714,1946 +7761,1946 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B122" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="C122" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C122" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="24" t="s">
+      <c r="B123" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="C123" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="26"/>
+      <c r="B124" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="C124" s="27"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="26" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="24"/>
-      <c r="B124" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C124" s="25"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="24" t="s">
+      <c r="B125" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="C125" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="26"/>
+      <c r="B126" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="C126" s="27"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="26" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="24"/>
-      <c r="B126" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C126" s="25"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="24" t="s">
+      <c r="B127" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="C127" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="26"/>
+      <c r="B128" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="C128" s="27"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="26" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="24"/>
-      <c r="B128" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C128" s="25"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="24" t="s">
+      <c r="B129" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="C129" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="26"/>
+      <c r="B130" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C130" s="15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="24"/>
-      <c r="B130" s="15" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="26"/>
+      <c r="B131" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C131" s="15" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="24"/>
-      <c r="B131" s="15" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="26"/>
+      <c r="B132" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C132" s="15" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="24"/>
-      <c r="B132" s="15" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="26"/>
+      <c r="B133" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C133" s="15" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="24"/>
-      <c r="B133" s="15" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="26"/>
+      <c r="B134" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C134" s="15" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="24"/>
-      <c r="B134" s="15" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="26"/>
+      <c r="B135" s="15"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="26"/>
+      <c r="B136" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C134" s="15" t="s">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="26" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="24"/>
-      <c r="B135" s="15"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="24"/>
-      <c r="B136" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="24" t="s">
+      <c r="B137" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="C137" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="26"/>
+      <c r="B138" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C138" s="15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="24"/>
-      <c r="B138" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C138" s="15" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="26" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="24" t="s">
+      <c r="B139" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="C139" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="26"/>
+      <c r="B140" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C140" s="15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="24"/>
-      <c r="B140" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C140" s="15" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="26" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="24" t="s">
+      <c r="B141" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="C141" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="26"/>
+      <c r="B142" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C142" s="15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="24"/>
-      <c r="B142" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C142" s="15" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="26" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="24" t="s">
+      <c r="B143" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="C143" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="26"/>
+      <c r="B144" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C144" s="15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="24"/>
-      <c r="B144" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C144" s="15" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="26"/>
+      <c r="C145" s="15" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="24"/>
-      <c r="C145" s="15" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="26" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="24" t="s">
+      <c r="B146" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="C146" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="26"/>
+      <c r="B147" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C146" s="25" t="s">
+      <c r="C147" s="27"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="26" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="24"/>
-      <c r="B147" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C147" s="25"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="24" t="s">
+      <c r="B148" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="C148" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="26"/>
+      <c r="B149" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C149" s="15" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="24"/>
-      <c r="B149" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="24"/>
+      <c r="A150" s="26"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="26"/>
+      <c r="B151" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="24"/>
-      <c r="B151" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>328</v>
-      </c>
-    </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="24"/>
+      <c r="A152" s="26"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="26"/>
+      <c r="B153" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C153" s="15" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="24"/>
-      <c r="B153" s="15" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="26"/>
+      <c r="B154" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C154" s="15" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="24"/>
-      <c r="B154" s="15" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="26"/>
+      <c r="B155" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C155" s="15" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="24"/>
-      <c r="B155" s="15" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="26"/>
+      <c r="B156" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C156" s="15" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="24"/>
-      <c r="B156" s="15" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="26"/>
+      <c r="B157" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="C156" s="15" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="26"/>
+      <c r="B158" s="15"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="26"/>
+      <c r="B159" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="26"/>
+      <c r="B160" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="26" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="24"/>
-      <c r="B157" s="15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="24"/>
-      <c r="B158" s="15"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="24"/>
-      <c r="B159" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="24"/>
-      <c r="B160" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="24" t="s">
+      <c r="B161" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="C161" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="26"/>
+      <c r="B162" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C161" s="15" t="s">
+      <c r="C162" s="15" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="24"/>
-      <c r="B162" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="C162" s="15" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="26"/>
+      <c r="B163" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="24"/>
-      <c r="B163" s="15" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="26"/>
+      <c r="B164" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="C163" s="15" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="26" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="24"/>
-      <c r="B164" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="24" t="s">
+      <c r="B165" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="B165" s="25" t="s">
+      <c r="C165" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="C165" s="15" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="26"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="15" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="24"/>
-      <c r="B166" s="25"/>
-      <c r="C166" s="15" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="26"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="15" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="24"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="15" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="26"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="24"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="15" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="26"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="15" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="24"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="15" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="C170" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C170" s="15" t="s">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="26" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="24" t="s">
+      <c r="B171" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="C171" s="27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="26"/>
+      <c r="B172" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C171" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="24"/>
-      <c r="B172" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C172" s="25"/>
+      <c r="C172" s="27"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B173" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B173" s="15" t="s">
+      <c r="C173" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="C173" s="15" t="s">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="26" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="24" t="s">
+      <c r="B174" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="C174" s="27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="26"/>
+      <c r="B175" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="C174" s="25" t="s">
+      <c r="C175" s="27"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="26" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="24"/>
-      <c r="B175" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C175" s="25"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="24" t="s">
+      <c r="B176" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="C176" s="27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="26"/>
+      <c r="B177" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="C176" s="25" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="24"/>
-      <c r="B177" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="C177" s="25"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B178" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="C178" s="15" t="s">
         <v>366</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B179" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B179" s="15" t="s">
+      <c r="C179" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="C179" s="15" t="s">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="26" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="24" t="s">
+      <c r="B180" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="C180" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="26"/>
+      <c r="B181" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="C181" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="24"/>
-      <c r="B181" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="C181" s="15" t="s">
+    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" s="26" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A182" s="24" t="s">
+      <c r="B182" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="B182" s="25" t="s">
+      <c r="C182" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C182" s="14" t="s">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="26"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="24"/>
-      <c r="B183" s="25"/>
-      <c r="C183" s="15" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="26" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="24" t="s">
+      <c r="B184" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="B184" s="25" t="s">
+      <c r="C184" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="C184" s="15" t="s">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="26"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="26" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="24"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="24" t="s">
+      <c r="B186" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B186" s="25" t="s">
+      <c r="C186" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="C186" s="15" t="s">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="26"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="24"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="15" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="26"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="24"/>
-      <c r="B188" s="25"/>
-      <c r="C188" s="15" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="26" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="24" t="s">
+      <c r="B189" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B189" s="15" t="s">
+      <c r="C189" s="27" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="26"/>
+      <c r="B190" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="C189" s="25" t="s">
+      <c r="C190" s="27"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="26" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="24"/>
-      <c r="B190" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="C190" s="25"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="24" t="s">
+      <c r="B191" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B191" s="15" t="s">
+      <c r="C191" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="26"/>
+      <c r="B192" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="C191" s="25" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="24"/>
-      <c r="B192" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C192" s="25"/>
+      <c r="C192" s="27"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B193" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B193" s="15" t="s">
+      <c r="C193" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="C193" s="15" t="s">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="26" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="24" t="s">
+      <c r="B194" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B194" s="15" t="s">
+      <c r="C194" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="26"/>
+      <c r="B195" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="C194" s="25" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="24"/>
-      <c r="B195" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C195" s="25"/>
+      <c r="C195" s="27"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B196" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="B196" s="15" t="s">
+      <c r="C196" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C196" s="15" t="s">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="26" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="24" t="s">
+      <c r="B197" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="C197" s="27" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="26"/>
+      <c r="B198" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="C197" s="25" t="s">
+      <c r="C198" s="27"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="26" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="24"/>
-      <c r="B198" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C198" s="25"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="24" t="s">
+      <c r="B199" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="C199" s="27" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="26"/>
+      <c r="B200" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="C199" s="25" t="s">
+      <c r="C200" s="27"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="26"/>
+      <c r="B201" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C201" s="27"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="26" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="24"/>
-      <c r="B200" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="C200" s="25"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="24"/>
-      <c r="B201" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="C201" s="25"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="24" t="s">
+      <c r="B202" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="B202" s="15" t="s">
+      <c r="C202" s="27" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="26"/>
+      <c r="B203" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="C202" s="25" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="24"/>
-      <c r="B203" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="C203" s="25"/>
+      <c r="C203" s="27"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B204" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="B204" s="15" t="s">
+      <c r="C204" s="15" t="s">
         <v>420</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B205" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="B205" s="15" t="s">
+      <c r="C205" s="15" t="s">
         <v>423</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="B206" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="B206" s="15" t="s">
+      <c r="C206" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C206" s="15" t="s">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="26" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="24" t="s">
+      <c r="B207" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="C207" s="27" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="26"/>
+      <c r="B208" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="C207" s="25" t="s">
+      <c r="C208" s="27"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="26" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="24"/>
-      <c r="B208" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="C208" s="25"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="24" t="s">
+      <c r="B209" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="B209" s="15" t="s">
+      <c r="C209" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="26"/>
+      <c r="B210" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C209" s="25" t="s">
+      <c r="C210" s="27"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="26" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="24"/>
-      <c r="B210" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="C210" s="25"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="24" t="s">
+      <c r="B211" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="B211" s="15" t="s">
+      <c r="C211" s="15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="26"/>
+      <c r="B212" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="C211" s="15" t="s">
+      <c r="C212" s="17" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="24"/>
-      <c r="B212" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="C212" s="17" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="26" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="24" t="s">
+      <c r="B213" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="B213" s="15" t="s">
+      <c r="C213" s="27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="26"/>
+      <c r="B214" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="C213" s="25" t="s">
+      <c r="C214" s="27"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="26" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="24"/>
-      <c r="B214" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="C214" s="25"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="24" t="s">
+      <c r="B215" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B215" s="15" t="s">
+      <c r="C215" s="27" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="26"/>
+      <c r="B216" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C215" s="25" t="s">
+      <c r="C216" s="27"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="26" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="24"/>
-      <c r="B216" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="C216" s="25"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="24" t="s">
+      <c r="B217" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="C217" s="27" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="26"/>
+      <c r="B218" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="C217" s="25" t="s">
+      <c r="C218" s="27"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="26" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="24"/>
-      <c r="B218" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="C218" s="25"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="24" t="s">
+      <c r="B219" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="B219" s="15" t="s">
+      <c r="C219" s="27" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="26"/>
+      <c r="B220" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="C219" s="25" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="24"/>
-      <c r="B220" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="C220" s="25"/>
+      <c r="C220" s="27"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="B221" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="C221" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="C221" s="15" t="s">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="26" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="24" t="s">
+      <c r="B222" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="B222" s="25" t="s">
+      <c r="C222" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C222" s="15" t="s">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="26"/>
+      <c r="B223" s="27"/>
+      <c r="C223" s="15" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="24"/>
-      <c r="B223" s="25"/>
-      <c r="C223" s="15" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="26" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="24" t="s">
+      <c r="B224" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="B224" s="25" t="s">
+      <c r="C224" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C224" s="15" t="s">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="26"/>
+      <c r="B225" s="27"/>
+      <c r="C225" s="15" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="24"/>
-      <c r="B225" s="25"/>
-      <c r="C225" s="15" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="26"/>
+      <c r="B226" s="27"/>
+      <c r="C226" s="15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="24"/>
-      <c r="B226" s="25"/>
-      <c r="C226" s="15" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="26" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="24" t="s">
+      <c r="B227" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="B227" s="25" t="s">
+      <c r="C227" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="C227" s="15" t="s">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="26"/>
+      <c r="B228" s="27"/>
+      <c r="C228" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="26"/>
+      <c r="B229" s="27"/>
+      <c r="C229" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="26" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="24"/>
-      <c r="B228" s="25"/>
-      <c r="C228" s="15" t="s">
+      <c r="B230" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="26"/>
+      <c r="B231" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="26"/>
+      <c r="C232" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="26"/>
+      <c r="C233" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="26"/>
+      <c r="C234" s="15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="24"/>
-      <c r="B229" s="25"/>
-      <c r="C229" s="15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="B230" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="C230" s="15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="24"/>
-      <c r="B231" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C231" s="15" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="24"/>
-      <c r="C232" s="15" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="26" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="24"/>
-      <c r="C233" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="24"/>
-      <c r="C234" s="15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="24" t="s">
+      <c r="B235" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="B235" s="15" t="s">
+      <c r="C235" s="27" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="26"/>
+      <c r="B236" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="C235" s="25" t="s">
+      <c r="C236" s="27"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="26" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="24"/>
-      <c r="B236" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="C236" s="25"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="24" t="s">
+      <c r="B237" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="B237" s="15" t="s">
+      <c r="C237" s="27" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="26"/>
+      <c r="B238" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="C237" s="25" t="s">
+      <c r="C238" s="27"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="26" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="24"/>
-      <c r="B238" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="C238" s="25"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="24" t="s">
+      <c r="B239" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="B239" s="15" t="s">
+      <c r="C239" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="26"/>
+      <c r="B240" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="C239" s="15" t="s">
+      <c r="C240" s="15" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="24"/>
-      <c r="B240" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="C240" s="15" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="26"/>
+      <c r="C241" s="15" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="24"/>
-      <c r="C241" s="15" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="26" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="24" t="s">
+      <c r="B242" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="B242" s="15" t="s">
+      <c r="C242" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="26"/>
+      <c r="B243" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="C242" s="15" t="s">
+      <c r="C243" s="15" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="24"/>
-      <c r="B243" s="15" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="26"/>
+      <c r="B244" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="C243" s="15" t="s">
+      <c r="C244" s="15" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="24"/>
-      <c r="B244" s="15" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="26"/>
+      <c r="B245" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="C244" s="15" t="s">
+      <c r="C245" s="15" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="24"/>
-      <c r="B245" s="15" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="26"/>
+      <c r="B246" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="C245" s="15" t="s">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="26"/>
+      <c r="B247" s="15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="26"/>
+      <c r="B248" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="26"/>
+      <c r="B249" s="15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="26" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="24"/>
-      <c r="B246" s="15" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="24"/>
-      <c r="B247" s="15" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="24"/>
-      <c r="B248" s="15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="24"/>
-      <c r="B249" s="15" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="24" t="s">
+      <c r="B250" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="B250" s="15" t="s">
+      <c r="C250" s="27" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="26"/>
+      <c r="B251" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="C250" s="25" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="24"/>
-      <c r="B251" s="15" t="s">
+      <c r="C251" s="27"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="26"/>
+      <c r="B252" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="C251" s="25"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="24"/>
-      <c r="B252" s="15" t="s">
+      <c r="C252" s="27"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="26"/>
+      <c r="B253" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="C252" s="25"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="24"/>
-      <c r="B253" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C253" s="25"/>
+      <c r="C253" s="27"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="B254" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="B254" s="15" t="s">
+      <c r="C254" s="15" t="s">
         <v>512</v>
-      </c>
-      <c r="C254" s="15" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="B255" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="B255" s="15" t="s">
+      <c r="C255" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="C255" s="15" t="s">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="26" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="24" t="s">
+      <c r="B256" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="B256" s="15" t="s">
+      <c r="C256" s="27" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="26"/>
+      <c r="B257" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="C256" s="25" t="s">
+      <c r="C257" s="27"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="26" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="24"/>
-      <c r="B257" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="C257" s="25"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="24" t="s">
+      <c r="B258" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C258" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="B258" s="15" t="s">
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="26"/>
+      <c r="B259" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="C259" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="26"/>
+      <c r="C260" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="24"/>
-      <c r="B259" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="24"/>
-      <c r="C260" s="15" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="26" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="24" t="s">
+      <c r="B261" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="B261" s="25" t="s">
+      <c r="C261" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="C261" s="15" t="s">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="26"/>
+      <c r="B262" s="27"/>
+      <c r="C262" s="15" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="24"/>
-      <c r="B262" s="25"/>
-      <c r="C262" s="15" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="26"/>
+      <c r="B263" s="27"/>
+      <c r="C263" s="15" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="24"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="15" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="26" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="24" t="s">
+      <c r="B264" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="B264" s="25" t="s">
+      <c r="C264" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="C264" s="15" t="s">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="26"/>
+      <c r="B265" s="27"/>
+      <c r="C265" s="15" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="24"/>
-      <c r="B265" s="25"/>
-      <c r="C265" s="15" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="26"/>
+      <c r="B266" s="27"/>
+      <c r="C266" s="15" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="24"/>
-      <c r="B266" s="25"/>
-      <c r="C266" s="15" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="26" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="24" t="s">
+      <c r="B267" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="B267" s="15" t="s">
+      <c r="C267" s="27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="26"/>
+      <c r="B268" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="C267" s="25" t="s">
+      <c r="C268" s="27"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="26" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="24"/>
-      <c r="B268" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="C268" s="25"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="24" t="s">
+      <c r="B269" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="B269" s="15" t="s">
+      <c r="C269" s="27" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="26"/>
+      <c r="B270" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="C269" s="25" t="s">
+      <c r="C270" s="27"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="26" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="24"/>
-      <c r="B270" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="C270" s="25"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="24" t="s">
+      <c r="B271" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="B271" s="15" t="s">
+      <c r="C271" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="26"/>
+      <c r="B272" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="C272" s="15" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="24"/>
-      <c r="B272" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="C272" s="15" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="26"/>
+      <c r="C273" s="15" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="24"/>
-      <c r="C273" s="15" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="26"/>
+      <c r="C274" s="15" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="24"/>
-      <c r="C274" s="15" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="26" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="24" t="s">
+      <c r="B275" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="B275" s="15" t="s">
+      <c r="C275" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="C275" s="25" t="s">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="26"/>
+      <c r="B276" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C276" s="27"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="26" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="24"/>
-      <c r="B276" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="C276" s="25"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="24" t="s">
+      <c r="B277" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="C277" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="C277" s="25" t="s">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="26"/>
+      <c r="B278" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C278" s="27"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="26" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="24"/>
-      <c r="B278" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="C278" s="25"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="24" t="s">
+      <c r="B279" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="B279" s="15" t="s">
+      <c r="C279" s="27" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="26"/>
+      <c r="B280" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="C279" s="25" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="24"/>
-      <c r="B280" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="C280" s="25"/>
+      <c r="C280" s="27"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B281" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="B281" s="15" t="s">
+      <c r="C281" s="15" t="s">
         <v>560</v>
-      </c>
-      <c r="C281" s="15" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="B282" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="B282" s="15" t="s">
+      <c r="C282" s="15" t="s">
         <v>563</v>
-      </c>
-      <c r="C282" s="15" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="B283" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="C283" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="C283" s="15" t="s">
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="26" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="24" t="s">
+      <c r="B284" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="B284" s="15" t="s">
+      <c r="C284" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="C284" s="25" t="s">
-        <v>570</v>
-      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="24"/>
+      <c r="A285" s="26"/>
       <c r="B285" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="C285" s="25"/>
+        <v>446</v>
+      </c>
+      <c r="C285" s="27"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="B286" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="C286" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="C286" s="15" t="s">
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B287" s="15" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B287" s="15" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="26"/>
+      <c r="B288" s="15" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="24"/>
-      <c r="B288" s="15" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B289" s="15" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B289" s="15" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="26"/>
+      <c r="B290" s="15" t="s">
         <v>576</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="24"/>
-      <c r="B290" s="15" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="B293" s="15" t="s">
         <v>579</v>
-      </c>
-      <c r="B293" s="15" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B294" s="15" t="s">
         <v>581</v>
-      </c>
-      <c r="B294" s="15" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="B295" s="15" t="s">
         <v>583</v>
-      </c>
-      <c r="B295" s="15" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="B296" s="15" t="s">
         <v>585</v>
-      </c>
-      <c r="B296" s="15" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="B297" s="15" t="s">
         <v>587</v>
-      </c>
-      <c r="B297" s="15" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="B298" s="15" t="s">
         <v>589</v>
-      </c>
-      <c r="B298" s="15" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="B299" s="15" t="s">
         <v>591</v>
-      </c>
-      <c r="B299" s="15" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="B300" s="15" t="s">
         <v>593</v>
-      </c>
-      <c r="B300" s="15" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="B301" s="15" t="s">
         <v>595</v>
-      </c>
-      <c r="B301" s="15" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="B302" s="15" t="s">
         <v>597</v>
-      </c>
-      <c r="B302" s="15" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="B303" s="15" t="s">
         <v>599</v>
-      </c>
-      <c r="B303" s="15" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="B305" s="15" t="s">
         <v>602</v>
-      </c>
-      <c r="B305" s="15" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="B306" s="15" t="s">
         <v>604</v>
-      </c>
-      <c r="B306" s="15" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="B307" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="B307" s="15" t="s">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B308" s="15" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B308" s="15" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="26"/>
+      <c r="B309" s="15" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="24"/>
-      <c r="B309" s="15" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="26"/>
+      <c r="B310" s="15" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="24"/>
-      <c r="B310" s="15" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="26"/>
+      <c r="B311" s="15" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="24"/>
-      <c r="B311" s="15" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="26"/>
+      <c r="B312" s="15" t="s">
         <v>611</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="24"/>
-      <c r="B312" s="15" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B315" s="15" t="s">
         <v>615</v>
-      </c>
-      <c r="B315" s="15" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="B317" s="15" t="s">
         <v>618</v>
-      </c>
-      <c r="B317" s="15" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="B318" s="15" t="s">
         <v>620</v>
-      </c>
-      <c r="B318" s="15" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="B319" s="15" t="s">
         <v>622</v>
-      </c>
-      <c r="B319" s="15" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B320" s="15" t="s">
         <v>624</v>
-      </c>
-      <c r="B320" s="15" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="B321" s="15" t="s">
         <v>626</v>
-      </c>
-      <c r="B321" s="15" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="B322" s="15" t="s">
         <v>628</v>
-      </c>
-      <c r="B322" s="15" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B323" s="15" t="s">
         <v>630</v>
-      </c>
-      <c r="B323" s="15" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B324" s="15" t="s">
         <v>632</v>
-      </c>
-      <c r="B324" s="15" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="B325" s="15" t="s">
         <v>634</v>
-      </c>
-      <c r="B325" s="15" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="B327" s="15" t="s">
         <v>637</v>
-      </c>
-      <c r="B327" s="15" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="B328" s="15" t="s">
         <v>639</v>
-      </c>
-      <c r="B328" s="15" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="B329" s="15" t="s">
         <v>641</v>
-      </c>
-      <c r="B329" s="15" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="B330" s="15" t="s">
         <v>643</v>
-      </c>
-      <c r="B330" s="15" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="B331" s="15" t="s">
         <v>645</v>
-      </c>
-      <c r="B331" s="15" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="B332" s="15" t="s">
         <v>647</v>
-      </c>
-      <c r="B332" s="15" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="B333" s="15" t="s">
         <v>649</v>
-      </c>
-      <c r="B333" s="15" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="B334" s="15" t="s">
         <v>651</v>
-      </c>
-      <c r="B334" s="15" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="B335" s="15" t="s">
         <v>653</v>
-      </c>
-      <c r="B335" s="15" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="B336" s="15" t="s">
         <v>655</v>
-      </c>
-      <c r="B336" s="15" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="B337" s="15" t="s">
         <v>657</v>
-      </c>
-      <c r="B337" s="15" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="B338" s="15" t="s">
         <v>659</v>
-      </c>
-      <c r="B338" s="15" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="B339" s="15" t="s">
         <v>661</v>
-      </c>
-      <c r="B339" s="15" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="B340" s="15" t="s">
         <v>663</v>
-      </c>
-      <c r="B340" s="15" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="B341" s="15" t="s">
         <v>665</v>
-      </c>
-      <c r="B341" s="15" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="B342" s="15" t="s">
         <v>667</v>
-      </c>
-      <c r="B342" s="15" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="B343" s="15" t="s">
         <v>669</v>
-      </c>
-      <c r="B343" s="15" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="B344" s="15" t="s">
         <v>671</v>
-      </c>
-      <c r="B344" s="15" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="B345" s="15" t="s">
         <v>673</v>
-      </c>
-      <c r="B345" s="15" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="B346" s="15" t="s">
         <v>675</v>
-      </c>
-      <c r="B346" s="15" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="B347" s="15" t="s">
         <v>677</v>
-      </c>
-      <c r="B347" s="15" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826B33EC-0E25-F147-B7D5-8F90F0D23ACB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A9F484-6A0C-9D44-85FF-B674ADCC148E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47380" yWindow="-6340" windowWidth="37460" windowHeight="20580" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="-33600" yWindow="0" windowWidth="32240" windowHeight="18220" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Queries" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Queries!$A$1:$E$1</definedName>
+    <definedName name="_Toc14330918" localSheetId="0">Queries!$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="820">
   <si>
     <t>valueChain</t>
   </si>
@@ -54,9 +55,6 @@
   </si>
   <si>
     <t>FACEexperiments</t>
-  </si>
-  <si>
-    <t>FACEozone</t>
   </si>
   <si>
     <t>priceVar</t>
@@ -672,9 +670,6 @@
     <t>medicinalPlants</t>
   </si>
   <si>
-    <t>fibre</t>
-  </si>
-  <si>
     <t>biofuels</t>
   </si>
   <si>
@@ -687,21 +682,9 @@
     <t>wheat</t>
   </si>
   <si>
-    <t>sugarcane</t>
-  </si>
-  <si>
-    <t>sugarc*</t>
-  </si>
-  <si>
     <t>maize</t>
   </si>
   <si>
-    <t>soybean</t>
-  </si>
-  <si>
-    <t>ozonecrop</t>
-  </si>
-  <si>
     <t>rice</t>
   </si>
   <si>
@@ -729,15 +712,6 @@
     <t>sectionDescription</t>
   </si>
   <si>
-    <t>5.3.2 Aquatic systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.3 Aquaculture systems </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.1 Terrestrial Systems </t>
-  </si>
-  <si>
     <t xml:space="preserve">5.5 Climate Change and the Food System Value Chain: from Postharvest to Food </t>
   </si>
   <si>
@@ -750,24 +724,12 @@
     <t>geneticEngLivestock</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1 Methodologies for assessing impacts and risks </t>
-  </si>
-  <si>
     <t>impactsCrop</t>
   </si>
   <si>
     <t>impactsLivestock</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7.1 Food security and climate change </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7.2 Current state of food security and nutrition (FSN) including over &amp; undernutrition </t>
-  </si>
-  <si>
-    <t>pests</t>
-  </si>
-  <si>
     <t>crop AND (pest* OR insect* or fung* OR weed* )</t>
   </si>
   <si>
@@ -795,15 +757,6 @@
     <t>impactsFish</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8.2 Global / regional adaptation effectiveness </t>
-  </si>
-  <si>
-    <t>5.7.6 Transitioning to sustainable food systems in the face of climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8.6 Policy implementation </t>
-  </si>
-  <si>
     <t>searchStrings.RCP</t>
   </si>
   <si>
@@ -870,9 +823,6 @@
     <t>c("Conference Proceeding", "Letter",  "Correction", "Editorial Material")</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Latin America", "Central America", "Caribbean",  "Europe", "Northern Europe", "Western Europe", "Southern Europe", "Eastern Europe", "Western Asia", "Middle East","Asia", "South Asia", "East Asia", "Central Asia", "Australia", "New Zealand","Southeast Asia", "Africa", "East Africa", "West Africa", "Central Africa", "North Africa") </t>
-  </si>
-  <si>
     <t>searchStringName</t>
   </si>
   <si>
@@ -882,24 +832,9 @@
     <t>maladaptation</t>
   </si>
   <si>
-    <t>fiber OR fibre</t>
-  </si>
-  <si>
-    <t>livestock AND (rangeland OR feed OR forag*)</t>
-  </si>
-  <si>
     <t>food AND vulnerability</t>
   </si>
   <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>vegetable</t>
-  </si>
-  <si>
-    <t>legume</t>
-  </si>
-  <si>
     <t>c("broccoli", "cauliflower", "broccoli", "okra", "pumpkin", "chili*", "spinach", "pea", "tomato")</t>
   </si>
   <si>
@@ -5063,42 +4998,15 @@
     <t>smallGrains</t>
   </si>
   <si>
-    <t>buckwheat* OR fonio* OR millet* OR rye* OR sorghum* OR teff</t>
-  </si>
-  <si>
-    <t>spices</t>
-  </si>
-  <si>
-    <t>oilCrop</t>
-  </si>
-  <si>
-    <t>citrus</t>
-  </si>
-  <si>
-    <t>citrus* OR lemon* OR lime* OR oranges* OR grapefruit</t>
-  </si>
-  <si>
-    <t>nuts</t>
-  </si>
-  <si>
     <t>c("carrot*", "cassava", "potato*", "sweet potat*", "turnip*", "yam*", "taro*", "cocoyam*", "onion*", "garlic", "ginger", "leek")</t>
   </si>
   <si>
     <t>searchStrings.rootsNtubers</t>
   </si>
   <si>
-    <t>rootsNtubers</t>
-  </si>
-  <si>
-    <t>vegetabl* OR broccoli OR cauliflower OR broccoli OR okra OR pumpkin OR chili* OR spinach OR pea OR tomato</t>
-  </si>
-  <si>
     <t>c("ruminant",  "cattle", "beef", "goat", "sheep", "pig", "swine",   "pork", "chicken", "poultry")</t>
   </si>
   <si>
-    <t>groundnut* OR cashew* OR coconut* OR pistach* OR cashew</t>
-  </si>
-  <si>
     <t xml:space="preserve"> financial* AND agriculture</t>
   </si>
   <si>
@@ -5141,9 +5049,6 @@
     <t>c("frui*", "tomato*", "strawberr*", "blueberr*", "raspberr*", "grap*", "guava", "mango")</t>
   </si>
   <si>
-    <t>apple OR apricot OR peach OR avocado OR eggplant OR grape OR mango OR melon OR fig OR pineapple OR plantain OR banana OR plum OR cherr* OR papaya OR pear OR strawberr* OR raspberrr* OR tomat* OR guava OR mango OR papaya</t>
-  </si>
-  <si>
     <t>c("cereal", "rice", "maize", "corn", "wheat", "sorghum", "millet",  "buckwheat", "fonio", "rye", "teff")</t>
   </si>
   <si>
@@ -5159,36 +5064,6 @@
     <t>woodTrade</t>
   </si>
   <si>
-    <t>spice* OR nutmeg* OR cardamon* OR cinnamon* OR clove* OR pepper OR vanilla* OR mustard</t>
-  </si>
-  <si>
-    <t>legume* OR bean* OR pulses OR pea OR lentil OR chickpea OR cowpea OR {pigeon pea} OR pigeonpea</t>
-  </si>
-  <si>
-    <t>agroeco* OR agro-ecolog* OR {diversified farming} OR {ecological agriculture} OR {agricultural ecology} OR agrobiodivers* OR agro-biodivers*</t>
-  </si>
-  <si>
-    <t>{livestock systems} OR {pastoral systems}</t>
-  </si>
-  <si>
-    <t>{free air carbon dioxide} experiment*</t>
-  </si>
-  <si>
-    <t>{free air ozone} experiment*</t>
-  </si>
-  <si>
-    <t>{medicinal plant*} OR {wild edible*} OR {aquatic algae} OR {aromatic plant*} OR seaweed*</t>
-  </si>
-  <si>
-    <t>{cropping system} AND (intercrop OR {sequential crop} OR {relay crop} OR {multi* crop} OR {crop rotation} OR {mix tree-crop*} OR {traditional crop} OR {indigenous crop} OR perennial OR {minor crop})</t>
-  </si>
-  <si>
-    <t>crop AND (ozone OR {air quality })</t>
-  </si>
-  <si>
-    <t>{grain quality} OR {nutrient composition}</t>
-  </si>
-  <si>
     <t xml:space="preserve">These are phrases where the words must be exactly in the same position. SCOPUS identifies them with {}. WOS uses double quotations "". </t>
   </si>
   <si>
@@ -5198,48 +5073,9 @@
     <t>In the Queries worksheet use {} to indicate bound queries. These will be replaced with "" in the code.</t>
   </si>
   <si>
-    <t>Fisheries OR fishing OR {fish resource} OR {fish product*}</t>
-  </si>
-  <si>
-    <t>{food system}</t>
-  </si>
-  <si>
-    <t>{food waste}</t>
-  </si>
-  <si>
-    <t>{international trade} AND (agriculture OR food)</t>
-  </si>
-  <si>
-    <t>food AND (nutrition* OR {nutrition* status} OR {nutrition* outcome*} OR {nutrition* health} OR anthropometry OR diet)</t>
-  </si>
-  <si>
-    <t>{crop insurance}</t>
-  </si>
-  <si>
-    <t>(global OR international) AND (wood OR forestry OR {forest products} trade)</t>
-  </si>
-  <si>
     <t>{climate change} OR {climate variability} OR {global warming} OR {greenhouse effect} OR {extreme weather} OR {climate hazard} OR {heat stress} OR {heat wave} OR {precipitation variability} OR {temperature variability} OR drought</t>
   </si>
   <si>
-    <t>agriculture AND (SSP OR {shared socioeconomic profile*} OR RCP OR {representative concentration pathway})</t>
-  </si>
-  <si>
-    <t>biofuel* OR bioenergy OR agrofuel* OR BECCS OR {bioenergy with carbon capture and storage}</t>
-  </si>
-  <si>
-    <t>{oil crop*} OR {oil palm*} OR sunflower* OR sesame* OR safflower</t>
-  </si>
-  <si>
-    <t>{*forestry system*} OR agroforestry OR agriforestry</t>
-  </si>
-  <si>
-    <t>{storage loss} AND (crop OR livestock or fish)</t>
-  </si>
-  <si>
-    <t>{food *securit*} OR {food access*} OR {food afford*} OR {food insecur*} OR {food *sufficien*} OR {food choice*} OR {food availab*} OR {food utiliz*} OR {food stabil*} OR {food quality}</t>
-  </si>
-  <si>
     <t>livestock AND impact*</t>
   </si>
   <si>
@@ -5255,39 +5091,18 @@
     <t>aquacultur*</t>
   </si>
   <si>
-    <t>adaptation OR {adaptive capacity} OR {risk sharing} OR {risk spreading}</t>
-  </si>
-  <si>
-    <t>{social protection} OR migration OR {climate services} OR {climate information} or insurance</t>
-  </si>
-  <si>
-    <t>consump* OR {dietary choice} OR {food choice}</t>
-  </si>
-  <si>
     <t>searchStrings.climateChange1</t>
   </si>
   <si>
     <t>searchStrings.climateChange2</t>
   </si>
   <si>
-    <t>flood  OR {sea level rise} OR {extreme event} AND crop* AND impact*</t>
-  </si>
-  <si>
-    <t>carrot* OR cassava OR potato* OR {sweet potat*} OR turnip* OR yam* OR taro* OR cocoyam* OR onion* OR garlic OR ginger OR leek</t>
-  </si>
-  <si>
     <t>c("climate change", "climate variability", "global warming", "greenhouse effect", "extreme weather", "climate hazard", "heat stress", "heat wave", "precipitation variability", "temperature variability", "drought")</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t xml:space="preserve">c("profit*", "financ*", "econ*", "price", "price variability", "price increase") </t>
   </si>
   <si>
-    <t>(food value chain)</t>
-  </si>
-  <si>
     <t>In the Queries worksheet use () to indicate words separated by AND</t>
   </si>
   <si>
@@ -5297,29 +5112,383 @@
     <t>conflict</t>
   </si>
   <si>
-    <t>conflict AND (fisheries OR biofuels OR {livestock crop})</t>
-  </si>
-  <si>
     <t>impactsNutrition</t>
   </si>
   <si>
     <t>foodSecurity2</t>
   </si>
   <si>
-    <t>impacts AND ({food security} OR nutrition)</t>
-  </si>
-  <si>
-    <t>{food secur*} OR {food insecur*} OR {food suppl*} OR {food afford*} OR {food sufficien*} OR {food insufficien*} OR {food availab*} OR {food access*} OR {food utiliz*} OR {food stabil*} OR *nutritio* OR anthropometry OR micronutrient</t>
-  </si>
-  <si>
-    <t>adapt* AND ({*forest management} OR agroforestry OR agriforestry OR afforestation)</t>
+    <t>searchStrings.fibre</t>
+  </si>
+  <si>
+    <t>c("cotton", "wool", "flax", "silk", "linen", "cashmere",  "camel",  "angora", "alpaca", "vicuna", "mohair", "abaca", "kapok", "hemp", "jute", "rayon", "sisal")</t>
+  </si>
+  <si>
+    <t>localKnowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("Latin America", "Central America", "Caribbean",  "Europe", "Northern Europe", "Western Europe", "Southern Europe", "Eastern Europe", "Western Asia", "Middle East","Asia", "South Asia", "East Asia", "Central Asia", "Australia", "New Zealand","Southeast Asia", "Africa", "East Africa", "West Africa", "Central Africa", "North Africa",  "islands") </t>
+  </si>
+  <si>
+    <t>searchStrings.pestsPlants</t>
+  </si>
+  <si>
+    <t>searchStrings.pestsAnimals</t>
+  </si>
+  <si>
+    <t>c("mite*", "aphid*", "thrips", "scale*", "mealybug", "*borer", "worm", "catepillar", "beetle", "moth", "*hopper", "*borer", "weevil", "*bug*", "moth", "*fly", "worm", "sucker*", "earwig")</t>
+  </si>
+  <si>
+    <t>pestsCrops</t>
+  </si>
+  <si>
+    <t>pestsAnimals</t>
+  </si>
+  <si>
+    <t>animal* AND (pest* OR insect* or fung* OR weed* )</t>
+  </si>
+  <si>
+    <t>c("fever", "anthrax", "bluetongue", "tuberculosis", "brucellosis", "fly", "tick*", "pox", "*virus", "influenza", "Campylobacter", "Salmonell*", "scrapie", "scabies", "ringworm", "tularemia", "Stomatitis", "Listeriosis", "Sarcocystosis", "Toxoplasmosis")</t>
+  </si>
+  <si>
+    <t>wildFoods</t>
+  </si>
+  <si>
+    <t>searchStrings.cropModels</t>
+  </si>
+  <si>
+    <t>c("DSSAT", "APSIM", "AgMIP", "crop model")</t>
+  </si>
+  <si>
+    <t>5.5 Climate Change and Crop-based systems</t>
+  </si>
+  <si>
+    <t>5.6 Climate Change and Livestock-based systems</t>
+  </si>
+  <si>
+    <t>5.7 Climate Change and Forestry Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8 Other terrestrial ecosystem products </t>
+  </si>
+  <si>
+    <t>All sections</t>
+  </si>
+  <si>
+    <t>5.9 Climate Change and Ocean-based and Inland Fisheries System</t>
+  </si>
+  <si>
+    <t>5.10 Climate Change and Aquaculture Systems</t>
+  </si>
+  <si>
+    <t>5.15 Implementation Pathways to Adaptation and Cobenefits</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>livestock AND (pasture OR grass* OR rangeland OR feed OR forag* OR hay OR silage)</t>
+  </si>
+  <si>
+    <t>foodProcessing</t>
+  </si>
+  <si>
+    <t>cropStress</t>
+  </si>
+  <si>
+    <t>animalStress</t>
+  </si>
+  <si>
+    <t>humanStress</t>
+  </si>
+  <si>
+    <t>heatTolerance</t>
+  </si>
+  <si>
+    <t>fiber OR fibre OR cotton OR wool OR flax OR silk OR linen OR cashmere OR  camel OR  angora OR alpaca OR vicuna OR mohair OR abaca OR kapok OR hemp OR jute OR rayon OR sisal")c("cotton OR wool OR flax OR silk OR linen OR cashmere OR  camel OR  angora OR alpaca OR vicuna OR mohair OR abaca OR kapok OR hemp OR jute OR rayon OR sisal</t>
+  </si>
+  <si>
+    <t>5.13 Climate change and Food Security, Consumption and Nutrition</t>
+  </si>
+  <si>
+    <t>5.15.3 Global / regional adaptation effectiveness</t>
+  </si>
+  <si>
+    <t>yieldVariability</t>
+  </si>
+  <si>
+    <t>yield AND variability</t>
+  </si>
+  <si>
+    <t>CO2Fertilization</t>
+  </si>
+  <si>
+    <t>(CO2 OR carbon dioxide) AND fertil*</t>
+  </si>
+  <si>
+    <t>5.8 Other Terrestrial Ecosystem Products</t>
+  </si>
+  <si>
+    <t>5.14 Competition for and Tradeoffs of Use of Land and Ocean</t>
+  </si>
+  <si>
+    <t>5.1   Methodologies and Associated Uncertainties</t>
+  </si>
+  <si>
+    <t>(indigenous OR local) AND knowledge</t>
+  </si>
+  <si>
+    <t>stress AND human AND ("thermal heat index" OR "temperature humidity index" OR "wet bulb temperature" OR "web bulb globe temperature" OR "heat stress index")</t>
+  </si>
+  <si>
+    <t>"price vol*" OR "price var*" OR "price uncertain*" OR "agricultural price var*" OR "agricultural price uncertain*" OR  "commodity price var*" OR "commodity price uncertain*"  OR "commodity price vol*"</t>
+  </si>
+  <si>
+    <t>agriculture AND (SSP OR "shared socioeconomic profile*" OR RCP OR "representative concentration pathway")</t>
+  </si>
+  <si>
+    <t>"food *securit*" OR "food access*" OR "food afford*" OR "food insecur*" OR "food *sufficien*" OR "food choice*" OR "food availab*" OR "food utiliz*" OR "food stabil*" OR "food quality"</t>
+  </si>
+  <si>
+    <t>(food OR agriculture) AND consump* OR "dietary choice" OR "food choice"</t>
+  </si>
+  <si>
+    <t>conflict AND (fisheries OR biofuels OR "livestock crop")</t>
+  </si>
+  <si>
+    <t>impacts AND ("food security" OR nutrition)</t>
+  </si>
+  <si>
+    <t>"food secur*" OR "food insecur*" OR "food suppl*" OR "food afford*" OR "food sufficien*" OR "food insufficien*" OR "food availab*" OR "food access*" OR "food utiliz*" OR "food stabil*" OR *nutritio* OR anthropometry OR micronutrient</t>
+  </si>
+  <si>
+    <t>biofuel* OR bioenergy OR agrofuel* OR BECCS OR "bioenergy with carbon capture and storage"</t>
+  </si>
+  <si>
+    <t>agroeco* OR agro-ecolog* OR "diversified farming" OR "ecological agriculture" OR "agricultural ecology" OR agrobiodivers* OR agro-biodivers*</t>
+  </si>
+  <si>
+    <t>(food OR agriculture) AND adaptation OR "adaptive capacity" OR "risk sharing" OR "risk spreading"</t>
+  </si>
+  <si>
+    <t>(food OR agriculture) AND "social protection" OR migration OR "climate services" OR "climate information" or insurance</t>
+  </si>
+  <si>
+    <t>"crop insurance" OR "index insurance"</t>
+  </si>
+  <si>
+    <t>("free air carbon dioxide" OR  "free air carbon ozone" OR FACE) AND experiment*</t>
+  </si>
+  <si>
+    <t>"cropping system" AND (intercrop OR "sequential crop" OR "relay crop" OR "multi* crop" OR "crop rotation" OR "mix tree-crop*" OR "traditional crop" OR "indigenous crop" OR perennial OR "minor crop")</t>
+  </si>
+  <si>
+    <t>"grain quality" OR "nutrient composition"</t>
+  </si>
+  <si>
+    <t>flood  OR "sea level rise" OR "extreme event" AND crop* AND impact*</t>
+  </si>
+  <si>
+    <t>stress AND crop AND (THI OR "thermal heat index" OR "temperature humidity index" OR "heat stress index")</t>
+  </si>
+  <si>
+    <t>(food value chain) OR "food marketing" OR "supply chain*"</t>
+  </si>
+  <si>
+    <t>"food system" OR "food value chain"</t>
+  </si>
+  <si>
+    <t>"food storage loss" OR "crop storage loss" OR spoilage</t>
+  </si>
+  <si>
+    <t>"food waste"</t>
+  </si>
+  <si>
+    <t>"international trade" AND (agriculture OR food)</t>
+  </si>
+  <si>
+    <t>"food processing" OR milling OR grinding OR fermentation OR drying OR baking</t>
+  </si>
+  <si>
+    <t>"livestock system*" OR "pastoral system*" OR "pasture-based system*" OR containment OR CAFO OR "landless system*"</t>
+  </si>
+  <si>
+    <t>stress AND animal AND ("thermal heat index" OR "temperature humidity index" OR "wet bulb temperature " OR "web bulb globe temperature" OR "heat stress index")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("heat stress tolerance" OR "heat tolerance") AND (breed OR genotype) </t>
+  </si>
+  <si>
+    <t>crop AND (ozone OR "air quality ")</t>
+  </si>
+  <si>
+    <t>"forestry system*" OR agroforestry OR agriforestry</t>
+  </si>
+  <si>
+    <t>adapt* AND ("*forest management" OR agroforestry OR agriforestry OR afforestation)</t>
+  </si>
+  <si>
+    <t>(global OR international) AND (wood OR forestry OR "forest products" trade)</t>
+  </si>
+  <si>
+    <t>"medicinal plant*" OR "wild edible*" OR "aquatic algae" OR "aromatic plant*" OR seaweed*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wild food*"  OR  "edible wild plant*"  OR  bushmeat </t>
+  </si>
+  <si>
+    <t>Fisheries OR fishing OR "fish resource" OR "fish product*"</t>
+  </si>
+  <si>
+    <t>Cereals (other)</t>
+  </si>
+  <si>
+    <t>Perennial</t>
+  </si>
+  <si>
+    <t>TREEfruit</t>
+  </si>
+  <si>
+    <t>TREEnut</t>
+  </si>
+  <si>
+    <t>TREEcocoa</t>
+  </si>
+  <si>
+    <t>cocoa OR cacao OR theobroma</t>
+  </si>
+  <si>
+    <t>TREEcoffee</t>
+  </si>
+  <si>
+    <t>coffee OR Coffea</t>
+  </si>
+  <si>
+    <t>Perennial nonfood</t>
+  </si>
+  <si>
+    <t>TREEnonfood</t>
+  </si>
+  <si>
+    <t>Annual Veg</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Salad</t>
+  </si>
+  <si>
+    <t>SOFTfruit</t>
+  </si>
+  <si>
+    <t>Annual legume</t>
+  </si>
+  <si>
+    <t>Legume</t>
+  </si>
+  <si>
+    <t>Soybean</t>
+  </si>
+  <si>
+    <t>Annual root</t>
+  </si>
+  <si>
+    <t>RootNtuber</t>
+  </si>
+  <si>
+    <t>Annual sugar</t>
+  </si>
+  <si>
+    <t>SUGAR</t>
+  </si>
+  <si>
+    <t>ANNUALnonfood</t>
+  </si>
+  <si>
+    <t>OILannual</t>
+  </si>
+  <si>
+    <t>SpiceNherb</t>
+  </si>
+  <si>
+    <t>BEVERAGE</t>
+  </si>
+  <si>
+    <t>Ornamental</t>
+  </si>
+  <si>
+    <t>Fiber mixed</t>
+  </si>
+  <si>
+    <t>Fiber</t>
+  </si>
+  <si>
+    <t>"perennial fruit" OR '"fruit tree" OR orchard* OR apple* OR "Malus pumila" OR apricot* OR citrus OR orange* OR lemon* OR lime* OR grapefruit* OR tangerine* OR mandarin* OR clementine* OR satsuma* OR peach* OR nectarine* OR pear* OR plum* OR quince* OR sloe* OR cherr* OR avocado* OR breadfruit* OR mango*  OR olive* OR "Olea europaea" OR guava* OR lyche* OR jackfruit* OR "dragon fruit*" OR "palm fruit*" OR kapok OR banana* OR plantain* OR Musa OR grape* OR "kiwi fruit" OR "Vitis vinifera" OR "date palm" OR "Phoenix dactylifera" OR "common fig" OR "Ficus carica"</t>
+  </si>
+  <si>
+    <t>"rubber tree" OR "rubber crop" OR latex OR "Hevea brasiliensis" OR "maple syrup" OR coconut OR "Cocos nucifera" OR "palm oil" OR "Elaeis guineensis"</t>
+  </si>
+  <si>
+    <t>"soft fruit" OR *berries OR strawberr* OR rasberr* OR blueberr* OR cranberr* OR gooseberr* OR melon* OR watermelon* OR pineapple* OR papaya* OR "passion fruit" OR pomegranate* OR Persimmon* OR cashewapple OR "cashew apple" OR currants OR ribes</t>
+  </si>
+  <si>
+    <t>Potato* OR "Solanum tuberosum" OR sweetpotato* OR "sweet potat*" OR "Ipomoea batatas" OR cassava OR "Manihot esculenta" OR turnip* OR carrot* OR beetroot OR radish* OR yam* OR Dioscorea OR taro* OR cocoyam* OR yautia OR onion* OR garlic OR ginger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"sugar cane" OR sugarcane OR "Saccharum officinarum" OR "sugar beet" OR Beta vulgaris </t>
+  </si>
+  <si>
+    <t>"oil crop*" OR rapeseed OR "rape seed" OR canola OR "Brassica napus" OR sunflower OR "sun flower" OR "Helianthus annuus" OR sesame OR "Sesamum indicum" OR "chinese tallow" OR "Triadica sebifera" OR safflower OR linseed OR "castor oil" OR "poppy oil" OR "poppyseed oil"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spice* OR chillie* OR chili* OR nutmeg* OR mace OR cardamon* OR cinnamon* OR canella OR clove* OR vanilla* OR "mustard seed" OR anise OR badian OR fennel OR coriander OR "black pepper" OR piper OR sage OR rosemary </t>
+  </si>
+  <si>
+    <t>tea  OR "Camellia sinensis" OR mate OR "Ilex paraguayensis" OR hops OR tobacco OR cannabis</t>
+  </si>
+  <si>
+    <t>ornamental OR floriculture OR "cut flower" OR Pyrethrum</t>
+  </si>
+  <si>
+    <t>fiber OR fibre OR cotton  OR hemp OR  "common flax" OR  "Linum usitatissimum" OR jute OR Corchorus OR bastfibre* OR sisal OR "agave fiber*" OR "Manila fibre" or "Manila hemp" OR Ramie OR "Boehmeria nivea"</t>
+  </si>
+  <si>
+    <t>animalFibre</t>
+  </si>
+  <si>
+    <t>ozoneCrop</t>
+  </si>
+  <si>
+    <t>soybean OR soyabean OR soya OR "soya bean" OR "Glycine max"</t>
+  </si>
+  <si>
+    <t>barley OR oats OR triticale OR sorghum* OR millet* OR rye* OR buckwheat* OR fonio* OR teff OR Quinoa</t>
+  </si>
+  <si>
+    <t>almond* OR cashew* OR hazel* OR walnut* OR pistachio* OR macadamia* OR chestnut* OR Areca OR "Karite nut*" OR sheanut* OR "Vitellaria paradoxa" OR kola* OR "brazil nut" OR "Bertholletia excelsa" OR "pine nut"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> artichoke* OR asparagus OR brassica* OR broccoli OR cauliflower OR cucumber OR gherkin* OR courgette OR alliace* OR celery OR leek* OR cabbage* OR onion* OR garlic* OR pumpkin OR squash OR gourd* OR bamboo OR tomato OR Lycopersicon OR *pepper* OR eggplant OR aubergine* OR "Solanum melongena" OR lettuce OR Chayote OR "Sechium edule" OR christophine OR okra OR "Abelmoschus esculentus" OR mushroom* OR truffle*</t>
+  </si>
+  <si>
+    <t>salad OR lettuce OR chicory OR celery OR spinage OR parsley OR rocket OR "collard green" OR "Cassava leaves"</t>
+  </si>
+  <si>
+    <t>legume* OR bean* OR pulse* OR phaseolus OR pisum OR lentil* OR chickpea* OR "chick pea*" OR "Cicer arietinum" OR cowpea OR "Vigna unguiculata" OR "pigeon pea" OR pigeonpea OR peanut* OR groundnut* OR "Arachis hypogaea" OR lupin* OR vetches OR vicia OR carobs</t>
+  </si>
+  <si>
+    <t>pig OR hog OR swine OR poultry OR chicken OR broilers OR ruminant OR sheep OR goat OR cattle OR buffalo OR beef OR pork OR lamb OR mutton</t>
+  </si>
+  <si>
+    <t>food AND (nutrition* OR "nutrition* status" OR "nutrition* outcome*" OR nutrient OR  "nutrition* health" OR anthropometry OR diet)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5370,13 +5539,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5418,29 +5580,50 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF323232"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF1F497D"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -5496,54 +5679,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5859,899 +6065,1223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="24"/>
-    <col min="2" max="2" width="30.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="10.83203125" style="17"/>
+    <col min="2" max="2" width="37.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>705</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="E25" s="21" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
-        <f t="shared" ref="A4" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
-        <f>A4+1</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
-        <f t="shared" ref="A6:A58" si="1">A5+1</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="E22" s="9" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>739</v>
+      <c r="C30" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="24">
-        <f t="shared" si="1"/>
+      <c r="A31" s="17">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>740</v>
+      <c r="B31" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
-        <f t="shared" si="1"/>
+      <c r="A32" s="17">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>736</v>
+      <c r="B32" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
-        <f t="shared" si="1"/>
+      <c r="A33" s="17">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>725</v>
+      <c r="B33" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
-        <f t="shared" si="1"/>
+      <c r="A34" s="17">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>742</v>
+      <c r="B34" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
-        <f t="shared" si="1"/>
+      <c r="A35" s="17">
+        <f t="shared" ref="A35:A66" si="1">A34+1</f>
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>115</v>
+      <c r="B35" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
+      <c r="A36" s="17">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>741</v>
+      <c r="B36" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="24">
+      <c r="A37" s="17">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
+      <c r="B37" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>784</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39" s="24">
+      <c r="B38" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
+      <c r="B39" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>787</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A41" s="24">
+      <c r="B40" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="17">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="24">
+      <c r="B41" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="17">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="24">
+      <c r="B42" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="17">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A44" s="24">
+      <c r="B43" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="17">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>728</v>
+      <c r="B44" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="24">
+      <c r="A45" s="17">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>738</v>
+      <c r="B45" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="24">
+      <c r="A46" s="17">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>729</v>
+      <c r="B46" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="24">
+      <c r="A47" s="17">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="24">
+      <c r="B47" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="17">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="24">
+      <c r="B48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="17">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="24">
+        <v>89</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="17">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="24">
+        <v>89</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="17">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="24">
+      <c r="D51" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="17">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="24">
+        <v>89</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="17">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="24">
+        <v>89</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="17">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="24">
+      <c r="B54" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="17">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>731</v>
+      <c r="B55" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="24">
+      <c r="A56" s="17">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>758</v>
+      <c r="B56" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="24">
+      <c r="A57" s="17">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="24">
+      <c r="B57" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="11"/>
+      <c r="B58" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="17">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="17">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="17">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="17">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="17">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="17">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="17">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="17">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="17">
+        <f t="shared" ref="A67:A75" si="2">A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="17">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="17">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="17">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="17">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="17">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="17">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="17">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>737</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{EB323E7F-C5BD-C24A-9909-3B5183F7D633}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
-      <sortCondition ref="B1:B53"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E75">
+      <sortCondition ref="B1:B75"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6770,25 +7300,25 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>723</v>
+        <v>681</v>
       </c>
       <c r="B2" t="s">
-        <v>722</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>724</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>755</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>756</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -6798,10 +7328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B44446-4EFF-1748-B076-59F83F2A5201}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6811,194 +7341,226 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>747</v>
+        <v>689</v>
       </c>
       <c r="B5" t="s">
-        <v>751</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>748</v>
+        <v>690</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>705</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="B11" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>753</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="B18" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="B19" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="B20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="B25" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="B22" s="19" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="B26" s="18" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>708</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>709</v>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -7021,18 +7583,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>732</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -7044,7 +7606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB3225A-4DA2-B449-9413-FA03533C994C}">
   <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -7055,2671 +7617,2743 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="B24" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="16" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="15" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="15" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="15" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="B41" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="15" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="16" t="s">
+      <c r="B42" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="15" t="s">
+      <c r="B43" s="33"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="15" t="s">
+      <c r="B44" s="33"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B47" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="B48" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B27" s="15" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="15" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="32"/>
+      <c r="B51" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="15" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="32"/>
+      <c r="B52" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="15" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="32"/>
+      <c r="B53" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="15" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="32"/>
+      <c r="B54" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-    </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="32"/>
+      <c r="B55" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="32"/>
+      <c r="B56" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="32"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="32"/>
+      <c r="B61" s="10" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="16" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B42" s="27" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B43" s="27"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="27"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B46" s="16" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="15" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="32"/>
+      <c r="B71" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="32"/>
+      <c r="B72" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="32"/>
+      <c r="B73" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B48" s="15" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" s="16" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
-      <c r="B51" s="15" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
-      <c r="B52" s="15" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="15" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="B54" s="15" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="26"/>
-      <c r="B55" s="15" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="B56" s="15" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="15" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="B61" s="15" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="15" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
+    </row>
+    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B68" s="15" t="s">
+      <c r="B95" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B70" s="15" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="26"/>
-      <c r="B71" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="26"/>
-      <c r="B72" s="15" t="s">
+      <c r="B96" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="26"/>
-      <c r="B73" s="15" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="32" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="15" t="s">
+      <c r="B97" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="32"/>
+      <c r="B98" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="32"/>
+      <c r="B99" s="10" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="15" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="32"/>
+      <c r="B100" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="15" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" s="15" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="10"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="15" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="10"/>
+    </row>
+    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" s="15" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="10"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" s="15" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="32"/>
+      <c r="B113" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="15" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="10"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="15" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="32"/>
+      <c r="B116" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B89" s="15" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="32"/>
+      <c r="B117" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-    </row>
-    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="14" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="32"/>
+      <c r="B118" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="10"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B93" s="15" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="10"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="16" t="s">
+      <c r="B122" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="C122" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="32" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="16" t="s">
+      <c r="B123" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="C123" s="33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="32"/>
+      <c r="B124" s="12" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B97" s="15" t="s">
+      <c r="C124" s="33"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="32" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
-      <c r="B98" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
-      <c r="B99" s="15" t="s">
+      <c r="B125" s="10" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="26"/>
-      <c r="B100" s="15" t="s">
+      <c r="C125" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="32"/>
+      <c r="B126" s="10" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B103" s="15" t="s">
+      <c r="C126" s="33"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="32" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B105" s="15" t="s">
+      <c r="B127" s="10" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="15"/>
-    </row>
-    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A107" s="14" t="s">
+      <c r="C127" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="32"/>
+      <c r="B128" s="10" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="15"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
+      <c r="C128" s="33"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="32" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="15"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B112" s="15" t="s">
+      <c r="B129" s="10" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="26"/>
-      <c r="B113" s="15" t="s">
+      <c r="C129" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="32"/>
+      <c r="B130" s="10" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="15"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B115" s="15" t="s">
+      <c r="C130" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="32"/>
+      <c r="B131" s="10" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="26"/>
-      <c r="B116" s="15" t="s">
+      <c r="C131" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="32"/>
+      <c r="B132" s="10" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="26"/>
-      <c r="B117" s="15" t="s">
+      <c r="C132" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="32"/>
+      <c r="B133" s="10" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="26"/>
-      <c r="B118" s="15" t="s">
+      <c r="C133" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="32"/>
+      <c r="B134" s="10" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="15"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="15" t="s">
+      <c r="C134" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="32"/>
+      <c r="B135" s="10"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="32"/>
+      <c r="B136" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="15"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="26"/>
-      <c r="B124" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C124" s="27"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="26" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B137" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C125" s="27" t="s">
+      <c r="C137" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="26"/>
-      <c r="B126" s="15" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="32"/>
+      <c r="B138" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C126" s="27"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="26" t="s">
+      <c r="C138" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B127" s="15" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="B139" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="32"/>
+      <c r="B140" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="26"/>
-      <c r="B128" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C128" s="27"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="B129" s="15" t="s">
+      <c r="C140" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C129" s="15" t="s">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="32"/>
+      <c r="B142" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="26"/>
-      <c r="B130" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C130" s="15" t="s">
+      <c r="C143" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="32"/>
+      <c r="B144" s="10" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="26"/>
-      <c r="B131" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="26"/>
-      <c r="B132" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C132" s="15" t="s">
+      <c r="C144" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="26"/>
-      <c r="B133" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C133" s="15" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="32"/>
+      <c r="C145" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="26"/>
-      <c r="B134" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C134" s="15" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="32" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="26"/>
-      <c r="B135" s="15"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="26"/>
-      <c r="B136" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="26" t="s">
+      <c r="B146" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="C146" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="32"/>
+      <c r="B147" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C147" s="33"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="32" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="26"/>
-      <c r="B138" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C138" s="15" t="s">
+      <c r="B148" s="10" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="26" t="s">
+      <c r="C148" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="32"/>
+      <c r="B149" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="C149" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="32"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="32"/>
+      <c r="B151" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C151" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="32"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="32"/>
+      <c r="B153" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="32"/>
+      <c r="B154" s="10" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="26"/>
-      <c r="B140" s="15" t="s">
+      <c r="C154" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="32"/>
+      <c r="B155" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="32"/>
+      <c r="B156" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="32"/>
+      <c r="B157" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="32"/>
+      <c r="B158" s="10"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="32"/>
+      <c r="B159" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="32"/>
+      <c r="B160" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="32"/>
+      <c r="B162" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="32"/>
+      <c r="B163" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C140" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="26"/>
-      <c r="B142" s="15" t="s">
+      <c r="C163" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="32"/>
+      <c r="B164" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="32"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="32"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="32"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="32"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="32"/>
+      <c r="B172" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C172" s="33"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="32"/>
+      <c r="B175" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C175" s="33"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="32"/>
+      <c r="B177" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C177" s="33"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="32"/>
+      <c r="B181" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="B182" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="32"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="B184" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="32"/>
+      <c r="B185" s="33"/>
+      <c r="C185" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B186" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="32"/>
+      <c r="B187" s="33"/>
+      <c r="C187" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="32"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C189" s="33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="32"/>
+      <c r="B190" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C190" s="33"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="32"/>
+      <c r="B192" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C192" s="33"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C194" s="33" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="32"/>
+      <c r="B195" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C195" s="33"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C197" s="33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="32"/>
+      <c r="B198" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C198" s="33"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C199" s="33" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="32"/>
+      <c r="B200" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C200" s="33"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="32"/>
+      <c r="B201" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C201" s="33"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C202" s="33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="32"/>
+      <c r="B203" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C203" s="33"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C207" s="33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="32"/>
+      <c r="B208" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C208" s="33"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C209" s="33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="32"/>
+      <c r="B210" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C210" s="33"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="32"/>
+      <c r="B212" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C213" s="33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="32"/>
+      <c r="B214" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C214" s="33"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C215" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="32"/>
+      <c r="B216" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C216" s="33"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C217" s="33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="32"/>
+      <c r="B218" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C218" s="33"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C219" s="33" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="32"/>
+      <c r="B220" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C220" s="33"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="B222" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="32"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="B224" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="32"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="32"/>
+      <c r="B226" s="33"/>
+      <c r="C226" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B227" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="32"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="32"/>
+      <c r="B229" s="33"/>
+      <c r="C229" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="32"/>
+      <c r="B231" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="32"/>
+      <c r="C232" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="32"/>
+      <c r="C233" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="32"/>
+      <c r="C234" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C235" s="33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="32"/>
+      <c r="B236" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C236" s="33"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C237" s="33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="32"/>
+      <c r="B238" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C238" s="33"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="32"/>
+      <c r="B240" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="32"/>
+      <c r="C241" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="32"/>
+      <c r="B243" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="32"/>
+      <c r="B244" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="32"/>
+      <c r="B245" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="32"/>
+      <c r="B246" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="32"/>
+      <c r="B247" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="32"/>
+      <c r="B248" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="32"/>
+      <c r="B249" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C250" s="33" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="32"/>
+      <c r="B251" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C251" s="33"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="32"/>
+      <c r="B252" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C252" s="33"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="32"/>
+      <c r="B253" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C253" s="33"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C256" s="33" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="32"/>
+      <c r="B257" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C257" s="33"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="32"/>
+      <c r="B259" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="32"/>
+      <c r="C260" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="B261" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="32"/>
+      <c r="B262" s="33"/>
+      <c r="C262" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="32"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="B264" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="32"/>
+      <c r="B265" s="33"/>
+      <c r="C265" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="32"/>
+      <c r="B266" s="33"/>
+      <c r="C266" s="10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C267" s="33" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="32"/>
+      <c r="B268" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C268" s="33"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C269" s="33" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="32"/>
+      <c r="B270" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C270" s="33"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="32"/>
+      <c r="B272" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="32"/>
+      <c r="C273" s="10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="32"/>
+      <c r="C274" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C275" s="33" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="32"/>
+      <c r="B276" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C276" s="33"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C277" s="33" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="32"/>
+      <c r="B278" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C278" s="33"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C279" s="33" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="32"/>
+      <c r="B280" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C280" s="33"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C284" s="33" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="32"/>
+      <c r="B285" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C285" s="33"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="32"/>
+      <c r="B288" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="32"/>
+      <c r="B290" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B291" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C142" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="26"/>
-      <c r="B144" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="26"/>
-      <c r="C145" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="26"/>
-      <c r="B147" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C147" s="27"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="26"/>
-      <c r="B149" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="26"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="26"/>
-      <c r="B151" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="26"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="26"/>
-      <c r="B153" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="26"/>
-      <c r="B154" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="26"/>
-      <c r="B155" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="26"/>
-      <c r="B156" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="26"/>
-      <c r="B157" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="26"/>
-      <c r="B158" s="15"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="26"/>
-      <c r="B159" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="26"/>
-      <c r="B160" s="15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="26"/>
-      <c r="B162" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="26"/>
-      <c r="B163" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C163" s="15" t="s">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B294" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="32"/>
+      <c r="B309" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="32"/>
+      <c r="B310" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="32"/>
+      <c r="B311" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="32"/>
+      <c r="B312" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B317" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B322" s="10" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B323" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="11" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="26"/>
-      <c r="B164" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="B165" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="26"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="26"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="26"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="15" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="26"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C171" s="27" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="26"/>
-      <c r="B172" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C172" s="27"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="B173" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="C174" s="27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="26"/>
-      <c r="B175" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="C175" s="27"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C176" s="27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="26"/>
-      <c r="B177" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C177" s="27"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="26"/>
-      <c r="B181" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A182" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="B182" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="26"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="B184" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="26"/>
-      <c r="B185" s="27"/>
-      <c r="C185" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="B186" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="26"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="26"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C189" s="27" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="26"/>
-      <c r="B190" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C190" s="27"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B191" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C191" s="27" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="26"/>
-      <c r="B192" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="C192" s="27"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="B193" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="B194" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C194" s="27" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="26"/>
-      <c r="B195" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C195" s="27"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="B196" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C196" s="15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="B197" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C197" s="27" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="26"/>
-      <c r="B198" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="C198" s="27"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="B199" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C199" s="27" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="26"/>
-      <c r="B200" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="C200" s="27"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="26"/>
-      <c r="B201" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C201" s="27"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="B202" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="C202" s="27" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="26"/>
-      <c r="B203" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C203" s="27"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="B204" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="B205" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="B206" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="C206" s="15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="B207" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C207" s="27" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="26"/>
-      <c r="B208" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="C208" s="27"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="B209" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="C209" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="26"/>
-      <c r="B210" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="C210" s="27"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="B211" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="26"/>
-      <c r="B212" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="B213" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="C213" s="27" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="26"/>
-      <c r="B214" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="C214" s="27"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="B215" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="C215" s="27" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="26"/>
-      <c r="B216" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C216" s="27"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="B217" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="C217" s="27" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="26"/>
-      <c r="B218" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C218" s="27"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="B219" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="C219" s="27" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="26"/>
-      <c r="B220" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="C220" s="27"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B221" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="C221" s="15" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="B222" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="C222" s="15" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="26"/>
-      <c r="B223" s="27"/>
-      <c r="C223" s="15" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B224" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="C224" s="15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="26"/>
-      <c r="B225" s="27"/>
-      <c r="C225" s="15" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="26"/>
-      <c r="B226" s="27"/>
-      <c r="C226" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="B227" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="C227" s="15" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="26"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="15" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="26"/>
-      <c r="B229" s="27"/>
-      <c r="C229" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="B230" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="C230" s="15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="26"/>
-      <c r="B231" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="C231" s="15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="26"/>
-      <c r="C232" s="15" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="26"/>
-      <c r="C233" s="15" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="26"/>
-      <c r="C234" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="B235" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="C235" s="27" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="26"/>
-      <c r="B236" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="C236" s="27"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="B237" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="C237" s="27" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="26"/>
-      <c r="B238" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="C238" s="27"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="B239" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="26"/>
-      <c r="B240" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="C240" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="26"/>
-      <c r="C241" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="B242" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="C242" s="15" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="26"/>
-      <c r="B243" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="C243" s="15" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="26"/>
-      <c r="B244" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="C244" s="15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="26"/>
-      <c r="B245" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="C245" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="26"/>
-      <c r="B246" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="26"/>
-      <c r="B247" s="15" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="26"/>
-      <c r="B248" s="15" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="26"/>
-      <c r="B249" s="15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="B250" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="C250" s="27" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="26"/>
-      <c r="B251" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C251" s="27"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="26"/>
-      <c r="B252" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="C252" s="27"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="26"/>
-      <c r="B253" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="C253" s="27"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="B254" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="C254" s="15" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="B255" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="C255" s="15" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="B256" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="C256" s="27" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="26"/>
-      <c r="B257" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="C257" s="27"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="B258" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C258" s="15" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="26"/>
-      <c r="B259" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="26"/>
-      <c r="C260" s="15" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="B261" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="C261" s="15" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="26"/>
-      <c r="B262" s="27"/>
-      <c r="C262" s="15" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="26"/>
-      <c r="B263" s="27"/>
-      <c r="C263" s="15" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="B264" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="C264" s="15" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="26"/>
-      <c r="B265" s="27"/>
-      <c r="C265" s="15" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="26"/>
-      <c r="B266" s="27"/>
-      <c r="C266" s="15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="B267" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="C267" s="27" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="26"/>
-      <c r="B268" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="C268" s="27"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="26" t="s">
-        <v>537</v>
-      </c>
-      <c r="B269" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="C269" s="27" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="26"/>
-      <c r="B270" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="C270" s="27"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="B271" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="26"/>
-      <c r="B272" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="C272" s="15" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="26"/>
-      <c r="C273" s="15" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="26"/>
-      <c r="C274" s="15" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="B275" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="C275" s="27" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="26"/>
-      <c r="B276" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C276" s="27"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="26" t="s">
-        <v>551</v>
-      </c>
-      <c r="B277" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="C277" s="27" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="26"/>
-      <c r="B278" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C278" s="27"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="B279" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="C279" s="27" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="26"/>
-      <c r="B280" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="C280" s="27"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="B281" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="C281" s="15" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="B282" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="C282" s="15" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="B283" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="C283" s="15" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="B284" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="C284" s="27" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="26"/>
-      <c r="B285" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C285" s="27"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="B286" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="C286" s="15" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B287" s="15" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="26"/>
-      <c r="B288" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B289" s="15" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="26"/>
-      <c r="B290" s="15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B291" s="15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B292" s="15" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="B293" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="B294" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="B295" s="15" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="B296" s="15" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="B297" s="15" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="B298" s="15" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="B299" s="15" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="B300" s="15" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="B301" s="15" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="16" t="s">
-        <v>596</v>
-      </c>
-      <c r="B302" s="15" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="B303" s="15" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="B304" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" s="16" t="s">
-        <v>601</v>
-      </c>
-      <c r="B305" s="15" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="B306" s="15" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="B307" s="15" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B308" s="15" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="26"/>
-      <c r="B309" s="15" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="26"/>
-      <c r="B310" s="15" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="26"/>
-      <c r="B311" s="15" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="26"/>
-      <c r="B312" s="15" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B313" s="15" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B314" s="15" t="s">
+      <c r="B326" s="10" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" s="16" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="B315" s="15" t="s">
+      <c r="B327" s="10" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="16" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="B316" s="15" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="16" t="s">
+      <c r="B328" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="B317" s="15" t="s">
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="11" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="16" t="s">
+      <c r="B329" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B318" s="15" t="s">
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="11" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="16" t="s">
+      <c r="B330" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="B319" s="15" t="s">
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="11" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="16" t="s">
+      <c r="B331" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B320" s="15" t="s">
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="11" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="16" t="s">
+      <c r="B332" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B321" s="15" t="s">
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="11" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="16" t="s">
+      <c r="B333" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B322" s="15" t="s">
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="11" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="16" t="s">
+      <c r="B334" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="B323" s="15" t="s">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="11" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="16" t="s">
+      <c r="B335" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="B324" s="15" t="s">
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="11" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="16" t="s">
+      <c r="B336" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="B325" s="15" t="s">
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="11" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="B326" s="15" t="s">
+      <c r="B337" s="10" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" s="16" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="B327" s="15" t="s">
+      <c r="B338" s="10" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="16" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="B328" s="15" t="s">
+      <c r="B339" s="10" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="16" t="s">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="B329" s="15" t="s">
+      <c r="B340" s="10" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" s="16" t="s">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="B330" s="15" t="s">
+      <c r="B341" s="10" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" s="16" t="s">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="B331" s="15" t="s">
+      <c r="B342" s="10" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="16" t="s">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="B332" s="15" t="s">
+      <c r="B343" s="10" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="16" t="s">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="B333" s="15" t="s">
+      <c r="B344" s="10" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="16" t="s">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="B334" s="15" t="s">
+      <c r="B345" s="10" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" s="16" t="s">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="B335" s="15" t="s">
+      <c r="B346" s="10" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="16" t="s">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="B336" s="15" t="s">
+      <c r="B347" s="10" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="16" t="s">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B348" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="B337" s="15" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="B338" s="15" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="B339" s="15" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" s="16" t="s">
-        <v>662</v>
-      </c>
-      <c r="B340" s="15" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="B341" s="15" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="B342" s="15" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="B343" s="15" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" s="16" t="s">
-        <v>670</v>
-      </c>
-      <c r="B344" s="15" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" s="16" t="s">
-        <v>672</v>
-      </c>
-      <c r="B345" s="15" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" s="16" t="s">
-        <v>674</v>
-      </c>
-      <c r="B346" s="15" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="B347" s="15" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B348" s="15" t="s">
-        <v>678</v>
-      </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" s="15"/>
+      <c r="A349" s="10"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" s="15"/>
+      <c r="A350" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A236"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="C267:C268"/>
     <mergeCell ref="A269:A270"/>
@@ -9734,87 +10368,15 @@
     <mergeCell ref="B261:B263"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="A230:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A129:A136"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="C284:C285"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9832,337 +10394,337 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A9F484-6A0C-9D44-85FF-B674ADCC148E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3030757C-9F3D-364F-9CAC-9899EA0075ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="0" windowWidth="32240" windowHeight="18220" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="-32240" yWindow="0" windowWidth="32240" windowHeight="18220" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Queries" sheetId="1" r:id="rId1"/>
@@ -5205,9 +5205,6 @@
     <t>heatTolerance</t>
   </si>
   <si>
-    <t>fiber OR fibre OR cotton OR wool OR flax OR silk OR linen OR cashmere OR  camel OR  angora OR alpaca OR vicuna OR mohair OR abaca OR kapok OR hemp OR jute OR rayon OR sisal")c("cotton OR wool OR flax OR silk OR linen OR cashmere OR  camel OR  angora OR alpaca OR vicuna OR mohair OR abaca OR kapok OR hemp OR jute OR rayon OR sisal</t>
-  </si>
-  <si>
     <t>5.13 Climate change and Food Security, Consumption and Nutrition</t>
   </si>
   <si>
@@ -5232,18 +5229,12 @@
     <t>5.14 Competition for and Tradeoffs of Use of Land and Ocean</t>
   </si>
   <si>
-    <t>5.1   Methodologies and Associated Uncertainties</t>
-  </si>
-  <si>
     <t>(indigenous OR local) AND knowledge</t>
   </si>
   <si>
     <t>stress AND human AND ("thermal heat index" OR "temperature humidity index" OR "wet bulb temperature" OR "web bulb globe temperature" OR "heat stress index")</t>
   </si>
   <si>
-    <t>"price vol*" OR "price var*" OR "price uncertain*" OR "agricultural price var*" OR "agricultural price uncertain*" OR  "commodity price var*" OR "commodity price uncertain*"  OR "commodity price vol*"</t>
-  </si>
-  <si>
     <t>agriculture AND (SSP OR "shared socioeconomic profile*" OR RCP OR "representative concentration pathway")</t>
   </si>
   <si>
@@ -5271,24 +5262,15 @@
     <t>(food OR agriculture) AND adaptation OR "adaptive capacity" OR "risk sharing" OR "risk spreading"</t>
   </si>
   <si>
-    <t>(food OR agriculture) AND "social protection" OR migration OR "climate services" OR "climate information" or insurance</t>
-  </si>
-  <si>
     <t>"crop insurance" OR "index insurance"</t>
   </si>
   <si>
-    <t>("free air carbon dioxide" OR  "free air carbon ozone" OR FACE) AND experiment*</t>
-  </si>
-  <si>
     <t>"cropping system" AND (intercrop OR "sequential crop" OR "relay crop" OR "multi* crop" OR "crop rotation" OR "mix tree-crop*" OR "traditional crop" OR "indigenous crop" OR perennial OR "minor crop")</t>
   </si>
   <si>
     <t>"grain quality" OR "nutrient composition"</t>
   </si>
   <si>
-    <t>flood  OR "sea level rise" OR "extreme event" AND crop* AND impact*</t>
-  </si>
-  <si>
     <t>stress AND crop AND (THI OR "thermal heat index" OR "temperature humidity index" OR "heat stress index")</t>
   </si>
   <si>
@@ -5328,15 +5310,9 @@
     <t>adapt* AND ("*forest management" OR agroforestry OR agriforestry OR afforestation)</t>
   </si>
   <si>
-    <t>(global OR international) AND (wood OR forestry OR "forest products" trade)</t>
-  </si>
-  <si>
     <t>"medicinal plant*" OR "wild edible*" OR "aquatic algae" OR "aromatic plant*" OR seaweed*</t>
   </si>
   <si>
-    <t xml:space="preserve">"wild food*"  OR  "edible wild plant*"  OR  bushmeat </t>
-  </si>
-  <si>
     <t>Fisheries OR fishing OR "fish resource" OR "fish product*"</t>
   </si>
   <si>
@@ -5424,9 +5400,6 @@
     <t>Fiber</t>
   </si>
   <si>
-    <t>"perennial fruit" OR '"fruit tree" OR orchard* OR apple* OR "Malus pumila" OR apricot* OR citrus OR orange* OR lemon* OR lime* OR grapefruit* OR tangerine* OR mandarin* OR clementine* OR satsuma* OR peach* OR nectarine* OR pear* OR plum* OR quince* OR sloe* OR cherr* OR avocado* OR breadfruit* OR mango*  OR olive* OR "Olea europaea" OR guava* OR lyche* OR jackfruit* OR "dragon fruit*" OR "palm fruit*" OR kapok OR banana* OR plantain* OR Musa OR grape* OR "kiwi fruit" OR "Vitis vinifera" OR "date palm" OR "Phoenix dactylifera" OR "common fig" OR "Ficus carica"</t>
-  </si>
-  <si>
     <t>"rubber tree" OR "rubber crop" OR latex OR "Hevea brasiliensis" OR "maple syrup" OR coconut OR "Cocos nucifera" OR "palm oil" OR "Elaeis guineensis"</t>
   </si>
   <si>
@@ -5445,15 +5418,9 @@
     <t xml:space="preserve">spice* OR chillie* OR chili* OR nutmeg* OR mace OR cardamon* OR cinnamon* OR canella OR clove* OR vanilla* OR "mustard seed" OR anise OR badian OR fennel OR coriander OR "black pepper" OR piper OR sage OR rosemary </t>
   </si>
   <si>
-    <t>tea  OR "Camellia sinensis" OR mate OR "Ilex paraguayensis" OR hops OR tobacco OR cannabis</t>
-  </si>
-  <si>
     <t>ornamental OR floriculture OR "cut flower" OR Pyrethrum</t>
   </si>
   <si>
-    <t>fiber OR fibre OR cotton  OR hemp OR  "common flax" OR  "Linum usitatissimum" OR jute OR Corchorus OR bastfibre* OR sisal OR "agave fiber*" OR "Manila fibre" or "Manila hemp" OR Ramie OR "Boehmeria nivea"</t>
-  </si>
-  <si>
     <t>animalFibre</t>
   </si>
   <si>
@@ -5481,7 +5448,40 @@
     <t>pig OR hog OR swine OR poultry OR chicken OR broilers OR ruminant OR sheep OR goat OR cattle OR buffalo OR beef OR pork OR lamb OR mutton</t>
   </si>
   <si>
-    <t>food AND (nutrition* OR "nutrition* status" OR "nutrition* outcome*" OR nutrient OR  "nutrition* health" OR anthropometry OR diet)</t>
+    <t>food AND (nutrition* OR "nutrition* status" OR "nutrition* outcome*" OR nutrient OR "nutrition* health" OR anthropometry OR diet)</t>
+  </si>
+  <si>
+    <t>(food OR agriculture) AND "social protection" OR migration OR "climate services" OR "climate information" OR insurance</t>
+  </si>
+  <si>
+    <t>("free air carbon dioxide" OR "free air carbon ozone" OR FACE) AND experiment*</t>
+  </si>
+  <si>
+    <t>flood OR "sea level rise" OR "extreme event" AND crop* AND impact*</t>
+  </si>
+  <si>
+    <t>tea OR "Camellia sinensis" OR mate OR "Ilex paraguayensis" OR hops OR tobacco OR cannabis</t>
+  </si>
+  <si>
+    <t>"price vol*" OR "price var*" OR "price uncertain*" OR "agricultural price var*" OR "agricultural price uncertain*" OR "commodity price var*" OR "commodity price uncertain*" OR "commodity price vol*"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wild food*" OR "edible wild plant*" OR bushmeat </t>
+  </si>
+  <si>
+    <t>5.1 Methodologies and Associated Uncertainties</t>
+  </si>
+  <si>
+    <t>(global OR international) AND (wood OR forestry OR "forest products trade")</t>
+  </si>
+  <si>
+    <t>wool OR silk OR cashmere OR camel OR angora OR alpaca OR vicuna OR mohair</t>
+  </si>
+  <si>
+    <t>cotton OR hemp OR "common flax" OR "Linum usitatissimum" OR jute OR Corchorus OR bastfibre* OR sisal OR "agave fiber*" OR "Manila fibre" OR "Manila hemp" OR ramie OR "Boehmeria nivea"</t>
+  </si>
+  <si>
+    <t>"perennial fruit" OR apple* OR "Malus pumila" OR apricot* OR citrus OR orange* OR lemon* OR lime* OR grapefruit* OR tangerine* OR mandarin* OR clementine* OR satsuma* OR peach* OR nectarine* OR pear* OR plum* OR quince* OR sloe* OR cherr* OR avocado* OR breadfruit* OR mango* OR olive* OR "Olea europaea" OR guava* OR lyche* OR jackfruit* OR "dragon fruit*" OR "palm fruit*" OR kapok OR banana* OR plantain* OR Musa OR grape* OR "kiwi fruit" OR "Vitis vinifera" OR "date palm" OR "Phoenix dactylifera" OR "common fig" OR "Ficus carica"</t>
   </si>
 </sst>
 </file>
@@ -5595,7 +5595,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5603,7 +5603,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5713,9 +5713,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5735,21 +5732,24 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6067,1215 +6067,1216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="17"/>
+    <col min="1" max="1" width="10.83203125" style="28"/>
     <col min="2" max="2" width="37.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="20"/>
+    <col min="3" max="3" width="20" style="19" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="19"/>
+    <col min="6" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>736</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>740</v>
+      <c r="E2" s="19" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <f t="shared" ref="A3:A34" si="0">A2+1</f>
+      <c r="A3" s="28">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>103</v>
+      <c r="D3" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <f t="shared" si="0"/>
+      <c r="A4" s="28">
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>688</v>
+      <c r="D4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <f t="shared" si="0"/>
+      <c r="A5" s="28">
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D5" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E6" s="19" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="28">
+        <f>A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D6" s="20" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="28">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>697</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>745</v>
+      <c r="E9" s="19" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <f t="shared" si="0"/>
+      <c r="A10" s="28">
+        <f>A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="D10" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="28">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>746</v>
+      <c r="E11" s="22" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <f t="shared" si="0"/>
+      <c r="A12" s="28">
+        <f>A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>747</v>
+      <c r="D12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
-        <f t="shared" si="0"/>
+      <c r="A13" s="28">
+        <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>748</v>
+      <c r="D13" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
-        <f t="shared" si="0"/>
+      <c r="A14" s="28">
+        <f>A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>128</v>
+      <c r="D14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
-        <f t="shared" si="0"/>
+      <c r="A15" s="28">
+        <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>83</v>
+      <c r="D15" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
-        <f t="shared" si="0"/>
+      <c r="A16" s="28">
+        <f>A15+1</f>
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>750</v>
+      <c r="D16" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
-        <f t="shared" si="0"/>
+      <c r="A17" s="28">
+        <f>A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="D17" s="20" t="s">
+        <v>728</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
-        <f t="shared" si="0"/>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="28">
+        <f>A17+1</f>
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
-        <f t="shared" si="0"/>
+      <c r="C18" s="29" t="s">
+        <v>785</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>788</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="28">
+        <f>A18+1</f>
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
-        <f t="shared" si="0"/>
+      <c r="D19" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="28">
+        <f>A19+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
-        <f t="shared" si="0"/>
+      <c r="D20" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="28">
+        <f>A20+1</f>
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
-        <f t="shared" si="0"/>
+      <c r="D21" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="28">
+        <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>80</v>
+      <c r="D22" s="19" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
-        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="28">
+        <f>A22+1</f>
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>705</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
-        <f t="shared" si="0"/>
+      <c r="C23" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="28">
+        <f>A23+1</f>
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
-        <f t="shared" si="0"/>
+      <c r="D24" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="28">
+        <f>A24+1</f>
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>93</v>
+      <c r="D25" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
-        <f t="shared" si="0"/>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="28">
+        <f>A25+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
-        <f t="shared" si="0"/>
+      <c r="D26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="28">
+        <f>A26+1</f>
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>723</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
-        <f t="shared" si="0"/>
+      <c r="C27" s="29" t="s">
+        <v>778</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>779</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="28">
+        <f>A27+1</f>
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="28">
+        <f>A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>785</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="28">
+        <f>A29+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>785</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="28">
+        <f>A30+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="28">
+        <f>A31+1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="28">
+        <f>A32+1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>781</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>782</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="28">
+        <f>A33+1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="28">
+        <f>A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="28">
+        <f>A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>777</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="28">
+        <f>A36+1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>778</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="28">
+        <f>A37+1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>785</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="28">
+        <f>A38+1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="28">
+        <f>A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="28">
+        <f>A40+1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="28">
+        <f>A41+1</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="28">
+        <f>A42+1</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="28">
+        <f>A43+1</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="28">
+        <f>A44+1</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="28">
+        <f>A45+1</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="28">
+        <f>A46+1</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>732</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>657</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="17">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="17">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>776</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
-        <f t="shared" ref="A35:A66" si="1">A34+1</f>
-        <v>34</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="17">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>782</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="17">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>782</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>784</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="17">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>782</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>785</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="17">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="17">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="17">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>789</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="17">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>792</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="17">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="17">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="17">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="17">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>797</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>809</v>
-      </c>
     </row>
     <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
-        <f t="shared" si="1"/>
+      <c r="A48" s="28">
+        <f>A47+1</f>
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>756</v>
+      <c r="D48" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="17">
-        <f t="shared" si="1"/>
+      <c r="A49" s="28">
+        <f>A48+1</f>
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>757</v>
+      <c r="D49" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="17">
-        <f t="shared" si="1"/>
+      <c r="A50" s="28">
+        <f>A49+1</f>
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>661</v>
+      <c r="D50" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="17">
-        <f t="shared" si="1"/>
+      <c r="A51" s="28">
+        <f>A50+1</f>
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>758</v>
+      <c r="D51" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A52" s="17">
-        <f t="shared" si="1"/>
+      <c r="A52" s="28">
+        <f>A51+1</f>
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>739</v>
+      <c r="D52" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="17">
-        <f t="shared" si="1"/>
+      <c r="A53" s="28">
+        <f>A52+1</f>
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>759</v>
+      <c r="D53" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="17">
-        <f t="shared" si="1"/>
+      <c r="A54" s="28">
+        <f>A53+1</f>
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>69</v>
+      <c r="D54" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A55" s="17">
-        <f t="shared" si="1"/>
+      <c r="A55" s="28">
+        <f>A54+1</f>
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="20" t="s">
-        <v>722</v>
+      <c r="D55" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="17">
-        <f t="shared" si="1"/>
+      <c r="A56" s="28">
+        <f>A55+1</f>
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>762</v>
+      <c r="D56" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="17">
-        <f t="shared" si="1"/>
+      <c r="A57" s="28">
+        <f>A56+1</f>
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="D57" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17">
-        <f t="shared" si="1"/>
+      <c r="D57" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="28">
+        <f>A57+1</f>
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="17">
-        <f t="shared" si="1"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28">
+        <f>A58+1</f>
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="17">
-        <f t="shared" si="1"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28">
+        <f>A59+1</f>
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="17">
-        <f t="shared" si="1"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28">
+        <f>A60+1</f>
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17">
-        <f t="shared" si="1"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="28">
+        <f>A61+1</f>
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20" t="s">
-        <v>720</v>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="17">
-        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28">
+        <f>A62+1</f>
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20" t="s">
-        <v>724</v>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="17">
-        <f t="shared" si="1"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28">
+        <f>A63+1</f>
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20" t="s">
-        <v>725</v>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="17">
-        <f t="shared" si="1"/>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28">
+        <f>A64+1</f>
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20" t="s">
-        <v>726</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="17">
-        <f t="shared" si="1"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28">
+        <f>A65+1</f>
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20" t="s">
-        <v>811</v>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19" t="s">
+        <v>678</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="17">
-        <f t="shared" ref="A67:A75" si="2">A66+1</f>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="28">
+        <f>A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20" t="s">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="21" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="17">
-        <f t="shared" si="2"/>
+      <c r="E67" s="20" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="28">
+        <f>A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20" t="s">
-        <v>678</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="17">
-        <f t="shared" si="2"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28">
+        <f>A68+1</f>
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20" t="s">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19" t="s">
         <v>679</v>
       </c>
-      <c r="E69" s="23" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17">
-        <f t="shared" si="2"/>
+      <c r="E69" s="22" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28">
+        <f>A69+1</f>
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28">
+        <f>A70+1</f>
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="20" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="17">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="17">
-        <f t="shared" si="2"/>
+      <c r="E71" s="19" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="28">
+        <f>A71+1</f>
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20" t="s">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="E72" s="20" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="17">
-        <f t="shared" si="2"/>
+      <c r="E72" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="28">
+        <f>A72+1</f>
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20" t="s">
+      <c r="C73" s="19"/>
+      <c r="D73" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="22" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="17">
-        <f t="shared" si="2"/>
+      <c r="E73" s="21" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28">
+        <f>A73+1</f>
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20" t="s">
+      <c r="C74" s="19"/>
+      <c r="D74" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="17">
-        <f t="shared" si="2"/>
+    <row r="75" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28">
+        <f>A74+1</f>
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20" t="s">
+      <c r="C75" s="19"/>
+      <c r="D75" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="E75" s="20" t="s">
-        <v>737</v>
+      <c r="E75" s="19" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -7535,7 +7536,7 @@
       <c r="A25" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>699</v>
       </c>
     </row>
@@ -7543,7 +7544,7 @@
       <c r="A26" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>704</v>
       </c>
     </row>
@@ -7551,15 +7552,15 @@
       <c r="A27" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>711</v>
       </c>
     </row>
@@ -7706,7 +7707,7 @@
       <c r="A17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -7714,25 +7715,25 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -7740,13 +7741,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="26" t="s">
         <v>154</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -7754,7 +7755,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="10" t="s">
         <v>156</v>
       </c>
@@ -7795,7 +7796,7 @@
       <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="27" t="s">
         <v>157</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -7803,7 +7804,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="10" t="s">
         <v>162</v>
       </c>
@@ -7856,7 +7857,7 @@
       <c r="A42" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="27" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7864,13 +7865,13 @@
       <c r="A43" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="33"/>
+      <c r="B43" s="27"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="27"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
@@ -7903,7 +7904,7 @@
       <c r="A49" s="10"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="26" t="s">
         <v>157</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -7911,37 +7912,37 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="32"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="32"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="10" t="s">
         <v>186</v>
       </c>
@@ -7957,7 +7958,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="26" t="s">
         <v>150</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -7965,10 +7966,10 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
+      <c r="A60" s="26"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="10" t="s">
         <v>190</v>
       </c>
@@ -8018,7 +8019,7 @@
       <c r="A69" s="10"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="26" t="s">
         <v>157</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -8026,19 +8027,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="32"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="32"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="32"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="10" t="s">
         <v>200</v>
       </c>
@@ -8183,7 +8184,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="26" t="s">
         <v>222</v>
       </c>
       <c r="B97" s="10" t="s">
@@ -8191,19 +8192,19 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
+      <c r="A98" s="26"/>
       <c r="B98" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="32"/>
+      <c r="A99" s="26"/>
       <c r="B99" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="32"/>
+      <c r="A100" s="26"/>
       <c r="B100" s="10" t="s">
         <v>225</v>
       </c>
@@ -8268,7 +8269,7 @@
       <c r="A111" s="10"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="32" t="s">
+      <c r="A112" s="26" t="s">
         <v>150</v>
       </c>
       <c r="B112" s="10" t="s">
@@ -8276,7 +8277,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="32"/>
+      <c r="A113" s="26"/>
       <c r="B113" s="10" t="s">
         <v>233</v>
       </c>
@@ -8285,7 +8286,7 @@
       <c r="A114" s="10"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="32" t="s">
+      <c r="A115" s="26" t="s">
         <v>157</v>
       </c>
       <c r="B115" s="10" t="s">
@@ -8293,19 +8294,19 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="32"/>
+      <c r="A116" s="26"/>
       <c r="B116" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="32"/>
+      <c r="A117" s="26"/>
       <c r="B117" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="32"/>
+      <c r="A118" s="26"/>
       <c r="B118" s="10" t="s">
         <v>237</v>
       </c>
@@ -8333,61 +8334,61 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="32" t="s">
+      <c r="A123" s="26" t="s">
         <v>241</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C123" s="33" t="s">
+      <c r="C123" s="27" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="32"/>
+      <c r="A124" s="26"/>
       <c r="B124" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C124" s="33"/>
+      <c r="C124" s="27"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="32" t="s">
+      <c r="A125" s="26" t="s">
         <v>245</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C125" s="33" t="s">
+      <c r="C125" s="27" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="32"/>
+      <c r="A126" s="26"/>
       <c r="B126" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C126" s="33"/>
+      <c r="C126" s="27"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="32" t="s">
+      <c r="A127" s="26" t="s">
         <v>249</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="27" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="32"/>
+      <c r="A128" s="26"/>
       <c r="B128" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C128" s="33"/>
+      <c r="C128" s="27"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="32" t="s">
+      <c r="A129" s="26" t="s">
         <v>253</v>
       </c>
       <c r="B129" s="10" t="s">
@@ -8398,7 +8399,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="32"/>
+      <c r="A130" s="26"/>
       <c r="B130" s="10" t="s">
         <v>255</v>
       </c>
@@ -8407,7 +8408,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="32"/>
+      <c r="A131" s="26"/>
       <c r="B131" s="10" t="s">
         <v>256</v>
       </c>
@@ -8416,7 +8417,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="32"/>
+      <c r="A132" s="26"/>
       <c r="B132" s="10" t="s">
         <v>257</v>
       </c>
@@ -8425,7 +8426,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="32"/>
+      <c r="A133" s="26"/>
       <c r="B133" s="10" t="s">
         <v>258</v>
       </c>
@@ -8434,7 +8435,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="32"/>
+      <c r="A134" s="26"/>
       <c r="B134" s="10" t="s">
         <v>259</v>
       </c>
@@ -8443,17 +8444,17 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="32"/>
+      <c r="A135" s="26"/>
       <c r="B135" s="10"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="32"/>
+      <c r="A136" s="26"/>
       <c r="B136" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="32" t="s">
+      <c r="A137" s="26" t="s">
         <v>267</v>
       </c>
       <c r="B137" s="10" t="s">
@@ -8464,7 +8465,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="32"/>
+      <c r="A138" s="26"/>
       <c r="B138" s="10" t="s">
         <v>269</v>
       </c>
@@ -8473,7 +8474,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="32" t="s">
+      <c r="A139" s="26" t="s">
         <v>272</v>
       </c>
       <c r="B139" s="10" t="s">
@@ -8484,7 +8485,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="32"/>
+      <c r="A140" s="26"/>
       <c r="B140" s="10" t="s">
         <v>274</v>
       </c>
@@ -8493,7 +8494,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="32" t="s">
+      <c r="A141" s="26" t="s">
         <v>277</v>
       </c>
       <c r="B141" s="10" t="s">
@@ -8504,7 +8505,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="32"/>
+      <c r="A142" s="26"/>
       <c r="B142" s="10" t="s">
         <v>279</v>
       </c>
@@ -8513,7 +8514,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="32" t="s">
+      <c r="A143" s="26" t="s">
         <v>282</v>
       </c>
       <c r="B143" s="10" t="s">
@@ -8524,7 +8525,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="32"/>
+      <c r="A144" s="26"/>
       <c r="B144" s="10" t="s">
         <v>284</v>
       </c>
@@ -8533,31 +8534,31 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="32"/>
+      <c r="A145" s="26"/>
       <c r="C145" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="32" t="s">
+      <c r="A146" s="26" t="s">
         <v>288</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C146" s="33" t="s">
+      <c r="C146" s="27" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="32"/>
+      <c r="A147" s="26"/>
       <c r="B147" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C147" s="33"/>
+      <c r="C147" s="27"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="32" t="s">
+      <c r="A148" s="26" t="s">
         <v>292</v>
       </c>
       <c r="B148" s="10" t="s">
@@ -8568,7 +8569,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="32"/>
+      <c r="A149" s="26"/>
       <c r="B149" s="10" t="s">
         <v>294</v>
       </c>
@@ -8577,14 +8578,14 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="32"/>
+      <c r="A150" s="26"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="32"/>
+      <c r="A151" s="26"/>
       <c r="B151" s="10" t="s">
         <v>295</v>
       </c>
@@ -8593,14 +8594,14 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="32"/>
+      <c r="A152" s="26"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="32"/>
+      <c r="A153" s="26"/>
       <c r="B153" s="10" t="s">
         <v>296</v>
       </c>
@@ -8609,7 +8610,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="32"/>
+      <c r="A154" s="26"/>
       <c r="B154" s="10" t="s">
         <v>297</v>
       </c>
@@ -8618,7 +8619,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="32"/>
+      <c r="A155" s="26"/>
       <c r="B155" s="10" t="s">
         <v>298</v>
       </c>
@@ -8627,7 +8628,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="32"/>
+      <c r="A156" s="26"/>
       <c r="B156" s="10" t="s">
         <v>299</v>
       </c>
@@ -8636,29 +8637,29 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="32"/>
+      <c r="A157" s="26"/>
       <c r="B157" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="32"/>
+      <c r="A158" s="26"/>
       <c r="B158" s="10"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="32"/>
+      <c r="A159" s="26"/>
       <c r="B159" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="32"/>
+      <c r="A160" s="26"/>
       <c r="B160" s="10" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="32" t="s">
+      <c r="A161" s="26" t="s">
         <v>311</v>
       </c>
       <c r="B161" s="10" t="s">
@@ -8669,7 +8670,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="32"/>
+      <c r="A162" s="26"/>
       <c r="B162" s="10" t="s">
         <v>313</v>
       </c>
@@ -8678,7 +8679,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="32"/>
+      <c r="A163" s="26"/>
       <c r="B163" s="10" t="s">
         <v>296</v>
       </c>
@@ -8687,16 +8688,16 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="32"/>
+      <c r="A164" s="26"/>
       <c r="B164" s="10" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="32" t="s">
+      <c r="A165" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="B165" s="33" t="s">
+      <c r="B165" s="27" t="s">
         <v>318</v>
       </c>
       <c r="C165" s="10" t="s">
@@ -8704,29 +8705,29 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="32"/>
-      <c r="B166" s="33"/>
+      <c r="A166" s="26"/>
+      <c r="B166" s="27"/>
       <c r="C166" s="10" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="32"/>
-      <c r="B167" s="33"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="27"/>
       <c r="C167" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="32"/>
-      <c r="B168" s="33"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="27"/>
       <c r="C168" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="32"/>
-      <c r="B169" s="33"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="27"/>
       <c r="C169" s="10" t="s">
         <v>323</v>
       </c>
@@ -8743,22 +8744,22 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="32" t="s">
+      <c r="A171" s="26" t="s">
         <v>327</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C171" s="33" t="s">
+      <c r="C171" s="27" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="32"/>
+      <c r="A172" s="26"/>
       <c r="B172" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C172" s="33"/>
+      <c r="C172" s="27"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
@@ -8772,40 +8773,40 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="32" t="s">
+      <c r="A174" s="26" t="s">
         <v>334</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C174" s="33" t="s">
+      <c r="C174" s="27" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="32"/>
+      <c r="A175" s="26"/>
       <c r="B175" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C175" s="33"/>
+      <c r="C175" s="27"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="32" t="s">
+      <c r="A176" s="26" t="s">
         <v>338</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C176" s="33" t="s">
+      <c r="C176" s="27" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="32"/>
+      <c r="A177" s="26"/>
       <c r="B177" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C177" s="33"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
@@ -8830,7 +8831,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="32" t="s">
+      <c r="A180" s="26" t="s">
         <v>348</v>
       </c>
       <c r="B180" s="10" t="s">
@@ -8841,7 +8842,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="32"/>
+      <c r="A181" s="26"/>
       <c r="B181" s="10" t="s">
         <v>350</v>
       </c>
@@ -8850,10 +8851,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A182" s="32" t="s">
+      <c r="A182" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="B182" s="33" t="s">
+      <c r="B182" s="27" t="s">
         <v>354</v>
       </c>
       <c r="C182" s="9" t="s">
@@ -8861,17 +8862,17 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="32"/>
-      <c r="B183" s="33"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="27"/>
       <c r="C183" s="10" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="32" t="s">
+      <c r="A184" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="B184" s="33" t="s">
+      <c r="B184" s="27" t="s">
         <v>358</v>
       </c>
       <c r="C184" s="10" t="s">
@@ -8879,17 +8880,17 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="32"/>
-      <c r="B185" s="33"/>
+      <c r="A185" s="26"/>
+      <c r="B185" s="27"/>
       <c r="C185" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="32" t="s">
+      <c r="A186" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="B186" s="33" t="s">
+      <c r="B186" s="27" t="s">
         <v>361</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -8897,54 +8898,54 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="32"/>
-      <c r="B187" s="33"/>
+      <c r="A187" s="26"/>
+      <c r="B187" s="27"/>
       <c r="C187" s="10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="32"/>
-      <c r="B188" s="33"/>
+      <c r="A188" s="26"/>
+      <c r="B188" s="27"/>
       <c r="C188" s="10" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="32" t="s">
+      <c r="A189" s="26" t="s">
         <v>365</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C189" s="33" t="s">
+      <c r="C189" s="27" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="32"/>
+      <c r="A190" s="26"/>
       <c r="B190" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C190" s="33"/>
+      <c r="C190" s="27"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="32" t="s">
+      <c r="A191" s="26" t="s">
         <v>369</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C191" s="33" t="s">
+      <c r="C191" s="27" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="32"/>
+      <c r="A192" s="26"/>
       <c r="B192" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C192" s="33"/>
+      <c r="C192" s="27"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
@@ -8958,22 +8959,22 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="32" t="s">
+      <c r="A194" s="26" t="s">
         <v>376</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C194" s="33" t="s">
+      <c r="C194" s="27" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="32"/>
+      <c r="A195" s="26"/>
       <c r="B195" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C195" s="33"/>
+      <c r="C195" s="27"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
@@ -8987,65 +8988,65 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="32" t="s">
+      <c r="A197" s="26" t="s">
         <v>383</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C197" s="33" t="s">
+      <c r="C197" s="27" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="32"/>
+      <c r="A198" s="26"/>
       <c r="B198" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C198" s="33"/>
+      <c r="C198" s="27"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="32" t="s">
+      <c r="A199" s="26" t="s">
         <v>387</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C199" s="33" t="s">
+      <c r="C199" s="27" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="32"/>
+      <c r="A200" s="26"/>
       <c r="B200" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C200" s="33"/>
+      <c r="C200" s="27"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="32"/>
+      <c r="A201" s="26"/>
       <c r="B201" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C201" s="33"/>
+      <c r="C201" s="27"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="32" t="s">
+      <c r="A202" s="26" t="s">
         <v>392</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C202" s="33" t="s">
+      <c r="C202" s="27" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="32"/>
+      <c r="A203" s="26"/>
       <c r="B203" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C203" s="33"/>
+      <c r="C203" s="27"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
@@ -9081,43 +9082,43 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="32" t="s">
+      <c r="A207" s="26" t="s">
         <v>405</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C207" s="33" t="s">
+      <c r="C207" s="27" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="32"/>
+      <c r="A208" s="26"/>
       <c r="B208" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C208" s="33"/>
+      <c r="C208" s="27"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="32" t="s">
+      <c r="A209" s="26" t="s">
         <v>409</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C209" s="33" t="s">
+      <c r="C209" s="27" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="32"/>
+      <c r="A210" s="26"/>
       <c r="B210" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C210" s="33"/>
+      <c r="C210" s="27"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="32" t="s">
+      <c r="A211" s="26" t="s">
         <v>413</v>
       </c>
       <c r="B211" s="10" t="s">
@@ -9128,7 +9129,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="32"/>
+      <c r="A212" s="26"/>
       <c r="B212" s="10" t="s">
         <v>415</v>
       </c>
@@ -9137,76 +9138,76 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="32" t="s">
+      <c r="A213" s="26" t="s">
         <v>418</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C213" s="33" t="s">
+      <c r="C213" s="27" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="32"/>
+      <c r="A214" s="26"/>
       <c r="B214" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C214" s="33"/>
+      <c r="C214" s="27"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="32" t="s">
+      <c r="A215" s="26" t="s">
         <v>422</v>
       </c>
       <c r="B215" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C215" s="33" t="s">
+      <c r="C215" s="27" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="32"/>
+      <c r="A216" s="26"/>
       <c r="B216" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C216" s="33"/>
+      <c r="C216" s="27"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="32" t="s">
+      <c r="A217" s="26" t="s">
         <v>426</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C217" s="33" t="s">
+      <c r="C217" s="27" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="32"/>
+      <c r="A218" s="26"/>
       <c r="B218" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C218" s="33"/>
+      <c r="C218" s="27"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="32" t="s">
+      <c r="A219" s="26" t="s">
         <v>430</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C219" s="33" t="s">
+      <c r="C219" s="27" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="32"/>
+      <c r="A220" s="26"/>
       <c r="B220" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C220" s="33"/>
+      <c r="C220" s="27"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
@@ -9220,10 +9221,10 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="32" t="s">
+      <c r="A222" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="B222" s="33" t="s">
+      <c r="B222" s="27" t="s">
         <v>438</v>
       </c>
       <c r="C222" s="10" t="s">
@@ -9231,17 +9232,17 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="32"/>
-      <c r="B223" s="33"/>
+      <c r="A223" s="26"/>
+      <c r="B223" s="27"/>
       <c r="C223" s="10" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="32" t="s">
+      <c r="A224" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="B224" s="33" t="s">
+      <c r="B224" s="27" t="s">
         <v>442</v>
       </c>
       <c r="C224" s="10" t="s">
@@ -9249,24 +9250,24 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="32"/>
-      <c r="B225" s="33"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="27"/>
       <c r="C225" s="10" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="32"/>
-      <c r="B226" s="33"/>
+      <c r="A226" s="26"/>
+      <c r="B226" s="27"/>
       <c r="C226" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="32" t="s">
+      <c r="A227" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="B227" s="33" t="s">
+      <c r="B227" s="27" t="s">
         <v>447</v>
       </c>
       <c r="C227" s="10" t="s">
@@ -9274,21 +9275,21 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="32"/>
-      <c r="B228" s="33"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="27"/>
       <c r="C228" s="10" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="32"/>
-      <c r="B229" s="33"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="27"/>
       <c r="C229" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="32" t="s">
+      <c r="A230" s="26" t="s">
         <v>449</v>
       </c>
       <c r="B230" s="10" t="s">
@@ -9299,7 +9300,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="32"/>
+      <c r="A231" s="26"/>
       <c r="B231" s="10" t="s">
         <v>451</v>
       </c>
@@ -9308,61 +9309,61 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="32"/>
+      <c r="A232" s="26"/>
       <c r="C232" s="10" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="32"/>
+      <c r="A233" s="26"/>
       <c r="C233" s="10" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="32"/>
+      <c r="A234" s="26"/>
       <c r="C234" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="32" t="s">
+      <c r="A235" s="26" t="s">
         <v>455</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C235" s="33" t="s">
+      <c r="C235" s="27" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="32"/>
+      <c r="A236" s="26"/>
       <c r="B236" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C236" s="33"/>
+      <c r="C236" s="27"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="32" t="s">
+      <c r="A237" s="26" t="s">
         <v>459</v>
       </c>
       <c r="B237" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="C237" s="33" t="s">
+      <c r="C237" s="27" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="32"/>
+      <c r="A238" s="26"/>
       <c r="B238" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C238" s="33"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="32" t="s">
+      <c r="A239" s="26" t="s">
         <v>463</v>
       </c>
       <c r="B239" s="10" t="s">
@@ -9373,7 +9374,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="32"/>
+      <c r="A240" s="26"/>
       <c r="B240" s="10" t="s">
         <v>465</v>
       </c>
@@ -9382,13 +9383,13 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="32"/>
+      <c r="A241" s="26"/>
       <c r="C241" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="32" t="s">
+      <c r="A242" s="26" t="s">
         <v>469</v>
       </c>
       <c r="B242" s="10" t="s">
@@ -9399,7 +9400,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="32"/>
+      <c r="A243" s="26"/>
       <c r="B243" s="10" t="s">
         <v>471</v>
       </c>
@@ -9408,7 +9409,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="32"/>
+      <c r="A244" s="26"/>
       <c r="B244" s="10" t="s">
         <v>472</v>
       </c>
@@ -9417,7 +9418,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="32"/>
+      <c r="A245" s="26"/>
       <c r="B245" s="10" t="s">
         <v>473</v>
       </c>
@@ -9426,60 +9427,60 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="32"/>
+      <c r="A246" s="26"/>
       <c r="B246" s="10" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="32"/>
+      <c r="A247" s="26"/>
       <c r="B247" s="10" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="32"/>
+      <c r="A248" s="26"/>
       <c r="B248" s="10" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="32"/>
+      <c r="A249" s="26"/>
       <c r="B249" s="10" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="32" t="s">
+      <c r="A250" s="26" t="s">
         <v>482</v>
       </c>
       <c r="B250" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C250" s="33" t="s">
+      <c r="C250" s="27" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="32"/>
+      <c r="A251" s="26"/>
       <c r="B251" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C251" s="33"/>
+      <c r="C251" s="27"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="32"/>
+      <c r="A252" s="26"/>
       <c r="B252" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C252" s="33"/>
+      <c r="C252" s="27"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="32"/>
+      <c r="A253" s="26"/>
       <c r="B253" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="C253" s="33"/>
+      <c r="C253" s="27"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="s">
@@ -9504,25 +9505,25 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="32" t="s">
+      <c r="A256" s="26" t="s">
         <v>494</v>
       </c>
       <c r="B256" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C256" s="33" t="s">
+      <c r="C256" s="27" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="32"/>
+      <c r="A257" s="26"/>
       <c r="B257" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C257" s="33"/>
+      <c r="C257" s="27"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="32" t="s">
+      <c r="A258" s="26" t="s">
         <v>498</v>
       </c>
       <c r="B258" s="10" t="s">
@@ -9533,7 +9534,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="32"/>
+      <c r="A259" s="26"/>
       <c r="B259" s="10" t="s">
         <v>284</v>
       </c>
@@ -9542,16 +9543,16 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="32"/>
+      <c r="A260" s="26"/>
       <c r="C260" s="10" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="32" t="s">
+      <c r="A261" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="B261" s="33" t="s">
+      <c r="B261" s="27" t="s">
         <v>502</v>
       </c>
       <c r="C261" s="10" t="s">
@@ -9559,24 +9560,24 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="32"/>
-      <c r="B262" s="33"/>
+      <c r="A262" s="26"/>
+      <c r="B262" s="27"/>
       <c r="C262" s="10" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="32"/>
-      <c r="B263" s="33"/>
+      <c r="A263" s="26"/>
+      <c r="B263" s="27"/>
       <c r="C263" s="10" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="32" t="s">
+      <c r="A264" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="B264" s="33" t="s">
+      <c r="B264" s="27" t="s">
         <v>507</v>
       </c>
       <c r="C264" s="10" t="s">
@@ -9584,57 +9585,57 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="32"/>
-      <c r="B265" s="33"/>
+      <c r="A265" s="26"/>
+      <c r="B265" s="27"/>
       <c r="C265" s="10" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="32"/>
-      <c r="B266" s="33"/>
+      <c r="A266" s="26"/>
+      <c r="B266" s="27"/>
       <c r="C266" s="10" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="32" t="s">
+      <c r="A267" s="26" t="s">
         <v>511</v>
       </c>
       <c r="B267" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C267" s="33" t="s">
+      <c r="C267" s="27" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="32"/>
+      <c r="A268" s="26"/>
       <c r="B268" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="C268" s="33"/>
+      <c r="C268" s="27"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="32" t="s">
+      <c r="A269" s="26" t="s">
         <v>515</v>
       </c>
       <c r="B269" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="C269" s="33" t="s">
+      <c r="C269" s="27" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="32"/>
+      <c r="A270" s="26"/>
       <c r="B270" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C270" s="33"/>
+      <c r="C270" s="27"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="32" t="s">
+      <c r="A271" s="26" t="s">
         <v>519</v>
       </c>
       <c r="B271" s="10" t="s">
@@ -9645,7 +9646,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="32"/>
+      <c r="A272" s="26"/>
       <c r="B272" s="10" t="s">
         <v>521</v>
       </c>
@@ -9654,70 +9655,70 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="32"/>
+      <c r="A273" s="26"/>
       <c r="C273" s="10" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="32"/>
+      <c r="A274" s="26"/>
       <c r="C274" s="10" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="32" t="s">
+      <c r="A275" s="26" t="s">
         <v>526</v>
       </c>
       <c r="B275" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C275" s="33" t="s">
+      <c r="C275" s="27" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="32"/>
+      <c r="A276" s="26"/>
       <c r="B276" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C276" s="33"/>
+      <c r="C276" s="27"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="32" t="s">
+      <c r="A277" s="26" t="s">
         <v>529</v>
       </c>
       <c r="B277" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="C277" s="33" t="s">
+      <c r="C277" s="27" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="32"/>
+      <c r="A278" s="26"/>
       <c r="B278" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C278" s="33"/>
+      <c r="C278" s="27"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="32" t="s">
+      <c r="A279" s="26" t="s">
         <v>532</v>
       </c>
       <c r="B279" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C279" s="33" t="s">
+      <c r="C279" s="27" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="32"/>
+      <c r="A280" s="26"/>
       <c r="B280" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C280" s="33"/>
+      <c r="C280" s="27"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="s">
@@ -9753,22 +9754,22 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="32" t="s">
+      <c r="A284" s="26" t="s">
         <v>545</v>
       </c>
       <c r="B284" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="C284" s="33" t="s">
+      <c r="C284" s="27" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="32"/>
+      <c r="A285" s="26"/>
       <c r="B285" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C285" s="33"/>
+      <c r="C285" s="27"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="11" t="s">
@@ -9782,7 +9783,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="32" t="s">
+      <c r="A287" s="26" t="s">
         <v>157</v>
       </c>
       <c r="B287" s="10" t="s">
@@ -9790,13 +9791,13 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="32"/>
+      <c r="A288" s="26"/>
       <c r="B288" s="10" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="32" t="s">
+      <c r="A289" s="26" t="s">
         <v>157</v>
       </c>
       <c r="B289" s="10" t="s">
@@ -9804,7 +9805,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="32"/>
+      <c r="A290" s="26"/>
       <c r="B290" s="10" t="s">
         <v>554</v>
       </c>
@@ -9946,7 +9947,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="32" t="s">
+      <c r="A308" s="26" t="s">
         <v>157</v>
       </c>
       <c r="B308" s="10" t="s">
@@ -9954,25 +9955,25 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="32"/>
+      <c r="A309" s="26"/>
       <c r="B309" s="10" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="32"/>
+      <c r="A310" s="26"/>
       <c r="B310" s="10" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="32"/>
+      <c r="A311" s="26"/>
       <c r="B311" s="10" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="32"/>
+      <c r="A312" s="26"/>
       <c r="B312" s="10" t="s">
         <v>589</v>
       </c>
@@ -10273,87 +10274,15 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A129:A136"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="A230:A234"/>
-    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="C284:C285"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="C267:C268"/>
     <mergeCell ref="A269:A270"/>
@@ -10368,15 +10297,87 @@
     <mergeCell ref="B261:B263"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3030757C-9F3D-364F-9CAC-9899EA0075ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10811939-7CAF-2C44-8FAF-A52AC87ED3AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32240" yWindow="0" windowWidth="32240" windowHeight="18220" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="5140" yWindow="2000" windowWidth="27660" windowHeight="16180" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Queries" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="WOSSearchOperators" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Queries!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Queries!$H$1:$I$82</definedName>
     <definedName name="_Toc14330918" localSheetId="0">Queries!$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="879">
   <si>
     <t>valueChain</t>
   </si>
@@ -670,9 +670,6 @@
     <t>medicinalPlants</t>
   </si>
   <si>
-    <t>biofuels</t>
-  </si>
-  <si>
     <t>fish</t>
   </si>
   <si>
@@ -751,9 +748,6 @@
     <t>forestrySystems</t>
   </si>
   <si>
-    <t>genet* AND fish*</t>
-  </si>
-  <si>
     <t>impactsFish</t>
   </si>
   <si>
@@ -793,9 +787,6 @@
     <t>searchStrings.fish</t>
   </si>
   <si>
-    <t>c("fish", "seafood", "molluscs", "salmon", "tuna", "hake")</t>
-  </si>
-  <si>
     <t>searchStrings.foodSec</t>
   </si>
   <si>
@@ -5031,9 +5022,6 @@
     <t>searchStrings.adaptStrat</t>
   </si>
   <si>
-    <t>c("agroecology", "sustainable intensification", "precision agriculture", "landscape approach*", "agroforestry", "land sparing", "land sharing", "climate smart agriculture", "Infrastructure", "conservation agriculture", "diversification", "fertilizer", "planting date", "irrigation ", "crop cultivars", "multiple cropping", "soil conservation", "minimal soil disturbance", "seed priming", "economising inputs", "permanent soil cover", "sequestration of soil organic carbon", "water harvesting", "irrigation efficiency", "storage facility")</t>
-  </si>
-  <si>
     <t>searchStrings.climZones</t>
   </si>
   <si>
@@ -5043,9 +5031,6 @@
     <t>searchStrings.crpSystems</t>
   </si>
   <si>
-    <t>c("monocrop*", "intercrop*", "sequential crop*", "relay crop*", "multicrop*", "crop rotat*")</t>
-  </si>
-  <si>
     <t>c("frui*", "tomato*", "strawberr*", "blueberr*", "raspberr*", "grap*", "guava", "mango")</t>
   </si>
   <si>
@@ -5082,12 +5067,6 @@
     <t>fish AND impact*</t>
   </si>
   <si>
-    <t>genet* AND livestoc*</t>
-  </si>
-  <si>
-    <t>genet* AND crop*</t>
-  </si>
-  <si>
     <t>aquacultur*</t>
   </si>
   <si>
@@ -5100,9 +5079,6 @@
     <t>c("climate change", "climate variability", "global warming", "greenhouse effect", "extreme weather", "climate hazard", "heat stress", "heat wave", "precipitation variability", "temperature variability", "drought")</t>
   </si>
   <si>
-    <t xml:space="preserve">c("profit*", "financ*", "econ*", "price", "price variability", "price increase") </t>
-  </si>
-  <si>
     <t>In the Queries worksheet use () to indicate words separated by AND</t>
   </si>
   <si>
@@ -5127,9 +5103,6 @@
     <t>localKnowledge</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Latin America", "Central America", "Caribbean",  "Europe", "Northern Europe", "Western Europe", "Southern Europe", "Eastern Europe", "Western Asia", "Middle East","Asia", "South Asia", "East Asia", "Central Asia", "Australia", "New Zealand","Southeast Asia", "Africa", "East Africa", "West Africa", "Central Africa", "North Africa",  "islands") </t>
-  </si>
-  <si>
     <t>searchStrings.pestsPlants</t>
   </si>
   <si>
@@ -5229,9 +5202,6 @@
     <t>5.14 Competition for and Tradeoffs of Use of Land and Ocean</t>
   </si>
   <si>
-    <t>(indigenous OR local) AND knowledge</t>
-  </si>
-  <si>
     <t>stress AND human AND ("thermal heat index" OR "temperature humidity index" OR "wet bulb temperature" OR "web bulb globe temperature" OR "heat stress index")</t>
   </si>
   <si>
@@ -5253,21 +5223,12 @@
     <t>"food secur*" OR "food insecur*" OR "food suppl*" OR "food afford*" OR "food sufficien*" OR "food insufficien*" OR "food availab*" OR "food access*" OR "food utiliz*" OR "food stabil*" OR *nutritio* OR anthropometry OR micronutrient</t>
   </si>
   <si>
-    <t>biofuel* OR bioenergy OR agrofuel* OR BECCS OR "bioenergy with carbon capture and storage"</t>
-  </si>
-  <si>
     <t>agroeco* OR agro-ecolog* OR "diversified farming" OR "ecological agriculture" OR "agricultural ecology" OR agrobiodivers* OR agro-biodivers*</t>
   </si>
   <si>
-    <t>(food OR agriculture) AND adaptation OR "adaptive capacity" OR "risk sharing" OR "risk spreading"</t>
-  </si>
-  <si>
     <t>"crop insurance" OR "index insurance"</t>
   </si>
   <si>
-    <t>"cropping system" AND (intercrop OR "sequential crop" OR "relay crop" OR "multi* crop" OR "crop rotation" OR "mix tree-crop*" OR "traditional crop" OR "indigenous crop" OR perennial OR "minor crop")</t>
-  </si>
-  <si>
     <t>"grain quality" OR "nutrient composition"</t>
   </si>
   <si>
@@ -5322,84 +5283,33 @@
     <t>Perennial</t>
   </si>
   <si>
-    <t>TREEfruit</t>
-  </si>
-  <si>
-    <t>TREEnut</t>
-  </si>
-  <si>
-    <t>TREEcocoa</t>
-  </si>
-  <si>
     <t>cocoa OR cacao OR theobroma</t>
   </si>
   <si>
-    <t>TREEcoffee</t>
-  </si>
-  <si>
     <t>coffee OR Coffea</t>
   </si>
   <si>
     <t>Perennial nonfood</t>
   </si>
   <si>
-    <t>TREEnonfood</t>
-  </si>
-  <si>
     <t>Annual Veg</t>
   </si>
   <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Salad</t>
-  </si>
-  <si>
-    <t>SOFTfruit</t>
-  </si>
-  <si>
     <t>Annual legume</t>
   </si>
   <si>
-    <t>Legume</t>
-  </si>
-  <si>
-    <t>Soybean</t>
-  </si>
-  <si>
     <t>Annual root</t>
   </si>
   <si>
-    <t>RootNtuber</t>
-  </si>
-  <si>
     <t>Annual sugar</t>
   </si>
   <si>
-    <t>SUGAR</t>
-  </si>
-  <si>
     <t>ANNUALnonfood</t>
   </si>
   <si>
-    <t>OILannual</t>
-  </si>
-  <si>
-    <t>SpiceNherb</t>
-  </si>
-  <si>
-    <t>BEVERAGE</t>
-  </si>
-  <si>
-    <t>Ornamental</t>
-  </si>
-  <si>
     <t>Fiber mixed</t>
   </si>
   <si>
-    <t>Fiber</t>
-  </si>
-  <si>
     <t>"rubber tree" OR "rubber crop" OR latex OR "Hevea brasiliensis" OR "maple syrup" OR coconut OR "Cocos nucifera" OR "palm oil" OR "Elaeis guineensis"</t>
   </si>
   <si>
@@ -5436,15 +5346,6 @@
     <t>almond* OR cashew* OR hazel* OR walnut* OR pistachio* OR macadamia* OR chestnut* OR Areca OR "Karite nut*" OR sheanut* OR "Vitellaria paradoxa" OR kola* OR "brazil nut" OR "Bertholletia excelsa" OR "pine nut"</t>
   </si>
   <si>
-    <t xml:space="preserve"> artichoke* OR asparagus OR brassica* OR broccoli OR cauliflower OR cucumber OR gherkin* OR courgette OR alliace* OR celery OR leek* OR cabbage* OR onion* OR garlic* OR pumpkin OR squash OR gourd* OR bamboo OR tomato OR Lycopersicon OR *pepper* OR eggplant OR aubergine* OR "Solanum melongena" OR lettuce OR Chayote OR "Sechium edule" OR christophine OR okra OR "Abelmoschus esculentus" OR mushroom* OR truffle*</t>
-  </si>
-  <si>
-    <t>salad OR lettuce OR chicory OR celery OR spinage OR parsley OR rocket OR "collard green" OR "Cassava leaves"</t>
-  </si>
-  <si>
-    <t>legume* OR bean* OR pulse* OR phaseolus OR pisum OR lentil* OR chickpea* OR "chick pea*" OR "Cicer arietinum" OR cowpea OR "Vigna unguiculata" OR "pigeon pea" OR pigeonpea OR peanut* OR groundnut* OR "Arachis hypogaea" OR lupin* OR vetches OR vicia OR carobs</t>
-  </si>
-  <si>
     <t>pig OR hog OR swine OR poultry OR chicken OR broilers OR ruminant OR sheep OR goat OR cattle OR buffalo OR beef OR pork OR lamb OR mutton</t>
   </si>
   <si>
@@ -5460,15 +5361,9 @@
     <t>flood OR "sea level rise" OR "extreme event" AND crop* AND impact*</t>
   </si>
   <si>
-    <t>tea OR "Camellia sinensis" OR mate OR "Ilex paraguayensis" OR hops OR tobacco OR cannabis</t>
-  </si>
-  <si>
     <t>"price vol*" OR "price var*" OR "price uncertain*" OR "agricultural price var*" OR "agricultural price uncertain*" OR "commodity price var*" OR "commodity price uncertain*" OR "commodity price vol*"</t>
   </si>
   <si>
-    <t xml:space="preserve">"wild food*" OR "edible wild plant*" OR bushmeat </t>
-  </si>
-  <si>
     <t>5.1 Methodologies and Associated Uncertainties</t>
   </si>
   <si>
@@ -5481,14 +5376,312 @@
     <t>cotton OR hemp OR "common flax" OR "Linum usitatissimum" OR jute OR Corchorus OR bastfibre* OR sisal OR "agave fiber*" OR "Manila fibre" OR "Manila hemp" OR ramie OR "Boehmeria nivea"</t>
   </si>
   <si>
-    <t>"perennial fruit" OR apple* OR "Malus pumila" OR apricot* OR citrus OR orange* OR lemon* OR lime* OR grapefruit* OR tangerine* OR mandarin* OR clementine* OR satsuma* OR peach* OR nectarine* OR pear* OR plum* OR quince* OR sloe* OR cherr* OR avocado* OR breadfruit* OR mango* OR olive* OR "Olea europaea" OR guava* OR lyche* OR jackfruit* OR "dragon fruit*" OR "palm fruit*" OR kapok OR banana* OR plantain* OR Musa OR grape* OR "kiwi fruit" OR "Vitis vinifera" OR "date palm" OR "Phoenix dactylifera" OR "common fig" OR "Ficus carica"</t>
+    <t xml:space="preserve"> "vegetable crop" OR artichoke* OR asparagus OR brassica* OR broccoli OR cauliflower OR cucumber OR gherkin* OR courgette OR alliace* OR celery OR leek* OR cabbage* OR onion* OR garlic* OR pumpkin OR squash OR gourd* OR bamboo OR tomato OR Lycopersicon OR *pepper* OR eggplant OR aubergine* OR "Solanum melongena" OR lettuce OR Chayote OR "Sechium edule" OR christophine OR okra OR "Abelmoschus esculentus" OR mushroom* OR truffle*</t>
+  </si>
+  <si>
+    <t>"salad crop" OR lettuce OR chicory OR celery OR spinage OR parsley OR rocket OR "collard green" OR "Cassava leaves"</t>
+  </si>
+  <si>
+    <t>legume* OR pulse* OR phaseolus OR pisum OR lentil* OR chickpea* OR "chick pea*" OR "Cicer arietinum" OR cowpea OR "Vigna unguiculata" OR "pigeon pea" OR pigeonpea OR peanut* OR groundnut* OR "Arachis hypogaea" OR lupin* OR vetches OR vicia OR carobs</t>
+  </si>
+  <si>
+    <t>tea OR "Camellia sinensis" OR "yerba mate" OR "Ilex paraguayensis" OR hops OR tobacco OR cannabis</t>
+  </si>
+  <si>
+    <t>beverage</t>
+  </si>
+  <si>
+    <t>fiber</t>
+  </si>
+  <si>
+    <t>legume</t>
+  </si>
+  <si>
+    <t>oilAnnual</t>
+  </si>
+  <si>
+    <t>ornamentalHort</t>
+  </si>
+  <si>
+    <t>rootNtuber</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>soybean</t>
+  </si>
+  <si>
+    <t>spiceNherb</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>treeCocoa</t>
+  </si>
+  <si>
+    <t>treeCoffee</t>
+  </si>
+  <si>
+    <t>treeFruit</t>
+  </si>
+  <si>
+    <t>treeNonfood</t>
+  </si>
+  <si>
+    <t>treeNut</t>
+  </si>
+  <si>
+    <t>vegetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("Latin America", "Central America", "Caribbean",  "Europe", "Northern Europe", "Western Europe", "Southern Europe", "Eastern Europe", "Western Asia", "Middle East","Asia", "South Asia", "East Asia", "Central Asia", "Australia", "New Zealand","Southeast Asia", "Africa", "East Africa", "West Africa", "Central Africa", "North Africa","South* Africa",  "islands") </t>
+  </si>
+  <si>
+    <t>breadBasketFailure</t>
+  </si>
+  <si>
+    <t>(breadbasket AND (failure OR loss)) OR "globally synchronized" OR "production shocks"</t>
+  </si>
+  <si>
+    <t>"wild food*" OR "edible wild plant*" OR bushmeat OR "traditional leafy veget*"</t>
+  </si>
+  <si>
+    <t>((indigenous OR local) AND knowledge) OR (traditional ecologic* knowledge)</t>
+  </si>
+  <si>
+    <t>c("monocrop*", "intercrop*", "sequential crop*", "relay crop*", "multicrop*", "crop rotat*", "conservation agriculture")</t>
+  </si>
+  <si>
+    <t>c("agroecology", "sustainable intensification", "precision agriculture", "landscape approach*", "agroforestry", "land sparing", "land sharing", "climate smart agriculture", "Infrastructure", "conservation agriculture", "diversification", "fertilizer", "planting date", "irrigation ", "crop cultivars", "multiple cropping", "soil conservation", "minimal soil disturbance", "seed priming", "economising inputs", "permanent soil cover", "sequestration of soil organic carbon", "water harvesting", "irrigation efficiency", "storage facility", "conservation agriculture")</t>
+  </si>
+  <si>
+    <t>(food OR agriculture) AND adaptation OR "adaptive capacity" OR "risk sharing" OR "risk spreading" OR "conservation agriculture"</t>
+  </si>
+  <si>
+    <t>"cropping system" AND (intercrop OR "sequential crop" OR "relay crop" OR "multi* crop" OR "crop rotation" OR "mix tree-crop*" OR "traditional crop" OR "indigenous crop" OR perennial OR "minor crop" OR "conservation agriculture")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("profit*", "financ*", "econ*", "price", "price variability", "price increase", "market*", "value chain", "supply chain", "market* channel", "trade", "food marketing system", "farm to table") </t>
+  </si>
+  <si>
+    <t>"perennial fruit" OR apple* OR "Malus pumila" OR apricot* OR citrus OR orange* OR lemon* OR lime* OR grapefruit* OR tangerine* OR mandarin* OR clementine* OR satsuma* OR peach* OR nectarine* OR pear* OR plum* OR quince* OR sloe* OR cherr* OR avocado* OR breadfruit* OR mango* OR olive* OR "Olea europaea" OR guava* OR lyche* OR jackfruit* OR "dragon fruit*" OR "palm fruit*" OR kapok OR banana* OR plantain* OR Musa OR grape OR "kiwi fruit" OR "Vitis vinifera" OR "date palm" OR "Phoenix dactylifera" OR "common fig" OR "Ficus carica"</t>
+  </si>
+  <si>
+    <t>pestsFish</t>
+  </si>
+  <si>
+    <t>(fish OR marine OR aquaculture) AND (pest* OR insect* or fung* OR weed* OR pathogen )</t>
+  </si>
+  <si>
+    <t>pestsForest</t>
+  </si>
+  <si>
+    <t>(*forest*) AND (pest* OR insect* or fung* OR weed* OR pathogen )</t>
+  </si>
+  <si>
+    <t>culturEcoSysService</t>
+  </si>
+  <si>
+    <t>(cultur* AND ecosystem service*) OR touris* OR relig* OR recreat* OR spiritual OR Aesthetic OR beaut*</t>
+  </si>
+  <si>
+    <t>c("fish", "seafood", "molluscs", "salmon", "tuna", "hake", "trout", "bass", "perch", "pike", "tilapia")</t>
+  </si>
+  <si>
+    <t>searchString.engLevel</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>c("government", "private", "civil", "institution*","internation*", "national", "sub-national", "local", "household")</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>searchString.adapType</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>c("behavi*", "cultural",  "institution*","technolog*")</t>
+  </si>
+  <si>
+    <t>searchString.adapProfile</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>c("autonomous", "incremental", "reactive", "resistance","transform*")</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>searchString.adapStage</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>c("recogni*", "planning", "assessment", "widespread","monitor*","evaluat*")</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>searchString.adapBeneficiary</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>c("community", "farmers")</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>searchString.adapLimits</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>c("hard limit*", "soft limit*")</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>searchString.adapConstraints</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>c("financ*", "technolog*", "fund*")</t>
+  </si>
+  <si>
+    <t>searchString.extentCC</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>c("sea level", "heat", "drought", "flood")</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>(food OR agriculture) AND adaptation OR "Community-based"</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>(food OR agriculture) AND adaptation OR "push-pull"</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>adaptComm</t>
+  </si>
+  <si>
+    <t>adaptPushPull</t>
+  </si>
+  <si>
+    <t>adaptPartBreed</t>
+  </si>
+  <si>
+    <t>(food OR agriculture) AND adaptation OR "Participatory breeding"</t>
+  </si>
+  <si>
+    <t>softFruit</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t>GCN</t>
+  </si>
+  <si>
+    <t>RBK</t>
+  </si>
+  <si>
+    <t>PKT</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>SEL</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>HGS</t>
+  </si>
+  <si>
+    <t>HJ</t>
+  </si>
+  <si>
+    <t>Annual fruit</t>
+  </si>
+  <si>
+    <t>full name</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>Delphine Deryng</t>
+  </si>
+  <si>
+    <t>Salvador Emilio Lluch Cota</t>
+  </si>
+  <si>
+    <t>Rachel Bezner Kerr</t>
+  </si>
+  <si>
+    <t>Francisco Meza</t>
+  </si>
+  <si>
+    <t>Gerald C. Nelson</t>
+  </si>
+  <si>
+    <t>Aidan Farrell</t>
+  </si>
+  <si>
+    <t>Toshihiro Hasegawa</t>
+  </si>
+  <si>
+    <t>Ju Hui</t>
+  </si>
+  <si>
+    <t>Henry Neufeldt</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Rodel Lasco</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>Indra Bhatt</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>Helen Gurley-Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">livestock AND “gene* engineering” OR “gene* modif*” OR biotech* OR GMO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(fish OR aquaculture) AND “gene* engineering” OR “gene* modif*” OR biotech* OR GMO </t>
+  </si>
+  <si>
+    <t>geneticEngForest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(forest* OR tree*) AND “gene* engineering” OR “gene* modif*” OR biotech* OR GMO </t>
+  </si>
+  <si>
+    <t>crop AND ("gene* engineering” OR “gene* modif*” OR biotech* OR GMO)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5608,8 +5801,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5619,6 +5835,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5693,7 +5915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5718,38 +5940,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6065,1226 +6321,1709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="28"/>
+    <col min="1" max="1" width="10.83203125" style="21"/>
     <col min="2" max="2" width="37.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="20" style="19" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="19"/>
-    <col min="6" max="16384" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="42.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="19"/>
+    <col min="7" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="9" width="10.83203125" style="19"/>
+    <col min="10" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>85</v>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28">
+      <c r="F1" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>815</v>
+      <c r="B2" s="36" t="s">
+        <v>780</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
-        <f>A2+1</f>
+      <c r="E2" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>859</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>718</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
-        <f>A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="D5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>718</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
-        <f>A4+1</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
-        <f>A5+1</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>727</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
-        <f>A6+1</f>
+      <c r="E6" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>727</v>
+      <c r="B7" s="19" t="s">
+        <v>718</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>697</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
-        <f>A7+1</f>
+        <v>689</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>727</v>
+      <c r="B8" s="19" t="s">
+        <v>718</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
-        <f>A8+1</f>
+        <v>688</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>727</v>
+      <c r="B9" s="19" t="s">
+        <v>718</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
-        <f>A9+1</f>
+      <c r="E9" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
-        <f>A10+1</f>
+      <c r="B10" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>730</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
-        <f>A11+1</f>
+      <c r="B11" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>719</v>
+      <c r="B12" s="19" t="s">
+        <v>710</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
-        <f>A12+1</f>
+      <c r="E12" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>865</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>719</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
-        <f>A13+1</f>
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
-        <f>A14+1</f>
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="D16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>703</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42" t="s">
+        <v>840</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>838</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>703</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42" t="s">
+        <v>842</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>843</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>703</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42" t="s">
+        <v>841</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>839</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>805</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="21">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A30" s="21">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>790</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>766</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="21">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25" t="s">
+        <v>770</v>
+      </c>
+      <c r="E34" s="32" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
-        <f>A15+1</f>
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
-        <f>A16+1</f>
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
-        <f>A17+1</f>
-        <v>17</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="F34" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>788</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
-        <f>A18+1</f>
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>731</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
-        <f>A19+1</f>
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="F38" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="21">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A40" s="21">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="21">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="21">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A46" s="21">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" s="21">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A48" s="21">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A49" s="21">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>784</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="21">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
-        <f>A20+1</f>
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
-        <f>A21+1</f>
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
-        <f>A22+1</f>
-        <v>22</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>790</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>791</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
-        <f>A23+1</f>
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
-        <f>A24+1</f>
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
-        <f>A25+1</f>
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
-        <f>A26+1</f>
-        <v>26</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>778</v>
-      </c>
-      <c r="D27" s="29" t="s">
+      <c r="E50" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="21">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="21">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>740</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="21">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+    </row>
+    <row r="57" spans="1:9" s="24" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A57" s="21">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="27" t="s">
         <v>779</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
-        <f>A27+1</f>
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
-        <f>A28+1</f>
-        <v>28</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>785</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>786</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
-        <f>A29+1</f>
-        <v>29</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>785</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
-        <f>A30+1</f>
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>705</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
-        <f>A31+1</f>
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
-        <f>A32+1</f>
-        <v>32</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>782</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
-        <f>A33+1</f>
-        <v>33</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>774</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>776</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
-        <f>A34+1</f>
-        <v>34</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>764</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="28">
-        <f>A35+1</f>
-        <v>35</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>774</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>777</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="28">
-        <f>A36+1</f>
-        <v>36</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>778</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
-        <f>A37+1</f>
-        <v>37</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>785</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>787</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="28">
-        <f>A38+1</f>
-        <v>38</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>783</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>784</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
-        <f>A39+1</f>
-        <v>39</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>765</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>768</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
-        <f>A40+1</f>
-        <v>40</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>765</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>770</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
-        <f>A41+1</f>
-        <v>41</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>765</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>766</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="28">
-        <f>A42+1</f>
-        <v>42</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>772</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>773</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="28">
-        <f>A43+1</f>
-        <v>43</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>765</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>767</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
-        <f>A44+1</f>
-        <v>44</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>774</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>775</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="28">
-        <f>A45+1</f>
-        <v>45</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="28">
-        <f>A46+1</f>
-        <v>46</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>729</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="28">
-        <f>A47+1</f>
-        <v>47</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="28">
-        <f>A48+1</f>
-        <v>48</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="28">
-        <f>A49+1</f>
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="28">
-        <f>A50+1</f>
-        <v>50</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A52" s="28">
-        <f>A51+1</f>
-        <v>51</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="28">
-        <f>A52+1</f>
-        <v>52</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="28">
-        <f>A53+1</f>
-        <v>53</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A55" s="28">
-        <f>A54+1</f>
-        <v>54</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="28">
-        <f>A55+1</f>
-        <v>55</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="28">
-        <f>A56+1</f>
-        <v>56</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="28">
-        <f>A57+1</f>
+      <c r="F57" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+    </row>
+    <row r="58" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="21">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>713</v>
+      <c r="B58" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28">
-        <f>A58+1</f>
+        <v>3</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+    </row>
+    <row r="59" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="21">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>713</v>
+      <c r="B59" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28">
-        <f>A59+1</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+    </row>
+    <row r="60" spans="1:9" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A60" s="21">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>713</v>
+      <c r="B60" s="19" t="s">
+        <v>704</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="28">
-        <f>A60+1</f>
+        <v>711</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+    </row>
+    <row r="61" spans="1:9" s="24" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A61" s="21">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="28">
-        <f>A61+1</f>
+      <c r="B61" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25" t="s">
+        <v>715</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>744</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+    </row>
+    <row r="62" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="21">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19" t="s">
+      <c r="B62" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+    </row>
+    <row r="63" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="21">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+    </row>
+    <row r="64" spans="1:9" s="24" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="21">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+    </row>
+    <row r="65" spans="1:9" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="21">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+    </row>
+    <row r="66" spans="1:9" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="21">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="F66" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+    </row>
+    <row r="67" spans="1:9" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A67" s="21">
+        <f t="shared" ref="A67:A82" si="1">A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>743</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+    </row>
+    <row r="68" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A68" s="21">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+    </row>
+    <row r="69" spans="1:9" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="21">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+    </row>
+    <row r="70" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="21">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>748</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+    </row>
+    <row r="71" spans="1:9" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="21">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28">
-        <f>A62+1</f>
-        <v>62</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28">
-        <f>A63+1</f>
-        <v>63</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28">
-        <f>A64+1</f>
-        <v>64</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19" t="s">
+      <c r="E71" s="33" t="s">
+        <v>747</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+    </row>
+    <row r="72" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="21">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+    </row>
+    <row r="73" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="21">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+    </row>
+    <row r="74" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="21">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>781</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+    </row>
+    <row r="75" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="21">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25" t="s">
+        <v>769</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+    </row>
+    <row r="76" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A76" s="21">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>749</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A77" s="21">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="25" t="s">
         <v>706</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="C77" s="25"/>
+      <c r="D77" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>807</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="21">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+    </row>
+    <row r="79" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="21">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="21">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>816</v>
+      </c>
+      <c r="F80" s="42" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="21">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="25" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28">
-        <f>A65+1</f>
-        <v>65</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19" t="s">
-        <v>678</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="28">
-        <f>A66+1</f>
-        <v>66</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="28">
-        <f>A67+1</f>
-        <v>67</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19" t="s">
-        <v>800</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28">
-        <f>A68+1</f>
-        <v>68</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28">
-        <f>A69+1</f>
-        <v>69</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
-        <v>799</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="28">
-        <f>A70+1</f>
-        <v>70</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="28">
-        <f>A71+1</f>
-        <v>71</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
-        <v>709</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="28">
-        <f>A72+1</f>
-        <v>72</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28">
-        <f>A73+1</f>
-        <v>73</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="28">
-        <f>A74+1</f>
-        <v>74</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>735</v>
+      <c r="D81" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="E81" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="F81" s="42" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="21">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="F82" s="42" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{EB323E7F-C5BD-C24A-9909-3B5183F7D633}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E75">
-      <sortCondition ref="B1:B75"/>
-    </sortState>
-  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I82">
+    <sortCondition ref="I2:I82"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7301,25 +8040,25 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -7329,10 +8068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B44446-4EFF-1748-B076-59F83F2A5201}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7342,226 +8081,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>701</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B5" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B11" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>692</v>
+        <v>813</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B18" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B19" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B20" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>669</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>673</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>711</v>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
+        <v>824</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="38" t="s">
+        <v>826</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>828</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
+        <v>832</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="38" t="s">
+        <v>834</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -7584,18 +8387,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -7619,12 +8422,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7632,12 +8435,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -7645,54 +8448,54 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -7700,113 +8503,113 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="44"/>
+      <c r="B19" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="44"/>
+      <c r="B21" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="10" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="11" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="44"/>
+      <c r="B23" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="10" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="44" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="10" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="44"/>
+      <c r="B25" s="10" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
-        <v>157</v>
+      <c r="A31" s="45" t="s">
+        <v>154</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -7814,32 +8617,32 @@
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -7847,217 +8650,217 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="45" t="s">
         <v>171</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="27"/>
+        <v>169</v>
+      </c>
+      <c r="B43" s="45"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="27"/>
+        <v>170</v>
+      </c>
+      <c r="B44" s="45"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
-        <v>157</v>
+      <c r="A50" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="44"/>
+      <c r="B51" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="44"/>
+      <c r="B52" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="44"/>
+      <c r="B53" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
-      <c r="B51" s="10" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="44"/>
+      <c r="B54" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
-      <c r="B52" s="10" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="44"/>
+      <c r="B55" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="10" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="44"/>
+      <c r="B56" s="10" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="B54" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="26"/>
-      <c r="B55" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="B56" s="10" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
-        <v>150</v>
+      <c r="A59" s="44" t="s">
+        <v>147</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
+      <c r="A60" s="44"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
-        <v>157</v>
+      <c r="A70" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="26"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="26"/>
+      <c r="A72" s="44"/>
       <c r="B72" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="26"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -8065,82 +8868,82 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -8148,20 +8951,20 @@
     </row>
     <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -8169,68 +8972,68 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B96" s="10" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="44"/>
+      <c r="B98" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="44"/>
+      <c r="B99" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="26" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="44"/>
+      <c r="B100" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
-      <c r="B98" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
-      <c r="B99" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="26"/>
-      <c r="B100" s="10" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -8238,10 +9041,10 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -8249,7 +9052,7 @@
     </row>
     <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -8257,58 +9060,58 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="26" t="s">
-        <v>150</v>
+      <c r="A112" s="44" t="s">
+        <v>147</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="26"/>
+      <c r="A113" s="44"/>
       <c r="B113" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="26" t="s">
-        <v>157</v>
+      <c r="A115" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="B115" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="44"/>
+      <c r="B116" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="44"/>
+      <c r="B117" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="44"/>
+      <c r="B118" s="10" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="26"/>
-      <c r="B116" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="26"/>
-      <c r="B117" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="26"/>
-      <c r="B118" s="10" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -8316,7 +9119,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -8324,1946 +9127,1946 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="C123" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="44"/>
+      <c r="B124" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="B123" s="10" t="s">
+      <c r="C124" s="45"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="B125" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C125" s="45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="44"/>
+      <c r="B126" s="10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="26"/>
-      <c r="B124" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C124" s="27"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="B125" s="10" t="s">
+      <c r="C126" s="45"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="C125" s="27" t="s">
+      <c r="B127" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C127" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="44"/>
+      <c r="B128" s="10" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="26"/>
-      <c r="B126" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C126" s="27"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B127" s="10" t="s">
+      <c r="C128" s="45"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="B129" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="44"/>
+      <c r="B130" s="10" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="26"/>
-      <c r="B128" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C128" s="27"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="26" t="s">
+      <c r="C130" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="44"/>
+      <c r="B131" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="C131" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="44"/>
+      <c r="B132" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C132" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="26"/>
-      <c r="B130" s="10" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="44"/>
+      <c r="B133" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="26"/>
-      <c r="B131" s="10" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="44"/>
+      <c r="B134" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="26"/>
-      <c r="B132" s="10" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="44"/>
+      <c r="B135" s="10"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="44"/>
+      <c r="B136" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="10" t="s">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="44" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="26"/>
-      <c r="B133" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C133" s="10" t="s">
+      <c r="B137" s="10" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="26"/>
-      <c r="B134" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C134" s="10" t="s">
+      <c r="C137" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="44"/>
+      <c r="B138" s="10" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="26"/>
-      <c r="B135" s="10"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="26"/>
-      <c r="B136" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="B137" s="10" t="s">
+      <c r="C138" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C137" s="10" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" s="10" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="26"/>
-      <c r="B138" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C138" s="10" t="s">
+      <c r="C139" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="44"/>
+      <c r="B140" s="10" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B139" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C139" s="10" t="s">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" s="10" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="26"/>
-      <c r="B140" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C140" s="10" t="s">
+      <c r="C141" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="44"/>
+      <c r="B142" s="10" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B141" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C141" s="10" t="s">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="26"/>
-      <c r="B142" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C142" s="10" t="s">
+      <c r="C143" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="44"/>
+      <c r="B144" s="10" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="B143" s="10" t="s">
+      <c r="C144" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C143" s="10" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="44"/>
+      <c r="C145" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="44" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="26"/>
-      <c r="B144" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C144" s="10" t="s">
+      <c r="B146" s="10" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="26"/>
-      <c r="C145" s="10" t="s">
+      <c r="C146" s="45" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="44"/>
+      <c r="B147" s="10" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="B146" s="10" t="s">
+      <c r="C147" s="45"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="B148" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="44"/>
+      <c r="B149" s="10" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="26"/>
-      <c r="B147" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C147" s="27"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="26"/>
-      <c r="B149" s="10" t="s">
-        <v>294</v>
-      </c>
       <c r="C149" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="26"/>
+      <c r="A150" s="44"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="26"/>
+      <c r="A151" s="44"/>
       <c r="B151" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="26"/>
+      <c r="A152" s="44"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="44"/>
+      <c r="B153" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="44"/>
+      <c r="B154" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="44"/>
+      <c r="B155" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="26"/>
-      <c r="B153" s="10" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="44"/>
+      <c r="B156" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C156" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="26"/>
-      <c r="B154" s="10" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="44"/>
+      <c r="B157" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C154" s="10" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="44"/>
+      <c r="B158" s="10"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="44"/>
+      <c r="B159" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="44"/>
+      <c r="B160" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="44" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="26"/>
-      <c r="B155" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C155" s="10" t="s">
+      <c r="B161" s="10" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="26"/>
-      <c r="B156" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C156" s="10" t="s">
+      <c r="C161" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="44"/>
+      <c r="B162" s="10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="26"/>
-      <c r="B157" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="26"/>
-      <c r="B158" s="10"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="26"/>
-      <c r="B159" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="26"/>
-      <c r="B160" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="B161" s="10" t="s">
+      <c r="C162" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C161" s="10" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="44"/>
+      <c r="B163" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="44"/>
+      <c r="B164" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="44" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="26"/>
-      <c r="B162" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C162" s="10" t="s">
+      <c r="B165" s="45" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="26"/>
-      <c r="B163" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C163" s="10" t="s">
+      <c r="C165" s="10" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="26"/>
-      <c r="B164" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="26" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="44"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B165" s="27" t="s">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="44"/>
+      <c r="B167" s="45"/>
+      <c r="C167" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C165" s="10" t="s">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="44"/>
+      <c r="B168" s="45"/>
+      <c r="C168" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="26"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="10" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="44"/>
+      <c r="B169" s="45"/>
+      <c r="C169" s="10" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="26"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="26"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="26"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="10" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B171" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C171" s="45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="44"/>
+      <c r="B172" s="10" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C171" s="27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="26"/>
-      <c r="B172" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C172" s="27"/>
+      <c r="C172" s="45"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B174" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C174" s="45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="44"/>
+      <c r="B175" s="10" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="B174" s="10" t="s">
+      <c r="C175" s="45"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="C174" s="27" t="s">
+      <c r="B176" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C176" s="45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="44"/>
+      <c r="B177" s="10" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="26"/>
-      <c r="B175" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C175" s="27"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C176" s="27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="26"/>
-      <c r="B177" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C177" s="27"/>
+      <c r="C177" s="45"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="44" t="s">
         <v>345</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B180" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C180" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="44"/>
+      <c r="B181" s="10" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="B180" s="10" t="s">
+      <c r="C181" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C180" s="10" t="s">
+    </row>
+    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="B182" s="45" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="26"/>
-      <c r="B181" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C181" s="10" t="s">
+      <c r="C182" s="9" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A182" s="26" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="44"/>
+      <c r="B183" s="45"/>
+      <c r="C183" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B182" s="27" t="s">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="B184" s="45" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="26"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="10" t="s">
+      <c r="C184" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="26" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="44"/>
+      <c r="B185" s="45"/>
+      <c r="C185" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="B186" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C186" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="26"/>
-      <c r="B185" s="27"/>
-      <c r="C185" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="26" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="44"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B186" s="27" t="s">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="44"/>
+      <c r="B188" s="45"/>
+      <c r="C188" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C186" s="10" t="s">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="44" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="26"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="10" t="s">
+      <c r="B189" s="10" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="26"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="10" t="s">
+      <c r="C189" s="45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="44"/>
+      <c r="B190" s="10" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="B189" s="10" t="s">
+      <c r="C190" s="45"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="C189" s="27" t="s">
+      <c r="B191" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C191" s="45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="44"/>
+      <c r="B192" s="10" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="26"/>
-      <c r="B190" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C190" s="27"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C191" s="27" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="26"/>
-      <c r="B192" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C192" s="27"/>
+      <c r="C192" s="45"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="44" t="s">
         <v>373</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B194" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C194" s="45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="44"/>
+      <c r="B195" s="10" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="B194" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C194" s="27" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="26"/>
-      <c r="B195" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C195" s="27"/>
+      <c r="C195" s="45"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B197" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C197" s="45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="44"/>
+      <c r="B198" s="10" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="B197" s="10" t="s">
+      <c r="C198" s="45"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="C197" s="27" t="s">
+      <c r="B199" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C199" s="45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="44"/>
+      <c r="B200" s="12" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="26"/>
-      <c r="B198" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C198" s="27"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="26" t="s">
+      <c r="C200" s="45"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="44"/>
+      <c r="B201" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B199" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C199" s="27" t="s">
+      <c r="C201" s="45"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C202" s="45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="44"/>
+      <c r="B203" s="10" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="26"/>
-      <c r="B200" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="C200" s="27"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="26"/>
-      <c r="B201" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C201" s="27"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B202" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C202" s="27" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="26"/>
-      <c r="B203" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C203" s="27"/>
+      <c r="C203" s="45"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B207" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C207" s="45" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="44"/>
+      <c r="B208" s="10" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="B207" s="10" t="s">
+      <c r="C208" s="45"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="C207" s="27" t="s">
+      <c r="B209" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C209" s="45" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="44"/>
+      <c r="B210" s="10" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="26"/>
-      <c r="B208" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C208" s="27"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="B209" s="10" t="s">
+      <c r="C210" s="45"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="C209" s="27" t="s">
+      <c r="B211" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="44"/>
+      <c r="B212" s="10" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="26"/>
-      <c r="B210" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C210" s="27"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="B211" s="10" t="s">
+      <c r="C212" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="C211" s="10" t="s">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="B213" s="10" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="26"/>
-      <c r="B212" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C212" s="12" t="s">
+      <c r="C213" s="45" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="44"/>
+      <c r="B214" s="10" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="B213" s="10" t="s">
+      <c r="C214" s="45"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="C213" s="27" t="s">
+      <c r="B215" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C215" s="45" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="44"/>
+      <c r="B216" s="10" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="26"/>
-      <c r="B214" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C214" s="27"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="B215" s="10" t="s">
+      <c r="C216" s="45"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="C215" s="27" t="s">
+      <c r="B217" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C217" s="45" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="44"/>
+      <c r="B218" s="10" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="26"/>
-      <c r="B216" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C216" s="27"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="B217" s="10" t="s">
+      <c r="C218" s="45"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="C217" s="27" t="s">
+      <c r="B219" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C219" s="45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="44"/>
+      <c r="B220" s="10" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="26"/>
-      <c r="B218" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C218" s="27"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C219" s="27" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="26"/>
-      <c r="B220" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C220" s="27"/>
+      <c r="C220" s="45"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B222" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C222" s="10" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="26" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="44"/>
+      <c r="B223" s="45"/>
+      <c r="C223" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B222" s="27" t="s">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="B224" s="45" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="26"/>
-      <c r="B223" s="27"/>
-      <c r="C223" s="10" t="s">
+      <c r="C224" s="10" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="26" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="44"/>
+      <c r="B225" s="45"/>
+      <c r="C225" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B224" s="27" t="s">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="44"/>
+      <c r="B226" s="45"/>
+      <c r="C226" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C224" s="10" t="s">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="44" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="26"/>
-      <c r="B225" s="27"/>
-      <c r="C225" s="10" t="s">
+      <c r="B227" s="45" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="26"/>
-      <c r="B226" s="27"/>
-      <c r="C226" s="10" t="s">
+      <c r="C227" s="10" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="26" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="44"/>
+      <c r="B228" s="45"/>
+      <c r="C228" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="44"/>
+      <c r="B229" s="45"/>
+      <c r="C229" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="B227" s="27" t="s">
+      <c r="B230" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C227" s="10" t="s">
+      <c r="C230" s="10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="44"/>
+      <c r="B231" s="10" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="26"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="26"/>
-      <c r="B229" s="27"/>
-      <c r="C229" s="10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="B230" s="10" t="s">
+      <c r="C231" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C230" s="10" t="s">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="44"/>
+      <c r="C232" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="44"/>
+      <c r="C233" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="44"/>
+      <c r="C234" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="44" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="26"/>
-      <c r="B231" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C231" s="10" t="s">
+      <c r="B235" s="10" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="26"/>
-      <c r="C232" s="10" t="s">
+      <c r="C235" s="45" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="44"/>
+      <c r="B236" s="10" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="26"/>
-      <c r="C233" s="10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="26"/>
-      <c r="C234" s="10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="B235" s="10" t="s">
+      <c r="C236" s="45"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="C235" s="27" t="s">
+      <c r="B237" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C237" s="45" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="44"/>
+      <c r="B238" s="10" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="26"/>
-      <c r="B236" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="C236" s="27"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="B237" s="10" t="s">
+      <c r="C238" s="45"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="C237" s="27" t="s">
+      <c r="B239" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="44"/>
+      <c r="B240" s="10" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="26"/>
-      <c r="B238" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C238" s="27"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B239" s="10" t="s">
+      <c r="C240" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C239" s="10" t="s">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="44"/>
+      <c r="C241" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="44" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="26"/>
-      <c r="B240" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C240" s="10" t="s">
+      <c r="B242" s="10" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="26"/>
-      <c r="C241" s="10" t="s">
+      <c r="C242" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="44"/>
+      <c r="B243" s="10" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="26" t="s">
+      <c r="C243" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="44"/>
+      <c r="B244" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="C244" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="44"/>
+      <c r="B245" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C242" s="10" t="s">
+      <c r="C245" s="10" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="26"/>
-      <c r="B243" s="10" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="44"/>
+      <c r="B246" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C243" s="10" t="s">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="44"/>
+      <c r="B247" s="10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="44"/>
+      <c r="B248" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="44"/>
+      <c r="B249" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="44" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="26"/>
-      <c r="B244" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="C244" s="10" t="s">
+      <c r="B250" s="10" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="26"/>
-      <c r="B245" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C245" s="10" t="s">
+      <c r="C250" s="45" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="44"/>
+      <c r="B251" s="10" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="26"/>
-      <c r="B246" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="26"/>
-      <c r="B247" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="26"/>
-      <c r="B248" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="26"/>
-      <c r="B249" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="26" t="s">
+      <c r="C251" s="45"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="44"/>
+      <c r="B252" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="C252" s="45"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="44"/>
+      <c r="B253" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C250" s="27" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="26"/>
-      <c r="B251" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="C251" s="27"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="26"/>
-      <c r="B252" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C252" s="27"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="26"/>
-      <c r="B253" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="C253" s="27"/>
+      <c r="C253" s="45"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B256" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C255" s="10" t="s">
+      <c r="C256" s="45" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="44"/>
+      <c r="B257" s="10" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="B256" s="10" t="s">
+      <c r="C257" s="45"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="C256" s="27" t="s">
+      <c r="B258" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="44"/>
+      <c r="B259" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="44"/>
+      <c r="C260" s="10" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="26"/>
-      <c r="B257" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="C257" s="27"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="26" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="B258" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C258" s="10" t="s">
+      <c r="B261" s="45" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="26"/>
-      <c r="B259" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="26"/>
-      <c r="C260" s="10" t="s">
+      <c r="C261" s="10" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="26" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="44"/>
+      <c r="B262" s="45"/>
+      <c r="C262" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B261" s="27" t="s">
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="44"/>
+      <c r="B263" s="45"/>
+      <c r="C263" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C261" s="10" t="s">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="44" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="26"/>
-      <c r="B262" s="27"/>
-      <c r="C262" s="10" t="s">
+      <c r="B264" s="45" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="26"/>
-      <c r="B263" s="27"/>
-      <c r="C263" s="10" t="s">
+      <c r="C264" s="10" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="26" t="s">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="44"/>
+      <c r="B265" s="45"/>
+      <c r="C265" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B264" s="27" t="s">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="44"/>
+      <c r="B266" s="45"/>
+      <c r="C266" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C264" s="10" t="s">
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="44" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="26"/>
-      <c r="B265" s="27"/>
-      <c r="C265" s="10" t="s">
+      <c r="B267" s="10" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="26"/>
-      <c r="B266" s="27"/>
-      <c r="C266" s="10" t="s">
+      <c r="C267" s="45" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="44"/>
+      <c r="B268" s="10" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="B267" s="10" t="s">
+      <c r="C268" s="45"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="44" t="s">
         <v>512</v>
       </c>
-      <c r="C267" s="27" t="s">
+      <c r="B269" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C269" s="45" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="44"/>
+      <c r="B270" s="10" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="26"/>
-      <c r="B268" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="C268" s="27"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="B269" s="10" t="s">
+      <c r="C270" s="45"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="44" t="s">
         <v>516</v>
       </c>
-      <c r="C269" s="27" t="s">
+      <c r="B271" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="44"/>
+      <c r="B272" s="10" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="26"/>
-      <c r="B270" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="C270" s="27"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="B271" s="10" t="s">
+      <c r="C272" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="C271" s="10" t="s">
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="44"/>
+      <c r="C273" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="44"/>
+      <c r="C274" s="10" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="26"/>
-      <c r="B272" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C272" s="10" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="44" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="26"/>
-      <c r="C273" s="10" t="s">
+      <c r="B275" s="10" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="26"/>
-      <c r="C274" s="10" t="s">
+      <c r="C275" s="45" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="26" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="44"/>
+      <c r="B276" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C276" s="45"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="B277" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C275" s="27" t="s">
+      <c r="C277" s="45" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="26"/>
-      <c r="B276" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C276" s="27"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="26" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="44"/>
+      <c r="B278" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C278" s="45"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="B277" s="10" t="s">
+      <c r="B279" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="C277" s="27" t="s">
+      <c r="C279" s="45" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="44"/>
+      <c r="B280" s="10" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="26"/>
-      <c r="B278" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C278" s="27"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="B279" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="C279" s="27" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="26"/>
-      <c r="B280" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="C280" s="27"/>
+      <c r="C280" s="45"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B284" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C283" s="10" t="s">
+      <c r="C284" s="45" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="B284" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="C284" s="27" t="s">
-        <v>547</v>
-      </c>
-    </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="26"/>
+      <c r="A285" s="44"/>
       <c r="B285" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C285" s="27"/>
+        <v>421</v>
+      </c>
+      <c r="C285" s="45"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B287" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="B286" s="10" t="s">
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="44"/>
+      <c r="B288" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="C286" s="10" t="s">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B289" s="10" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B287" s="10" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="44"/>
+      <c r="B290" s="10" t="s">
         <v>551</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="26"/>
-      <c r="B288" s="10" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B289" s="10" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="26"/>
-      <c r="B290" s="10" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="11" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="11" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="11" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="11" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="44"/>
+      <c r="B309" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B307" s="10" t="s">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="44"/>
+      <c r="B310" s="10" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B308" s="10" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="44"/>
+      <c r="B311" s="10" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="26"/>
-      <c r="B309" s="10" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="44"/>
+      <c r="B312" s="10" t="s">
         <v>586</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="26"/>
-      <c r="B310" s="10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="26"/>
-      <c r="B311" s="10" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="26"/>
-      <c r="B312" s="10" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="11" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="11" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="11" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="11" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="11" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="11" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="11" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -10274,15 +11077,87 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A236"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="C267:C268"/>
     <mergeCell ref="A269:A270"/>
@@ -10297,87 +11172,15 @@
     <mergeCell ref="B261:B263"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="A230:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A129:A136"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="C284:C285"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10811939-7CAF-2C44-8FAF-A52AC87ED3AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC567254-730A-BD4D-A36A-86F1B68A4353}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="2000" windowWidth="27660" windowHeight="16180" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
-    <sheet name="Queries" sheetId="1" r:id="rId1"/>
+    <sheet name="baseQueries" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="6" r:id="rId2"/>
-    <sheet name="searchTerms" sheetId="3" r:id="rId3"/>
-    <sheet name="CCSearchString" sheetId="5" r:id="rId4"/>
+    <sheet name="filterTerms" sheetId="3" r:id="rId3"/>
+    <sheet name="CCSearchStrings" sheetId="5" r:id="rId4"/>
     <sheet name="SCOPUSSearchOperators" sheetId="4" r:id="rId5"/>
     <sheet name="WOSSearchOperators" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Queries!$H$1:$I$82</definedName>
-    <definedName name="_Toc14330918" localSheetId="0">Queries!$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">baseQueries!$A$1:$G$1</definedName>
+    <definedName name="_Toc14330918" localSheetId="0">baseQueries!$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="918">
   <si>
     <t>valueChain</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>outFileName</t>
-  </si>
-  <si>
-    <t>foodWaste</t>
   </si>
   <si>
     <t>Search Operators</t>
@@ -655,12 +652,6 @@
     <t>intlTrade</t>
   </si>
   <si>
-    <t>SSP_RCPs</t>
-  </si>
-  <si>
-    <t>agroecology</t>
-  </si>
-  <si>
     <t>foodSecurity</t>
   </si>
   <si>
@@ -712,9 +703,6 @@
     <t xml:space="preserve">5.5 Climate Change and the Food System Value Chain: from Postharvest to Food </t>
   </si>
   <si>
-    <t>geneticEngCrop</t>
-  </si>
-  <si>
     <t>geneticEngFish</t>
   </si>
   <si>
@@ -727,9 +715,6 @@
     <t>impactsLivestock</t>
   </si>
   <si>
-    <t>crop AND (pest* OR insect* or fung* OR weed* )</t>
-  </si>
-  <si>
     <t>grainQuality</t>
   </si>
   <si>
@@ -742,9 +727,6 @@
     <t>livestockDisease</t>
   </si>
   <si>
-    <t>livestock AND disease</t>
-  </si>
-  <si>
     <t>forestrySystems</t>
   </si>
   <si>
@@ -760,12 +742,6 @@
     <t>searchStrings.regions</t>
   </si>
   <si>
-    <t>searchStrings.climateChange</t>
-  </si>
-  <si>
-    <t>c("impact*", "adapt*", "mitigat*")</t>
-  </si>
-  <si>
     <t>searchStrings.animals</t>
   </si>
   <si>
@@ -805,27 +781,15 @@
     <t>c("food security", "food insecure*",  "food access*", "food sufficien*", "food insufficien*","food stability")</t>
   </si>
   <si>
-    <t xml:space="preserve">c("RCP", "RCP2.6", "RCP6.0", "RCP4.5", "RCP8.5", "CMIP", "SRES") </t>
-  </si>
-  <si>
     <t>c("SSP",  "SSP1", "SSP2", "SSP3", "SSP4","SSP5")</t>
   </si>
   <si>
-    <t>c("Conference Proceeding", "Letter",  "Correction", "Editorial Material")</t>
-  </si>
-  <si>
     <t>searchStringName</t>
   </si>
   <si>
     <t>searchString</t>
   </si>
   <si>
-    <t>maladaptation</t>
-  </si>
-  <si>
-    <t>food AND vulnerability</t>
-  </si>
-  <si>
     <t>c("broccoli", "cauliflower", "broccoli", "okra", "pumpkin", "chili*", "spinach", "pea", "tomato")</t>
   </si>
   <si>
@@ -5049,42 +5013,12 @@
     <t>woodTrade</t>
   </si>
   <si>
-    <t xml:space="preserve">These are phrases where the words must be exactly in the same position. SCOPUS identifies them with {}. WOS uses double quotations "". </t>
-  </si>
-  <si>
-    <t>Bound phrases</t>
-  </si>
-  <si>
-    <t>In the Queries worksheet use {} to indicate bound queries. These will be replaced with "" in the code.</t>
-  </si>
-  <si>
-    <t>{climate change} OR {climate variability} OR {global warming} OR {greenhouse effect} OR {extreme weather} OR {climate hazard} OR {heat stress} OR {heat wave} OR {precipitation variability} OR {temperature variability} OR drought</t>
-  </si>
-  <si>
-    <t>livestock AND impact*</t>
-  </si>
-  <si>
     <t>fish AND impact*</t>
   </si>
   <si>
     <t>aquacultur*</t>
   </si>
   <si>
-    <t>searchStrings.climateChange1</t>
-  </si>
-  <si>
-    <t>searchStrings.climateChange2</t>
-  </si>
-  <si>
-    <t>c("climate change", "climate variability", "global warming", "greenhouse effect", "extreme weather", "climate hazard", "heat stress", "heat wave", "precipitation variability", "temperature variability", "drought")</t>
-  </si>
-  <si>
-    <t>In the Queries worksheet use () to indicate words separated by AND</t>
-  </si>
-  <si>
-    <t>The searchTerms worksheet has rows that are used to search for words or phrases after the reference information is downloaded from SCOPUS. Add a row in searchTerms to add a new column in the output spreadsheet.</t>
-  </si>
-  <si>
     <t>conflict</t>
   </si>
   <si>
@@ -5118,9 +5052,6 @@
     <t>pestsAnimals</t>
   </si>
   <si>
-    <t>animal* AND (pest* OR insect* or fung* OR weed* )</t>
-  </si>
-  <si>
     <t>c("fever", "anthrax", "bluetongue", "tuberculosis", "brucellosis", "fly", "tick*", "pox", "*virus", "influenza", "Campylobacter", "Salmonell*", "scrapie", "scabies", "ringworm", "tularemia", "Stomatitis", "Listeriosis", "Sarcocystosis", "Toxoplasmosis")</t>
   </si>
   <si>
@@ -5130,9 +5061,6 @@
     <t>searchStrings.cropModels</t>
   </si>
   <si>
-    <t>c("DSSAT", "APSIM", "AgMIP", "crop model")</t>
-  </si>
-  <si>
     <t>5.5 Climate Change and Crop-based systems</t>
   </si>
   <si>
@@ -5160,15 +5088,9 @@
     <t>animals</t>
   </si>
   <si>
-    <t>livestock AND (pasture OR grass* OR rangeland OR feed OR forag* OR hay OR silage)</t>
-  </si>
-  <si>
     <t>foodProcessing</t>
   </si>
   <si>
-    <t>cropStress</t>
-  </si>
-  <si>
     <t>animalStress</t>
   </si>
   <si>
@@ -5187,9 +5109,6 @@
     <t>yieldVariability</t>
   </si>
   <si>
-    <t>yield AND variability</t>
-  </si>
-  <si>
     <t>CO2Fertilization</t>
   </si>
   <si>
@@ -5214,27 +5133,15 @@
     <t>(food OR agriculture) AND consump* OR "dietary choice" OR "food choice"</t>
   </si>
   <si>
-    <t>conflict AND (fisheries OR biofuels OR "livestock crop")</t>
-  </si>
-  <si>
     <t>impacts AND ("food security" OR nutrition)</t>
   </si>
   <si>
     <t>"food secur*" OR "food insecur*" OR "food suppl*" OR "food afford*" OR "food sufficien*" OR "food insufficien*" OR "food availab*" OR "food access*" OR "food utiliz*" OR "food stabil*" OR *nutritio* OR anthropometry OR micronutrient</t>
   </si>
   <si>
-    <t>agroeco* OR agro-ecolog* OR "diversified farming" OR "ecological agriculture" OR "agricultural ecology" OR agrobiodivers* OR agro-biodivers*</t>
-  </si>
-  <si>
     <t>"crop insurance" OR "index insurance"</t>
   </si>
   <si>
-    <t>"grain quality" OR "nutrient composition"</t>
-  </si>
-  <si>
-    <t>stress AND crop AND (THI OR "thermal heat index" OR "temperature humidity index" OR "heat stress index")</t>
-  </si>
-  <si>
     <t>(food value chain) OR "food marketing" OR "supply chain*"</t>
   </si>
   <si>
@@ -5244,12 +5151,6 @@
     <t>"food storage loss" OR "crop storage loss" OR spoilage</t>
   </si>
   <si>
-    <t>"food waste"</t>
-  </si>
-  <si>
-    <t>"international trade" AND (agriculture OR food)</t>
-  </si>
-  <si>
     <t>"food processing" OR milling OR grinding OR fermentation OR drying OR baking</t>
   </si>
   <si>
@@ -5262,9 +5163,6 @@
     <t xml:space="preserve">("heat stress tolerance" OR "heat tolerance") AND (breed OR genotype) </t>
   </si>
   <si>
-    <t>crop AND (ozone OR "air quality ")</t>
-  </si>
-  <si>
     <t>"forestry system*" OR agroforestry OR agriforestry</t>
   </si>
   <si>
@@ -5313,9 +5211,6 @@
     <t>"rubber tree" OR "rubber crop" OR latex OR "Hevea brasiliensis" OR "maple syrup" OR coconut OR "Cocos nucifera" OR "palm oil" OR "Elaeis guineensis"</t>
   </si>
   <si>
-    <t>"soft fruit" OR *berries OR strawberr* OR rasberr* OR blueberr* OR cranberr* OR gooseberr* OR melon* OR watermelon* OR pineapple* OR papaya* OR "passion fruit" OR pomegranate* OR Persimmon* OR cashewapple OR "cashew apple" OR currants OR ribes</t>
-  </si>
-  <si>
     <t>Potato* OR "Solanum tuberosum" OR sweetpotato* OR "sweet potat*" OR "Ipomoea batatas" OR cassava OR "Manihot esculenta" OR turnip* OR carrot* OR beetroot OR radish* OR yam* OR Dioscorea OR taro* OR cocoyam* OR yautia OR onion* OR garlic OR ginger</t>
   </si>
   <si>
@@ -5355,30 +5250,15 @@
     <t>(food OR agriculture) AND "social protection" OR migration OR "climate services" OR "climate information" OR insurance</t>
   </si>
   <si>
-    <t>("free air carbon dioxide" OR "free air carbon ozone" OR FACE) AND experiment*</t>
-  </si>
-  <si>
-    <t>flood OR "sea level rise" OR "extreme event" AND crop* AND impact*</t>
-  </si>
-  <si>
-    <t>"price vol*" OR "price var*" OR "price uncertain*" OR "agricultural price var*" OR "agricultural price uncertain*" OR "commodity price var*" OR "commodity price uncertain*" OR "commodity price vol*"</t>
-  </si>
-  <si>
     <t>5.1 Methodologies and Associated Uncertainties</t>
   </si>
   <si>
-    <t>(global OR international) AND (wood OR forestry OR "forest products trade")</t>
-  </si>
-  <si>
     <t>wool OR silk OR cashmere OR camel OR angora OR alpaca OR vicuna OR mohair</t>
   </si>
   <si>
     <t>cotton OR hemp OR "common flax" OR "Linum usitatissimum" OR jute OR Corchorus OR bastfibre* OR sisal OR "agave fiber*" OR "Manila fibre" OR "Manila hemp" OR ramie OR "Boehmeria nivea"</t>
   </si>
   <si>
-    <t xml:space="preserve"> "vegetable crop" OR artichoke* OR asparagus OR brassica* OR broccoli OR cauliflower OR cucumber OR gherkin* OR courgette OR alliace* OR celery OR leek* OR cabbage* OR onion* OR garlic* OR pumpkin OR squash OR gourd* OR bamboo OR tomato OR Lycopersicon OR *pepper* OR eggplant OR aubergine* OR "Solanum melongena" OR lettuce OR Chayote OR "Sechium edule" OR christophine OR okra OR "Abelmoschus esculentus" OR mushroom* OR truffle*</t>
-  </si>
-  <si>
     <t>"salad crop" OR lettuce OR chicory OR celery OR spinage OR parsley OR rocket OR "collard green" OR "Cassava leaves"</t>
   </si>
   <si>
@@ -5436,9 +5316,6 @@
     <t>vegetable</t>
   </si>
   <si>
-    <t xml:space="preserve">c("Latin America", "Central America", "Caribbean",  "Europe", "Northern Europe", "Western Europe", "Southern Europe", "Eastern Europe", "Western Asia", "Middle East","Asia", "South Asia", "East Asia", "Central Asia", "Australia", "New Zealand","Southeast Asia", "Africa", "East Africa", "West Africa", "Central Africa", "North Africa","South* Africa",  "islands") </t>
-  </si>
-  <si>
     <t>breadBasketFailure</t>
   </si>
   <si>
@@ -5484,82 +5361,35 @@
     <t>culturEcoSysService</t>
   </si>
   <si>
-    <t>(cultur* AND ecosystem service*) OR touris* OR relig* OR recreat* OR spiritual OR Aesthetic OR beaut*</t>
-  </si>
-  <si>
     <t>c("fish", "seafood", "molluscs", "salmon", "tuna", "hake", "trout", "bass", "perch", "pike", "tilapia")</t>
-  </si>
-  <si>
-    <t>searchString.engLevel</t>
-    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>c("government", "private", "civil", "institution*","internation*", "national", "sub-national", "local", "household")</t>
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>searchString.adapType</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>c("behavi*", "cultural",  "institution*","technolog*")</t>
-  </si>
-  <si>
-    <t>searchString.adapProfile</t>
-    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>c("autonomous", "incremental", "reactive", "resistance","transform*")</t>
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>searchString.adapStage</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>c("recogni*", "planning", "assessment", "widespread","monitor*","evaluat*")</t>
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>searchString.adapBeneficiary</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>c("community", "farmers")</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>searchString.adapLimits</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>c("hard limit*", "soft limit*")</t>
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>searchString.adapConstraints</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>c("financ*", "technolog*", "fund*")</t>
-  </si>
-  <si>
-    <t>searchString.extentCC</t>
-    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>c("sea level", "heat", "drought", "flood")</t>
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>(food OR agriculture) AND adaptation OR "Community-based"</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>(food OR agriculture) AND adaptation OR "push-pull"</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>adaptComm</t>
   </si>
   <si>
@@ -5569,9 +5399,6 @@
     <t>adaptPartBreed</t>
   </si>
   <si>
-    <t>(food OR agriculture) AND adaptation OR "Participatory breeding"</t>
-  </si>
-  <si>
     <t>softFruit</t>
   </si>
   <si>
@@ -5662,26 +5489,309 @@
     <t>Helen Gurley-Smith</t>
   </si>
   <si>
-    <t xml:space="preserve">livestock AND “gene* engineering” OR “gene* modif*” OR biotech* OR GMO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(fish OR aquaculture) AND “gene* engineering” OR “gene* modif*” OR biotech* OR GMO </t>
-  </si>
-  <si>
     <t>geneticEngForest</t>
   </si>
   <si>
-    <t xml:space="preserve">(forest* OR tree*) AND “gene* engineering” OR “gene* modif*” OR biotech* OR GMO </t>
-  </si>
-  <si>
-    <t>crop AND ("gene* engineering” OR “gene* modif*” OR biotech* OR GMO)</t>
+    <t>biofuels</t>
+  </si>
+  <si>
+    <t>Philip K. Thornton</t>
+  </si>
+  <si>
+    <t>biofuel* OR bioenergy OR agrofuel* OR BECCS OR "bioenergy with carbon capture and storage"</t>
+  </si>
+  <si>
+    <t>(conflict OR competition OR tradeoffs) AND (fisheries OR “aquatic system*” OR biofuels OR "livestock crop" OR livestock OR crop OR “indigenous” OR run-off OR gender)</t>
+  </si>
+  <si>
+    <t>searchStrings.engLevel</t>
+  </si>
+  <si>
+    <t>searchStrings.adapType</t>
+  </si>
+  <si>
+    <t>searchStrings.adapProfile</t>
+  </si>
+  <si>
+    <t>searchStrings.adapStage</t>
+  </si>
+  <si>
+    <t>searchStrings.adapBeneficiary</t>
+  </si>
+  <si>
+    <t>searchStrings.adapLimits</t>
+  </si>
+  <si>
+    <t>searchStrings.adapConstraints</t>
+  </si>
+  <si>
+    <t>searchStrings.extentCC</t>
+  </si>
+  <si>
+    <t>searchStrings.biotech</t>
+  </si>
+  <si>
+    <t>c("gene* engineer*",  "gene* modif*",  "biotech*",  "GMO", "gene* editing", "CRISPR")</t>
+  </si>
+  <si>
+    <t>5.8 Other Terrestrial Ecosystem Products</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>soilHealth</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>(soil health OR soil quality OR land health) AND (crop OR agroforestry OR pasture OR grassland OR agriculture OR food)</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>HN</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>(cultur* ecosystem service*) AND (touris* OR relig* OR recreat* OR spiritual OR Aesthetic OR beaut*)</t>
+  </si>
+  <si>
+    <t>crop AND yield AND variability</t>
+  </si>
+  <si>
+    <t>searchStrings.climateChangeSource</t>
+  </si>
+  <si>
+    <t>"heat stress" OR "yield decline" OR "yield variability" OR "nutrition* quality"</t>
+  </si>
+  <si>
+    <t>searchStrings.climateImpacts</t>
+  </si>
+  <si>
+    <t>searchStrings.weatherImpacts</t>
+  </si>
+  <si>
+    <t>(food OR agriculture) AND adaptation OR participatory AND ("plant breeding" OR "varie* select" OR PPB OR PVS)</t>
+  </si>
+  <si>
+    <t>maladapt*</t>
+  </si>
+  <si>
+    <t>pollinators</t>
+  </si>
+  <si>
+    <t>pollinat*</t>
+  </si>
+  <si>
+    <t>adaptMaladapt</t>
+  </si>
+  <si>
+    <t>agroeco* OR agro-ecolog* OR "diversified farming" OR "ecological agriculture" OR "agricultural ecology" OR agrobiodivers* OR agro-biodivers* OR "ecosystem-based adaptation "</t>
+  </si>
+  <si>
+    <t>adaptAgroeco</t>
+  </si>
+  <si>
+    <t>impactCropStress</t>
+  </si>
+  <si>
+    <t>food AND (vulnerability OR ineq* OR poverty OR discrimination OR rac* OR intersectionality OR income)</t>
+  </si>
+  <si>
+    <t>methods</t>
+  </si>
+  <si>
+    <t>impacts</t>
+  </si>
+  <si>
+    <t>queryType</t>
+  </si>
+  <si>
+    <t>The filterTerms worksheet has rows that are used to search for words or phrases after the reference information is downloaded from SCOPUS. Add a row in searchTerms to add a new column in the output spreadsheet.</t>
+  </si>
+  <si>
+    <t>weatherImpacts is not currently used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("RCP", "RCP2.6", "RCP6.0", "RCP4.5", "RCP8.5", "CMIP5", "CMIP6", "SRES") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("Latin America", "Central America", "Caribbean",  "Europe", "Northern Europe", "Western Europe", "Southern Europe", "Eastern Europe", "Western Asia", "Middle East","Asia", "South Asia", "East Asia", "Central Asia", "Australia", "New Zealand","Southeast Asia", "Africa", "East Africa", "West Africa", "Central Africa", "North Africa","South* Africa",  "islands","global") </t>
+  </si>
+  <si>
+    <t>c("DSSAT", "APSIM", "AgMIP", "crop model","GGCM", "global gridded crop model*")</t>
+  </si>
+  <si>
+    <t>c("Conference Proceeding", "Letter",  "Correction", "Editorial Material","Note")</t>
+  </si>
+  <si>
+    <t>maize OR corn</t>
+  </si>
+  <si>
+    <t>"greenhouse gas" OR "global warming" OR "climate change" OR "climate variability" OR "climate warming"</t>
+  </si>
+  <si>
+    <t>geneticEngCropMain</t>
+  </si>
+  <si>
+    <t>geneticEngLegume</t>
+  </si>
+  <si>
+    <t>geneticEngRootNTuber</t>
+  </si>
+  <si>
+    <t>geneticEngSmallGrains</t>
+  </si>
+  <si>
+    <t>geneticEngSoftFruit</t>
+  </si>
+  <si>
+    <t>geneticEngTreeCoffeeTea</t>
+  </si>
+  <si>
+    <t>geneticEngTreeNut</t>
+  </si>
+  <si>
+    <t>geneticvegetable</t>
+  </si>
+  <si>
+    <t>(food OR agriculture) AND ("push-pull" OR "push pull")</t>
+  </si>
+  <si>
+    <t>(flood OR "sea level rise" OR "extreme event" OR yield OR drought OR *stability) AND crop* AND impact*</t>
+  </si>
+  <si>
+    <t>("international trade" OR trade) AND (agricultur* OR food)</t>
+  </si>
+  <si>
+    <t>stress AND (crop or plant) AND (THI OR "thermal heat index" OR "temperature humidity index" OR "heat stress index" OR "abiotic")</t>
+  </si>
+  <si>
+    <t>searchStrings.CCimpact</t>
+  </si>
+  <si>
+    <t>searchStrings.CCsource</t>
+  </si>
+  <si>
+    <t>c("historical", "yield record", "attribution", "detection")</t>
+  </si>
+  <si>
+    <t>c("vulnerability","sensitivity", "exposure")</t>
+  </si>
+  <si>
+    <t>searchStrings.CCadapt</t>
+  </si>
+  <si>
+    <t>searchStrings.CCobserved</t>
+  </si>
+  <si>
+    <t>searchStrings.CCvulnerability</t>
+  </si>
+  <si>
+    <t>c("adaot*", "adjust*", "alteration", "shift")</t>
+  </si>
+  <si>
+    <t>"cereal quality" OR "grain quality" OR "nutrient composition" OR "nutrient decline"</t>
+  </si>
+  <si>
+    <t>foodWasteLoss</t>
+  </si>
+  <si>
+    <t>food AND (storage OR spoilage OR loss OR waste)</t>
+  </si>
+  <si>
+    <t>"price" OR "price vol*" OR "price var*" OR "price uncertain*" OR "agricultural price var*" OR "agricultural price uncertain*" OR "commodity price var*" OR "food price var*" OR "commodity price uncertain*" OR "commodity price vol*"</t>
+  </si>
+  <si>
+    <t>(livestock OR ruminant OR cattle OR beef OR goat OR sheep OR pig OR shoat OR swine OR pork OR chicken OR poultry) AND impact*</t>
+  </si>
+  <si>
+    <t>(livestock OR ruminant OR cattle OR beef OR goat OR sheep OR pig OR shoat OR swine OR pork OR chicken OR poultry) AND disease</t>
+  </si>
+  <si>
+    <t>(livestock OR ruminant OR cattle OR beef OR goat OR sheep OR pig OR shoat OR swine OR pork OR chicken OR poultry) AND (pasture OR grass* OR rangeland OR feed OR forag* OR hay OR silage)</t>
+  </si>
+  <si>
+    <t>(animal OR livestock OR ruminant OR cattle OR beef OR goat OR sheep OR pig OR shoat OR swine OR pork OR chicken OR poultry) AND (pest* OR insect* or fung* OR weed* )</t>
+  </si>
+  <si>
+    <t>c("greenhouse gas", "global warming", "climate change", "climate variability", "climate warming")</t>
+  </si>
+  <si>
+    <t>c("climate hazard",  "extreme weather",  "heat wave",  "precipitation variability", "rain* variability", " temp* variability", "sea level rise", "drought", "intense rainfall", "flood*")</t>
+  </si>
+  <si>
+    <t>"climate hazard" OR "extreme weather" OR "heat wave" OR "precipitation variability" OR "rainfall variability" OR "temperature  variability" OR "sea level rise" OR drought OR "intense rainfall" OR flood*</t>
+  </si>
+  <si>
+    <t>searchStrings.mitigation</t>
+  </si>
+  <si>
+    <t>mitigation OR REDD or MRV</t>
+  </si>
+  <si>
+    <t>(global OR international) AND ("wood trade" OR "forest products trade")</t>
+  </si>
+  <si>
+    <t>(food OR agriculture OR crop OR plant) AND communit* AND adaptation</t>
+  </si>
+  <si>
+    <t>("free air carbon dioxide" OR "free air ozone" OR FACE) AND experiment*</t>
+  </si>
+  <si>
+    <t>crop OR plant AND (pest* OR insect* or fung* OR weed* )</t>
+  </si>
+  <si>
+    <t>crop OR plant AND (ozone OR "air quality ")</t>
+  </si>
+  <si>
+    <t>vegetable* OR "vegetable crop" OR artichoke* OR asparagus OR brassica* OR broccoli OR cauliflower OR cucumber OR gherkin* OR courgette OR alliace* OR celery OR leek* OR cabbage* OR onion* OR garlic* OR pumpkin OR squash OR gourd* OR bamboo OR tomato OR Lycopersicon OR *pepper* OR eggplant OR aubergine* OR "Solanum melongena" OR lettuce OR Chayote OR "Sechium edule" OR christophine OR okra OR "Abelmoschus esculentus" OR mushroom* OR truffle*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fruit* OR *berries OR strawberr* OR rasberr* OR blueberr* OR cranberr* OR gooseberr* OR melon* OR watermelon* OR pineapple* OR papaya* OR "passion fruit" OR pomegranate* OR Persimmon* OR cashewapple OR "cashew apple" OR currants OR ribes</t>
+  </si>
+  <si>
+    <t>SspsRcps</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (barley OR oats OR triticale OR sorghum* OR millet* OR rye* OR buckwheat* OR fonio* OR teff OR Quinoa)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (*berries OR strawberr* OR rasberr* OR blueberr* OR cranberr* OR gooseberr* OR melon* OR watermelon* OR pineapple* OR papaya* OR "passion fruit" OR pomegranate* OR Persimmon* OR cashewapple OR "cashew apple" OR currants OR ribes)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (legume* OR pulse* OR phaseolus OR pisum OR lentil* OR chickpea* OR "chick pea*" OR "Cicer arietinum" OR cowpea OR "Vigna unguiculata" OR "pigeon pea" OR pigeonpea OR peanut* OR groundnut* OR "Arachis hypogaea" OR lupin* OR vetches OR vicia OR carobs)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (coffee OR Coffea OR 'cocoa OR cacao OR theobroma)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (almond* OR cashew* OR hazel* OR walnut* OR pistachio* OR macadamia* OR chestnut* OR Areca OR "Karite nut*" OR sheanut* OR "Vitellaria paradoxa" OR kola* OR "brazil nut" OR "Bertholletia excelsa" OR "pine nut")</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (artichoke* OR asparagus OR brassica* OR broccoli OR cauliflower OR cucumber OR gherkin* OR courgette OR alliace* OR celery OR leek* OR cabbage* OR onion* OR garlic* OR pumpkin OR squash OR gourd* OR bamboo OR tomato OR Lycopersicon OR *pepper* OR eggplant OR aubergine* OR "Solanum melongena" OR lettuce OR Chayote OR "Sechium edule" OR christophine OR okra OR "Abelmoschus esculentus" OR mushroom* OR truffle*)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR "gene* editing" OR CRISPR) AND (pig OR hog OR swine OR poultry OR chicken OR broilers OR ruminant OR sheep OR goat OR cattle OR buffalo OR beef OR pork OR lamb OR mutton)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR “gene* modif*” OR biotech* OR GMO OR “gene* editing” OR CRISPR) AND (forest* OR tree* OR pine OR spruce OR hardwood OR softwood)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR “gene* modif*” OR biotech* OR GMO OR “gene* editing” OR CRISPR) AND fish OR salmon OR trout OR hake OR cod OR tilapia</t>
+  </si>
+  <si>
+    <t>c("community", "farmers", "fish*")</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing"  OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (Potato* OR "Solanum tuberosum" OR sweetpotato* OR "sweet potat*" OR "Ipomoea batatas" OR cassava OR "Manihot esculenta" OR turnip* OR carrot* OR beetroot OR radish* OR yam* OR Dioscorea OR taro* OR cocoyam* OR yautia OR onion* OR garlic OR ginger)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (maize OR corn OR rice OR wheat OR soybean OR soyabean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5824,6 +5934,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5915,7 +6053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5931,12 +6069,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5962,15 +6094,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5983,17 +6106,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6004,6 +6119,35 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -6321,1708 +6465,2146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="21"/>
+    <col min="1" max="1" width="10.83203125" style="15"/>
     <col min="2" max="2" width="37.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20" style="19" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="42.83203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="19"/>
-    <col min="7" max="7" width="10.83203125" style="6"/>
-    <col min="8" max="9" width="10.83203125" style="19"/>
+    <col min="3" max="3" width="20" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="53.83203125" style="7" customWidth="1"/>
+    <col min="6" max="9" width="10.83203125" style="13"/>
     <col min="10" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>845</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>857</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="F1" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>780</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>70</v>
+      <c r="B2" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>905</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>853</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>864</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>851</v>
+        <v>700</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+      <c r="A3" s="15">
+        <f t="shared" ref="A3:A73" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>709</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>681</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>854</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>859</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>853</v>
+      <c r="B3" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>709</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>680</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>852</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>862</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>850</v>
+      <c r="B4" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>83</v>
+      <c r="B5" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>847</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>863</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+        <v>702</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>72</v>
+      <c r="B6" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>847</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>873</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+        <v>701</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>732</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>847</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>866</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="B7" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>704</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>855</v>
       </c>
+      <c r="H7" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>688</v>
+      <c r="B8" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>847</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>867</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>868</v>
+        <v>703</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>73</v>
+      <c r="B9" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>847</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>871</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+        <v>740</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>730</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>850</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>861</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>847</v>
+      <c r="B10" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>853</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>869</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="B11" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>82</v>
+      <c r="B12" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>850</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>860</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+        <v>770</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>71</v>
+      <c r="B13" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>847</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>865</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+        <v>741</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>846</v>
+      <c r="B14" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+      <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>847</v>
+      <c r="B15" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+      <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>80</v>
+      <c r="B16" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>849</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+        <v>846</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>703</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42" t="s">
-        <v>840</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>838</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="B17" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>703</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42" t="s">
-        <v>842</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>843</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="B18" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>703</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42" t="s">
-        <v>841</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>839</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="B19" s="30" t="s">
+        <v>679</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="B20" s="30" t="s">
+        <v>679</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
         <v>788</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>787</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="E20" s="30" t="s">
+        <v>873</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>805</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
+      <c r="B21" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>722</v>
+        <v>679</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>764</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+        <v>765</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>76</v>
+        <v>679</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>695</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>812</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+        <v>696</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>714</v>
+        <v>679</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+        <v>771</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>777</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+        <v>679</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>761</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>789</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>783</v>
-      </c>
-      <c r="F26" s="19" t="s">
+      <c r="B26" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+    <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
+      <c r="B27" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
+        <v>679</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>778</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
+        <v>679</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>786</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
+      <c r="B30" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>78</v>
+        <v>679</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>867</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>791</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>766</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
+      <c r="B32" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>792</v>
+      <c r="B33" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>768</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
+        <v>885</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25" t="s">
-        <v>770</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>746</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="21">
+        <v>679</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>874</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="21">
+      <c r="B35" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>79</v>
+        <v>679</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A37" s="21">
+        <v>863</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>758</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>793</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>764</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="21">
+      <c r="B37" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>785</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="21">
+      <c r="B38" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>751</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A40" s="21">
+      <c r="B39" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>856</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>844</v>
+      <c r="B40" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>674</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>763</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="21">
+        <v>901</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>795</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
+      <c r="B41" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="D42" s="22" t="s">
+      <c r="B42" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>796</v>
       </c>
-      <c r="E42" s="20" t="s">
-        <v>767</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="21">
+      <c r="G42" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>759</v>
-      </c>
-      <c r="D43" s="22" t="s">
+      <c r="B43" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>797</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="21">
+      <c r="G43" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>798</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="21">
+      <c r="B44" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>799</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>754</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="176" x14ac:dyDescent="0.2">
-      <c r="A46" s="21">
+      <c r="B45" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>904</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>800</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>814</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A47" s="21">
+      <c r="B46" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>801</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A48" s="21">
+      <c r="B47" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>756</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="144" x14ac:dyDescent="0.2">
-      <c r="A49" s="21">
+      <c r="B48" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>803</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>784</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="21">
+      <c r="B49" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>77</v>
+        <v>679</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>870</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>855</v>
+        <v>909</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="21">
+      <c r="A51" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="D51" s="19" t="s">
+      <c r="B51" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="E51" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A52" s="21">
+      <c r="F51" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>658</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="21">
+      <c r="B52" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>713</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="21">
+      <c r="B53" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="27" t="s">
+      <c r="B54" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>738</v>
       </c>
-      <c r="F54" s="19" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A55" s="21">
+      <c r="F54" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>740</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="21">
+        <v>679</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-    </row>
-    <row r="57" spans="1:9" s="24" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A57" s="21">
+      <c r="B56" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-    </row>
-    <row r="58" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A58" s="21">
+        <v>679</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>739</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-    </row>
-    <row r="59" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59" s="21">
+        <v>679</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>846</v>
-      </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-    </row>
-    <row r="60" spans="1:9" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A60" s="21">
+        <v>679</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>704</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19" t="s">
-        <v>711</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-    </row>
-    <row r="61" spans="1:9" s="24" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A61" s="21">
+      <c r="B60" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25" t="s">
-        <v>715</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-    </row>
-    <row r="62" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="21">
+      <c r="B61" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>874</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-    </row>
-    <row r="63" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="21">
+      <c r="B62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25" t="s">
-        <v>717</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>745</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-    </row>
-    <row r="64" spans="1:9" s="24" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A64" s="21">
+      <c r="B63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>887</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25" t="s">
-        <v>716</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>726</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-    </row>
-    <row r="65" spans="1:9" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="21">
+      <c r="B64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+    </row>
+    <row r="65" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A65" s="15">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-    </row>
-    <row r="66" spans="1:9" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="21">
+      <c r="B65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="15">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-    </row>
-    <row r="67" spans="1:9" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A67" s="21">
-        <f t="shared" ref="A67:A82" si="1">A66+1</f>
+      <c r="B66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+    </row>
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67" s="15">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>743</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-    </row>
-    <row r="68" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A68" s="21">
-        <f t="shared" si="1"/>
+      <c r="B67" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+    </row>
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A68" s="15">
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B68" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" s="33" t="s">
+      <c r="B68" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+    </row>
+    <row r="69" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A69" s="15">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+    </row>
+    <row r="70" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70" s="15">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+    </row>
+    <row r="71" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="E71" s="23" t="s">
         <v>712</v>
       </c>
-      <c r="F68" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="1:9" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="21">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25" t="s">
-        <v>697</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>698</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-    </row>
-    <row r="70" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A70" s="21">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>705</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25" t="s">
-        <v>673</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>748</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>870</v>
-      </c>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-    </row>
-    <row r="71" spans="1:9" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="21">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>705</v>
-      </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>747</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>870</v>
-      </c>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-    </row>
-    <row r="72" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A72" s="21">
-        <f t="shared" si="1"/>
+      <c r="F71" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+    </row>
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A72" s="15">
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B72" s="25" t="s">
-        <v>705</v>
-      </c>
-      <c r="C72" s="25"/>
+      <c r="B72" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C72" s="19"/>
       <c r="D72" s="19" t="s">
-        <v>817</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>818</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>870</v>
-      </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-    </row>
-    <row r="73" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A73" s="21">
-        <f t="shared" si="1"/>
+        <v>690</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+    </row>
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="15">
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B73" s="25" t="s">
-        <v>705</v>
-      </c>
-      <c r="C73" s="25"/>
+      <c r="B73" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C73" s="19"/>
       <c r="D73" s="19" t="s">
-        <v>876</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>877</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>870</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-    </row>
-    <row r="74" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="21">
-        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+    </row>
+    <row r="74" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A74" s="15">
+        <f t="shared" ref="A74:A92" si="1">A73+1</f>
         <v>73</v>
       </c>
-      <c r="B74" s="25" t="s">
-        <v>705</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25" t="s">
-        <v>674</v>
-      </c>
-      <c r="E74" s="35" t="s">
-        <v>781</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>870</v>
-      </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-    </row>
-    <row r="75" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="21">
+      <c r="B74" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+    </row>
+    <row r="75" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="25" t="s">
-        <v>724</v>
-      </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25" t="s">
-        <v>769</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="F75" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-    </row>
-    <row r="76" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A76" s="21">
+      <c r="B75" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+    </row>
+    <row r="76" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A76" s="15">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="25" t="s">
-        <v>724</v>
-      </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>749</v>
+      <c r="B76" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>891</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A77" s="21">
+        <v>794</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+    </row>
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A77" s="15">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="25" t="s">
-        <v>706</v>
-      </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25" t="s">
-        <v>700</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>807</v>
+      <c r="B77" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>892</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A78" s="21">
+        <v>794</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+    </row>
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="15">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="34" t="s">
-        <v>750</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>854</v>
-      </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-    </row>
-    <row r="79" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A79" s="21">
+      <c r="B78" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>714</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+    </row>
+    <row r="79" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="15">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>875</v>
+      <c r="B79" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>713</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A80" s="21">
+        <v>816</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+    </row>
+    <row r="80" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="15">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="E80" s="26" t="s">
+      <c r="B80" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="F80" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="F80" s="42" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="21">
+      <c r="G80" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+    </row>
+    <row r="81" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A81" s="15">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>819</v>
-      </c>
-      <c r="E81" s="37" t="s">
+      <c r="B81" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="F81" s="42" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A82" s="21">
+      <c r="E81" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+    </row>
+    <row r="82" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="15">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25" t="s">
-        <v>692</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>808</v>
-      </c>
-      <c r="F82" s="42" t="s">
+      <c r="B82" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>898</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+    </row>
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A83" s="15">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+    </row>
+    <row r="84" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A84" s="15">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A85" s="15">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="15">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>855</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+    </row>
+    <row r="87" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A87" s="15">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="15">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>798</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="15">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>839</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="15">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>767</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" s="15">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32" t="s">
+        <v>836</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>837</v>
+      </c>
+      <c r="F91" s="32" t="s">
+        <v>838</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="15">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>847</v>
       </c>
+      <c r="E92" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>855</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I82">
-    <sortCondition ref="I2:I82"/>
+  <autoFilter ref="A1:G1" xr:uid="{317E3D8D-97ED-A742-9AD8-40575174812B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I90">
+    <sortCondition ref="I2:I90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8030,35 +8612,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4E69CB-1358-C447-B5CD-4220B2095136}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>676</v>
-      </c>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>686</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -8068,303 +8632,336 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B44446-4EFF-1748-B076-59F83F2A5201}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="29" style="37" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" t="s">
-        <v>124</v>
+      <c r="A1" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
+        <v>878</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
+        <v>877</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>881</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
+        <v>883</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>682</v>
-      </c>
-      <c r="B5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B17" s="37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B18" s="37" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B8" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B19" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
+        <v>659</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
+        <v>668</v>
+      </c>
+      <c r="B28" s="44" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>656</v>
-      </c>
-      <c r="B11" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>659</v>
-      </c>
-      <c r="B18" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>661</v>
-      </c>
-      <c r="B19" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>662</v>
-      </c>
-      <c r="B20" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>666</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B29" s="44" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>690</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
-        <v>822</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
-        <v>824</v>
-      </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="44" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
+      <c r="B32" s="47" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
         <v>826</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B33" s="47" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
+      <c r="B34" s="47" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="46" t="s">
         <v>828</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B35" s="47" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="46" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+      <c r="B36" s="47" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="46" t="s">
         <v>830</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B37" s="47" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
+      <c r="B38" s="47" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
         <v>832</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B39" s="47" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="46" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
+      <c r="B40" s="38" t="s">
         <v>834</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
-        <v>836</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -8374,31 +8971,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5825E51-79F8-3943-A43A-0FB9AED7F8CD}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>678</v>
+        <v>841</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>858</v>
+      </c>
+      <c r="B5" s="33"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>844</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -8410,8 +9037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB3225A-4DA2-B449-9413-FA03533C994C}">
   <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8422,12 +9049,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -8435,12 +9062,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -8448,54 +9075,54 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -8503,113 +9130,113 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
-        <v>19</v>
+      <c r="A18" s="48" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
-        <v>21</v>
+      <c r="A22" s="48" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
-        <v>151</v>
+      <c r="A24" s="48" t="s">
+        <v>139</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="10" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
-        <v>154</v>
+      <c r="A31" s="49" t="s">
+        <v>142</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="10" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -8617,32 +9244,32 @@
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -8650,217 +9277,217 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>171</v>
+        <v>156</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="45"/>
+        <v>157</v>
+      </c>
+      <c r="B43" s="49"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="45"/>
+        <v>158</v>
+      </c>
+      <c r="B44" s="49"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="44" t="s">
-        <v>154</v>
+      <c r="A50" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="10" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="10" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="44" t="s">
-        <v>147</v>
+      <c r="A59" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
+      <c r="A60" s="48"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="44"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="10" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="44" t="s">
-        <v>154</v>
+      <c r="A70" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="44"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="44"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="44"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="10" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -8868,82 +9495,82 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -8951,20 +9578,20 @@
     </row>
     <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -8972,68 +9599,68 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="44" t="s">
-        <v>219</v>
+      <c r="A97" s="48" t="s">
+        <v>207</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="44"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="44"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="10" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="44"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="10" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -9041,10 +9668,10 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -9052,7 +9679,7 @@
     </row>
     <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -9060,58 +9687,58 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="44" t="s">
-        <v>147</v>
+      <c r="A112" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="44"/>
+      <c r="A113" s="48"/>
       <c r="B113" s="10" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="44" t="s">
-        <v>154</v>
+      <c r="A115" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="44"/>
+      <c r="A116" s="48"/>
       <c r="B116" s="10" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="44"/>
+      <c r="A117" s="48"/>
       <c r="B117" s="10" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="44"/>
+      <c r="A118" s="48"/>
       <c r="B118" s="10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -9119,7 +9746,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -9127,1946 +9754,1946 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C123" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="48"/>
+      <c r="B124" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C124" s="49"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C125" s="49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="48"/>
+      <c r="B126" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C126" s="49"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C127" s="49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="48"/>
+      <c r="B128" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="44" t="s">
+      <c r="C128" s="49"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B129" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C123" s="45" t="s">
+      <c r="C129" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="48"/>
+      <c r="B130" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="48"/>
+      <c r="B131" s="10" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="44"/>
-      <c r="B124" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C124" s="45"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="44" t="s">
+      <c r="C131" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="48"/>
+      <c r="B132" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="C132" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="48"/>
+      <c r="B133" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C125" s="45" t="s">
+      <c r="C133" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="48"/>
+      <c r="B134" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="48"/>
+      <c r="B135" s="10"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="48"/>
+      <c r="B136" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="44"/>
-      <c r="B126" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C126" s="45"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C127" s="45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="44"/>
-      <c r="B128" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C128" s="45"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C129" s="10" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="48"/>
+      <c r="B138" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="B139" s="10" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="44"/>
-      <c r="B130" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C130" s="10" t="s">
+      <c r="C139" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="48"/>
+      <c r="B140" s="10" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="44"/>
-      <c r="B131" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="44"/>
-      <c r="B132" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C132" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="44"/>
-      <c r="B133" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C133" s="10" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="48" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="44"/>
-      <c r="B134" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C134" s="10" t="s">
+      <c r="B141" s="10" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="44"/>
-      <c r="B135" s="10"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="44"/>
-      <c r="B136" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="44" t="s">
+      <c r="C141" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="48"/>
+      <c r="B142" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C137" s="10" t="s">
+      <c r="C142" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="48" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="44"/>
-      <c r="B138" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C138" s="10" t="s">
+      <c r="B143" s="10" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="44" t="s">
+      <c r="C143" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="48"/>
+      <c r="B144" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B139" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C139" s="10" t="s">
+      <c r="C144" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="48"/>
+      <c r="C145" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="44"/>
-      <c r="B140" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C140" s="10" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="48" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="44" t="s">
+      <c r="B146" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="C146" s="49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="48"/>
+      <c r="B147" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C147" s="49"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="48" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="44"/>
-      <c r="B142" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C142" s="10" t="s">
+      <c r="B148" s="10" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="44" t="s">
+      <c r="C148" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="48"/>
+      <c r="B149" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="44"/>
-      <c r="B144" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="44"/>
-      <c r="C145" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C146" s="45" t="s">
+      <c r="C149" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="44"/>
-      <c r="B147" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C147" s="45"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="44"/>
-      <c r="B149" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="44"/>
+      <c r="A150" s="48"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="44"/>
+      <c r="A151" s="48"/>
       <c r="B151" s="10" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="44"/>
+      <c r="A152" s="48"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="48"/>
+      <c r="B153" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="48"/>
+      <c r="B154" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="48"/>
+      <c r="B155" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="48"/>
+      <c r="B156" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="48"/>
+      <c r="B157" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="48"/>
+      <c r="B158" s="10"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="48"/>
+      <c r="B159" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="48"/>
+      <c r="B160" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="48"/>
+      <c r="B162" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="48"/>
+      <c r="B163" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="48"/>
+      <c r="B164" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="B165" s="49" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="44"/>
-      <c r="B153" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C153" s="10" t="s">
+      <c r="C165" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="44"/>
-      <c r="B154" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C154" s="10" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="48"/>
+      <c r="B166" s="49"/>
+      <c r="C166" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="44"/>
-      <c r="B155" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C155" s="10" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="48"/>
+      <c r="B167" s="49"/>
+      <c r="C167" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="44"/>
-      <c r="B156" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C156" s="10" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="48"/>
+      <c r="B168" s="49"/>
+      <c r="C168" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="44"/>
-      <c r="B157" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="44"/>
-      <c r="B158" s="10"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="44"/>
-      <c r="B159" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="44"/>
-      <c r="B160" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="44" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="48"/>
+      <c r="B169" s="49"/>
+      <c r="C169" s="10" t="s">
         <v>308</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="44"/>
-      <c r="B162" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="44"/>
-      <c r="B163" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="44"/>
-      <c r="B164" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="B165" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="44"/>
-      <c r="B166" s="45"/>
-      <c r="C166" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="44"/>
-      <c r="B167" s="45"/>
-      <c r="C167" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="44"/>
-      <c r="B168" s="45"/>
-      <c r="C168" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="44"/>
-      <c r="B169" s="45"/>
-      <c r="C169" s="10" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="44" t="s">
-        <v>324</v>
+      <c r="A171" s="48" t="s">
+        <v>312</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C171" s="45" t="s">
-        <v>327</v>
+        <v>313</v>
+      </c>
+      <c r="C171" s="49" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="44"/>
+      <c r="A172" s="48"/>
       <c r="B172" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C172" s="45"/>
+        <v>314</v>
+      </c>
+      <c r="C172" s="49"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="44" t="s">
-        <v>331</v>
+      <c r="A174" s="48" t="s">
+        <v>319</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C174" s="45" t="s">
-        <v>334</v>
+        <v>320</v>
+      </c>
+      <c r="C174" s="49" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="44"/>
+      <c r="A175" s="48"/>
       <c r="B175" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C175" s="45"/>
+        <v>321</v>
+      </c>
+      <c r="C175" s="49"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="44" t="s">
-        <v>335</v>
+      <c r="A176" s="48" t="s">
+        <v>323</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C176" s="45" t="s">
-        <v>338</v>
+        <v>324</v>
+      </c>
+      <c r="C176" s="49" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="44"/>
+      <c r="A177" s="48"/>
       <c r="B177" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C177" s="45"/>
+        <v>325</v>
+      </c>
+      <c r="C177" s="49"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="48"/>
+      <c r="B181" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="B182" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="48"/>
+      <c r="B183" s="49"/>
+      <c r="C183" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B184" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C184" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="44" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="48"/>
+      <c r="B185" s="49"/>
+      <c r="C185" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B186" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C186" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="48"/>
+      <c r="B187" s="49"/>
+      <c r="C187" s="10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="44"/>
-      <c r="B181" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C181" s="10" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="48"/>
+      <c r="B188" s="49"/>
+      <c r="C188" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A182" s="44" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="B182" s="45" t="s">
+      <c r="B189" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C189" s="49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="48"/>
+      <c r="B190" s="10" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="44"/>
-      <c r="B183" s="45"/>
-      <c r="C183" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="44" t="s">
+      <c r="C190" s="49"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="B184" s="45" t="s">
+      <c r="B191" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C191" s="49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="48"/>
+      <c r="B192" s="10" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="44"/>
-      <c r="B185" s="45"/>
-      <c r="C185" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="B186" s="45" t="s">
-        <v>358</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="44"/>
-      <c r="B187" s="45"/>
-      <c r="C187" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="44"/>
-      <c r="B188" s="45"/>
-      <c r="C188" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="B189" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C189" s="45" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="44"/>
-      <c r="B190" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C190" s="45"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C191" s="45" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="44"/>
-      <c r="B192" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C192" s="45"/>
+      <c r="C192" s="49"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="44" t="s">
-        <v>373</v>
+      <c r="A194" s="48" t="s">
+        <v>361</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C194" s="45" t="s">
-        <v>376</v>
+        <v>362</v>
+      </c>
+      <c r="C194" s="49" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="44"/>
+      <c r="A195" s="48"/>
       <c r="B195" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C195" s="45"/>
+        <v>363</v>
+      </c>
+      <c r="C195" s="49"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C197" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="48"/>
+      <c r="B198" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C198" s="49"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C199" s="49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="48"/>
+      <c r="B200" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C200" s="49"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="48"/>
+      <c r="B201" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C201" s="49"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B202" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C202" s="49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="48"/>
+      <c r="B203" s="10" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="B197" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C197" s="45" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="44"/>
-      <c r="B198" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C198" s="45"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="B199" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C199" s="45" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="44"/>
-      <c r="B200" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="C200" s="45"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="44"/>
-      <c r="B201" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C201" s="45"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="B202" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C202" s="45" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="44"/>
-      <c r="B203" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C203" s="45"/>
+      <c r="C203" s="49"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C207" s="49" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="48"/>
+      <c r="B208" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C208" s="49"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C209" s="49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="48"/>
+      <c r="B210" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C210" s="49"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="B211" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="C211" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="48"/>
+      <c r="B212" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C206" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="44" t="s">
+      <c r="C212" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="B207" s="10" t="s">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="C207" s="45" t="s">
+      <c r="B213" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C213" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="48"/>
+      <c r="B214" s="10" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="44"/>
-      <c r="B208" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C208" s="45"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="B209" s="10" t="s">
+      <c r="C214" s="49"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="C209" s="45" t="s">
+      <c r="B215" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C215" s="49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="48"/>
+      <c r="B216" s="10" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="44"/>
-      <c r="B210" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C210" s="45"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="B211" s="10" t="s">
+      <c r="C216" s="49"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="48" t="s">
         <v>411</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="B217" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C217" s="49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="48"/>
+      <c r="B218" s="10" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="44"/>
-      <c r="B212" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C212" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="44" t="s">
+      <c r="C218" s="49"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B219" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C213" s="45" t="s">
+      <c r="C219" s="49" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="44"/>
-      <c r="B214" s="10" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="48"/>
+      <c r="B220" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C214" s="45"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C215" s="45" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="44"/>
-      <c r="B216" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C216" s="45"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="B217" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C217" s="45" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="44"/>
-      <c r="B218" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C218" s="45"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="44" t="s">
-        <v>427</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C219" s="45" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="44"/>
-      <c r="B220" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C220" s="45"/>
+      <c r="C220" s="49"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="B222" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="48"/>
+      <c r="B223" s="49"/>
+      <c r="C223" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B224" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="48"/>
+      <c r="B225" s="49"/>
+      <c r="C225" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="48"/>
+      <c r="B226" s="49"/>
+      <c r="C226" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B227" s="49" t="s">
         <v>432</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C227" s="10" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="44" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="48"/>
+      <c r="B228" s="49"/>
+      <c r="C228" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="48"/>
+      <c r="B229" s="49"/>
+      <c r="C229" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="48" t="s">
         <v>434</v>
       </c>
-      <c r="B222" s="45" t="s">
+      <c r="B230" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="C230" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="48"/>
+      <c r="B231" s="10" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="44"/>
-      <c r="B223" s="45"/>
-      <c r="C223" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="44" t="s">
+      <c r="C231" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B224" s="45" t="s">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="48"/>
+      <c r="C232" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C224" s="10" t="s">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="48"/>
+      <c r="C233" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="48"/>
+      <c r="C234" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="48" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="44"/>
-      <c r="B225" s="45"/>
-      <c r="C225" s="10" t="s">
+      <c r="B235" s="10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="44"/>
-      <c r="B226" s="45"/>
-      <c r="C226" s="10" t="s">
+      <c r="C235" s="49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="48"/>
+      <c r="B236" s="10" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="B227" s="45" t="s">
+      <c r="C236" s="49"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="C227" s="10" t="s">
+      <c r="B237" s="10" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="44"/>
-      <c r="B228" s="45"/>
-      <c r="C228" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="44"/>
-      <c r="B229" s="45"/>
-      <c r="C229" s="10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="44" t="s">
+      <c r="C237" s="49" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="48"/>
+      <c r="B238" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="B230" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="C230" s="10" t="s">
+      <c r="C238" s="49"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="B239" s="10" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="44"/>
-      <c r="B231" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C231" s="10" t="s">
+      <c r="C239" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="48"/>
+      <c r="B240" s="10" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="44"/>
-      <c r="C232" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="44"/>
-      <c r="C233" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="44"/>
-      <c r="C234" s="10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="44" t="s">
+      <c r="C240" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B235" s="10" t="s">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="48"/>
+      <c r="C241" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="C235" s="45" t="s">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="B242" s="10" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="44"/>
-      <c r="B236" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C236" s="45"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="44" t="s">
+      <c r="C242" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="48"/>
+      <c r="B243" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="C243" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="48"/>
+      <c r="B244" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C237" s="45" t="s">
+      <c r="C244" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="48"/>
+      <c r="B245" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="48"/>
+      <c r="B246" s="10" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="44"/>
-      <c r="B238" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C238" s="45"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="44" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="48"/>
+      <c r="B247" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B239" s="10" t="s">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="48"/>
+      <c r="B248" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C239" s="10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="44"/>
-      <c r="B240" s="10" t="s">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="48"/>
+      <c r="B249" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C240" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="44"/>
-      <c r="C241" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="44" t="s">
-        <v>466</v>
-      </c>
-      <c r="B242" s="10" t="s">
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="C242" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="44"/>
-      <c r="B243" s="10" t="s">
+      <c r="B250" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C243" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="44"/>
-      <c r="B244" s="10" t="s">
+      <c r="C250" s="49" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="48"/>
+      <c r="B251" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C244" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="44"/>
-      <c r="B245" s="10" t="s">
+      <c r="C251" s="49"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="48"/>
+      <c r="B252" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C245" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="44"/>
-      <c r="B246" s="10" t="s">
+      <c r="C252" s="49"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="48"/>
+      <c r="B253" s="10" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="44"/>
-      <c r="B247" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="44"/>
-      <c r="B248" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="44"/>
-      <c r="B249" s="10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="B250" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C250" s="45" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="44"/>
-      <c r="B251" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C251" s="45"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="44"/>
-      <c r="B252" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C252" s="45"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="44"/>
-      <c r="B253" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C253" s="45"/>
+      <c r="C253" s="49"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C256" s="49" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="48"/>
+      <c r="B257" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C257" s="49"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="48"/>
+      <c r="B259" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="48"/>
+      <c r="C260" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="B261" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="C261" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B255" s="10" t="s">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="48"/>
+      <c r="B262" s="49"/>
+      <c r="C262" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C255" s="10" t="s">
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="48"/>
+      <c r="B263" s="49"/>
+      <c r="C263" s="10" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="44" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="48" t="s">
         <v>491</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B264" s="49" t="s">
         <v>492</v>
       </c>
-      <c r="C256" s="45" t="s">
+      <c r="C264" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="48"/>
+      <c r="B265" s="49"/>
+      <c r="C265" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="44"/>
-      <c r="B257" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="C257" s="45"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="44" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="48"/>
+      <c r="B266" s="49"/>
+      <c r="C266" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B258" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C258" s="10" t="s">
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="48" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="44"/>
-      <c r="B259" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="44"/>
-      <c r="C260" s="10" t="s">
+      <c r="B267" s="10" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="44" t="s">
+      <c r="C267" s="49" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="48"/>
+      <c r="B268" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B261" s="45" t="s">
-        <v>499</v>
-      </c>
-      <c r="C261" s="10" t="s">
+      <c r="C268" s="49"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="48" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="44"/>
-      <c r="B262" s="45"/>
-      <c r="C262" s="10" t="s">
+      <c r="B269" s="10" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="44"/>
-      <c r="B263" s="45"/>
-      <c r="C263" s="10" t="s">
+      <c r="C269" s="49" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="48"/>
+      <c r="B270" s="10" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="44" t="s">
-        <v>503</v>
-      </c>
-      <c r="B264" s="45" t="s">
+      <c r="C270" s="49"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="48" t="s">
         <v>504</v>
       </c>
-      <c r="C264" s="10" t="s">
+      <c r="B271" s="10" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="44"/>
-      <c r="B265" s="45"/>
-      <c r="C265" s="10" t="s">
+      <c r="C271" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="48"/>
+      <c r="B272" s="10" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="44"/>
-      <c r="B266" s="45"/>
-      <c r="C266" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="44" t="s">
+      <c r="C272" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B267" s="10" t="s">
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="48"/>
+      <c r="C273" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="C267" s="45" t="s">
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="48"/>
+      <c r="C274" s="10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="48" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="44"/>
-      <c r="B268" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="C268" s="45"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="44" t="s">
+      <c r="B275" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="C275" s="49" t="s">
         <v>513</v>
       </c>
-      <c r="C269" s="45" t="s">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="48"/>
+      <c r="B276" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C276" s="49"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="B277" s="10" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="44"/>
-      <c r="B270" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C270" s="45"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="44" t="s">
+      <c r="C277" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="B271" s="10" t="s">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="48"/>
+      <c r="B278" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C278" s="49"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="C271" s="10" t="s">
+      <c r="B279" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C279" s="49" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="48"/>
+      <c r="B280" s="10" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="44"/>
-      <c r="B272" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="44"/>
-      <c r="C273" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="44"/>
-      <c r="C274" s="10" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="B275" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C275" s="45" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="44"/>
-      <c r="B276" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C276" s="45"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C277" s="45" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="44"/>
-      <c r="B278" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C278" s="45"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="B279" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="C279" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="44"/>
-      <c r="B280" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C280" s="45"/>
+      <c r="C280" s="49"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="11" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="11" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="44" t="s">
-        <v>542</v>
+      <c r="A284" s="48" t="s">
+        <v>530</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C284" s="45" t="s">
-        <v>544</v>
+        <v>531</v>
+      </c>
+      <c r="C284" s="49" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="44"/>
+      <c r="A285" s="48"/>
       <c r="B285" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C285" s="45"/>
+        <v>409</v>
+      </c>
+      <c r="C285" s="49"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="11" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="44" t="s">
-        <v>154</v>
+      <c r="A287" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="44"/>
+      <c r="A288" s="48"/>
       <c r="B288" s="10" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="44" t="s">
-        <v>154</v>
+      <c r="A289" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="44"/>
+      <c r="A290" s="48"/>
       <c r="B290" s="10" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="11" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="11" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="11" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="11" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="11" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="11" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="11" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="11" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="11" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="11" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="11" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="11" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="11" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="44" t="s">
-        <v>154</v>
+      <c r="A308" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="44"/>
+      <c r="A309" s="48"/>
       <c r="B309" s="10" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="44"/>
+      <c r="A310" s="48"/>
       <c r="B310" s="10" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="44"/>
+      <c r="A311" s="48"/>
       <c r="B311" s="10" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="44"/>
+      <c r="A312" s="48"/>
       <c r="B312" s="10" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="11" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="11" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="11" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="11" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="11" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="11" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="11" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="11" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="11" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="11" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="11" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="11" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="11" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="11" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="11" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="11" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="11" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -11190,7 +11817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652E5710-150B-C14C-9032-4451AF876B8C}">
   <dimension ref="A1:A121"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -11198,337 +11825,337 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="23" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC567254-730A-BD4D-A36A-86F1B68A4353}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0681C977-4B2F-D545-8542-5616D9315190}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
@@ -5754,37 +5754,37 @@
     <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (barley OR oats OR triticale OR sorghum* OR millet* OR rye* OR buckwheat* OR fonio* OR teff OR Quinoa)</t>
   </si>
   <si>
-    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (*berries OR strawberr* OR rasberr* OR blueberr* OR cranberr* OR gooseberr* OR melon* OR watermelon* OR pineapple* OR papaya* OR "passion fruit" OR pomegranate* OR Persimmon* OR cashewapple OR "cashew apple" OR currants OR ribes)</t>
-  </si>
-  <si>
-    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (legume* OR pulse* OR phaseolus OR pisum OR lentil* OR chickpea* OR "chick pea*" OR "Cicer arietinum" OR cowpea OR "Vigna unguiculata" OR "pigeon pea" OR pigeonpea OR peanut* OR groundnut* OR "Arachis hypogaea" OR lupin* OR vetches OR vicia OR carobs)</t>
-  </si>
-  <si>
-    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (coffee OR Coffea OR 'cocoa OR cacao OR theobroma)</t>
-  </si>
-  <si>
-    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (almond* OR cashew* OR hazel* OR walnut* OR pistachio* OR macadamia* OR chestnut* OR Areca OR "Karite nut*" OR sheanut* OR "Vitellaria paradoxa" OR kola* OR "brazil nut" OR "Bertholletia excelsa" OR "pine nut")</t>
-  </si>
-  <si>
-    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (artichoke* OR asparagus OR brassica* OR broccoli OR cauliflower OR cucumber OR gherkin* OR courgette OR alliace* OR celery OR leek* OR cabbage* OR onion* OR garlic* OR pumpkin OR squash OR gourd* OR bamboo OR tomato OR Lycopersicon OR *pepper* OR eggplant OR aubergine* OR "Solanum melongena" OR lettuce OR Chayote OR "Sechium edule" OR christophine OR okra OR "Abelmoschus esculentus" OR mushroom* OR truffle*)</t>
-  </si>
-  <si>
-    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR "gene* editing" OR CRISPR) AND (pig OR hog OR swine OR poultry OR chicken OR broilers OR ruminant OR sheep OR goat OR cattle OR buffalo OR beef OR pork OR lamb OR mutton)</t>
-  </si>
-  <si>
-    <t>("gen* engineering" OR "gen* editing" OR “gene* modif*” OR biotech* OR GMO OR “gene* editing” OR CRISPR) AND (forest* OR tree* OR pine OR spruce OR hardwood OR softwood)</t>
-  </si>
-  <si>
     <t>("gen* engineering" OR "gen* editing" OR “gene* modif*” OR biotech* OR GMO OR “gene* editing” OR CRISPR) AND fish OR salmon OR trout OR hake OR cod OR tilapia</t>
   </si>
   <si>
     <t>c("community", "farmers", "fish*")</t>
   </si>
   <si>
-    <t>("gen* engineering" OR "gen* editing"  OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (Potato* OR "Solanum tuberosum" OR sweetpotato* OR "sweet potat*" OR "Ipomoea batatas" OR cassava OR "Manihot esculenta" OR turnip* OR carrot* OR beetroot OR radish* OR yam* OR Dioscorea OR taro* OR cocoyam* OR yautia OR onion* OR garlic OR ginger)</t>
-  </si>
-  <si>
-    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (maize OR corn OR rice OR wheat OR soybean OR soyabean)</t>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (maize OR corn OR rice OR wheat OR soybean OR soyabean)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (*berries OR strawberr* OR rasberr* OR blueberr* OR cranberr* OR gooseberr* OR melon* OR watermelon* OR pineapple* OR papaya* OR "passion fruit" OR pomegranate* OR Persimmon* OR cashewapple OR "cashew apple" OR currants OR ribes)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing"  OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (Potato* OR "Solanum tuberosum" OR sweetpotato* OR "sweet potat*" OR "Ipomoea batatas" OR cassava OR "Manihot esculenta" OR turnip* OR carrot* OR beetroot OR radish* OR yam* OR Dioscorea OR taro* OR cocoyam* OR yautia OR onion* OR garlic OR ginger)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (legume* OR pulse* OR phaseolus OR pisum OR lentil* OR chickpea* OR "chick pea*" OR "Cicer arietinum" OR cowpea OR "Vigna unguiculata" OR "pigeon pea" OR pigeonpea OR peanut* OR groundnut* OR "Arachis hypogaea" OR lupin* OR vetches OR vicia OR carobs)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPROR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (coffee OR Coffea OR 'cocoa OR cacao OR theobroma)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (almond* OR cashew* OR hazel* OR walnut* OR pistachio* OR macadamia* OR chestnut* OR Areca OR "Karite nut*" OR sheanut* OR "Vitellaria paradoxa" OR kola* OR "brazil nut" OR "Bertholletia excelsa" OR "pine nut")</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (artichoke* OR asparagus OR brassica* OR broccoli OR cauliflower OR cucumber OR gherkin* OR courgette OR alliace* OR celery OR leek* OR cabbage* OR onion* OR garlic* OR pumpkin OR squash OR gourd* OR bamboo OR tomato OR Lycopersicon OR *pepper* OR eggplant OR aubergine* OR "Solanum melongena" OR lettuce OR Chayote OR "Sechium edule" OR christophine OR okra OR "Abelmoschus esculentus" OR mushroom* OR truffle*)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR "gene* editing" OR CRISPROR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (pig OR hog OR swine OR poultry OR chicken OR broilers OR ruminant OR sheep OR goat OR cattle OR buffalo OR beef OR pork OR lamb OR mutton)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR “gene* modif*” OR biotech* OR GMO OR “gene* editing” OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (forest* OR tree* OR pine OR spruce OR hardwood OR softwood)</t>
   </si>
 </sst>
 </file>
@@ -6467,8 +6467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7143,7 +7143,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7155,7 +7155,7 @@
         <v>865</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7173,7 +7173,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7185,10 +7185,10 @@
         <v>869</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7200,10 +7200,10 @@
         <v>867</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7215,7 +7215,7 @@
         <v>866</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>797</v>
@@ -7615,7 +7615,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7627,7 +7627,7 @@
         <v>870</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>797</v>
@@ -7732,7 +7732,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -7744,7 +7744,7 @@
         <v>871</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>797</v>
@@ -7777,7 +7777,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -7789,7 +7789,7 @@
         <v>872</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>797</v>
@@ -8068,7 +8068,7 @@
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="18" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -8081,7 +8081,7 @@
         <v>87</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="F70" s="19" t="s">
         <v>794</v>
@@ -8332,7 +8332,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -8345,7 +8345,7 @@
         <v>820</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>816</v>
@@ -8485,7 +8485,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="F87" s="13" t="s">
         <v>800</v>
@@ -8929,7 +8929,7 @@
         <v>829</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -11704,87 +11704,15 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A129:A136"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="A230:A234"/>
-    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="C284:C285"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="C267:C268"/>
     <mergeCell ref="A269:A270"/>
@@ -11799,15 +11727,87 @@
     <mergeCell ref="B261:B263"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0681C977-4B2F-D545-8542-5616D9315190}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F9F08-77F3-644F-B3FC-D13333830DD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="-30040" yWindow="800" windowWidth="27400" windowHeight="19340" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="baseQueries" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="WOSSearchOperators" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">baseQueries!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">baseQueries!$A$1:$G$94</definedName>
     <definedName name="_Toc14330918" localSheetId="0">baseQueries!$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="924">
   <si>
     <t>valueChain</t>
   </si>
@@ -778,9 +780,6 @@
     <t>searchStrings.econ</t>
   </si>
   <si>
-    <t>c("food security", "food insecure*",  "food access*", "food sufficien*", "food insufficien*","food stability")</t>
-  </si>
-  <si>
     <t>c("SSP",  "SSP1", "SSP2", "SSP3", "SSP4","SSP5")</t>
   </si>
   <si>
@@ -5112,9 +5111,6 @@
     <t>CO2Fertilization</t>
   </si>
   <si>
-    <t>(CO2 OR carbon dioxide) AND fertil*</t>
-  </si>
-  <si>
     <t>5.8 Other Terrestrial Ecosystem Products</t>
   </si>
   <si>
@@ -5124,45 +5120,27 @@
     <t>stress AND human AND ("thermal heat index" OR "temperature humidity index" OR "wet bulb temperature" OR "web bulb globe temperature" OR "heat stress index")</t>
   </si>
   <si>
-    <t>agriculture AND (SSP OR "shared socioeconomic profile*" OR RCP OR "representative concentration pathway")</t>
-  </si>
-  <si>
     <t>"food *securit*" OR "food access*" OR "food afford*" OR "food insecur*" OR "food *sufficien*" OR "food choice*" OR "food availab*" OR "food utiliz*" OR "food stabil*" OR "food quality"</t>
   </si>
   <si>
     <t>(food OR agriculture) AND consump* OR "dietary choice" OR "food choice"</t>
   </si>
   <si>
-    <t>impacts AND ("food security" OR nutrition)</t>
-  </si>
-  <si>
     <t>"food secur*" OR "food insecur*" OR "food suppl*" OR "food afford*" OR "food sufficien*" OR "food insufficien*" OR "food availab*" OR "food access*" OR "food utiliz*" OR "food stabil*" OR *nutritio* OR anthropometry OR micronutrient</t>
   </si>
   <si>
-    <t>"crop insurance" OR "index insurance"</t>
-  </si>
-  <si>
-    <t>(food value chain) OR "food marketing" OR "supply chain*"</t>
-  </si>
-  <si>
     <t>"food system" OR "food value chain"</t>
   </si>
   <si>
     <t>"food storage loss" OR "crop storage loss" OR spoilage</t>
   </si>
   <si>
-    <t>"food processing" OR milling OR grinding OR fermentation OR drying OR baking</t>
-  </si>
-  <si>
     <t>"livestock system*" OR "pastoral system*" OR "pasture-based system*" OR containment OR CAFO OR "landless system*"</t>
   </si>
   <si>
     <t>stress AND animal AND ("thermal heat index" OR "temperature humidity index" OR "wet bulb temperature " OR "web bulb globe temperature" OR "heat stress index")</t>
   </si>
   <si>
-    <t xml:space="preserve">("heat stress tolerance" OR "heat tolerance") AND (breed OR genotype) </t>
-  </si>
-  <si>
     <t>"forestry system*" OR agroforestry OR agriforestry</t>
   </si>
   <si>
@@ -5334,9 +5312,6 @@
     <t>c("agroecology", "sustainable intensification", "precision agriculture", "landscape approach*", "agroforestry", "land sparing", "land sharing", "climate smart agriculture", "Infrastructure", "conservation agriculture", "diversification", "fertilizer", "planting date", "irrigation ", "crop cultivars", "multiple cropping", "soil conservation", "minimal soil disturbance", "seed priming", "economising inputs", "permanent soil cover", "sequestration of soil organic carbon", "water harvesting", "irrigation efficiency", "storage facility", "conservation agriculture")</t>
   </si>
   <si>
-    <t>(food OR agriculture) AND adaptation OR "adaptive capacity" OR "risk sharing" OR "risk spreading" OR "conservation agriculture"</t>
-  </si>
-  <si>
     <t>"cropping system" AND (intercrop OR "sequential crop" OR "relay crop" OR "multi* crop" OR "crop rotation" OR "mix tree-crop*" OR "traditional crop" OR "indigenous crop" OR perennial OR "minor crop" OR "conservation agriculture")</t>
   </si>
   <si>
@@ -5349,13 +5324,7 @@
     <t>pestsFish</t>
   </si>
   <si>
-    <t>(fish OR marine OR aquaculture) AND (pest* OR insect* or fung* OR weed* OR pathogen )</t>
-  </si>
-  <si>
     <t>pestsForest</t>
-  </si>
-  <si>
-    <t>(*forest*) AND (pest* OR insect* or fung* OR weed* OR pathogen )</t>
   </si>
   <si>
     <t>culturEcoSysService</t>
@@ -5386,10 +5355,6 @@
     <t>c("financ*", "technolog*", "fund*")</t>
   </si>
   <si>
-    <t>c("sea level", "heat", "drought", "flood")</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>adaptComm</t>
   </si>
   <si>
@@ -5499,9 +5464,6 @@
   </si>
   <si>
     <t>biofuel* OR bioenergy OR agrofuel* OR BECCS OR "bioenergy with carbon capture and storage"</t>
-  </si>
-  <si>
-    <t>(conflict OR competition OR tradeoffs) AND (fisheries OR “aquatic system*” OR biofuels OR "livestock crop" OR livestock OR crop OR “indigenous” OR run-off OR gender)</t>
   </si>
   <si>
     <t>searchStrings.engLevel</t>
@@ -5553,9 +5515,6 @@
     <t>(cultur* ecosystem service*) AND (touris* OR relig* OR recreat* OR spiritual OR Aesthetic OR beaut*)</t>
   </si>
   <si>
-    <t>crop AND yield AND variability</t>
-  </si>
-  <si>
     <t>searchStrings.climateChangeSource</t>
   </si>
   <si>
@@ -5568,9 +5527,6 @@
     <t>searchStrings.weatherImpacts</t>
   </si>
   <si>
-    <t>(food OR agriculture) AND adaptation OR participatory AND ("plant breeding" OR "varie* select" OR PPB OR PVS)</t>
-  </si>
-  <si>
     <t>maladapt*</t>
   </si>
   <si>
@@ -5592,9 +5548,6 @@
     <t>impactCropStress</t>
   </si>
   <si>
-    <t>food AND (vulnerability OR ineq* OR poverty OR discrimination OR rac* OR intersectionality OR income)</t>
-  </si>
-  <si>
     <t>methods</t>
   </si>
   <si>
@@ -5658,12 +5611,6 @@
     <t>(flood OR "sea level rise" OR "extreme event" OR yield OR drought OR *stability) AND crop* AND impact*</t>
   </si>
   <si>
-    <t>("international trade" OR trade) AND (agricultur* OR food)</t>
-  </si>
-  <si>
-    <t>stress AND (crop or plant) AND (THI OR "thermal heat index" OR "temperature humidity index" OR "heat stress index" OR "abiotic")</t>
-  </si>
-  <si>
     <t>searchStrings.CCimpact</t>
   </si>
   <si>
@@ -5694,12 +5641,6 @@
     <t>foodWasteLoss</t>
   </si>
   <si>
-    <t>food AND (storage OR spoilage OR loss OR waste)</t>
-  </si>
-  <si>
-    <t>"price" OR "price vol*" OR "price var*" OR "price uncertain*" OR "agricultural price var*" OR "agricultural price uncertain*" OR "commodity price var*" OR "food price var*" OR "commodity price uncertain*" OR "commodity price vol*"</t>
-  </si>
-  <si>
     <t>(livestock OR ruminant OR cattle OR beef OR goat OR sheep OR pig OR shoat OR swine OR pork OR chicken OR poultry) AND impact*</t>
   </si>
   <si>
@@ -5709,24 +5650,15 @@
     <t>(livestock OR ruminant OR cattle OR beef OR goat OR sheep OR pig OR shoat OR swine OR pork OR chicken OR poultry) AND (pasture OR grass* OR rangeland OR feed OR forag* OR hay OR silage)</t>
   </si>
   <si>
-    <t>(animal OR livestock OR ruminant OR cattle OR beef OR goat OR sheep OR pig OR shoat OR swine OR pork OR chicken OR poultry) AND (pest* OR insect* or fung* OR weed* )</t>
-  </si>
-  <si>
     <t>c("greenhouse gas", "global warming", "climate change", "climate variability", "climate warming")</t>
   </si>
   <si>
-    <t>c("climate hazard",  "extreme weather",  "heat wave",  "precipitation variability", "rain* variability", " temp* variability", "sea level rise", "drought", "intense rainfall", "flood*")</t>
-  </si>
-  <si>
     <t>"climate hazard" OR "extreme weather" OR "heat wave" OR "precipitation variability" OR "rainfall variability" OR "temperature  variability" OR "sea level rise" OR drought OR "intense rainfall" OR flood*</t>
   </si>
   <si>
     <t>searchStrings.mitigation</t>
   </si>
   <si>
-    <t>mitigation OR REDD or MRV</t>
-  </si>
-  <si>
     <t>(global OR international) AND ("wood trade" OR "forest products trade")</t>
   </si>
   <si>
@@ -5736,9 +5668,6 @@
     <t>("free air carbon dioxide" OR "free air ozone" OR FACE) AND experiment*</t>
   </si>
   <si>
-    <t>crop OR plant AND (pest* OR insect* or fung* OR weed* )</t>
-  </si>
-  <si>
     <t>crop OR plant AND (ozone OR "air quality ")</t>
   </si>
   <si>
@@ -5751,12 +5680,6 @@
     <t>SspsRcps</t>
   </si>
   <si>
-    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR) AND (barley OR oats OR triticale OR sorghum* OR millet* OR rye* OR buckwheat* OR fonio* OR teff OR Quinoa)</t>
-  </si>
-  <si>
-    <t>("gen* engineering" OR "gen* editing" OR “gene* modif*” OR biotech* OR GMO OR “gene* editing” OR CRISPR) AND fish OR salmon OR trout OR hake OR cod OR tilapia</t>
-  </si>
-  <si>
     <t>c("community", "farmers", "fish*")</t>
   </si>
   <si>
@@ -5772,26 +5695,122 @@
     <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (legume* OR pulse* OR phaseolus OR pisum OR lentil* OR chickpea* OR "chick pea*" OR "Cicer arietinum" OR cowpea OR "Vigna unguiculata" OR "pigeon pea" OR pigeonpea OR peanut* OR groundnut* OR "Arachis hypogaea" OR lupin* OR vetches OR vicia OR carobs)</t>
   </si>
   <si>
-    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPROR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (coffee OR Coffea OR 'cocoa OR cacao OR theobroma)</t>
-  </si>
-  <si>
     <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (almond* OR cashew* OR hazel* OR walnut* OR pistachio* OR macadamia* OR chestnut* OR Areca OR "Karite nut*" OR sheanut* OR "Vitellaria paradoxa" OR kola* OR "brazil nut" OR "Bertholletia excelsa" OR "pine nut")</t>
   </si>
   <si>
     <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (artichoke* OR asparagus OR brassica* OR broccoli OR cauliflower OR cucumber OR gherkin* OR courgette OR alliace* OR celery OR leek* OR cabbage* OR onion* OR garlic* OR pumpkin OR squash OR gourd* OR bamboo OR tomato OR Lycopersicon OR *pepper* OR eggplant OR aubergine* OR "Solanum melongena" OR lettuce OR Chayote OR "Sechium edule" OR christophine OR okra OR "Abelmoschus esculentus" OR mushroom* OR truffle*)</t>
   </si>
   <si>
-    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR "gene* editing" OR CRISPROR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (pig OR hog OR swine OR poultry OR chicken OR broilers OR ruminant OR sheep OR goat OR cattle OR buffalo OR beef OR pork OR lamb OR mutton)</t>
-  </si>
-  <si>
-    <t>("gen* engineering" OR "gen* editing" OR “gene* modif*” OR biotech* OR GMO OR “gene* editing” OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (forest* OR tree* OR pine OR spruce OR hardwood OR softwood)</t>
+    <t>(food OR nutrition) AND (vulnerability OR ineq* OR poverty OR discrimination OR rac* OR intersectionality OR income)</t>
+  </si>
+  <si>
+    <t>((CO2 OR "carbon dioxide") AND fertil*) OR "enhance photosynthesis" OR "photosynthesis enhance*" OR "CO2 effect*" OR "elevated CO2"</t>
+  </si>
+  <si>
+    <t>stress AND (crop OR plant) AND (THI OR "thermal heat index" OR "temperature humidity index" OR "heat stress index" OR "abiotic")</t>
+  </si>
+  <si>
+    <t>crop OR plant AND (pest* OR insect* OR fung* OR weed* )</t>
+  </si>
+  <si>
+    <t>(animal OR livestock OR ruminant OR cattle OR beef OR goat OR sheep OR pig OR shoat OR swine OR pork OR chicken OR poultry) AND (pest* OR insect* OR fung* OR weed* )</t>
+  </si>
+  <si>
+    <t>(*forest*) AND (pest* OR insect* OR fung* OR weed* OR pathogen )</t>
+  </si>
+  <si>
+    <t>(fish OR marine OR aquaculture) AND (pest* OR insect* OR fung* OR weed* OR pathogen )</t>
+  </si>
+  <si>
+    <t>(agricult* OR food OR commodity) AND ("price vol*" OR "price var*" OR "price uncertain*")</t>
+  </si>
+  <si>
+    <t>emissions OR mitigation OR REDD OR MRV</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (barley OR oats OR triticale OR sorghum* OR millet* OR rye* OR buckwheat* OR fonio* OR teff OR Quinoa)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (coffee OR Coffea OR 'cocoa OR cacao OR theobroma)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR "gene* editing" OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (pig OR hog OR swine OR poultry OR chicken OR broilers OR ruminant OR sheep OR goat OR cattle OR buffalo OR beef OR pork OR lamb OR mutton)</t>
+  </si>
+  <si>
+    <t>food AND (processing OR milling OR grinding OR fermentation OR drying OR baking)</t>
+  </si>
+  <si>
+    <t>(food value chain) OR "food marketing" OR "food supply chain*"</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>wine OR vineyard</t>
+  </si>
+  <si>
+    <t>"crop insurance" OR "index* insurance" OR "livestock insurance OR weather insurance"</t>
+  </si>
+  <si>
+    <t>c("sea level", "heat", "drought", "flood", "ozone", "CO2", "flood", "variability" )</t>
+  </si>
+  <si>
+    <t>foodSafety</t>
+  </si>
+  <si>
+    <t>c("climate hazard",  "extreme weather",  "heat", "heat wave",  "high temperature", "precipitation variability", "rain* variability", " temp* variability", "sea level rise", "drought", "intense rainfall", "flood*", "O3", "ozone", "CO2","carbon dioxide", "variability")</t>
+  </si>
+  <si>
+    <t>c("food security", "food insecure*",  "food access*", "food sufficien*", "food insufficien*","food stability", "malnutrition")</t>
+  </si>
+  <si>
+    <t>impacts AND (nutrition OR stunting OR undernutrition OR obesity OR "nutrient deficien*" OR malnutrition)</t>
+  </si>
+  <si>
+    <t>(conflict OR competition OR tradeoffs) AND (fisheries OR "aquatic system*" OR biofuels OR "livestock crop" OR livestock OR crop OR "indigenous" OR run-off OR gender)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR "gene* editing" OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (forest* OR tree* OR pine OR spruce OR hardwood OR softwood)</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR "gene* editing" OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND fish OR salmon OR trout OR hake OR cod OR tilapia</t>
+  </si>
+  <si>
+    <t>searchStrings.foodSafety</t>
+  </si>
+  <si>
+    <t>c("food safety", "Food control",  "Foodborne diseases",  "Microbiological contamination",  "Microbial contamination",  "Plant Health",  "Biotoxins",  "mycotoxins",  "marine toxins",  "Chemical contamination")</t>
+  </si>
+  <si>
+    <t>"food safety" AND  ("Food control" OR "Foodborne diseases" OR "Microbiological contamination" OR "Microbial contamination" OR "Plant Health" OR Biotoxins OR mycotoxins OR "marine toxins" OR "Chemical contamination" OR milk OR animal OR poultry OR pork OR beef)</t>
+  </si>
+  <si>
+    <t>crop AND (yield OR production OR quality) AND (variability OR decline OR loss OR damage)</t>
+  </si>
+  <si>
+    <t>agriculture AND (SSP OR "shared socioeconomic pathway*" OR RCP OR "representative concentration pathway")</t>
+  </si>
+  <si>
+    <t>"food loss" OR "food waste" OR "food spoil*" OR "food storage"</t>
+  </si>
+  <si>
+    <t>(food OR agriculture OR aqua*) AND adapt* OR "adaptive capacity" OR "risk sharing" OR "risk spreading" OR "conservation agriculture"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("heat stress tolerance" OR "heat tolerance" OR "heat stress" OR THI) AND (breed OR genotype) </t>
+  </si>
+  <si>
+    <t>"agricultural trade" OR "food trade" OR "commodity trade" OR "global trade"</t>
+  </si>
+  <si>
+    <t>(adapt* OR participatory) AND ("plant breeding" OR "varietal select*" OR "variety select*" OR "livestock breeding" OR PPB OR PVS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5962,6 +5981,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -6053,7 +6078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6110,14 +6135,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6148,6 +6167,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -6465,10 +6499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6499,16 +6533,16 @@
         <v>7</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>791</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>803</v>
-      </c>
       <c r="I1" s="13" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -6516,52 +6550,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>700</v>
+        <v>918</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
-        <f t="shared" ref="A3:A73" si="0">A2+1</f>
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>82</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -6570,25 +6604,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>95</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -6597,25 +6631,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -6624,25 +6658,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
@@ -6651,52 +6685,52 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>703</v>
+        <v>910</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -6705,25 +6739,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -6732,25 +6766,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -6759,52 +6793,53 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>824</v>
+        <v>664</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>911</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>770</v>
+      <c r="B12" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>835</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -6812,53 +6847,55 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>741</v>
+      <c r="B13" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>920</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>850</v>
+      <c r="B14" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>733</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -6866,1067 +6903,1074 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>705</v>
+      <c r="B15" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>831</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>846</v>
+        <v>6</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>905</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>77</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="46">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>679</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>787</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>899</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="B18" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50" t="s">
+        <v>775</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>876</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="46">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>845</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>795</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="B19" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50" t="s">
+        <v>777</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>923</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="46">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>873</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="B20" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50" t="s">
+        <v>776</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>857</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>696</v>
+        <v>890</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>73</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>852</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>876</v>
+        <v>4</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>877</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>900</v>
+      <c r="B26" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>736</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>727</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>749</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>744</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>801</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>886</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>885</v>
+        <v>855</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>887</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <f t="shared" ref="A35:A66" si="1">A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>874</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>746</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>796</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>731</v>
+      <c r="E37" s="21" t="s">
+        <v>858</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>902</v>
+        <v>678</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>847</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>901</v>
+      <c r="B40" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>723</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="B41" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>724</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>796</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>754</v>
-      </c>
-      <c r="E43" s="14" t="s">
+      <c r="F45" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="E44" s="14" t="s">
+      <c r="E46" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>802</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>790</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>904</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>755</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>756</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>732</v>
-      </c>
       <c r="F47" s="13" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>757</v>
+        <v>641</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>718</v>
+        <v>790</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>758</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>719</v>
+        <v>778</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>880</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>913</v>
+      <c r="B50" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>728</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>718</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>759</v>
-      </c>
-      <c r="E51" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="144" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>760</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>795</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>761</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>762</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>738</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>763</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>903</v>
-      </c>
       <c r="F56" s="13" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>915</v>
+      <c r="B57" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>730</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>74</v>
+      <c r="B58" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>879</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>694</v>
+        <v>74</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>840</v>
+        <v>74</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>646</v>
+        <v>693</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>78</v>
+        <v>839</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>709</v>
+        <v>2</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>645</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>855</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>707</v>
+        <v>687</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>901</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>886</v>
+        <v>1</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>887</v>
+        <v>701</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>78</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -7934,23 +7978,23 @@
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>792</v>
+        <v>868</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>780</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -7958,23 +8002,23 @@
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>888</v>
+        <v>68</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>922</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -7982,23 +8026,23 @@
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>708</v>
+        <v>896</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A67:A94" si="2">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -8006,109 +8050,109 @@
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>680</v>
+      <c r="B68" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>739</v>
+        <v>0</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>902</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
     </row>
     <row r="69" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B69" s="19" t="s">
-        <v>680</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>711</v>
+      <c r="B69" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>916</v>
+        <v>688</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>704</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>794</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>78</v>
+        <v>782</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>839</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="18" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
-        <v>691</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>712</v>
+        <v>87</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>900</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G71" s="19" t="s">
         <v>78</v>
@@ -8116,493 +8160,540 @@
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19" t="s">
         <v>690</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>699</v>
+        <v>921</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>855</v>
+        <v>78</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>889</v>
+        <v>689</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>697</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
     </row>
     <row r="74" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
-        <f t="shared" ref="A74:A92" si="1">A73+1</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
     </row>
     <row r="75" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>710</v>
+        <v>870</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>891</v>
+        <v>703</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
     </row>
     <row r="77" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
-        <v>675</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>892</v>
+        <v>92</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>871</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>714</v>
+        <v>674</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>893</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>816</v>
+        <v>782</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>78</v>
+        <v>839</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
-        <v>94</v>
+        <v>660</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>855</v>
+        <v>78</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
     </row>
     <row r="80" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C80" s="19"/>
-      <c r="D80" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>777</v>
+      <c r="D80" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>705</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
     </row>
     <row r="81" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C81" s="19"/>
       <c r="D81" s="13" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C82" s="19"/>
-      <c r="D82" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>898</v>
+      <c r="D82" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>894</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>743</v>
+        <v>661</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>875</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
     </row>
     <row r="84" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>71</v>
+        <v>726</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>715</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>818</v>
+        <v>735</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>782</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19" t="s">
-        <v>677</v>
+        <v>71</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>766</v>
+        <v>707</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B86" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>716</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>800</v>
+      <c r="B86" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>825</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
     </row>
-    <row r="87" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>907</v>
+        <v>676</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>758</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="E88" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>798</v>
+        <v>683</v>
+      </c>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>788</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="D89" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="E89" s="36" t="s">
+      <c r="C89" s="19"/>
+      <c r="D89" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="G89" s="19" t="s">
         <v>839</v>
-      </c>
-      <c r="F89" s="29" t="s">
-        <v>793</v>
-      </c>
-      <c r="G89" s="19" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
-        <v>670</v>
-      </c>
-      <c r="E90" s="23" t="s">
+      <c r="D90" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>786</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="15">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="D91" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="F90" s="29" t="s">
-        <v>793</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A91" s="15">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>835</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32" t="s">
-        <v>836</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>837</v>
-      </c>
-      <c r="F91" s="32" t="s">
-        <v>838</v>
+      <c r="E91" s="34" t="s">
+        <v>826</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>781</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>679</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>847</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>795</v>
+      <c r="B92" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>781</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>855</v>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="15">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A94" s="15">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>839</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{317E3D8D-97ED-A742-9AD8-40575174812B}"/>
+  <autoFilter ref="A1:G94" xr:uid="{317E3D8D-97ED-A742-9AD8-40575174812B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G92">
+      <sortCondition ref="B1:B92"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I90">
     <sortCondition ref="I2:I90"/>
   </sortState>
@@ -8622,7 +8713,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -8632,336 +8723,344 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B44446-4EFF-1748-B076-59F83F2A5201}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" style="37" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="37"/>
+    <col min="1" max="1" width="29" style="35" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="37" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>860</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>859</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
+        <v>864</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
+        <v>865</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>878</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>877</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>881</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>914</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>646</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>648</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>649</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>667</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="44" t="s">
+        <v>812</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="44" t="s">
+        <v>813</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
+        <v>814</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="44" t="s">
+        <v>815</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
+        <v>816</v>
+      </c>
+      <c r="B37" s="45" t="s">
         <v>882</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
-        <v>883</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>644</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>647</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>649</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>650</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
-        <v>653</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
-        <v>656</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
-        <v>659</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
-        <v>668</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
-        <v>671</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
-        <v>672</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
-        <v>825</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>826</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>827</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46" t="s">
-        <v>828</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
-        <v>829</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="46" t="s">
-        <v>830</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>784</v>
-      </c>
     </row>
     <row r="38" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
-        <v>831</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
-        <v>832</v>
-      </c>
-      <c r="B39" s="47" t="s">
-        <v>786</v>
+      <c r="A38" s="44" t="s">
+        <v>817</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="44" t="s">
+        <v>818</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
-        <v>833</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>834</v>
+      <c r="A40" s="44" t="s">
+        <v>819</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="44" t="s">
+        <v>820</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -8974,7 +9073,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8984,48 +9083,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>841</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>864</v>
+        <v>827</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>843</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>895</v>
+        <v>829</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>896</v>
-      </c>
-      <c r="B4" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>858</v>
-      </c>
-      <c r="B5" s="33"/>
+        <v>842</v>
+      </c>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>844</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>842</v>
+        <v>830</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -9049,12 +9148,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -9062,12 +9161,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -9075,54 +9174,54 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -9130,113 +9229,113 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+      <c r="B19" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="10" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+      <c r="B20" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="11" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="10" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+      <c r="B23" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="10" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="51" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="B24" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="10" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+      <c r="B25" s="10" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
-        <v>142</v>
+      <c r="A31" s="52" t="s">
+        <v>141</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="10" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -9244,32 +9343,32 @@
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -9277,217 +9376,217 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" s="49"/>
+        <v>156</v>
+      </c>
+      <c r="B43" s="52"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" s="49"/>
+        <v>157</v>
+      </c>
+      <c r="B44" s="52"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="48" t="s">
-        <v>142</v>
+      <c r="A50" s="51" t="s">
+        <v>141</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="51"/>
+      <c r="B51" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
-      <c r="B51" s="10" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="51"/>
+      <c r="B52" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="48"/>
-      <c r="B52" s="10" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="51"/>
+      <c r="B53" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
-      <c r="B53" s="10" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="51"/>
+      <c r="B54" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
-      <c r="B54" s="10" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="51"/>
+      <c r="B55" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
-      <c r="B55" s="10" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="51"/>
+      <c r="B56" s="10" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
-      <c r="B56" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="10" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="51"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="51"/>
+      <c r="B61" s="10" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
-      <c r="B61" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="48" t="s">
-        <v>142</v>
+      <c r="A70" s="51" t="s">
+        <v>141</v>
       </c>
       <c r="B70" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="51"/>
+      <c r="B71" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="51"/>
+      <c r="B72" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="48"/>
-      <c r="B71" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
-      <c r="B72" s="10" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="51"/>
+      <c r="B73" s="10" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
-      <c r="B73" s="10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -9495,82 +9594,82 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -9578,20 +9677,20 @@
     </row>
     <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -9599,68 +9698,68 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B96" s="10" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="51" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="48" t="s">
+      <c r="B97" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B97" s="10" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="51"/>
+      <c r="B98" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="51"/>
+      <c r="B99" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="48"/>
-      <c r="B98" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="48"/>
-      <c r="B99" s="10" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="51"/>
+      <c r="B100" s="10" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="48"/>
-      <c r="B100" s="10" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -9668,10 +9767,10 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -9679,7 +9778,7 @@
     </row>
     <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -9687,58 +9786,58 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="48" t="s">
-        <v>135</v>
+      <c r="A112" s="51" t="s">
+        <v>134</v>
       </c>
       <c r="B112" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="51"/>
+      <c r="B113" s="10" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="48"/>
-      <c r="B113" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="48" t="s">
-        <v>142</v>
+      <c r="A115" s="51" t="s">
+        <v>141</v>
       </c>
       <c r="B115" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="51"/>
+      <c r="B116" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="48"/>
-      <c r="B116" s="10" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="51"/>
+      <c r="B117" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="48"/>
-      <c r="B117" s="10" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="51"/>
+      <c r="B118" s="10" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="48"/>
-      <c r="B118" s="10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -9746,7 +9845,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -9754,1946 +9853,1946 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="C122" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="48" t="s">
+      <c r="B123" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="C123" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="51"/>
+      <c r="B124" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C123" s="49" t="s">
+      <c r="C124" s="52"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="51" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="48"/>
-      <c r="B124" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C124" s="49"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="48" t="s">
+      <c r="B125" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="C125" s="52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="51"/>
+      <c r="B126" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C125" s="49" t="s">
+      <c r="C126" s="52"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="51" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="48"/>
-      <c r="B126" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C126" s="49"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="48" t="s">
+      <c r="B127" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="C127" s="52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="51"/>
+      <c r="B128" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C127" s="49" t="s">
+      <c r="C128" s="52"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="51" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="48"/>
-      <c r="B128" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C128" s="49"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="48" t="s">
+      <c r="B129" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="C129" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="51"/>
+      <c r="B130" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="48"/>
-      <c r="B130" s="10" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="51"/>
+      <c r="B131" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="48"/>
-      <c r="B131" s="10" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="51"/>
+      <c r="B132" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C132" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="48"/>
-      <c r="B132" s="10" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="51"/>
+      <c r="B133" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="48"/>
-      <c r="B133" s="10" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="51"/>
+      <c r="B134" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="48"/>
-      <c r="B134" s="10" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="51"/>
+      <c r="B135" s="10"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="51"/>
+      <c r="B136" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C134" s="10" t="s">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="51" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="48"/>
-      <c r="B135" s="10"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="48"/>
-      <c r="B136" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="48" t="s">
+      <c r="B137" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="C137" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="51"/>
+      <c r="B138" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C138" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="48"/>
-      <c r="B138" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C138" s="10" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="51" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="48" t="s">
+      <c r="B139" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="C139" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="51"/>
+      <c r="B140" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="48"/>
-      <c r="B140" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C140" s="10" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="51" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="48" t="s">
+      <c r="B141" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="C141" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="51"/>
+      <c r="B142" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="48"/>
-      <c r="B142" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C142" s="10" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="51" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="48" t="s">
+      <c r="B143" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="C143" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="51"/>
+      <c r="B144" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C144" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="48"/>
-      <c r="B144" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C144" s="10" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="51"/>
+      <c r="C145" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="48"/>
-      <c r="C145" s="10" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="51" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="48" t="s">
+      <c r="B146" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="C146" s="52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="51"/>
+      <c r="B147" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C146" s="49" t="s">
+      <c r="C147" s="52"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="51" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="48"/>
-      <c r="B147" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C147" s="49"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="48" t="s">
+      <c r="B148" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="C148" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="51"/>
+      <c r="B149" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C149" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="48"/>
-      <c r="B149" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="48"/>
+      <c r="A150" s="51"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="51"/>
+      <c r="B151" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C151" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="48"/>
-      <c r="B151" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="48"/>
+      <c r="A152" s="51"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="51"/>
+      <c r="B153" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C153" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="48"/>
-      <c r="B153" s="10" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="51"/>
+      <c r="B154" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C154" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="48"/>
-      <c r="B154" s="10" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="51"/>
+      <c r="B155" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C155" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="48"/>
-      <c r="B155" s="10" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="51"/>
+      <c r="B156" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C156" s="10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="48"/>
-      <c r="B156" s="10" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="51"/>
+      <c r="B157" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C156" s="10" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="51"/>
+      <c r="B158" s="10"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="51"/>
+      <c r="B159" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="51"/>
+      <c r="B160" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="51" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="48"/>
-      <c r="B157" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="48"/>
-      <c r="B158" s="10"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="48"/>
-      <c r="B159" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="48"/>
-      <c r="B160" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="48" t="s">
+      <c r="B161" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="C161" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="51"/>
+      <c r="B162" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C162" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="48"/>
-      <c r="B162" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C162" s="10" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="51"/>
+      <c r="B163" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C163" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="48"/>
-      <c r="B163" s="10" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="51"/>
+      <c r="B164" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C163" s="10" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="51" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="48"/>
-      <c r="B164" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="48" t="s">
+      <c r="B165" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="B165" s="49" t="s">
+      <c r="C165" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C165" s="10" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="51"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="48"/>
-      <c r="B166" s="49"/>
-      <c r="C166" s="10" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="51"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="48"/>
-      <c r="B167" s="49"/>
-      <c r="C167" s="10" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="51"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="48"/>
-      <c r="B168" s="49"/>
-      <c r="C168" s="10" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="51"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="10" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="48"/>
-      <c r="B169" s="49"/>
-      <c r="C169" s="10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="C170" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C170" s="10" t="s">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="51" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="48" t="s">
+      <c r="B171" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="C171" s="52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="51"/>
+      <c r="B172" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C171" s="49" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="48"/>
-      <c r="B172" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C172" s="49"/>
+      <c r="C172" s="52"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B173" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="C173" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C173" s="10" t="s">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="51" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="48" t="s">
+      <c r="B174" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="C174" s="52" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="51"/>
+      <c r="B175" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C174" s="49" t="s">
+      <c r="C175" s="52"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="51" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="48"/>
-      <c r="B175" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C175" s="49"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="48" t="s">
+      <c r="B176" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="C176" s="52" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="51"/>
+      <c r="B177" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C176" s="49" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="48"/>
-      <c r="B177" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C177" s="49"/>
+      <c r="C177" s="52"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B178" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="C178" s="10" t="s">
         <v>328</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B179" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="C179" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C179" s="10" t="s">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="51" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="48" t="s">
+      <c r="B180" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="C180" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="51"/>
+      <c r="B181" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C181" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="48"/>
-      <c r="B181" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C181" s="10" t="s">
+    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" s="51" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A182" s="48" t="s">
+      <c r="B182" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="B182" s="49" t="s">
+      <c r="C182" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C182" s="9" t="s">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="51"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="48"/>
-      <c r="B183" s="49"/>
-      <c r="C183" s="10" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="51" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="48" t="s">
+      <c r="B184" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="B184" s="49" t="s">
+      <c r="C184" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C184" s="10" t="s">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="51"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="51" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="48"/>
-      <c r="B185" s="49"/>
-      <c r="C185" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="48" t="s">
+      <c r="B186" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="B186" s="49" t="s">
+      <c r="C186" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C186" s="10" t="s">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="51"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="48"/>
-      <c r="B187" s="49"/>
-      <c r="C187" s="10" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="51"/>
+      <c r="B188" s="52"/>
+      <c r="C188" s="10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="48"/>
-      <c r="B188" s="49"/>
-      <c r="C188" s="10" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="51" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="48" t="s">
+      <c r="B189" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="C189" s="52" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="51"/>
+      <c r="B190" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C189" s="49" t="s">
+      <c r="C190" s="52"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="51" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="48"/>
-      <c r="B190" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C190" s="49"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="48" t="s">
+      <c r="B191" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="C191" s="52" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="51"/>
+      <c r="B192" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C191" s="49" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="48"/>
-      <c r="B192" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C192" s="49"/>
+      <c r="C192" s="52"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B193" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="C193" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C193" s="10" t="s">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="51" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="48" t="s">
+      <c r="B194" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="C194" s="52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="51"/>
+      <c r="B195" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C194" s="49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="48"/>
-      <c r="B195" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C195" s="49"/>
+      <c r="C195" s="52"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B196" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="C196" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C196" s="10" t="s">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="51" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="48" t="s">
+      <c r="B197" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="C197" s="52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="51"/>
+      <c r="B198" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C197" s="49" t="s">
+      <c r="C198" s="52"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="51" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="48"/>
-      <c r="B198" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C198" s="49"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="48" t="s">
+      <c r="B199" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="C199" s="52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="51"/>
+      <c r="B200" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C199" s="49" t="s">
+      <c r="C200" s="52"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="51"/>
+      <c r="B201" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C201" s="52"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="51" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="48"/>
-      <c r="B200" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="C200" s="49"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="48"/>
-      <c r="B201" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C201" s="49"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="48" t="s">
+      <c r="B202" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="C202" s="52" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="51"/>
+      <c r="B203" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C202" s="49" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="48"/>
-      <c r="B203" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C203" s="49"/>
+      <c r="C203" s="52"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B204" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="C204" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B205" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="C205" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B206" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="C206" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C206" s="10" t="s">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="51" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="48" t="s">
+      <c r="B207" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="C207" s="52" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="51"/>
+      <c r="B208" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C207" s="49" t="s">
+      <c r="C208" s="52"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="51" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="48"/>
-      <c r="B208" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C208" s="49"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="48" t="s">
+      <c r="B209" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="C209" s="52" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="51"/>
+      <c r="B210" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C209" s="49" t="s">
+      <c r="C210" s="52"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="51" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="48"/>
-      <c r="B210" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C210" s="49"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="48" t="s">
+      <c r="B211" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="C211" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="51"/>
+      <c r="B212" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C212" s="12" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="48"/>
-      <c r="B212" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C212" s="12" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="51" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="48" t="s">
+      <c r="B213" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="C213" s="52" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="51"/>
+      <c r="B214" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C213" s="49" t="s">
+      <c r="C214" s="52"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="51" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="48"/>
-      <c r="B214" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C214" s="49"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="48" t="s">
+      <c r="B215" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="C215" s="52" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="51"/>
+      <c r="B216" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C215" s="49" t="s">
+      <c r="C216" s="52"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="51" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="48"/>
-      <c r="B216" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C216" s="49"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="48" t="s">
+      <c r="B217" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="C217" s="52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="51"/>
+      <c r="B218" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C217" s="49" t="s">
+      <c r="C218" s="52"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="51" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="48"/>
-      <c r="B218" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C218" s="49"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="48" t="s">
+      <c r="B219" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="C219" s="52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="51"/>
+      <c r="B220" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C219" s="49" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="48"/>
-      <c r="B220" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C220" s="49"/>
+      <c r="C220" s="52"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B221" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="C221" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C221" s="10" t="s">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="51" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="48" t="s">
+      <c r="B222" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="B222" s="49" t="s">
+      <c r="C222" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C222" s="10" t="s">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="51"/>
+      <c r="B223" s="52"/>
+      <c r="C223" s="10" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="48"/>
-      <c r="B223" s="49"/>
-      <c r="C223" s="10" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="51" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="48" t="s">
+      <c r="B224" s="52" t="s">
         <v>426</v>
       </c>
-      <c r="B224" s="49" t="s">
+      <c r="C224" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C224" s="10" t="s">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="51"/>
+      <c r="B225" s="52"/>
+      <c r="C225" s="10" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="48"/>
-      <c r="B225" s="49"/>
-      <c r="C225" s="10" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="51"/>
+      <c r="B226" s="52"/>
+      <c r="C226" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="48"/>
-      <c r="B226" s="49"/>
-      <c r="C226" s="10" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="51" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="48" t="s">
+      <c r="B227" s="52" t="s">
         <v>431</v>
       </c>
-      <c r="B227" s="49" t="s">
+      <c r="C227" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C227" s="10" t="s">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="51"/>
+      <c r="B228" s="52"/>
+      <c r="C228" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="51"/>
+      <c r="B229" s="52"/>
+      <c r="C229" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="51" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="48"/>
-      <c r="B228" s="49"/>
-      <c r="C228" s="10" t="s">
+      <c r="B230" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="51"/>
+      <c r="B231" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="51"/>
+      <c r="C232" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="51"/>
+      <c r="C233" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="51"/>
+      <c r="C234" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="48"/>
-      <c r="B229" s="49"/>
-      <c r="C229" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="B230" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="48"/>
-      <c r="B231" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="48"/>
-      <c r="C232" s="10" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="51" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="48"/>
-      <c r="C233" s="10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="48"/>
-      <c r="C234" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="48" t="s">
+      <c r="B235" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="C235" s="52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="51"/>
+      <c r="B236" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C235" s="49" t="s">
+      <c r="C236" s="52"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="51" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="48"/>
-      <c r="B236" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C236" s="49"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="48" t="s">
+      <c r="B237" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="C237" s="52" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="51"/>
+      <c r="B238" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C237" s="49" t="s">
+      <c r="C238" s="52"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="51" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="48"/>
-      <c r="B238" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C238" s="49"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="48" t="s">
+      <c r="B239" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="C239" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="51"/>
+      <c r="B240" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C239" s="10" t="s">
+      <c r="C240" s="10" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="48"/>
-      <c r="B240" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C240" s="10" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="51"/>
+      <c r="C241" s="10" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="48"/>
-      <c r="C241" s="10" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="51" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="48" t="s">
+      <c r="B242" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="C242" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="51"/>
+      <c r="B243" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C242" s="10" t="s">
+      <c r="C243" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="48"/>
-      <c r="B243" s="10" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="51"/>
+      <c r="B244" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="C244" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="48"/>
-      <c r="B244" s="10" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="51"/>
+      <c r="B245" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C244" s="10" t="s">
+      <c r="C245" s="10" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="48"/>
-      <c r="B245" s="10" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="51"/>
+      <c r="B246" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C245" s="10" t="s">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="51"/>
+      <c r="B247" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="51"/>
+      <c r="B248" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="51"/>
+      <c r="B249" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="51" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="48"/>
-      <c r="B246" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="48"/>
-      <c r="B247" s="10" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="48"/>
-      <c r="B248" s="10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="48"/>
-      <c r="B249" s="10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="48" t="s">
+      <c r="B250" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="C250" s="52" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="51"/>
+      <c r="B251" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C250" s="49" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="48"/>
-      <c r="B251" s="10" t="s">
+      <c r="C251" s="52"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="51"/>
+      <c r="B252" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C251" s="49"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="48"/>
-      <c r="B252" s="10" t="s">
+      <c r="C252" s="52"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="51"/>
+      <c r="B253" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C252" s="49"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="48"/>
-      <c r="B253" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="C253" s="49"/>
+      <c r="C253" s="52"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B254" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="C254" s="10" t="s">
         <v>474</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B255" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="C255" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C255" s="10" t="s">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="51" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="48" t="s">
+      <c r="B256" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="C256" s="52" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="51"/>
+      <c r="B257" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C256" s="49" t="s">
+      <c r="C257" s="52"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="51" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="48"/>
-      <c r="B257" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C257" s="49"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="48" t="s">
+      <c r="B258" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C258" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B258" s="10" t="s">
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="51"/>
+      <c r="B259" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C258" s="10" t="s">
+      <c r="C259" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="51"/>
+      <c r="C260" s="10" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="48"/>
-      <c r="B259" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="48"/>
-      <c r="C260" s="10" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="51" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="48" t="s">
+      <c r="B261" s="52" t="s">
         <v>486</v>
       </c>
-      <c r="B261" s="49" t="s">
+      <c r="C261" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C261" s="10" t="s">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="51"/>
+      <c r="B262" s="52"/>
+      <c r="C262" s="10" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="48"/>
-      <c r="B262" s="49"/>
-      <c r="C262" s="10" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="51"/>
+      <c r="B263" s="52"/>
+      <c r="C263" s="10" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="48"/>
-      <c r="B263" s="49"/>
-      <c r="C263" s="10" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="51" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="48" t="s">
+      <c r="B264" s="52" t="s">
         <v>491</v>
       </c>
-      <c r="B264" s="49" t="s">
+      <c r="C264" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C264" s="10" t="s">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="51"/>
+      <c r="B265" s="52"/>
+      <c r="C265" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="48"/>
-      <c r="B265" s="49"/>
-      <c r="C265" s="10" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="51"/>
+      <c r="B266" s="52"/>
+      <c r="C266" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="48"/>
-      <c r="B266" s="49"/>
-      <c r="C266" s="10" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="51" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="48" t="s">
+      <c r="B267" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="C267" s="52" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="51"/>
+      <c r="B268" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C267" s="49" t="s">
+      <c r="C268" s="52"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="51" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="48"/>
-      <c r="B268" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="C268" s="49"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="48" t="s">
+      <c r="B269" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="C269" s="52" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="51"/>
+      <c r="B270" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C269" s="49" t="s">
+      <c r="C270" s="52"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="51" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="48"/>
-      <c r="B270" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C270" s="49"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="48" t="s">
+      <c r="B271" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="C271" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="51"/>
+      <c r="B272" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C271" s="10" t="s">
+      <c r="C272" s="10" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="48"/>
-      <c r="B272" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C272" s="10" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="51"/>
+      <c r="C273" s="10" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="48"/>
-      <c r="C273" s="10" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="51"/>
+      <c r="C274" s="10" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="48"/>
-      <c r="C274" s="10" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="51" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="48" t="s">
+      <c r="B275" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="C275" s="52" t="s">
         <v>512</v>
       </c>
-      <c r="C275" s="49" t="s">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="51"/>
+      <c r="B276" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C276" s="52"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="51" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="48"/>
-      <c r="B276" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C276" s="49"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="48" t="s">
+      <c r="B277" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B277" s="10" t="s">
+      <c r="C277" s="52" t="s">
         <v>515</v>
       </c>
-      <c r="C277" s="49" t="s">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="51"/>
+      <c r="B278" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C278" s="52"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="51" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="48"/>
-      <c r="B278" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C278" s="49"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="48" t="s">
+      <c r="B279" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="C279" s="52" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="51"/>
+      <c r="B280" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C279" s="49" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="48"/>
-      <c r="B280" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C280" s="49"/>
+      <c r="C280" s="52"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B281" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B281" s="10" t="s">
+      <c r="C281" s="10" t="s">
         <v>522</v>
-      </c>
-      <c r="C281" s="10" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B282" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="C282" s="10" t="s">
         <v>525</v>
-      </c>
-      <c r="C282" s="10" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B283" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="C283" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="C283" s="10" t="s">
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="51" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="48" t="s">
+      <c r="B284" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="C284" s="52" t="s">
         <v>531</v>
       </c>
-      <c r="C284" s="49" t="s">
-        <v>532</v>
-      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="48"/>
+      <c r="A285" s="51"/>
       <c r="B285" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C285" s="49"/>
+        <v>408</v>
+      </c>
+      <c r="C285" s="52"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B286" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="C286" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C286" s="10" t="s">
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B287" s="10" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="B287" s="10" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="51"/>
+      <c r="B288" s="10" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="48"/>
-      <c r="B288" s="10" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B289" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="B289" s="10" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="51"/>
+      <c r="B290" s="10" t="s">
         <v>538</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="48"/>
-      <c r="B290" s="10" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B293" s="10" t="s">
         <v>541</v>
-      </c>
-      <c r="B293" s="10" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B294" s="10" t="s">
         <v>543</v>
-      </c>
-      <c r="B294" s="10" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B295" s="10" t="s">
         <v>545</v>
-      </c>
-      <c r="B295" s="10" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B296" s="10" t="s">
         <v>547</v>
-      </c>
-      <c r="B296" s="10" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B297" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="B297" s="10" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B298" s="10" t="s">
         <v>551</v>
-      </c>
-      <c r="B298" s="10" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B299" s="10" t="s">
         <v>553</v>
-      </c>
-      <c r="B299" s="10" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B300" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="B300" s="10" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B301" s="10" t="s">
         <v>557</v>
-      </c>
-      <c r="B301" s="10" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B302" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="B302" s="10" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B303" s="10" t="s">
         <v>561</v>
-      </c>
-      <c r="B303" s="10" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B305" s="10" t="s">
         <v>564</v>
-      </c>
-      <c r="B305" s="10" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B306" s="10" t="s">
         <v>566</v>
-      </c>
-      <c r="B306" s="10" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B307" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="B307" s="10" t="s">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B308" s="10" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="B308" s="10" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="51"/>
+      <c r="B309" s="10" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="48"/>
-      <c r="B309" s="10" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="51"/>
+      <c r="B310" s="10" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="48"/>
-      <c r="B310" s="10" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="51"/>
+      <c r="B311" s="10" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="48"/>
-      <c r="B311" s="10" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="51"/>
+      <c r="B312" s="10" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="48"/>
-      <c r="B312" s="10" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B315" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="B315" s="10" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B317" s="10" t="s">
         <v>580</v>
-      </c>
-      <c r="B317" s="10" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B318" s="10" t="s">
         <v>582</v>
-      </c>
-      <c r="B318" s="10" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B319" s="10" t="s">
         <v>584</v>
-      </c>
-      <c r="B319" s="10" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B320" s="10" t="s">
         <v>586</v>
-      </c>
-      <c r="B320" s="10" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B321" s="10" t="s">
         <v>588</v>
-      </c>
-      <c r="B321" s="10" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B322" s="10" t="s">
         <v>590</v>
-      </c>
-      <c r="B322" s="10" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B323" s="10" t="s">
         <v>592</v>
-      </c>
-      <c r="B323" s="10" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B324" s="10" t="s">
         <v>594</v>
-      </c>
-      <c r="B324" s="10" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B325" s="10" t="s">
         <v>596</v>
-      </c>
-      <c r="B325" s="10" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B327" s="10" t="s">
         <v>599</v>
-      </c>
-      <c r="B327" s="10" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B328" s="10" t="s">
         <v>601</v>
-      </c>
-      <c r="B328" s="10" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="B329" s="10" t="s">
         <v>603</v>
-      </c>
-      <c r="B329" s="10" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B330" s="10" t="s">
         <v>605</v>
-      </c>
-      <c r="B330" s="10" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B331" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="B331" s="10" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="B332" s="10" t="s">
         <v>609</v>
-      </c>
-      <c r="B332" s="10" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B333" s="10" t="s">
         <v>611</v>
-      </c>
-      <c r="B333" s="10" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B334" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="B334" s="10" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B335" s="10" t="s">
         <v>615</v>
-      </c>
-      <c r="B335" s="10" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B336" s="10" t="s">
         <v>617</v>
-      </c>
-      <c r="B336" s="10" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B337" s="10" t="s">
         <v>619</v>
-      </c>
-      <c r="B337" s="10" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B338" s="10" t="s">
         <v>621</v>
-      </c>
-      <c r="B338" s="10" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="B339" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="B339" s="10" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B340" s="10" t="s">
         <v>625</v>
-      </c>
-      <c r="B340" s="10" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B341" s="10" t="s">
         <v>627</v>
-      </c>
-      <c r="B341" s="10" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="B342" s="10" t="s">
         <v>629</v>
-      </c>
-      <c r="B342" s="10" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B343" s="10" t="s">
         <v>631</v>
-      </c>
-      <c r="B343" s="10" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B344" s="10" t="s">
         <v>633</v>
-      </c>
-      <c r="B344" s="10" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B345" s="10" t="s">
         <v>635</v>
-      </c>
-      <c r="B345" s="10" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B346" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="B346" s="10" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="B347" s="10" t="s">
         <v>639</v>
-      </c>
-      <c r="B347" s="10" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -11704,15 +11803,87 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A236"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="C267:C268"/>
     <mergeCell ref="A269:A270"/>
@@ -11727,87 +11898,15 @@
     <mergeCell ref="B261:B263"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="A230:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A129:A136"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="C284:C285"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F9F08-77F3-644F-B3FC-D13333830DD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E718D6F-280F-A34C-9F3D-A18D4DD4709E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30040" yWindow="800" windowWidth="27400" windowHeight="19340" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="1020" yWindow="3580" windowWidth="33600" windowHeight="19500" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="baseQueries" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="WOSSearchOperators" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">baseQueries!$A$1:$G$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">baseQueries!$A$1:$I$1</definedName>
     <definedName name="_Toc14330918" localSheetId="0">baseQueries!$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="934">
   <si>
     <t>valueChain</t>
   </si>
@@ -5120,15 +5120,9 @@
     <t>stress AND human AND ("thermal heat index" OR "temperature humidity index" OR "wet bulb temperature" OR "web bulb globe temperature" OR "heat stress index")</t>
   </si>
   <si>
-    <t>"food *securit*" OR "food access*" OR "food afford*" OR "food insecur*" OR "food *sufficien*" OR "food choice*" OR "food availab*" OR "food utiliz*" OR "food stabil*" OR "food quality"</t>
-  </si>
-  <si>
     <t>(food OR agriculture) AND consump* OR "dietary choice" OR "food choice"</t>
   </si>
   <si>
-    <t>"food secur*" OR "food insecur*" OR "food suppl*" OR "food afford*" OR "food sufficien*" OR "food insufficien*" OR "food availab*" OR "food access*" OR "food utiliz*" OR "food stabil*" OR *nutritio* OR anthropometry OR micronutrient</t>
-  </si>
-  <si>
     <t>"food system" OR "food value chain"</t>
   </si>
   <si>
@@ -5138,9 +5132,6 @@
     <t>"livestock system*" OR "pastoral system*" OR "pasture-based system*" OR containment OR CAFO OR "landless system*"</t>
   </si>
   <si>
-    <t>stress AND animal AND ("thermal heat index" OR "temperature humidity index" OR "wet bulb temperature " OR "web bulb globe temperature" OR "heat stress index")</t>
-  </si>
-  <si>
     <t>"forestry system*" OR agroforestry OR agriforestry</t>
   </si>
   <si>
@@ -5295,9 +5286,6 @@
   </si>
   <si>
     <t>breadBasketFailure</t>
-  </si>
-  <si>
-    <t>(breadbasket AND (failure OR loss)) OR "globally synchronized" OR "production shocks"</t>
   </si>
   <si>
     <t>"wild food*" OR "edible wild plant*" OR bushmeat OR "traditional leafy veget*"</t>
@@ -5539,9 +5527,6 @@
     <t>adaptMaladapt</t>
   </si>
   <si>
-    <t>agroeco* OR agro-ecolog* OR "diversified farming" OR "ecological agriculture" OR "agricultural ecology" OR agrobiodivers* OR agro-biodivers* OR "ecosystem-based adaptation "</t>
-  </si>
-  <si>
     <t>adaptAgroeco</t>
   </si>
   <si>
@@ -5659,9 +5644,6 @@
     <t>searchStrings.mitigation</t>
   </si>
   <si>
-    <t>(global OR international) AND ("wood trade" OR "forest products trade")</t>
-  </si>
-  <si>
     <t>(food OR agriculture OR crop OR plant) AND communit* AND adaptation</t>
   </si>
   <si>
@@ -5689,9 +5671,6 @@
     <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (*berries OR strawberr* OR rasberr* OR blueberr* OR cranberr* OR gooseberr* OR melon* OR watermelon* OR pineapple* OR papaya* OR "passion fruit" OR pomegranate* OR Persimmon* OR cashewapple OR "cashew apple" OR currants OR ribes)</t>
   </si>
   <si>
-    <t>("gen* engineering" OR "gen* editing"  OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (Potato* OR "Solanum tuberosum" OR sweetpotato* OR "sweet potat*" OR "Ipomoea batatas" OR cassava OR "Manihot esculenta" OR turnip* OR carrot* OR beetroot OR radish* OR yam* OR Dioscorea OR taro* OR cocoyam* OR yautia OR onion* OR garlic OR ginger)</t>
-  </si>
-  <si>
     <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (legume* OR pulse* OR phaseolus OR pisum OR lentil* OR chickpea* OR "chick pea*" OR "Cicer arietinum" OR cowpea OR "Vigna unguiculata" OR "pigeon pea" OR pigeonpea OR peanut* OR groundnut* OR "Arachis hypogaea" OR lupin* OR vetches OR vicia OR carobs)</t>
   </si>
   <si>
@@ -5782,9 +5761,6 @@
     <t>c("food safety", "Food control",  "Foodborne diseases",  "Microbiological contamination",  "Microbial contamination",  "Plant Health",  "Biotoxins",  "mycotoxins",  "marine toxins",  "Chemical contamination")</t>
   </si>
   <si>
-    <t>"food safety" AND  ("Food control" OR "Foodborne diseases" OR "Microbiological contamination" OR "Microbial contamination" OR "Plant Health" OR Biotoxins OR mycotoxins OR "marine toxins" OR "Chemical contamination" OR milk OR animal OR poultry OR pork OR beef)</t>
-  </si>
-  <si>
     <t>crop AND (yield OR production OR quality) AND (variability OR decline OR loss OR damage)</t>
   </si>
   <si>
@@ -5804,6 +5780,60 @@
   </si>
   <si>
     <t>(adapt* OR participatory) AND ("plant breeding" OR "varietal select*" OR "variety select*" OR "livestock breeding" OR PPB OR PVS)</t>
+  </si>
+  <si>
+    <t>stress AND animal AND ("thermal heat index" OR "temperature humidity index" OR "wet bulb temperature " OR "web bulb globe temperature" OR "heat stress index" OR "Zoonotic diseases" OR "Zoonoses")</t>
+  </si>
+  <si>
+    <t>impactsNutrition2</t>
+  </si>
+  <si>
+    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (Potato* OR "Solanum tuberosum" OR sweetpotato* OR "sweet potat*" OR "Ipomoea batatas" OR cassava OR "Manihot esculenta" OR turnip* OR carrot* OR beetroot OR radish* OR yam* OR Dioscorea OR taro* OR cocoyam* OR yautia OR onion* OR garlic OR ginger)</t>
+  </si>
+  <si>
+    <t>"food safety" AND ("Food control" OR "Foodborne diseases" OR "Microbiological contamination" OR "Microbial contamination" OR "Plant Health" OR Biotoxins OR mycotoxins OR "marine toxins" OR "Chemical contamination" OR milk OR animal OR poultry OR pork OR beef)</t>
+  </si>
+  <si>
+    <t>searchStrings.breadbaskets</t>
+  </si>
+  <si>
+    <t>c("breadbasket failure", "teleconnection", "synchronicity")</t>
+  </si>
+  <si>
+    <t>agroeco* OR agro-ecolog* OR "diversified farming" OR "ecological agriculture" OR "agricultural ecology" OR agrobiodivers* OR agro-biodivers* OR "ecosystem-based adaptation"</t>
+  </si>
+  <si>
+    <t>(breadbasket AND (failure OR loss)) OR "synchronized" OR "production shocks"</t>
+  </si>
+  <si>
+    <t>"food *securit*" OR "food access*" OR "food afford*" OR "food *sufficien*" OR "food choice*" OR "food availab*" OR "food utiliz*" OR "food stabil*" OR "food quality"</t>
+  </si>
+  <si>
+    <t>(global OR international) AND ("wood trade" OR "forest products trade" OR "lumber trade")</t>
+  </si>
+  <si>
+    <t>stunting OR obesity OR overweight OR malnutrition OR overnutrition OR undernutrition OR "mineral deficiency" OR "vitamin deficiency" OR "micronutrient deficiency"</t>
+  </si>
+  <si>
+    <t>"food insecur*" OR  "food insufficien*" OR "food availab*" OR "food access*" OR *nutritio* OR anthropometry OR micronutrient</t>
+  </si>
+  <si>
+    <t>lossNdamage</t>
+  </si>
+  <si>
+    <t>adaptCost</t>
+  </si>
+  <si>
+    <t>agriculture AND adaptation AND cost</t>
+  </si>
+  <si>
+    <t>"loss and damage" AND agriculture</t>
+  </si>
+  <si>
+    <t>adaptFinance</t>
+  </si>
+  <si>
+    <t>adaptation AND finance AND agriculture</t>
   </si>
 </sst>
 </file>
@@ -6078,7 +6108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6182,8 +6212,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6499,10 +6534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6533,301 +6568,269 @@
         <v>7</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="e">
+        <f>A1+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
+        <v>831</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>922</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="e">
+        <f>A2+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>912</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="e">
+        <f>A3+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>791</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>734</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>798</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <f t="shared" ref="A3:A34" si="0">A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>788</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>662</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>796</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>699</v>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="e">
+        <f>A4+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>827</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="e">
+        <f>A5+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="e">
+        <f>A6+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50" t="s">
+        <v>771</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>870</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="G7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="e">
+        <f>A7+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50" t="s">
+        <v>773</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>915</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="e">
+        <f>A8+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50" t="s">
+        <v>772</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>852</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="e">
+        <f>A9+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="e">
+        <f>A10+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>807</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>666</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>800</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>910</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>801</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>805</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>809</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>810</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>911</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>784</v>
-      </c>
       <c r="G11" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>795</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>835</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="e">
+        <f>A11+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>892</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>781</v>
@@ -6835,150 +6838,135 @@
       <c r="G12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>803</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>920</v>
+    </row>
+    <row r="13" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="e">
+        <f>A12+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>880</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>794</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>733</v>
+    </row>
+    <row r="14" spans="1:9" ht="160" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="e">
+        <f>A13+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>881</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>799</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47" t="s">
-        <v>834</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>831</v>
+    </row>
+    <row r="15" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="e">
+        <f>A14+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>645</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>685</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>905</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="G16" s="13" t="s">
+    <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="e">
+        <f>A15+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>78</v>
       </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>839</v>
-      </c>
+      <c r="A17" s="15" t="e">
+        <f>A16+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>913</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="46">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50" t="s">
-        <v>775</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>876</v>
+      <c r="A18" s="15" t="e">
+        <f>A17+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>703</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>78</v>
@@ -6986,1208 +6974,1286 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="49" t="s">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="e">
+        <f>A18+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>931</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="e">
+        <f>A19+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="e">
+        <f>A20+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>933</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="e">
+        <f>A21+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="e">
+        <f>A22+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="e">
+        <f>A23+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="e">
+        <f>A24+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="e">
+        <f>A25+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="e">
+        <f>A26+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="e">
+        <f>A27+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="e">
+        <f>A28+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="e">
+        <f>A29+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>904</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="e">
+        <f>A30+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="e">
+        <f>A31+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50" t="s">
-        <v>777</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>923</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>783</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="46">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50" t="s">
-        <v>776</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>857</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>781</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>740</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>756</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>890</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>877</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>741</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="C32" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>789</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>785</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>852</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>899</v>
-      </c>
       <c r="F32" s="13" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="e">
+        <f>A32+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>855</v>
+        <v>753</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>887</v>
+        <v>923</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="160" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="e">
+        <f>A33+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>856</v>
+        <v>694</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
-        <f t="shared" ref="A35:A66" si="1">A34+1</f>
-        <v>34</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="e">
+        <f>A34+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>867</v>
+        <v>73</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
-        <f t="shared" si="1"/>
-        <v>35</v>
+      <c r="A36" s="15" t="e">
+        <f>A35+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>837</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>891</v>
+        <v>4</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>871</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="e">
+        <f>A36+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>858</v>
+      <c r="C37" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>733</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>785</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="14" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="e">
+        <f>A37+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>738</v>
+      <c r="D38" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>862</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="e">
+        <f>A38+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>75</v>
+        <v>832</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>847</v>
+        <v>884</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="14" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="e">
+        <f>A39+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>743</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>723</v>
+      <c r="D40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>853</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="e">
+        <f>A40+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
-        <f t="shared" si="1"/>
-        <v>41</v>
+      <c r="A42" s="15" t="e">
+        <f>A41+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>878</v>
+      <c r="D42" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>842</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="e">
+        <f>A42+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>673</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>892</v>
+      <c r="C43" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>720</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>781</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="23" t="s">
+      <c r="A44" s="15" t="e">
+        <f>A43+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>832</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>833</v>
+      <c r="C44" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>722</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>839</v>
+        <v>781</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
-        <f t="shared" si="1"/>
-        <v>44</v>
+      <c r="A45" s="15" t="e">
+        <f>A44+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="e">
+        <f>A45+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="e">
+        <f>A46+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="e">
+        <f>A47+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>785</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>714</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>746</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>785</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>709</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>641</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>729</v>
-      </c>
       <c r="F48" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
-        <f t="shared" si="1"/>
-        <v>48</v>
+      <c r="A49" s="15" t="e">
+        <f>A48+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>790</v>
+        <v>713</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>880</v>
+        <v>718</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="e">
+        <f>A49+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="e">
+        <f>A50+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>748</v>
+        <v>641</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="e">
+        <f>A51+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>717</v>
+        <v>786</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>749</v>
+        <v>774</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>722</v>
+        <v>874</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
-        <f t="shared" si="1"/>
-        <v>52</v>
+      <c r="A53" s="15" t="e">
+        <f>A52+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>711</v>
+        <v>744</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>725</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="e">
+        <f>A53+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>712</v>
+        <v>745</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>721</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="144" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="e">
+        <f>A54+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>764</v>
+        <v>746</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>719</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="e">
+        <f>A55+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>720</v>
+        <v>747</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>708</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
-        <f t="shared" si="1"/>
-        <v>56</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="e">
+        <f>A56+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>781</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="e">
+        <f>A57+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>755</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>879</v>
+        <v>749</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>760</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B59" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="e">
+        <f>A58+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>74</v>
+      <c r="C59" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>717</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B60" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="e">
+        <f>A59+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>917</v>
+      <c r="C60" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>727</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>645</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="e">
+        <f>A60+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>873</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>781</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="15">
-        <f t="shared" si="1"/>
-        <v>61</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="e">
+        <f>A61+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>687</v>
+        <v>74</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>901</v>
+        <v>74</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="15">
-        <f t="shared" si="1"/>
-        <v>62</v>
+      <c r="A63" s="15" t="e">
+        <f>A62+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>701</v>
+        <v>693</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>909</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="15">
-        <f t="shared" si="1"/>
-        <v>63</v>
+      <c r="A64" s="15" t="e">
+        <f>A63+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13" t="s">
-        <v>868</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>919</v>
+        <v>687</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>894</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
+        <v>834</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A65" s="15">
-        <f t="shared" si="1"/>
-        <v>64</v>
+      <c r="A65" s="15" t="e">
+        <f>A64+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>780</v>
+        <v>1</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>776</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
+        <v>834</v>
+      </c>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="15">
-        <f t="shared" si="1"/>
-        <v>65</v>
+      <c r="A66" s="15" t="e">
+        <f>A65+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
-        <v>5</v>
+        <v>863</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>780</v>
+        <v>911</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>776</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
     </row>
     <row r="67" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="15">
-        <f t="shared" ref="A67:A94" si="2">A66+1</f>
-        <v>66</v>
+      <c r="A67" s="15" t="e">
+        <f>A66+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>702</v>
+        <v>68</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>914</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
     </row>
     <row r="68" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A68" s="15">
-        <f t="shared" si="2"/>
-        <v>67</v>
+      <c r="A68" s="15" t="e">
+        <f>A67+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A69" s="15">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>679</v>
+    <row r="69" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="e">
+        <f>A68+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>731</v>
+        <v>3</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>700</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A70" s="15">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>704</v>
+    <row r="70" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="e">
+        <f>A69+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>895</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A71" s="15">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="19" t="s">
+    <row r="71" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="e">
+        <f>A70+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>900</v>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>782</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>78</v>
+        <v>778</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>834</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A72" s="15">
-        <f t="shared" si="2"/>
-        <v>71</v>
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="e">
+        <f>A71+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>679</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>782</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>78</v>
+        <v>778</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>834</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
     </row>
     <row r="73" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="15">
-        <f t="shared" si="2"/>
-        <v>72</v>
+      <c r="A73" s="15" t="e">
+        <f>A72+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>679</v>
@@ -8200,18 +8266,18 @@
         <v>697</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
     </row>
     <row r="74" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="15">
-        <f t="shared" si="2"/>
-        <v>73</v>
+      <c r="A74" s="15" t="e">
+        <f>A73+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>679</v>
@@ -8221,21 +8287,21 @@
         <v>89</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
     </row>
     <row r="75" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="15">
-        <f t="shared" si="2"/>
-        <v>74</v>
+      <c r="A75" s="15" t="e">
+        <f>A74+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>679</v>
@@ -8245,21 +8311,21 @@
         <v>93</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
     </row>
     <row r="76" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A76" s="15">
-        <f t="shared" si="2"/>
-        <v>75</v>
+      <c r="A76" s="15" t="e">
+        <f>A75+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>679</v>
@@ -8269,21 +8335,21 @@
         <v>91</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
     </row>
     <row r="77" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A77" s="15">
-        <f t="shared" si="2"/>
-        <v>76</v>
+      <c r="A77" s="15" t="e">
+        <f>A76+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>679</v>
@@ -8293,21 +8359,21 @@
         <v>92</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
     </row>
     <row r="78" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A78" s="15">
-        <f t="shared" si="2"/>
-        <v>77</v>
+      <c r="A78" s="15" t="e">
+        <f>A77+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>679</v>
@@ -8317,381 +8383,459 @@
         <v>674</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A79" s="15">
-        <f t="shared" si="2"/>
-        <v>78</v>
+    <row r="79" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="e">
+        <f>A78+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>680</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
-        <v>660</v>
+        <v>94</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>78</v>
+        <v>834</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="15">
-        <f t="shared" si="2"/>
-        <v>79</v>
+    <row r="80" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="e">
+        <f>A79+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>680</v>
       </c>
       <c r="C80" s="19"/>
-      <c r="D80" s="19" t="s">
-        <v>94</v>
+      <c r="D80" s="13" t="s">
+        <v>804</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>705</v>
+        <v>905</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A81" s="15">
-        <f t="shared" si="2"/>
-        <v>80</v>
+    <row r="81" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="e">
+        <f>A80+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>680</v>
       </c>
       <c r="C81" s="19"/>
       <c r="D81" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>912</v>
+        <v>762</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>887</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="15">
-        <f t="shared" si="2"/>
-        <v>81</v>
+    <row r="82" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="e">
+        <f>A81+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>680</v>
       </c>
       <c r="C82" s="19"/>
-      <c r="D82" s="13" t="s">
-        <v>766</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>894</v>
+      <c r="D82" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>925</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A83" s="15">
-        <f t="shared" si="2"/>
-        <v>82</v>
+      <c r="A83" s="15" t="e">
+        <f>A82+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>875</v>
+        <v>723</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>732</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>839</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
+        <v>834</v>
+      </c>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A84" s="15">
-        <f t="shared" si="2"/>
-        <v>83</v>
+      <c r="A84" s="15" t="e">
+        <f>A83+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>695</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>726</v>
+        <v>71</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>735</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>782</v>
+        <v>704</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>802</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A85" s="15">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>695</v>
-      </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>707</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>806</v>
+      <c r="A85" s="15" t="e">
+        <f>A84+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>821</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>839</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
     </row>
     <row r="86" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="15">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30" t="s">
-        <v>823</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="F86" s="30" t="s">
-        <v>825</v>
+      <c r="A86" s="15" t="e">
+        <f>A85+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>802</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>839</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-    </row>
-    <row r="87" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A87" s="15">
-        <f t="shared" si="2"/>
-        <v>86</v>
+        <v>834</v>
+      </c>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+    </row>
+    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="e">
+        <f>A86+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>758</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>806</v>
+        <v>72</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>784</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="15">
-        <f t="shared" si="2"/>
-        <v>87</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="e">
+        <f>A87+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>683</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>788</v>
+        <v>86</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>784</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A89" s="15">
-        <f t="shared" si="2"/>
-        <v>88</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="e">
+        <f>A88+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>788</v>
+      <c r="D89" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>782</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A90" s="15">
-        <f t="shared" si="2"/>
-        <v>89</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="e">
+        <f>A89+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>895</v>
+        <v>763</v>
+      </c>
+      <c r="E90" s="34" t="s">
+        <v>822</v>
       </c>
       <c r="F90" s="28" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="15">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="e">
+        <f>A90+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="D91" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="E91" s="34" t="s">
-        <v>826</v>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>755</v>
       </c>
       <c r="F91" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="e">
+        <f>A91+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="e">
+        <f>A92+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="e">
+        <f>A93+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="E94" s="54" t="s">
+        <v>926</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A95" s="15">
+        <v>1</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="I95" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="G91" s="19" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A92" s="15">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>682</v>
-      </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="F92" s="28" t="s">
-        <v>781</v>
-      </c>
-      <c r="G92" s="19" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="15">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="B93" s="23" t="s">
+    </row>
+    <row r="96" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A96" s="15">
+        <f>A95+1</f>
+        <v>2</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="D93" s="13" t="s">
-        <v>903</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A94" s="15">
-        <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>907</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>839</v>
+      <c r="D96" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A97" s="15">
+        <f>A96+1</f>
+        <v>3</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A98" s="15">
+        <f>A97+1</f>
+        <v>4</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>878</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G94" xr:uid="{317E3D8D-97ED-A742-9AD8-40575174812B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G92">
-      <sortCondition ref="B1:B92"/>
+  <autoFilter ref="A1:I1" xr:uid="{34F28E2D-F274-CC4F-A866-5EE652AA36F7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I98">
+      <sortCondition ref="G1:G98"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I90">
@@ -8713,7 +8857,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -8723,10 +8867,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B44446-4EFF-1748-B076-59F83F2A5201}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8748,7 +8892,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -8756,7 +8900,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8769,42 +8913,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -8860,7 +9004,7 @@
         <v>105</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -8868,15 +9012,15 @@
         <v>106</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -8884,7 +9028,7 @@
         <v>107</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -8900,7 +9044,7 @@
         <v>110</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -8932,7 +9076,7 @@
         <v>652</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -8948,7 +9092,7 @@
         <v>655</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -8988,79 +9132,87 @@
         <v>677</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="44" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="44" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="44" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="44" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>821</v>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="51" t="s">
+        <v>920</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -9091,40 +9243,40 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -9236,7 +9388,7 @@
       <c r="A17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -9244,25 +9396,25 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -9270,13 +9422,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="52" t="s">
         <v>138</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -9284,7 +9436,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>140</v>
       </c>
@@ -9325,7 +9477,7 @@
       <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="53" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -9333,7 +9485,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="10" t="s">
         <v>146</v>
       </c>
@@ -9386,7 +9538,7 @@
       <c r="A42" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="53" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9394,13 +9546,13 @@
       <c r="A43" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="52"/>
+      <c r="B43" s="53"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="52"/>
+      <c r="B44" s="53"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
@@ -9433,7 +9585,7 @@
       <c r="A49" s="10"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="52" t="s">
         <v>141</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -9441,37 +9593,37 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="51"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="10" t="s">
         <v>170</v>
       </c>
@@ -9487,7 +9639,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="52" t="s">
         <v>134</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -9495,10 +9647,10 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="51"/>
+      <c r="A60" s="52"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="51"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="10" t="s">
         <v>174</v>
       </c>
@@ -9548,7 +9700,7 @@
       <c r="A69" s="10"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="52" t="s">
         <v>141</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -9556,19 +9708,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="10" t="s">
         <v>184</v>
       </c>
@@ -9713,7 +9865,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="51" t="s">
+      <c r="A97" s="52" t="s">
         <v>206</v>
       </c>
       <c r="B97" s="10" t="s">
@@ -9721,19 +9873,19 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="51"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="51"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="51"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="10" t="s">
         <v>209</v>
       </c>
@@ -9798,7 +9950,7 @@
       <c r="A111" s="10"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="51" t="s">
+      <c r="A112" s="52" t="s">
         <v>134</v>
       </c>
       <c r="B112" s="10" t="s">
@@ -9806,7 +9958,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="51"/>
+      <c r="A113" s="52"/>
       <c r="B113" s="10" t="s">
         <v>217</v>
       </c>
@@ -9815,7 +9967,7 @@
       <c r="A114" s="10"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="51" t="s">
+      <c r="A115" s="52" t="s">
         <v>141</v>
       </c>
       <c r="B115" s="10" t="s">
@@ -9823,19 +9975,19 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="51"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="51"/>
+      <c r="A117" s="52"/>
       <c r="B117" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="51"/>
+      <c r="A118" s="52"/>
       <c r="B118" s="10" t="s">
         <v>221</v>
       </c>
@@ -9863,61 +10015,61 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="51" t="s">
+      <c r="A123" s="52" t="s">
         <v>225</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C123" s="52" t="s">
+      <c r="C123" s="53" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="51"/>
+      <c r="A124" s="52"/>
       <c r="B124" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C124" s="52"/>
+      <c r="C124" s="53"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="51" t="s">
+      <c r="A125" s="52" t="s">
         <v>229</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C125" s="52" t="s">
+      <c r="C125" s="53" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="51"/>
+      <c r="A126" s="52"/>
       <c r="B126" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C126" s="52"/>
+      <c r="C126" s="53"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="51" t="s">
+      <c r="A127" s="52" t="s">
         <v>233</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C127" s="52" t="s">
+      <c r="C127" s="53" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="51"/>
+      <c r="A128" s="52"/>
       <c r="B128" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C128" s="52"/>
+      <c r="C128" s="53"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="51" t="s">
+      <c r="A129" s="52" t="s">
         <v>237</v>
       </c>
       <c r="B129" s="10" t="s">
@@ -9928,7 +10080,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="51"/>
+      <c r="A130" s="52"/>
       <c r="B130" s="10" t="s">
         <v>239</v>
       </c>
@@ -9937,7 +10089,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="51"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="10" t="s">
         <v>240</v>
       </c>
@@ -9946,7 +10098,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="51"/>
+      <c r="A132" s="52"/>
       <c r="B132" s="10" t="s">
         <v>241</v>
       </c>
@@ -9955,7 +10107,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="51"/>
+      <c r="A133" s="52"/>
       <c r="B133" s="10" t="s">
         <v>242</v>
       </c>
@@ -9964,7 +10116,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="51"/>
+      <c r="A134" s="52"/>
       <c r="B134" s="10" t="s">
         <v>243</v>
       </c>
@@ -9973,17 +10125,17 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="51"/>
+      <c r="A135" s="52"/>
       <c r="B135" s="10"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="51"/>
+      <c r="A136" s="52"/>
       <c r="B136" s="10" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="51" t="s">
+      <c r="A137" s="52" t="s">
         <v>251</v>
       </c>
       <c r="B137" s="10" t="s">
@@ -9994,7 +10146,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="51"/>
+      <c r="A138" s="52"/>
       <c r="B138" s="10" t="s">
         <v>253</v>
       </c>
@@ -10003,7 +10155,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="51" t="s">
+      <c r="A139" s="52" t="s">
         <v>256</v>
       </c>
       <c r="B139" s="10" t="s">
@@ -10014,7 +10166,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="51"/>
+      <c r="A140" s="52"/>
       <c r="B140" s="10" t="s">
         <v>258</v>
       </c>
@@ -10023,7 +10175,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="51" t="s">
+      <c r="A141" s="52" t="s">
         <v>261</v>
       </c>
       <c r="B141" s="10" t="s">
@@ -10034,7 +10186,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="51"/>
+      <c r="A142" s="52"/>
       <c r="B142" s="10" t="s">
         <v>263</v>
       </c>
@@ -10043,7 +10195,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="51" t="s">
+      <c r="A143" s="52" t="s">
         <v>266</v>
       </c>
       <c r="B143" s="10" t="s">
@@ -10054,7 +10206,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="51"/>
+      <c r="A144" s="52"/>
       <c r="B144" s="10" t="s">
         <v>268</v>
       </c>
@@ -10063,31 +10215,31 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="51"/>
+      <c r="A145" s="52"/>
       <c r="C145" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="51" t="s">
+      <c r="A146" s="52" t="s">
         <v>272</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C146" s="52" t="s">
+      <c r="C146" s="53" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="51"/>
+      <c r="A147" s="52"/>
       <c r="B147" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C147" s="52"/>
+      <c r="C147" s="53"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="51" t="s">
+      <c r="A148" s="52" t="s">
         <v>276</v>
       </c>
       <c r="B148" s="10" t="s">
@@ -10098,7 +10250,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="51"/>
+      <c r="A149" s="52"/>
       <c r="B149" s="10" t="s">
         <v>278</v>
       </c>
@@ -10107,14 +10259,14 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="51"/>
+      <c r="A150" s="52"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="51"/>
+      <c r="A151" s="52"/>
       <c r="B151" s="10" t="s">
         <v>279</v>
       </c>
@@ -10123,14 +10275,14 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="51"/>
+      <c r="A152" s="52"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="51"/>
+      <c r="A153" s="52"/>
       <c r="B153" s="10" t="s">
         <v>280</v>
       </c>
@@ -10139,7 +10291,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="51"/>
+      <c r="A154" s="52"/>
       <c r="B154" s="10" t="s">
         <v>281</v>
       </c>
@@ -10148,7 +10300,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="51"/>
+      <c r="A155" s="52"/>
       <c r="B155" s="10" t="s">
         <v>282</v>
       </c>
@@ -10157,7 +10309,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="51"/>
+      <c r="A156" s="52"/>
       <c r="B156" s="10" t="s">
         <v>283</v>
       </c>
@@ -10166,29 +10318,29 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="51"/>
+      <c r="A157" s="52"/>
       <c r="B157" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="51"/>
+      <c r="A158" s="52"/>
       <c r="B158" s="10"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="51"/>
+      <c r="A159" s="52"/>
       <c r="B159" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="51"/>
+      <c r="A160" s="52"/>
       <c r="B160" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="51" t="s">
+      <c r="A161" s="52" t="s">
         <v>295</v>
       </c>
       <c r="B161" s="10" t="s">
@@ -10199,7 +10351,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="51"/>
+      <c r="A162" s="52"/>
       <c r="B162" s="10" t="s">
         <v>297</v>
       </c>
@@ -10208,7 +10360,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="51"/>
+      <c r="A163" s="52"/>
       <c r="B163" s="10" t="s">
         <v>280</v>
       </c>
@@ -10217,16 +10369,16 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="51"/>
+      <c r="A164" s="52"/>
       <c r="B164" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="51" t="s">
+      <c r="A165" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="B165" s="52" t="s">
+      <c r="B165" s="53" t="s">
         <v>302</v>
       </c>
       <c r="C165" s="10" t="s">
@@ -10234,29 +10386,29 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="51"/>
-      <c r="B166" s="52"/>
+      <c r="A166" s="52"/>
+      <c r="B166" s="53"/>
       <c r="C166" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="51"/>
-      <c r="B167" s="52"/>
+      <c r="A167" s="52"/>
+      <c r="B167" s="53"/>
       <c r="C167" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="51"/>
-      <c r="B168" s="52"/>
+      <c r="A168" s="52"/>
+      <c r="B168" s="53"/>
       <c r="C168" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="51"/>
-      <c r="B169" s="52"/>
+      <c r="A169" s="52"/>
+      <c r="B169" s="53"/>
       <c r="C169" s="10" t="s">
         <v>307</v>
       </c>
@@ -10273,22 +10425,22 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="51" t="s">
+      <c r="A171" s="52" t="s">
         <v>311</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C171" s="52" t="s">
+      <c r="C171" s="53" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="51"/>
+      <c r="A172" s="52"/>
       <c r="B172" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C172" s="52"/>
+      <c r="C172" s="53"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
@@ -10302,40 +10454,40 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="51" t="s">
+      <c r="A174" s="52" t="s">
         <v>318</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C174" s="52" t="s">
+      <c r="C174" s="53" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="51"/>
+      <c r="A175" s="52"/>
       <c r="B175" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C175" s="52"/>
+      <c r="C175" s="53"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="51" t="s">
+      <c r="A176" s="52" t="s">
         <v>322</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C176" s="52" t="s">
+      <c r="C176" s="53" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="51"/>
+      <c r="A177" s="52"/>
       <c r="B177" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C177" s="52"/>
+      <c r="C177" s="53"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
@@ -10360,7 +10512,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="51" t="s">
+      <c r="A180" s="52" t="s">
         <v>332</v>
       </c>
       <c r="B180" s="10" t="s">
@@ -10371,7 +10523,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="51"/>
+      <c r="A181" s="52"/>
       <c r="B181" s="10" t="s">
         <v>334</v>
       </c>
@@ -10380,10 +10532,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A182" s="51" t="s">
+      <c r="A182" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="B182" s="52" t="s">
+      <c r="B182" s="53" t="s">
         <v>338</v>
       </c>
       <c r="C182" s="9" t="s">
@@ -10391,17 +10543,17 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="51"/>
-      <c r="B183" s="52"/>
+      <c r="A183" s="52"/>
+      <c r="B183" s="53"/>
       <c r="C183" s="10" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="51" t="s">
+      <c r="A184" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="B184" s="52" t="s">
+      <c r="B184" s="53" t="s">
         <v>342</v>
       </c>
       <c r="C184" s="10" t="s">
@@ -10409,17 +10561,17 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="51"/>
-      <c r="B185" s="52"/>
+      <c r="A185" s="52"/>
+      <c r="B185" s="53"/>
       <c r="C185" s="10" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="51" t="s">
+      <c r="A186" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="B186" s="52" t="s">
+      <c r="B186" s="53" t="s">
         <v>345</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -10427,54 +10579,54 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="51"/>
-      <c r="B187" s="52"/>
+      <c r="A187" s="52"/>
+      <c r="B187" s="53"/>
       <c r="C187" s="10" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="51"/>
-      <c r="B188" s="52"/>
+      <c r="A188" s="52"/>
+      <c r="B188" s="53"/>
       <c r="C188" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="51" t="s">
+      <c r="A189" s="52" t="s">
         <v>349</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C189" s="52" t="s">
+      <c r="C189" s="53" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="51"/>
+      <c r="A190" s="52"/>
       <c r="B190" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C190" s="52"/>
+      <c r="C190" s="53"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="51" t="s">
+      <c r="A191" s="52" t="s">
         <v>353</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C191" s="52" t="s">
+      <c r="C191" s="53" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="51"/>
+      <c r="A192" s="52"/>
       <c r="B192" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C192" s="52"/>
+      <c r="C192" s="53"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
@@ -10488,22 +10640,22 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="51" t="s">
+      <c r="A194" s="52" t="s">
         <v>360</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C194" s="52" t="s">
+      <c r="C194" s="53" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="51"/>
+      <c r="A195" s="52"/>
       <c r="B195" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C195" s="52"/>
+      <c r="C195" s="53"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
@@ -10517,65 +10669,65 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="51" t="s">
+      <c r="A197" s="52" t="s">
         <v>367</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C197" s="52" t="s">
+      <c r="C197" s="53" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="51"/>
+      <c r="A198" s="52"/>
       <c r="B198" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C198" s="52"/>
+      <c r="C198" s="53"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="51" t="s">
+      <c r="A199" s="52" t="s">
         <v>371</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C199" s="52" t="s">
+      <c r="C199" s="53" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="51"/>
+      <c r="A200" s="52"/>
       <c r="B200" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C200" s="52"/>
+      <c r="C200" s="53"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="51"/>
+      <c r="A201" s="52"/>
       <c r="B201" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C201" s="52"/>
+      <c r="C201" s="53"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="51" t="s">
+      <c r="A202" s="52" t="s">
         <v>376</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C202" s="52" t="s">
+      <c r="C202" s="53" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="51"/>
+      <c r="A203" s="52"/>
       <c r="B203" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C203" s="52"/>
+      <c r="C203" s="53"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
@@ -10611,43 +10763,43 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="51" t="s">
+      <c r="A207" s="52" t="s">
         <v>389</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C207" s="52" t="s">
+      <c r="C207" s="53" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="51"/>
+      <c r="A208" s="52"/>
       <c r="B208" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C208" s="52"/>
+      <c r="C208" s="53"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="51" t="s">
+      <c r="A209" s="52" t="s">
         <v>393</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C209" s="52" t="s">
+      <c r="C209" s="53" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="51"/>
+      <c r="A210" s="52"/>
       <c r="B210" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C210" s="52"/>
+      <c r="C210" s="53"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="51" t="s">
+      <c r="A211" s="52" t="s">
         <v>397</v>
       </c>
       <c r="B211" s="10" t="s">
@@ -10658,7 +10810,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="51"/>
+      <c r="A212" s="52"/>
       <c r="B212" s="10" t="s">
         <v>399</v>
       </c>
@@ -10667,76 +10819,76 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="51" t="s">
+      <c r="A213" s="52" t="s">
         <v>402</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C213" s="52" t="s">
+      <c r="C213" s="53" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="51"/>
+      <c r="A214" s="52"/>
       <c r="B214" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C214" s="52"/>
+      <c r="C214" s="53"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="51" t="s">
+      <c r="A215" s="52" t="s">
         <v>406</v>
       </c>
       <c r="B215" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C215" s="52" t="s">
+      <c r="C215" s="53" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="51"/>
+      <c r="A216" s="52"/>
       <c r="B216" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C216" s="52"/>
+      <c r="C216" s="53"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="51" t="s">
+      <c r="A217" s="52" t="s">
         <v>410</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C217" s="52" t="s">
+      <c r="C217" s="53" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="51"/>
+      <c r="A218" s="52"/>
       <c r="B218" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C218" s="52"/>
+      <c r="C218" s="53"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="51" t="s">
+      <c r="A219" s="52" t="s">
         <v>414</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C219" s="52" t="s">
+      <c r="C219" s="53" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="51"/>
+      <c r="A220" s="52"/>
       <c r="B220" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C220" s="52"/>
+      <c r="C220" s="53"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
@@ -10750,10 +10902,10 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="51" t="s">
+      <c r="A222" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="B222" s="52" t="s">
+      <c r="B222" s="53" t="s">
         <v>422</v>
       </c>
       <c r="C222" s="10" t="s">
@@ -10761,17 +10913,17 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="51"/>
-      <c r="B223" s="52"/>
+      <c r="A223" s="52"/>
+      <c r="B223" s="53"/>
       <c r="C223" s="10" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="51" t="s">
+      <c r="A224" s="52" t="s">
         <v>425</v>
       </c>
-      <c r="B224" s="52" t="s">
+      <c r="B224" s="53" t="s">
         <v>426</v>
       </c>
       <c r="C224" s="10" t="s">
@@ -10779,24 +10931,24 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="51"/>
-      <c r="B225" s="52"/>
+      <c r="A225" s="52"/>
+      <c r="B225" s="53"/>
       <c r="C225" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="51"/>
-      <c r="B226" s="52"/>
+      <c r="A226" s="52"/>
+      <c r="B226" s="53"/>
       <c r="C226" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="51" t="s">
+      <c r="A227" s="52" t="s">
         <v>430</v>
       </c>
-      <c r="B227" s="52" t="s">
+      <c r="B227" s="53" t="s">
         <v>431</v>
       </c>
       <c r="C227" s="10" t="s">
@@ -10804,21 +10956,21 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="51"/>
-      <c r="B228" s="52"/>
+      <c r="A228" s="52"/>
+      <c r="B228" s="53"/>
       <c r="C228" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="51"/>
-      <c r="B229" s="52"/>
+      <c r="A229" s="52"/>
+      <c r="B229" s="53"/>
       <c r="C229" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="51" t="s">
+      <c r="A230" s="52" t="s">
         <v>433</v>
       </c>
       <c r="B230" s="10" t="s">
@@ -10829,7 +10981,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="51"/>
+      <c r="A231" s="52"/>
       <c r="B231" s="10" t="s">
         <v>435</v>
       </c>
@@ -10838,61 +10990,61 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="51"/>
+      <c r="A232" s="52"/>
       <c r="C232" s="10" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="51"/>
+      <c r="A233" s="52"/>
       <c r="C233" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="51"/>
+      <c r="A234" s="52"/>
       <c r="C234" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="51" t="s">
+      <c r="A235" s="52" t="s">
         <v>439</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C235" s="52" t="s">
+      <c r="C235" s="53" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="51"/>
+      <c r="A236" s="52"/>
       <c r="B236" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C236" s="52"/>
+      <c r="C236" s="53"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="51" t="s">
+      <c r="A237" s="52" t="s">
         <v>443</v>
       </c>
       <c r="B237" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C237" s="52" t="s">
+      <c r="C237" s="53" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="51"/>
+      <c r="A238" s="52"/>
       <c r="B238" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C238" s="52"/>
+      <c r="C238" s="53"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="51" t="s">
+      <c r="A239" s="52" t="s">
         <v>447</v>
       </c>
       <c r="B239" s="10" t="s">
@@ -10903,7 +11055,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="51"/>
+      <c r="A240" s="52"/>
       <c r="B240" s="10" t="s">
         <v>449</v>
       </c>
@@ -10912,13 +11064,13 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="51"/>
+      <c r="A241" s="52"/>
       <c r="C241" s="10" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="51" t="s">
+      <c r="A242" s="52" t="s">
         <v>453</v>
       </c>
       <c r="B242" s="10" t="s">
@@ -10929,7 +11081,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="51"/>
+      <c r="A243" s="52"/>
       <c r="B243" s="10" t="s">
         <v>455</v>
       </c>
@@ -10938,7 +11090,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="51"/>
+      <c r="A244" s="52"/>
       <c r="B244" s="10" t="s">
         <v>456</v>
       </c>
@@ -10947,7 +11099,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="51"/>
+      <c r="A245" s="52"/>
       <c r="B245" s="10" t="s">
         <v>457</v>
       </c>
@@ -10956,60 +11108,60 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="51"/>
+      <c r="A246" s="52"/>
       <c r="B246" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="51"/>
+      <c r="A247" s="52"/>
       <c r="B247" s="10" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="51"/>
+      <c r="A248" s="52"/>
       <c r="B248" s="10" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="51"/>
+      <c r="A249" s="52"/>
       <c r="B249" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="51" t="s">
+      <c r="A250" s="52" t="s">
         <v>466</v>
       </c>
       <c r="B250" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C250" s="52" t="s">
+      <c r="C250" s="53" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="51"/>
+      <c r="A251" s="52"/>
       <c r="B251" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C251" s="52"/>
+      <c r="C251" s="53"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="51"/>
+      <c r="A252" s="52"/>
       <c r="B252" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C252" s="52"/>
+      <c r="C252" s="53"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="51"/>
+      <c r="A253" s="52"/>
       <c r="B253" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C253" s="52"/>
+      <c r="C253" s="53"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="s">
@@ -11034,25 +11186,25 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="51" t="s">
+      <c r="A256" s="52" t="s">
         <v>478</v>
       </c>
       <c r="B256" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C256" s="52" t="s">
+      <c r="C256" s="53" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="51"/>
+      <c r="A257" s="52"/>
       <c r="B257" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C257" s="52"/>
+      <c r="C257" s="53"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="51" t="s">
+      <c r="A258" s="52" t="s">
         <v>482</v>
       </c>
       <c r="B258" s="10" t="s">
@@ -11063,7 +11215,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="51"/>
+      <c r="A259" s="52"/>
       <c r="B259" s="10" t="s">
         <v>268</v>
       </c>
@@ -11072,16 +11224,16 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="51"/>
+      <c r="A260" s="52"/>
       <c r="C260" s="10" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="51" t="s">
+      <c r="A261" s="52" t="s">
         <v>485</v>
       </c>
-      <c r="B261" s="52" t="s">
+      <c r="B261" s="53" t="s">
         <v>486</v>
       </c>
       <c r="C261" s="10" t="s">
@@ -11089,24 +11241,24 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="51"/>
-      <c r="B262" s="52"/>
+      <c r="A262" s="52"/>
+      <c r="B262" s="53"/>
       <c r="C262" s="10" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="51"/>
-      <c r="B263" s="52"/>
+      <c r="A263" s="52"/>
+      <c r="B263" s="53"/>
       <c r="C263" s="10" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="51" t="s">
+      <c r="A264" s="52" t="s">
         <v>490</v>
       </c>
-      <c r="B264" s="52" t="s">
+      <c r="B264" s="53" t="s">
         <v>491</v>
       </c>
       <c r="C264" s="10" t="s">
@@ -11114,57 +11266,57 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="51"/>
-      <c r="B265" s="52"/>
+      <c r="A265" s="52"/>
+      <c r="B265" s="53"/>
       <c r="C265" s="10" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="51"/>
-      <c r="B266" s="52"/>
+      <c r="A266" s="52"/>
+      <c r="B266" s="53"/>
       <c r="C266" s="10" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="51" t="s">
+      <c r="A267" s="52" t="s">
         <v>495</v>
       </c>
       <c r="B267" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C267" s="52" t="s">
+      <c r="C267" s="53" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="51"/>
+      <c r="A268" s="52"/>
       <c r="B268" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C268" s="52"/>
+      <c r="C268" s="53"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="51" t="s">
+      <c r="A269" s="52" t="s">
         <v>499</v>
       </c>
       <c r="B269" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="C269" s="52" t="s">
+      <c r="C269" s="53" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="51"/>
+      <c r="A270" s="52"/>
       <c r="B270" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C270" s="52"/>
+      <c r="C270" s="53"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="51" t="s">
+      <c r="A271" s="52" t="s">
         <v>503</v>
       </c>
       <c r="B271" s="10" t="s">
@@ -11175,7 +11327,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="51"/>
+      <c r="A272" s="52"/>
       <c r="B272" s="10" t="s">
         <v>505</v>
       </c>
@@ -11184,70 +11336,70 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="51"/>
+      <c r="A273" s="52"/>
       <c r="C273" s="10" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="51"/>
+      <c r="A274" s="52"/>
       <c r="C274" s="10" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="51" t="s">
+      <c r="A275" s="52" t="s">
         <v>510</v>
       </c>
       <c r="B275" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C275" s="52" t="s">
+      <c r="C275" s="53" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="51"/>
+      <c r="A276" s="52"/>
       <c r="B276" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C276" s="52"/>
+      <c r="C276" s="53"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="51" t="s">
+      <c r="A277" s="52" t="s">
         <v>513</v>
       </c>
       <c r="B277" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C277" s="52" t="s">
+      <c r="C277" s="53" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="51"/>
+      <c r="A278" s="52"/>
       <c r="B278" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C278" s="52"/>
+      <c r="C278" s="53"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="51" t="s">
+      <c r="A279" s="52" t="s">
         <v>516</v>
       </c>
       <c r="B279" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C279" s="52" t="s">
+      <c r="C279" s="53" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="51"/>
+      <c r="A280" s="52"/>
       <c r="B280" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C280" s="52"/>
+      <c r="C280" s="53"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="s">
@@ -11283,22 +11435,22 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="51" t="s">
+      <c r="A284" s="52" t="s">
         <v>529</v>
       </c>
       <c r="B284" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="C284" s="52" t="s">
+      <c r="C284" s="53" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="51"/>
+      <c r="A285" s="52"/>
       <c r="B285" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C285" s="52"/>
+      <c r="C285" s="53"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="11" t="s">
@@ -11312,7 +11464,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="51" t="s">
+      <c r="A287" s="52" t="s">
         <v>141</v>
       </c>
       <c r="B287" s="10" t="s">
@@ -11320,13 +11472,13 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="51"/>
+      <c r="A288" s="52"/>
       <c r="B288" s="10" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="51" t="s">
+      <c r="A289" s="52" t="s">
         <v>141</v>
       </c>
       <c r="B289" s="10" t="s">
@@ -11334,7 +11486,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="51"/>
+      <c r="A290" s="52"/>
       <c r="B290" s="10" t="s">
         <v>538</v>
       </c>
@@ -11476,7 +11628,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="51" t="s">
+      <c r="A308" s="52" t="s">
         <v>141</v>
       </c>
       <c r="B308" s="10" t="s">
@@ -11484,25 +11636,25 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="51"/>
+      <c r="A309" s="52"/>
       <c r="B309" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="51"/>
+      <c r="A310" s="52"/>
       <c r="B310" s="10" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="51"/>
+      <c r="A311" s="52"/>
       <c r="B311" s="10" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="51"/>
+      <c r="A312" s="52"/>
       <c r="B312" s="10" t="s">
         <v>573</v>
       </c>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E718D6F-280F-A34C-9F3D-A18D4DD4709E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F646C1-0A82-A949-A806-591287BD75A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="3580" windowWidth="33600" windowHeight="19500" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="38700" yWindow="5780" windowWidth="33600" windowHeight="19500" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="baseQueries" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="953">
   <si>
     <t>valueChain</t>
   </si>
@@ -5834,6 +5834,63 @@
   </si>
   <si>
     <t>adaptation AND finance AND agriculture</t>
+  </si>
+  <si>
+    <t>marineMedical</t>
+  </si>
+  <si>
+    <t>marine drug OR "marine AND therapeutant" OR "marine AND pharmaceutical" OR "marine natural product" OR "fish AND oil" OR "krill and oil" OR "aquatic natural product" or "aquatic drug" or "aquatic medicine" OR "marine medicine"</t>
+  </si>
+  <si>
+    <t>aquaponics</t>
+  </si>
+  <si>
+    <t>aquaponics OR hydroponics</t>
+  </si>
+  <si>
+    <t>landUseChange</t>
+  </si>
+  <si>
+    <t>Climate Change and Land Use Change</t>
+  </si>
+  <si>
+    <t>"land use change"</t>
+  </si>
+  <si>
+    <t>tipping points</t>
+  </si>
+  <si>
+    <t>tippingPoints</t>
+  </si>
+  <si>
+    <t>"tip* point*"</t>
+  </si>
+  <si>
+    <t>Crop modeling</t>
+  </si>
+  <si>
+    <t>cropModelling</t>
+  </si>
+  <si>
+    <t>"crop model*"</t>
+  </si>
+  <si>
+    <t>Urban agriculture</t>
+  </si>
+  <si>
+    <t>urbanAg</t>
+  </si>
+  <si>
+    <t>"city agriculture" OR "urban agriculture" OR "urban farm*" OR "vertical farm*" OR "controlled environment agriculture" OR "vertical agriculture" OR "protection agriculture" OR "horticultur*"</t>
+  </si>
+  <si>
+    <t>Post harvest</t>
+  </si>
+  <si>
+    <t>postHarvest</t>
+  </si>
+  <si>
+    <t>"postharvest" OR "post harvest" AND loss</t>
   </si>
 </sst>
 </file>
@@ -6108,7 +6165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6213,12 +6270,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6534,10 +6594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6580,417 +6640,398 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="e">
-        <f>A1+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47" t="s">
         <v>831</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E6" s="48" t="s">
         <v>922</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>777</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>799</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="e">
-        <f>A2+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>912</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>790</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="e">
-        <f>A3+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>795</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="e">
-        <f>A4+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
-        <v>830</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>827</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>777</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="e">
-        <f>A5+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>685</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>776</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>78</v>
       </c>
+      <c r="H6" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="e">
-        <f>A6+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50" t="s">
-        <v>771</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>870</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>781</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="A7" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="E7" s="48" t="s">
+        <v>912</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="e">
-        <f>A7+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50" t="s">
-        <v>773</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>915</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="A8" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="G8" s="19" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>827</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="e">
-        <f>A8+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50" t="s">
-        <v>772</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>852</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="e">
-        <f>A9+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>678</v>
+    </row>
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>685</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>844</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>877</v>
+        <v>6</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>776</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="e">
-        <f>A10+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="46">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>678</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>879</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50" t="s">
+        <v>771</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>870</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="e">
-        <f>A11+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="46">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>678</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50" t="s">
+        <v>773</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>915</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="e">
-        <f>A12+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="46">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>678</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50" t="s">
+        <v>772</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>852</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="160" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="e">
-        <f>A13+1</f>
-        <v>#VALUE!</v>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>781</v>
+        <v>877</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="e">
-        <f>A14+1</f>
-        <v>#VALUE!</v>
+    <row r="15" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>645</v>
+        <v>845</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>879</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="e">
-        <f>A15+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>893</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="G16" s="19" t="s">
+    <row r="16" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="e">
-        <f>A16+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
-        <v>690</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>913</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="G17" s="19" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="e">
-        <f>A17+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>680</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>703</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>800</v>
-      </c>
-      <c r="G18" s="19" t="s">
+    </row>
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="e">
-        <f>A18+1</f>
-        <v>#VALUE!</v>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>682</v>
+        <v>85</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>928</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>931</v>
+        <v>2</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>645</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>78</v>
@@ -6998,226 +7039,208 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="e">
-        <f>A19+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>913</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>703</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="D23" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>931</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>929</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="e">
-        <f>A20+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B21" s="7" t="s">
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>932</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E25" s="53" t="s">
         <v>933</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G25" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="e">
-        <f>A21+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B22" s="13" t="s">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E26" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>784</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>789</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="e">
-        <f>A22+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>662</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>792</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="e">
-        <f>A23+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>777</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="e">
-        <f>A24+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>777</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>803</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="e">
-        <f>A25+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>666</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>927</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>777</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>834</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="e">
-        <f>A26+1</f>
-        <v>#VALUE!</v>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>903</v>
+        <v>95</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>662</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>834</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="e">
-        <f>A27+1</f>
-        <v>#VALUE!</v>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>691</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>777</v>
@@ -7226,253 +7249,274 @@
         <v>834</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="e">
-        <f>A28+1</f>
-        <v>#VALUE!</v>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>805</v>
+        <v>69</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>807</v>
+        <v>924</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>834</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="e">
-        <f>A29+1</f>
-        <v>#VALUE!</v>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>904</v>
+        <v>691</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>927</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>834</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="I30" s="13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>777</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="e">
-        <f>A30+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>783</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="e">
-        <f>A31+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>737</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>736</v>
+      <c r="H31" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="e">
-        <f>A32+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>678</v>
+      <c r="H32" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>696</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>753</v>
+        <v>805</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>923</v>
+        <v>807</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="e">
-        <f>A33+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>883</v>
+      <c r="H33" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>904</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="e">
-        <f>A34+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>678</v>
+      <c r="H34" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <f t="shared" ref="A35:A66" si="1">A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>692</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>758</v>
+        <v>882</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="e">
-        <f>A35+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B36" s="7" t="s">
+    <row r="36" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>871</v>
+      <c r="C36" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>736</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="e">
-        <f>A36+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B37" s="14" t="s">
+    <row r="37" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>738</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>733</v>
+      <c r="D37" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>923</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="e">
-        <f>A37+1</f>
-        <v>#VALUE!</v>
+    <row r="38" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>862</v>
+        <v>694</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>883</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="e">
-        <f>A38+1</f>
-        <v>#VALUE!</v>
+    <row r="39" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>832</v>
+        <v>73</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>884</v>
+        <v>758</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>779</v>
@@ -7481,112 +7525,106 @@
         <v>834</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="e">
-        <f>A39+1</f>
-        <v>#VALUE!</v>
+    <row r="40" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="e">
-        <f>A40+1</f>
-        <v>#VALUE!</v>
+    <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="e">
-        <f>A41+1</f>
-        <v>#VALUE!</v>
+    <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>842</v>
+        <v>90</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>862</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="e">
-        <f>A42+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B43" s="14" t="s">
+    <row r="43" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>740</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>720</v>
+      <c r="D43" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>884</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="e">
-        <f>A43+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B44" s="14" t="s">
+    <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>741</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>722</v>
+      <c r="D44" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>853</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>781</v>
@@ -7595,20 +7633,22 @@
         <v>834</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="e">
-        <f>A44+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B45" s="7" t="s">
+    <row r="45" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>872</v>
+      <c r="C45" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>735</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>781</v>
@@ -7617,61 +7657,67 @@
         <v>834</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="e">
-        <f>A45+1</f>
-        <v>#VALUE!</v>
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>673</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>885</v>
+        <v>75</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>842</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="e">
-        <f>A46+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B47" s="23" t="s">
+    <row r="47" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>829</v>
+      <c r="C47" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>720</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="G47" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="G47" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="e">
-        <f>A47+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B48" s="7" t="s">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>76</v>
+      <c r="C48" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>722</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>781</v>
@@ -7680,94 +7726,83 @@
         <v>834</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="e">
-        <f>A48+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B49" s="14" t="s">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>718</v>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>872</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="e">
-        <f>A49+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B50" s="14" t="s">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>711</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>743</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>734</v>
+      <c r="D50" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>885</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="e">
-        <f>A50+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B51" s="14" t="s">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>641</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>726</v>
+      <c r="D51" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>829</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="G51" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="G51" s="19" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="e">
-        <f>A51+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B52" s="14" t="s">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>786</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>874</v>
+      <c r="D52" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>781</v>
@@ -7776,46 +7811,46 @@
         <v>834</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="e">
-        <f>A52+1</f>
-        <v>#VALUE!</v>
+    <row r="53" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="e">
-        <f>A53+1</f>
-        <v>#VALUE!</v>
+    <row r="54" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>781</v>
@@ -7825,21 +7860,21 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="e">
-        <f>A54+1</f>
-        <v>#VALUE!</v>
+      <c r="A55" s="15">
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>746</v>
+        <v>641</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>781</v>
@@ -7848,22 +7883,22 @@
         <v>834</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="e">
-        <f>A55+1</f>
-        <v>#VALUE!</v>
+    <row r="56" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>707</v>
+        <v>786</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>708</v>
+        <v>774</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>874</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>781</v>
@@ -7873,21 +7908,21 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="e">
-        <f>A56+1</f>
-        <v>#VALUE!</v>
+      <c r="A57" s="15">
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>709</v>
+        <v>744</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>725</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>781</v>
@@ -7896,46 +7931,46 @@
         <v>834</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="144" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="e">
-        <f>A57+1</f>
-        <v>#VALUE!</v>
+    <row r="58" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>749</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>760</v>
+        <v>745</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>721</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="e">
-        <f>A58+1</f>
-        <v>#VALUE!</v>
+    <row r="59" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>781</v>
@@ -7944,10 +7979,10 @@
         <v>834</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="e">
-        <f>A59+1</f>
-        <v>#VALUE!</v>
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
+        <f t="shared" si="1"/>
+        <v>59</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>678</v>
@@ -7956,34 +7991,34 @@
         <v>707</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="e">
-        <f>A60+1</f>
-        <v>#VALUE!</v>
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>678</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>873</v>
+        <v>748</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>709</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>781</v>
@@ -7992,65 +8027,73 @@
         <v>834</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="e">
-        <f>A61+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B62" s="7" t="s">
+    <row r="62" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>74</v>
+      <c r="C62" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>760</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="e">
-        <f>A62+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B63" s="7" t="s">
+    <row r="63" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>909</v>
+      <c r="C63" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>717</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="e">
-        <f>A63+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>894</v>
+    <row r="64" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>727</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>834</v>
@@ -8058,23 +8101,25 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="e">
-        <f>A64+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>699</v>
+    <row r="65" spans="1:9" s="18" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A65" s="15">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>873</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>834</v>
@@ -8082,118 +8127,118 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="e">
-        <f>A65+1</f>
-        <v>#VALUE!</v>
+    <row r="66" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="15">
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>911</v>
+        <v>74</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
     </row>
     <row r="67" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="e">
-        <f>A66+1</f>
-        <v>#VALUE!</v>
+      <c r="A67" s="15">
+        <f t="shared" ref="A67:A105" si="2">A66+1</f>
+        <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13" t="s">
-        <v>68</v>
+        <v>693</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>776</v>
+        <v>909</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>779</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="e">
-        <f>A67+1</f>
-        <v>#VALUE!</v>
+      <c r="A68" s="15">
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="F68" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F68" s="13" t="s">
         <v>776</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
     </row>
     <row r="69" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="e">
-        <f>A68+1</f>
-        <v>#VALUE!</v>
+      <c r="A69" s="15">
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>700</v>
-      </c>
-      <c r="F69" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="F69" s="13" t="s">
         <v>776</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="e">
-        <f>A69+1</f>
-        <v>#VALUE!</v>
+      <c r="A70" s="15">
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13" t="s">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="F70" s="19" t="s">
+        <v>911</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>776</v>
       </c>
       <c r="G70" s="13" t="s">
@@ -8202,23 +8247,23 @@
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="e">
-        <f>A70+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>679</v>
+    <row r="71" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="15">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13" t="s">
-        <v>686</v>
+        <v>68</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>728</v>
+        <v>914</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>834</v>
@@ -8226,23 +8271,23 @@
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A72" s="15" t="e">
-        <f>A71+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>916</v>
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="15">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>889</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>834</v>
@@ -8250,116 +8295,116 @@
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="e">
-        <f>A72+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>697</v>
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="15">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>700</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="G73" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="G73" s="13" t="s">
         <v>834</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
     </row>
     <row r="74" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="e">
-        <f>A73+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>864</v>
+      <c r="A74" s="15">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>895</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="G74" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="G74" s="13" t="s">
         <v>834</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="e">
-        <f>A74+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B75" s="19" t="s">
+    <row r="75" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>865</v>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="F75" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="G75" s="19" t="s">
+      <c r="G75" s="13" t="s">
         <v>834</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A76" s="15" t="e">
-        <f>A75+1</f>
-        <v>#VALUE!</v>
+    <row r="76" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A76" s="15">
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>679</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>701</v>
+        <v>688</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>916</v>
       </c>
       <c r="F76" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="G76" s="19" t="s">
+      <c r="G76" s="13" t="s">
         <v>834</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
     </row>
     <row r="77" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A77" s="15" t="e">
-        <f>A76+1</f>
-        <v>#VALUE!</v>
+      <c r="A77" s="15">
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>679</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>866</v>
+        <v>689</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>697</v>
       </c>
       <c r="F77" s="19" t="s">
         <v>778</v>
@@ -8370,20 +8415,20 @@
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A78" s="15" t="e">
-        <f>A77+1</f>
-        <v>#VALUE!</v>
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A78" s="15">
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>679</v>
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="19" t="s">
-        <v>674</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>886</v>
+        <v>89</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>864</v>
       </c>
       <c r="F78" s="19" t="s">
         <v>778</v>
@@ -8394,23 +8439,23 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="e">
-        <f>A78+1</f>
-        <v>#VALUE!</v>
+    <row r="79" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="15">
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>702</v>
+        <v>865</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="G79" s="19" t="s">
         <v>834</v>
@@ -8418,23 +8463,23 @@
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A80" s="15" t="e">
-        <f>A79+1</f>
-        <v>#VALUE!</v>
+    <row r="80" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="15">
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C80" s="19"/>
-      <c r="D80" s="13" t="s">
-        <v>804</v>
+      <c r="D80" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>905</v>
+        <v>701</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="G80" s="19" t="s">
         <v>834</v>
@@ -8442,23 +8487,23 @@
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="e">
-        <f>A80+1</f>
-        <v>#VALUE!</v>
+    <row r="81" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A81" s="15">
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C81" s="19"/>
-      <c r="D81" s="13" t="s">
-        <v>762</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>887</v>
+      <c r="D81" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>866</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="G81" s="19" t="s">
         <v>834</v>
@@ -8466,23 +8511,23 @@
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A82" s="15" t="e">
-        <f>A81+1</f>
-        <v>#VALUE!</v>
+    <row r="82" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A82" s="15">
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C82" s="19"/>
       <c r="D82" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>925</v>
+        <v>674</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>886</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>834</v>
@@ -8490,69 +8535,71 @@
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="e">
-        <f>A82+1</f>
-        <v>#VALUE!</v>
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="15">
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>732</v>
+        <v>94</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>702</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="G83" s="19" t="s">
         <v>834</v>
       </c>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-    </row>
-    <row r="84" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="e">
-        <f>A83+1</f>
-        <v>#VALUE!</v>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+    </row>
+    <row r="84" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A84" s="15">
+        <f t="shared" si="2"/>
+        <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="C84" s="19"/>
-      <c r="D84" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>704</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>802</v>
+      <c r="D84" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>800</v>
       </c>
       <c r="G84" s="19" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="e">
-        <f>A84+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="F85" s="30" t="s">
-        <v>821</v>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+    </row>
+    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="15">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>800</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>834</v>
@@ -8561,281 +8608,441 @@
       <c r="I85" s="19"/>
     </row>
     <row r="86" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="e">
-        <f>A85+1</f>
-        <v>#VALUE!</v>
+      <c r="A86" s="15">
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>802</v>
+        <v>661</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>925</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>800</v>
       </c>
       <c r="G86" s="19" t="s">
         <v>834</v>
       </c>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-    </row>
-    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="e">
-        <f>A86+1</f>
-        <v>#VALUE!</v>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+    </row>
+    <row r="87" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A87" s="15">
+        <f t="shared" si="2"/>
+        <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>705</v>
+        <v>723</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>732</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G87" s="19" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A88" s="15" t="e">
-        <f>A87+1</f>
-        <v>#VALUE!</v>
+    <row r="88" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="15">
+        <f t="shared" si="2"/>
+        <v>87</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E88" s="24" t="s">
-        <v>906</v>
+        <v>71</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>704</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="G88" s="19" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A89" s="15" t="e">
-        <f>A88+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="F89" s="28" t="s">
-        <v>782</v>
+      <c r="A89" s="15">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>821</v>
       </c>
       <c r="G89" s="19" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="15" t="e">
-        <f>A89+1</f>
-        <v>#VALUE!</v>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+    </row>
+    <row r="90" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="15">
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>682</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>763</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>822</v>
-      </c>
-      <c r="F90" s="28" t="s">
-        <v>777</v>
+        <v>681</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>802</v>
       </c>
       <c r="G90" s="19" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="e">
-        <f>A90+1</f>
-        <v>#VALUE!</v>
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="15">
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>755</v>
-      </c>
-      <c r="F91" s="28" t="s">
-        <v>777</v>
+        <v>72</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>784</v>
       </c>
       <c r="G91" s="19" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="e">
-        <f>A91+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>678</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>897</v>
+    <row r="92" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A92" s="15">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>906</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="G92" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="G92" s="19" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A93" s="15" t="e">
-        <f>A92+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>85</v>
+    <row r="93" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A93" s="15">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>683</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>900</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="G93" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>888</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="G93" s="19" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A94" s="15" t="e">
-        <f>A93+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>691</v>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="15">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>682</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>917</v>
-      </c>
-      <c r="E94" s="54" t="s">
-        <v>926</v>
-      </c>
-      <c r="F94" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="E94" s="34" t="s">
+        <v>822</v>
+      </c>
+      <c r="F94" s="28" t="s">
         <v>777</v>
       </c>
-      <c r="G94" s="13" t="s">
+      <c r="G94" s="19" t="s">
         <v>834</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="15">
-        <v>1</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>910</v>
-      </c>
-      <c r="F95" s="13" t="s">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="15">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A97" s="15">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A98" s="15">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="E98" s="52" t="s">
+        <v>926</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A99" s="15">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="15">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="15">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="15">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="15">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="F103" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="G95" s="13" t="s">
-        <v>833</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>794</v>
-      </c>
-      <c r="I95" s="13" t="s">
+    </row>
+    <row r="104" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="15">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="E104" s="54" t="s">
+        <v>949</v>
+      </c>
+      <c r="F104" s="13" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A96" s="15">
-        <f>A95+1</f>
-        <v>2</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A97" s="15">
-        <f>A96+1</f>
-        <v>3</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>847</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A98" s="15">
-        <f>A97+1</f>
-        <v>4</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>848</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>878</v>
+    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="15">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>834</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{34F28E2D-F274-CC4F-A866-5EE652AA36F7}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I98">
-      <sortCondition ref="G1:G98"/>
+      <sortCondition ref="A1:A98"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I90">
@@ -9388,7 +9595,7 @@
       <c r="A17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="55" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -9396,25 +9603,25 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="55" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -9422,13 +9629,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="55" t="s">
         <v>138</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -9436,7 +9643,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="10" t="s">
         <v>140</v>
       </c>
@@ -9477,7 +9684,7 @@
       <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="56" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -9485,7 +9692,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="10" t="s">
         <v>146</v>
       </c>
@@ -9538,7 +9745,7 @@
       <c r="A42" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="56" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9546,13 +9753,13 @@
       <c r="A43" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="53"/>
+      <c r="B43" s="56"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="56"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
@@ -9585,7 +9792,7 @@
       <c r="A49" s="10"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="55" t="s">
         <v>141</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -9593,37 +9800,37 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="10" t="s">
         <v>170</v>
       </c>
@@ -9639,7 +9846,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="55" t="s">
         <v>134</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -9647,10 +9854,10 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
+      <c r="A60" s="55"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="10" t="s">
         <v>174</v>
       </c>
@@ -9700,7 +9907,7 @@
       <c r="A69" s="10"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="55" t="s">
         <v>141</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -9708,19 +9915,19 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="52"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="10" t="s">
         <v>184</v>
       </c>
@@ -9865,7 +10072,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="52" t="s">
+      <c r="A97" s="55" t="s">
         <v>206</v>
       </c>
       <c r="B97" s="10" t="s">
@@ -9873,19 +10080,19 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
+      <c r="A98" s="55"/>
       <c r="B98" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="52"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="52"/>
+      <c r="A100" s="55"/>
       <c r="B100" s="10" t="s">
         <v>209</v>
       </c>
@@ -9950,7 +10157,7 @@
       <c r="A111" s="10"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="52" t="s">
+      <c r="A112" s="55" t="s">
         <v>134</v>
       </c>
       <c r="B112" s="10" t="s">
@@ -9958,7 +10165,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="52"/>
+      <c r="A113" s="55"/>
       <c r="B113" s="10" t="s">
         <v>217</v>
       </c>
@@ -9967,7 +10174,7 @@
       <c r="A114" s="10"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="52" t="s">
+      <c r="A115" s="55" t="s">
         <v>141</v>
       </c>
       <c r="B115" s="10" t="s">
@@ -9975,19 +10182,19 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="52"/>
+      <c r="A116" s="55"/>
       <c r="B116" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="52"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="52"/>
+      <c r="A118" s="55"/>
       <c r="B118" s="10" t="s">
         <v>221</v>
       </c>
@@ -10015,61 +10222,61 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="55" t="s">
         <v>225</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C123" s="53" t="s">
+      <c r="C123" s="56" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="52"/>
+      <c r="A124" s="55"/>
       <c r="B124" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C124" s="53"/>
+      <c r="C124" s="56"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="55" t="s">
         <v>229</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C125" s="53" t="s">
+      <c r="C125" s="56" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="52"/>
+      <c r="A126" s="55"/>
       <c r="B126" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C126" s="53"/>
+      <c r="C126" s="56"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="55" t="s">
         <v>233</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C127" s="53" t="s">
+      <c r="C127" s="56" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="52"/>
+      <c r="A128" s="55"/>
       <c r="B128" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C128" s="53"/>
+      <c r="C128" s="56"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="52" t="s">
+      <c r="A129" s="55" t="s">
         <v>237</v>
       </c>
       <c r="B129" s="10" t="s">
@@ -10080,7 +10287,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
+      <c r="A130" s="55"/>
       <c r="B130" s="10" t="s">
         <v>239</v>
       </c>
@@ -10089,7 +10296,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="52"/>
+      <c r="A131" s="55"/>
       <c r="B131" s="10" t="s">
         <v>240</v>
       </c>
@@ -10098,7 +10305,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="52"/>
+      <c r="A132" s="55"/>
       <c r="B132" s="10" t="s">
         <v>241</v>
       </c>
@@ -10107,7 +10314,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="52"/>
+      <c r="A133" s="55"/>
       <c r="B133" s="10" t="s">
         <v>242</v>
       </c>
@@ -10116,7 +10323,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="52"/>
+      <c r="A134" s="55"/>
       <c r="B134" s="10" t="s">
         <v>243</v>
       </c>
@@ -10125,17 +10332,17 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="52"/>
+      <c r="A135" s="55"/>
       <c r="B135" s="10"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="52"/>
+      <c r="A136" s="55"/>
       <c r="B136" s="10" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="52" t="s">
+      <c r="A137" s="55" t="s">
         <v>251</v>
       </c>
       <c r="B137" s="10" t="s">
@@ -10146,7 +10353,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="52"/>
+      <c r="A138" s="55"/>
       <c r="B138" s="10" t="s">
         <v>253</v>
       </c>
@@ -10155,7 +10362,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="52" t="s">
+      <c r="A139" s="55" t="s">
         <v>256</v>
       </c>
       <c r="B139" s="10" t="s">
@@ -10166,7 +10373,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="52"/>
+      <c r="A140" s="55"/>
       <c r="B140" s="10" t="s">
         <v>258</v>
       </c>
@@ -10175,7 +10382,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="52" t="s">
+      <c r="A141" s="55" t="s">
         <v>261</v>
       </c>
       <c r="B141" s="10" t="s">
@@ -10186,7 +10393,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="52"/>
+      <c r="A142" s="55"/>
       <c r="B142" s="10" t="s">
         <v>263</v>
       </c>
@@ -10195,7 +10402,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="52" t="s">
+      <c r="A143" s="55" t="s">
         <v>266</v>
       </c>
       <c r="B143" s="10" t="s">
@@ -10206,7 +10413,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="52"/>
+      <c r="A144" s="55"/>
       <c r="B144" s="10" t="s">
         <v>268</v>
       </c>
@@ -10215,31 +10422,31 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="52"/>
+      <c r="A145" s="55"/>
       <c r="C145" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="52" t="s">
+      <c r="A146" s="55" t="s">
         <v>272</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C146" s="53" t="s">
+      <c r="C146" s="56" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="52"/>
+      <c r="A147" s="55"/>
       <c r="B147" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C147" s="53"/>
+      <c r="C147" s="56"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="52" t="s">
+      <c r="A148" s="55" t="s">
         <v>276</v>
       </c>
       <c r="B148" s="10" t="s">
@@ -10250,7 +10457,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="52"/>
+      <c r="A149" s="55"/>
       <c r="B149" s="10" t="s">
         <v>278</v>
       </c>
@@ -10259,14 +10466,14 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="52"/>
+      <c r="A150" s="55"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="52"/>
+      <c r="A151" s="55"/>
       <c r="B151" s="10" t="s">
         <v>279</v>
       </c>
@@ -10275,14 +10482,14 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="52"/>
+      <c r="A152" s="55"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="52"/>
+      <c r="A153" s="55"/>
       <c r="B153" s="10" t="s">
         <v>280</v>
       </c>
@@ -10291,7 +10498,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="52"/>
+      <c r="A154" s="55"/>
       <c r="B154" s="10" t="s">
         <v>281</v>
       </c>
@@ -10300,7 +10507,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="52"/>
+      <c r="A155" s="55"/>
       <c r="B155" s="10" t="s">
         <v>282</v>
       </c>
@@ -10309,7 +10516,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="52"/>
+      <c r="A156" s="55"/>
       <c r="B156" s="10" t="s">
         <v>283</v>
       </c>
@@ -10318,29 +10525,29 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="52"/>
+      <c r="A157" s="55"/>
       <c r="B157" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="52"/>
+      <c r="A158" s="55"/>
       <c r="B158" s="10"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="52"/>
+      <c r="A159" s="55"/>
       <c r="B159" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="52"/>
+      <c r="A160" s="55"/>
       <c r="B160" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="52" t="s">
+      <c r="A161" s="55" t="s">
         <v>295</v>
       </c>
       <c r="B161" s="10" t="s">
@@ -10351,7 +10558,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="52"/>
+      <c r="A162" s="55"/>
       <c r="B162" s="10" t="s">
         <v>297</v>
       </c>
@@ -10360,7 +10567,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="52"/>
+      <c r="A163" s="55"/>
       <c r="B163" s="10" t="s">
         <v>280</v>
       </c>
@@ -10369,16 +10576,16 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="52"/>
+      <c r="A164" s="55"/>
       <c r="B164" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="52" t="s">
+      <c r="A165" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="B165" s="53" t="s">
+      <c r="B165" s="56" t="s">
         <v>302</v>
       </c>
       <c r="C165" s="10" t="s">
@@ -10386,29 +10593,29 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="52"/>
-      <c r="B166" s="53"/>
+      <c r="A166" s="55"/>
+      <c r="B166" s="56"/>
       <c r="C166" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="52"/>
-      <c r="B167" s="53"/>
+      <c r="A167" s="55"/>
+      <c r="B167" s="56"/>
       <c r="C167" s="10" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="52"/>
-      <c r="B168" s="53"/>
+      <c r="A168" s="55"/>
+      <c r="B168" s="56"/>
       <c r="C168" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="52"/>
-      <c r="B169" s="53"/>
+      <c r="A169" s="55"/>
+      <c r="B169" s="56"/>
       <c r="C169" s="10" t="s">
         <v>307</v>
       </c>
@@ -10425,22 +10632,22 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="52" t="s">
+      <c r="A171" s="55" t="s">
         <v>311</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C171" s="53" t="s">
+      <c r="C171" s="56" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="52"/>
+      <c r="A172" s="55"/>
       <c r="B172" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C172" s="53"/>
+      <c r="C172" s="56"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
@@ -10454,40 +10661,40 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="52" t="s">
+      <c r="A174" s="55" t="s">
         <v>318</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C174" s="53" t="s">
+      <c r="C174" s="56" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="52"/>
+      <c r="A175" s="55"/>
       <c r="B175" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C175" s="53"/>
+      <c r="C175" s="56"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="52" t="s">
+      <c r="A176" s="55" t="s">
         <v>322</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C176" s="53" t="s">
+      <c r="C176" s="56" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="52"/>
+      <c r="A177" s="55"/>
       <c r="B177" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C177" s="53"/>
+      <c r="C177" s="56"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
@@ -10512,7 +10719,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="52" t="s">
+      <c r="A180" s="55" t="s">
         <v>332</v>
       </c>
       <c r="B180" s="10" t="s">
@@ -10523,7 +10730,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="52"/>
+      <c r="A181" s="55"/>
       <c r="B181" s="10" t="s">
         <v>334</v>
       </c>
@@ -10532,10 +10739,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A182" s="52" t="s">
+      <c r="A182" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="B182" s="53" t="s">
+      <c r="B182" s="56" t="s">
         <v>338</v>
       </c>
       <c r="C182" s="9" t="s">
@@ -10543,17 +10750,17 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="52"/>
-      <c r="B183" s="53"/>
+      <c r="A183" s="55"/>
+      <c r="B183" s="56"/>
       <c r="C183" s="10" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="52" t="s">
+      <c r="A184" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="B184" s="53" t="s">
+      <c r="B184" s="56" t="s">
         <v>342</v>
       </c>
       <c r="C184" s="10" t="s">
@@ -10561,17 +10768,17 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="52"/>
-      <c r="B185" s="53"/>
+      <c r="A185" s="55"/>
+      <c r="B185" s="56"/>
       <c r="C185" s="10" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="52" t="s">
+      <c r="A186" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="B186" s="53" t="s">
+      <c r="B186" s="56" t="s">
         <v>345</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -10579,54 +10786,54 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="52"/>
-      <c r="B187" s="53"/>
+      <c r="A187" s="55"/>
+      <c r="B187" s="56"/>
       <c r="C187" s="10" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="52"/>
-      <c r="B188" s="53"/>
+      <c r="A188" s="55"/>
+      <c r="B188" s="56"/>
       <c r="C188" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="52" t="s">
+      <c r="A189" s="55" t="s">
         <v>349</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C189" s="53" t="s">
+      <c r="C189" s="56" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="52"/>
+      <c r="A190" s="55"/>
       <c r="B190" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C190" s="53"/>
+      <c r="C190" s="56"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="52" t="s">
+      <c r="A191" s="55" t="s">
         <v>353</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C191" s="53" t="s">
+      <c r="C191" s="56" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="52"/>
+      <c r="A192" s="55"/>
       <c r="B192" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C192" s="53"/>
+      <c r="C192" s="56"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
@@ -10640,22 +10847,22 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="52" t="s">
+      <c r="A194" s="55" t="s">
         <v>360</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C194" s="53" t="s">
+      <c r="C194" s="56" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="52"/>
+      <c r="A195" s="55"/>
       <c r="B195" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C195" s="53"/>
+      <c r="C195" s="56"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
@@ -10669,65 +10876,65 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="52" t="s">
+      <c r="A197" s="55" t="s">
         <v>367</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C197" s="53" t="s">
+      <c r="C197" s="56" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="52"/>
+      <c r="A198" s="55"/>
       <c r="B198" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C198" s="53"/>
+      <c r="C198" s="56"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="52" t="s">
+      <c r="A199" s="55" t="s">
         <v>371</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C199" s="53" t="s">
+      <c r="C199" s="56" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="52"/>
+      <c r="A200" s="55"/>
       <c r="B200" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C200" s="53"/>
+      <c r="C200" s="56"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="52"/>
+      <c r="A201" s="55"/>
       <c r="B201" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C201" s="53"/>
+      <c r="C201" s="56"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="52" t="s">
+      <c r="A202" s="55" t="s">
         <v>376</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C202" s="53" t="s">
+      <c r="C202" s="56" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="52"/>
+      <c r="A203" s="55"/>
       <c r="B203" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C203" s="53"/>
+      <c r="C203" s="56"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
@@ -10763,43 +10970,43 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="52" t="s">
+      <c r="A207" s="55" t="s">
         <v>389</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C207" s="53" t="s">
+      <c r="C207" s="56" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="52"/>
+      <c r="A208" s="55"/>
       <c r="B208" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C208" s="53"/>
+      <c r="C208" s="56"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="52" t="s">
+      <c r="A209" s="55" t="s">
         <v>393</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C209" s="53" t="s">
+      <c r="C209" s="56" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="52"/>
+      <c r="A210" s="55"/>
       <c r="B210" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C210" s="53"/>
+      <c r="C210" s="56"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="52" t="s">
+      <c r="A211" s="55" t="s">
         <v>397</v>
       </c>
       <c r="B211" s="10" t="s">
@@ -10810,7 +11017,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="52"/>
+      <c r="A212" s="55"/>
       <c r="B212" s="10" t="s">
         <v>399</v>
       </c>
@@ -10819,76 +11026,76 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="52" t="s">
+      <c r="A213" s="55" t="s">
         <v>402</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C213" s="53" t="s">
+      <c r="C213" s="56" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="52"/>
+      <c r="A214" s="55"/>
       <c r="B214" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C214" s="53"/>
+      <c r="C214" s="56"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="52" t="s">
+      <c r="A215" s="55" t="s">
         <v>406</v>
       </c>
       <c r="B215" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C215" s="53" t="s">
+      <c r="C215" s="56" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="52"/>
+      <c r="A216" s="55"/>
       <c r="B216" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C216" s="53"/>
+      <c r="C216" s="56"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="52" t="s">
+      <c r="A217" s="55" t="s">
         <v>410</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C217" s="53" t="s">
+      <c r="C217" s="56" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="52"/>
+      <c r="A218" s="55"/>
       <c r="B218" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C218" s="53"/>
+      <c r="C218" s="56"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="52" t="s">
+      <c r="A219" s="55" t="s">
         <v>414</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C219" s="53" t="s">
+      <c r="C219" s="56" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="52"/>
+      <c r="A220" s="55"/>
       <c r="B220" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C220" s="53"/>
+      <c r="C220" s="56"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
@@ -10902,10 +11109,10 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="52" t="s">
+      <c r="A222" s="55" t="s">
         <v>421</v>
       </c>
-      <c r="B222" s="53" t="s">
+      <c r="B222" s="56" t="s">
         <v>422</v>
       </c>
       <c r="C222" s="10" t="s">
@@ -10913,17 +11120,17 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="52"/>
-      <c r="B223" s="53"/>
+      <c r="A223" s="55"/>
+      <c r="B223" s="56"/>
       <c r="C223" s="10" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="52" t="s">
+      <c r="A224" s="55" t="s">
         <v>425</v>
       </c>
-      <c r="B224" s="53" t="s">
+      <c r="B224" s="56" t="s">
         <v>426</v>
       </c>
       <c r="C224" s="10" t="s">
@@ -10931,24 +11138,24 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="52"/>
-      <c r="B225" s="53"/>
+      <c r="A225" s="55"/>
+      <c r="B225" s="56"/>
       <c r="C225" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="52"/>
-      <c r="B226" s="53"/>
+      <c r="A226" s="55"/>
+      <c r="B226" s="56"/>
       <c r="C226" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="52" t="s">
+      <c r="A227" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="B227" s="53" t="s">
+      <c r="B227" s="56" t="s">
         <v>431</v>
       </c>
       <c r="C227" s="10" t="s">
@@ -10956,21 +11163,21 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="52"/>
-      <c r="B228" s="53"/>
+      <c r="A228" s="55"/>
+      <c r="B228" s="56"/>
       <c r="C228" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="52"/>
-      <c r="B229" s="53"/>
+      <c r="A229" s="55"/>
+      <c r="B229" s="56"/>
       <c r="C229" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="52" t="s">
+      <c r="A230" s="55" t="s">
         <v>433</v>
       </c>
       <c r="B230" s="10" t="s">
@@ -10981,7 +11188,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="52"/>
+      <c r="A231" s="55"/>
       <c r="B231" s="10" t="s">
         <v>435</v>
       </c>
@@ -10990,61 +11197,61 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="52"/>
+      <c r="A232" s="55"/>
       <c r="C232" s="10" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="52"/>
+      <c r="A233" s="55"/>
       <c r="C233" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="52"/>
+      <c r="A234" s="55"/>
       <c r="C234" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="52" t="s">
+      <c r="A235" s="55" t="s">
         <v>439</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C235" s="53" t="s">
+      <c r="C235" s="56" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="52"/>
+      <c r="A236" s="55"/>
       <c r="B236" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C236" s="53"/>
+      <c r="C236" s="56"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="52" t="s">
+      <c r="A237" s="55" t="s">
         <v>443</v>
       </c>
       <c r="B237" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C237" s="53" t="s">
+      <c r="C237" s="56" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="52"/>
+      <c r="A238" s="55"/>
       <c r="B238" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C238" s="53"/>
+      <c r="C238" s="56"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="52" t="s">
+      <c r="A239" s="55" t="s">
         <v>447</v>
       </c>
       <c r="B239" s="10" t="s">
@@ -11055,7 +11262,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="52"/>
+      <c r="A240" s="55"/>
       <c r="B240" s="10" t="s">
         <v>449</v>
       </c>
@@ -11064,13 +11271,13 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="52"/>
+      <c r="A241" s="55"/>
       <c r="C241" s="10" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="52" t="s">
+      <c r="A242" s="55" t="s">
         <v>453</v>
       </c>
       <c r="B242" s="10" t="s">
@@ -11081,7 +11288,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="52"/>
+      <c r="A243" s="55"/>
       <c r="B243" s="10" t="s">
         <v>455</v>
       </c>
@@ -11090,7 +11297,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="52"/>
+      <c r="A244" s="55"/>
       <c r="B244" s="10" t="s">
         <v>456</v>
       </c>
@@ -11099,7 +11306,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="52"/>
+      <c r="A245" s="55"/>
       <c r="B245" s="10" t="s">
         <v>457</v>
       </c>
@@ -11108,60 +11315,60 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="52"/>
+      <c r="A246" s="55"/>
       <c r="B246" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="52"/>
+      <c r="A247" s="55"/>
       <c r="B247" s="10" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="52"/>
+      <c r="A248" s="55"/>
       <c r="B248" s="10" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="52"/>
+      <c r="A249" s="55"/>
       <c r="B249" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="52" t="s">
+      <c r="A250" s="55" t="s">
         <v>466</v>
       </c>
       <c r="B250" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C250" s="53" t="s">
+      <c r="C250" s="56" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="52"/>
+      <c r="A251" s="55"/>
       <c r="B251" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C251" s="53"/>
+      <c r="C251" s="56"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="52"/>
+      <c r="A252" s="55"/>
       <c r="B252" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C252" s="53"/>
+      <c r="C252" s="56"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="52"/>
+      <c r="A253" s="55"/>
       <c r="B253" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C253" s="53"/>
+      <c r="C253" s="56"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="s">
@@ -11186,25 +11393,25 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="52" t="s">
+      <c r="A256" s="55" t="s">
         <v>478</v>
       </c>
       <c r="B256" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C256" s="53" t="s">
+      <c r="C256" s="56" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="52"/>
+      <c r="A257" s="55"/>
       <c r="B257" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C257" s="53"/>
+      <c r="C257" s="56"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="52" t="s">
+      <c r="A258" s="55" t="s">
         <v>482</v>
       </c>
       <c r="B258" s="10" t="s">
@@ -11215,7 +11422,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="52"/>
+      <c r="A259" s="55"/>
       <c r="B259" s="10" t="s">
         <v>268</v>
       </c>
@@ -11224,16 +11431,16 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="52"/>
+      <c r="A260" s="55"/>
       <c r="C260" s="10" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="52" t="s">
+      <c r="A261" s="55" t="s">
         <v>485</v>
       </c>
-      <c r="B261" s="53" t="s">
+      <c r="B261" s="56" t="s">
         <v>486</v>
       </c>
       <c r="C261" s="10" t="s">
@@ -11241,24 +11448,24 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="52"/>
-      <c r="B262" s="53"/>
+      <c r="A262" s="55"/>
+      <c r="B262" s="56"/>
       <c r="C262" s="10" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="52"/>
-      <c r="B263" s="53"/>
+      <c r="A263" s="55"/>
+      <c r="B263" s="56"/>
       <c r="C263" s="10" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="52" t="s">
+      <c r="A264" s="55" t="s">
         <v>490</v>
       </c>
-      <c r="B264" s="53" t="s">
+      <c r="B264" s="56" t="s">
         <v>491</v>
       </c>
       <c r="C264" s="10" t="s">
@@ -11266,57 +11473,57 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="52"/>
-      <c r="B265" s="53"/>
+      <c r="A265" s="55"/>
+      <c r="B265" s="56"/>
       <c r="C265" s="10" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="52"/>
-      <c r="B266" s="53"/>
+      <c r="A266" s="55"/>
+      <c r="B266" s="56"/>
       <c r="C266" s="10" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="52" t="s">
+      <c r="A267" s="55" t="s">
         <v>495</v>
       </c>
       <c r="B267" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C267" s="53" t="s">
+      <c r="C267" s="56" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="52"/>
+      <c r="A268" s="55"/>
       <c r="B268" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C268" s="53"/>
+      <c r="C268" s="56"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="52" t="s">
+      <c r="A269" s="55" t="s">
         <v>499</v>
       </c>
       <c r="B269" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="C269" s="53" t="s">
+      <c r="C269" s="56" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="52"/>
+      <c r="A270" s="55"/>
       <c r="B270" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C270" s="53"/>
+      <c r="C270" s="56"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="52" t="s">
+      <c r="A271" s="55" t="s">
         <v>503</v>
       </c>
       <c r="B271" s="10" t="s">
@@ -11327,7 +11534,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="52"/>
+      <c r="A272" s="55"/>
       <c r="B272" s="10" t="s">
         <v>505</v>
       </c>
@@ -11336,70 +11543,70 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="52"/>
+      <c r="A273" s="55"/>
       <c r="C273" s="10" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="52"/>
+      <c r="A274" s="55"/>
       <c r="C274" s="10" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="52" t="s">
+      <c r="A275" s="55" t="s">
         <v>510</v>
       </c>
       <c r="B275" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C275" s="53" t="s">
+      <c r="C275" s="56" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="52"/>
+      <c r="A276" s="55"/>
       <c r="B276" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C276" s="53"/>
+      <c r="C276" s="56"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="52" t="s">
+      <c r="A277" s="55" t="s">
         <v>513</v>
       </c>
       <c r="B277" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C277" s="53" t="s">
+      <c r="C277" s="56" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="52"/>
+      <c r="A278" s="55"/>
       <c r="B278" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C278" s="53"/>
+      <c r="C278" s="56"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="52" t="s">
+      <c r="A279" s="55" t="s">
         <v>516</v>
       </c>
       <c r="B279" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C279" s="53" t="s">
+      <c r="C279" s="56" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="52"/>
+      <c r="A280" s="55"/>
       <c r="B280" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C280" s="53"/>
+      <c r="C280" s="56"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="s">
@@ -11435,22 +11642,22 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="52" t="s">
+      <c r="A284" s="55" t="s">
         <v>529</v>
       </c>
       <c r="B284" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="C284" s="53" t="s">
+      <c r="C284" s="56" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="52"/>
+      <c r="A285" s="55"/>
       <c r="B285" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C285" s="53"/>
+      <c r="C285" s="56"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="11" t="s">
@@ -11464,7 +11671,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="52" t="s">
+      <c r="A287" s="55" t="s">
         <v>141</v>
       </c>
       <c r="B287" s="10" t="s">
@@ -11472,13 +11679,13 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="52"/>
+      <c r="A288" s="55"/>
       <c r="B288" s="10" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="52" t="s">
+      <c r="A289" s="55" t="s">
         <v>141</v>
       </c>
       <c r="B289" s="10" t="s">
@@ -11486,7 +11693,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="52"/>
+      <c r="A290" s="55"/>
       <c r="B290" s="10" t="s">
         <v>538</v>
       </c>
@@ -11628,7 +11835,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="52" t="s">
+      <c r="A308" s="55" t="s">
         <v>141</v>
       </c>
       <c r="B308" s="10" t="s">
@@ -11636,25 +11843,25 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="52"/>
+      <c r="A309" s="55"/>
       <c r="B309" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="52"/>
+      <c r="A310" s="55"/>
       <c r="B310" s="10" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="52"/>
+      <c r="A311" s="55"/>
       <c r="B311" s="10" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="52"/>
+      <c r="A312" s="55"/>
       <c r="B312" s="10" t="s">
         <v>573</v>
       </c>
@@ -11955,87 +12162,15 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A129:A136"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="A230:A234"/>
-    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="C284:C285"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="C267:C268"/>
     <mergeCell ref="A269:A270"/>
@@ -12050,15 +12185,87 @@
     <mergeCell ref="B261:B263"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B264:B266"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F646C1-0A82-A949-A806-591287BD75A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31727675-D6EA-A641-B3BF-DE52586DC8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38700" yWindow="5780" windowWidth="33600" windowHeight="19500" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="38680" yWindow="10980" windowWidth="37300" windowHeight="29060" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="baseQueries" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="961">
   <si>
     <t>valueChain</t>
   </si>
@@ -5336,10 +5336,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>c("hard limit*", "soft limit*")</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>c("financ*", "technolog*", "fund*")</t>
   </si>
   <si>
@@ -5617,9 +5613,6 @@
     <t>searchStrings.CCvulnerability</t>
   </si>
   <si>
-    <t>c("adaot*", "adjust*", "alteration", "shift")</t>
-  </si>
-  <si>
     <t>"cereal quality" OR "grain quality" OR "nutrient composition" OR "nutrient decline"</t>
   </si>
   <si>
@@ -5689,9 +5682,6 @@
     <t>stress AND (crop OR plant) AND (THI OR "thermal heat index" OR "temperature humidity index" OR "heat stress index" OR "abiotic")</t>
   </si>
   <si>
-    <t>crop OR plant AND (pest* OR insect* OR fung* OR weed* )</t>
-  </si>
-  <si>
     <t>(animal OR livestock OR ruminant OR cattle OR beef OR goat OR sheep OR pig OR shoat OR swine OR pork OR chicken OR poultry) AND (pest* OR insect* OR fung* OR weed* )</t>
   </si>
   <si>
@@ -5891,13 +5881,46 @@
   </si>
   <si>
     <t>"postharvest" OR "post harvest" AND loss</t>
+  </si>
+  <si>
+    <t>Detect and attribute</t>
+  </si>
+  <si>
+    <t>detectAttribute</t>
+  </si>
+  <si>
+    <t>"detection and attribution"</t>
+  </si>
+  <si>
+    <t>adaptLimits</t>
+  </si>
+  <si>
+    <t>(food OR agriculture) AND "adapt* limit*"</t>
+  </si>
+  <si>
+    <t>c("hard limit*", "soft limit*")</t>
+  </si>
+  <si>
+    <t>c("adapt*", "adjust*", "alteration", "shift")</t>
+  </si>
+  <si>
+    <t>Aquaculture species</t>
+  </si>
+  <si>
+    <t>aquaSpecies</t>
+  </si>
+  <si>
+    <t>"Arctic char" OR "Barramundi" OR "Giant seaperch" OR "Black seabass" OR "Blue crab" OR "Sea trout" OR "Arctic char" OR "Trout" OR "Common carp" OR "Bighead carp" OR "Channel catfish" OR "Red swamp crawfish" OR "trout" OR  "Tilapia" OR "Sturgeon" OR "Striped bass, hybrid" OR "Grass carp" OR "White amur" OR "Cyprinids" OR "Giant river prawn" OR "American yellow perch"</t>
+  </si>
+  <si>
+    <t>(crop OR plant) AND (pest* OR insect* OR fung* OR weed* OR  locust  OR  "desert locust"  OR  "Schistocerca gregaria")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6594,24 +6617,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:A105"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="15"/>
     <col min="2" max="2" width="37.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="20" style="13" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="53.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="83.33203125" style="7" customWidth="1"/>
     <col min="6" max="9" width="10.83203125" style="13"/>
     <col min="10" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" s="15" t="s">
         <v>81</v>
       </c>
@@ -6628,19 +6651,19 @@
         <v>7</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" ht="32">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -6648,40 +6671,40 @@
         <v>731</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="80">
       <c r="A3" s="15">
-        <f t="shared" ref="A3:A34" si="0">A2+1</f>
+        <f t="shared" ref="A3:A35" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="48">
       <c r="A4" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6690,13 +6713,13 @@
         <v>678</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="64">
       <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6705,13 +6728,13 @@
         <v>678</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32">
       <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6721,25 +6744,25 @@
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>799</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" ht="32">
       <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6752,22 +6775,22 @@
         <v>78</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32">
       <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6783,19 +6806,19 @@
         <v>730</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16">
       <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6805,31 +6828,38 @@
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="47" t="s">
-        <v>830</v>
+        <v>953</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>827</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>777</v>
-      </c>
-      <c r="G9" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>779</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="H9" s="34" t="s">
+        <v>794</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="47" t="s">
         <v>685</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>898</v>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47" t="s">
+        <v>829</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>826</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>776</v>
@@ -6838,31 +6868,28 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+    <row r="11" spans="1:9" ht="16">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50" t="s">
-        <v>771</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>870</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>781</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="B11" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>895</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" s="46">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6872,13 +6899,13 @@
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="50" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>915</v>
+        <v>868</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>78</v>
@@ -6886,7 +6913,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="32">
       <c r="A13" s="46">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6899,10 +6926,10 @@
         <v>772</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>852</v>
+        <v>912</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>78</v>
@@ -6910,25 +6937,31 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+    <row r="14" spans="1:9" ht="16">
+      <c r="A14" s="46">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="49" t="s">
         <v>678</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>844</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="G14" s="13" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="50" t="s">
+        <v>771</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="48">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6937,19 +6970,16 @@
         <v>678</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>879</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>781</v>
+        <v>875</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="80">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6958,19 +6988,19 @@
         <v>678</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="48">
       <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6979,19 +7009,19 @@
         <v>678</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="18" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="64">
       <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6999,39 +7029,36 @@
       <c r="B18" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="96">
       <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>645</v>
+        <v>850</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>879</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>78</v>
@@ -7039,31 +7066,31 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>893</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="G20" s="19" t="s">
+      <c r="B20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="64">
       <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7073,13 +7100,13 @@
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
-        <v>690</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>913</v>
+        <v>87</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>890</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>78</v>
@@ -7087,23 +7114,23 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16">
       <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>703</v>
+        <v>690</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>910</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>78</v>
@@ -7111,28 +7138,31 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16">
       <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>928</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>931</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>798</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="B23" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>703</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="16">
       <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7141,19 +7171,19 @@
         <v>682</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>929</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>930</v>
+        <v>925</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>928</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16">
       <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7162,46 +7192,40 @@
         <v>682</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>932</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>933</v>
+        <v>926</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>927</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16">
       <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>684</v>
+      <c r="B26" s="7" t="s">
+        <v>682</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>663</v>
+        <v>929</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>930</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>789</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16">
       <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7210,52 +7234,52 @@
         <v>684</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>662</v>
+        <v>82</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>663</v>
       </c>
       <c r="F27" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>792</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" ht="16">
       <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>698</v>
+        <v>95</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>662</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16">
       <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7264,25 +7288,25 @@
         <v>691</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>924</v>
+        <v>698</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="32">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7291,25 +7315,25 @@
         <v>691</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>666</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>927</v>
+        <v>69</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>921</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="32">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7318,25 +7342,25 @@
         <v>691</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>903</v>
+        <v>666</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>924</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="32">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7345,52 +7369,52 @@
         <v>691</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>70</v>
+        <v>665</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>729</v>
+        <v>900</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="32">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>805</v>
+        <v>70</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>807</v>
+        <v>729</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7398,92 +7422,98 @@
       <c r="B34" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>904</v>
+      <c r="D34" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>806</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="32">
       <c r="A35" s="15">
-        <f t="shared" ref="A35:A66" si="1">A34+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="32">
+      <c r="A36" s="15">
+        <f t="shared" ref="A36:A67" si="1">A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>737</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>736</v>
+      <c r="E36" s="7" t="s">
+        <v>880</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16">
       <c r="A37" s="15">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>753</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>923</v>
+      <c r="C37" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>736</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>779</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16">
       <c r="A38" s="15">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7492,19 +7522,19 @@
         <v>678</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>694</v>
+        <v>753</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>883</v>
+        <v>920</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="32">
       <c r="A39" s="15">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7513,19 +7543,19 @@
         <v>678</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>73</v>
+        <v>694</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>758</v>
+        <v>881</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="48">
       <c r="A40" s="15">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7534,64 +7564,64 @@
         <v>678</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>871</v>
+        <v>73</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16">
       <c r="A41" s="15">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>738</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>733</v>
+      <c r="D41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>869</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="32">
       <c r="A42" s="15">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>862</v>
+      <c r="C42" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>733</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16">
       <c r="A43" s="15">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7600,19 +7630,19 @@
         <v>678</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>832</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>884</v>
+        <v>90</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="32">
       <c r="A44" s="15">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7621,88 +7651,85 @@
         <v>678</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>853</v>
+        <v>831</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>882</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16">
       <c r="A45" s="15">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>735</v>
+      <c r="D45" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>852</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="48">
       <c r="A46" s="15">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>842</v>
+      <c r="C46" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>735</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>780</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16">
       <c r="A47" s="15">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>740</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>720</v>
+      <c r="D47" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>841</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="48">
       <c r="A48" s="15">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7714,41 +7741,43 @@
         <v>715</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16">
       <c r="A49" s="15">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>872</v>
+      <c r="C49" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>722</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16">
       <c r="A50" s="15">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7756,86 +7785,84 @@
       <c r="B50" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>673</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>885</v>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>870</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="32">
       <c r="A51" s="15">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>829</v>
+        <v>673</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>960</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16">
       <c r="A52" s="15">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="23" t="s">
         <v>678</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>76</v>
+        <v>827</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>76</v>
+        <v>828</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>778</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16">
       <c r="A53" s="15">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>718</v>
+      <c r="D53" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>780</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="48">
       <c r="A54" s="15">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7844,22 +7871,22 @@
         <v>678</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="32">
       <c r="A55" s="15">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7868,22 +7895,22 @@
         <v>678</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>641</v>
+        <v>743</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16">
       <c r="A56" s="15">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7892,22 +7919,22 @@
         <v>678</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>786</v>
+        <v>706</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>774</v>
+        <v>641</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>874</v>
+        <v>726</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="48">
       <c r="A57" s="15">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7916,22 +7943,22 @@
         <v>678</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>712</v>
+        <v>785</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>725</v>
+        <v>872</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16">
       <c r="A58" s="15">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7940,22 +7967,22 @@
         <v>678</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="48">
       <c r="A59" s="15">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7964,22 +7991,22 @@
         <v>678</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16">
       <c r="A60" s="15">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -7988,22 +8015,22 @@
         <v>678</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>708</v>
+        <v>746</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>719</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16">
       <c r="A61" s="15">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -8015,19 +8042,19 @@
         <v>707</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16">
       <c r="A62" s="15">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -8039,19 +8066,19 @@
         <v>707</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>760</v>
+        <v>709</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="96">
       <c r="A63" s="15">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -8060,22 +8087,22 @@
         <v>678</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>717</v>
+        <v>749</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>760</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="32">
       <c r="A64" s="15">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -8084,24 +8111,22 @@
         <v>678</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>727</v>
+        <v>750</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>717</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-    </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="18" customFormat="1" ht="48">
       <c r="A65" s="15">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -8110,50 +8135,52 @@
         <v>678</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>873</v>
+        <v>751</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>727</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="18" customFormat="1" ht="80">
       <c r="A66" s="15">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>74</v>
+      <c r="C66" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>871</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="16">
       <c r="A67" s="15">
-        <f t="shared" ref="A67:A105" si="2">A66+1</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -8161,45 +8188,45 @@
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13" t="s">
-        <v>693</v>
+        <v>74</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>909</v>
+        <v>74</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="16">
       <c r="A68" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A68:A109" si="2">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A69" s="15">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -8209,21 +8236,21 @@
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>699</v>
+        <v>687</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>891</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A70" s="15">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -8233,21 +8260,21 @@
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13" t="s">
-        <v>863</v>
+        <v>1</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>911</v>
+        <v>699</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-    </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A71" s="15">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -8257,21 +8284,21 @@
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>776</v>
+        <v>861</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>908</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>775</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A72" s="15">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -8281,21 +8308,21 @@
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>889</v>
+        <v>68</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>911</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A73" s="15">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -8305,21 +8332,21 @@
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>700</v>
+        <v>886</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A74" s="15">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -8329,69 +8356,69 @@
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>895</v>
+        <v>700</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A75" s="15">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>679</v>
+      <c r="B75" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>728</v>
+        <v>0</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>892</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A76" s="15">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>916</v>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A77" s="15">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -8401,21 +8428,21 @@
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>697</v>
+        <v>913</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>834</v>
+        <v>777</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>833</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A78" s="15">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -8425,21 +8452,21 @@
       </c>
       <c r="C78" s="19"/>
       <c r="D78" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>864</v>
+        <v>689</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>697</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A79" s="15">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -8449,21 +8476,21 @@
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A80" s="15">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -8473,21 +8500,21 @@
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>701</v>
+        <v>863</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A81" s="15">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -8497,21 +8524,21 @@
       </c>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>866</v>
+        <v>701</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A82" s="15">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -8521,45 +8548,45 @@
       </c>
       <c r="C82" s="19"/>
       <c r="D82" s="19" t="s">
-        <v>674</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>886</v>
+        <v>92</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>864</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="32">
       <c r="A83" s="15">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>702</v>
+        <v>674</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>883</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
     </row>
-    <row r="84" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="18" customFormat="1" ht="16">
       <c r="A84" s="15">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -8568,22 +8595,22 @@
         <v>680</v>
       </c>
       <c r="C84" s="19"/>
-      <c r="D84" s="13" t="s">
-        <v>804</v>
+      <c r="D84" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>905</v>
+        <v>702</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
     </row>
-    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="48">
       <c r="A85" s="15">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -8593,21 +8620,21 @@
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="13" t="s">
-        <v>762</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>887</v>
+        <v>803</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>902</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="16">
       <c r="A86" s="15">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -8616,44 +8643,46 @@
         <v>680</v>
       </c>
       <c r="C86" s="19"/>
-      <c r="D86" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>925</v>
+      <c r="D86" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>884</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
     </row>
-    <row r="87" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="16">
       <c r="A87" s="15">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>732</v>
+        <v>661</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>922</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+    </row>
+    <row r="88" spans="1:9" ht="16">
       <c r="A88" s="15">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -8663,87 +8692,87 @@
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>71</v>
+        <v>723</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>704</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>802</v>
+        <v>732</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>777</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="16">
       <c r="A89" s="15">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B89" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="E89" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="F89" s="30" t="s">
-        <v>821</v>
+      <c r="B89" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>801</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>834</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-    </row>
-    <row r="90" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="32">
       <c r="A90" s="15">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B90" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>754</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>802</v>
+      <c r="B90" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30" t="s">
+        <v>818</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>820</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+    </row>
+    <row r="91" spans="1:9" ht="16">
       <c r="A91" s="15">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>705</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>784</v>
+        <v>676</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>801</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="16">
       <c r="A92" s="15">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -8753,19 +8782,19 @@
       </c>
       <c r="C92" s="19"/>
       <c r="D92" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>906</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>784</v>
+        <v>72</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>783</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="48">
       <c r="A93" s="15">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -8773,41 +8802,42 @@
       <c r="B93" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="D93" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>888</v>
-      </c>
-      <c r="F93" s="28" t="s">
-        <v>782</v>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>783</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16">
       <c r="A94" s="15">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>763</v>
-      </c>
-      <c r="E94" s="34" t="s">
-        <v>822</v>
+        <v>761</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>885</v>
       </c>
       <c r="F94" s="28" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="15">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -8815,111 +8845,111 @@
       <c r="B95" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>755</v>
+      <c r="D95" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="E95" s="34" t="s">
+        <v>821</v>
       </c>
       <c r="F95" s="28" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16">
       <c r="A96" s="15">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B96" s="23" t="s">
-        <v>678</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>897</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="B96" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="16">
       <c r="A97" s="15">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>85</v>
+      <c r="B97" s="23" t="s">
+        <v>678</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>919</v>
+        <v>894</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="48">
       <c r="A98" s="15">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>691</v>
+      <c r="B98" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>917</v>
-      </c>
-      <c r="E98" s="52" t="s">
-        <v>926</v>
+        <v>897</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>797</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="32">
       <c r="A99" s="15">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B99" s="19" t="s">
-        <v>683</v>
+      <c r="B99" s="13" t="s">
+        <v>691</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>934</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>935</v>
+        <v>914</v>
+      </c>
+      <c r="E99" s="52" t="s">
+        <v>923</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="48">
       <c r="A100" s="15">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -8928,115 +8958,181 @@
         <v>683</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16">
       <c r="A101" s="15">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>939</v>
+      <c r="B101" s="19" t="s">
+        <v>683</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16">
       <c r="A102" s="15">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16">
       <c r="A103" s="15">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16">
       <c r="A104" s="15">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>948</v>
-      </c>
-      <c r="E104" s="54" t="s">
-        <v>949</v>
+        <v>942</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>943</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="32">
       <c r="A105" s="15">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="E105" s="54" t="s">
+        <v>946</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16">
+      <c r="A106" s="15">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="16">
+      <c r="A107" s="15">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D107" s="13" t="s">
         <v>951</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="F105" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>834</v>
+      <c r="F107" s="13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="64">
+      <c r="A108" s="15">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="15">
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -9045,8 +9141,8 @@
       <sortCondition ref="A1:A98"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I90">
-    <sortCondition ref="I2:I90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I91">
+    <sortCondition ref="I2:I91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9060,11 +9156,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -9077,16 +9173,16 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29" style="35" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="35" t="s">
         <v>112</v>
       </c>
@@ -9094,23 +9190,23 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="35" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="35" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="35" t="s">
         <v>97</v>
       </c>
@@ -9118,47 +9214,47 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="37" t="s">
+        <v>858</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>855</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>854</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>858</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="37" t="s">
         <v>859</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B9" s="35" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
-        <v>860</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="35" t="s">
         <v>99</v>
       </c>
@@ -9166,7 +9262,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="35" t="s">
         <v>100</v>
       </c>
@@ -9174,7 +9270,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="35" t="s">
         <v>101</v>
       </c>
@@ -9182,7 +9278,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="35" t="s">
         <v>102</v>
       </c>
@@ -9190,7 +9286,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="35" t="s">
         <v>643</v>
       </c>
@@ -9198,7 +9294,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="35" t="s">
         <v>103</v>
       </c>
@@ -9206,7 +9302,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="35" t="s">
         <v>105</v>
       </c>
@@ -9214,31 +9310,31 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="35" t="s">
         <v>106</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="35" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="35" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="35" t="s">
         <v>108</v>
       </c>
@@ -9246,7 +9342,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="35" t="s">
         <v>110</v>
       </c>
@@ -9254,7 +9350,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="35" t="s">
         <v>646</v>
       </c>
@@ -9262,7 +9358,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="35" t="s">
         <v>648</v>
       </c>
@@ -9270,7 +9366,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="35" t="s">
         <v>649</v>
       </c>
@@ -9278,7 +9374,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="38" t="s">
         <v>652</v>
       </c>
@@ -9286,7 +9382,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="38" t="s">
         <v>653</v>
       </c>
@@ -9294,7 +9390,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="40" t="s">
         <v>655</v>
       </c>
@@ -9302,7 +9398,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="40" t="s">
         <v>658</v>
       </c>
@@ -9310,7 +9406,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="40" t="s">
         <v>667</v>
       </c>
@@ -9318,7 +9414,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="40" t="s">
         <v>670</v>
       </c>
@@ -9326,7 +9422,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="40" t="s">
         <v>671</v>
       </c>
@@ -9334,92 +9430,92 @@
         <v>675</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="43" t="s">
         <v>677</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="27" customFormat="1">
       <c r="A33" s="44" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B33" s="45" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" s="27" customFormat="1">
       <c r="A34" s="44" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" s="27" customFormat="1">
       <c r="A35" s="44" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="27" customFormat="1">
       <c r="A36" s="44" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B36" s="45" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="27" customFormat="1">
       <c r="A37" s="44" t="s">
+        <v>811</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="27" customFormat="1">
+      <c r="A38" s="44" t="s">
         <v>812</v>
       </c>
-      <c r="B37" s="45" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44" t="s">
+      <c r="B38" s="45" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="27" customFormat="1">
+      <c r="A39" s="44" t="s">
         <v>813</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B39" s="45" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="B39" s="45" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
+      <c r="B40" s="45" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="44" t="s">
         <v>815</v>
       </c>
-      <c r="B40" s="45" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="44" t="s">
+      <c r="B41" s="36" t="s">
         <v>816</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="51" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -9435,12 +9531,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -9448,42 +9544,42 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B5" s="31"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>823</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>825</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>869</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>837</v>
-      </c>
-      <c r="B5" s="31"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>826</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -9499,44 +9595,44 @@
       <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="22">
       <c r="A1" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="11" t="s">
         <v>120</v>
       </c>
@@ -9544,7 +9640,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
         <v>122</v>
       </c>
@@ -9552,7 +9648,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
         <v>124</v>
       </c>
@@ -9560,7 +9656,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="10" t="s">
         <v>126</v>
       </c>
@@ -9568,33 +9664,33 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="10"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="10"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="55" t="s">
         <v>18</v>
       </c>
@@ -9602,25 +9698,25 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="55"/>
       <c r="B19" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="55"/>
       <c r="B20" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="55"/>
       <c r="B21" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="55" t="s">
         <v>20</v>
       </c>
@@ -9628,13 +9724,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="55"/>
       <c r="B23" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="55" t="s">
         <v>138</v>
       </c>
@@ -9642,13 +9738,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="55"/>
       <c r="B25" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="11" t="s">
         <v>134</v>
       </c>
@@ -9656,7 +9752,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
         <v>141</v>
       </c>
@@ -9664,7 +9760,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="11" t="s">
         <v>134</v>
       </c>
@@ -9672,7 +9768,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="11" t="s">
         <v>134</v>
       </c>
@@ -9680,10 +9776,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="10"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="56" t="s">
         <v>141</v>
       </c>
@@ -9691,49 +9787,49 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="56"/>
       <c r="B32" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="18">
       <c r="A34" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="10"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="11" t="s">
         <v>153</v>
       </c>
@@ -9741,7 +9837,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="10" t="s">
         <v>155</v>
       </c>
@@ -9749,22 +9845,22 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B43" s="56"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B44" s="56"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="10"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="11" t="s">
         <v>120</v>
       </c>
@@ -9772,7 +9868,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="10" t="s">
         <v>160</v>
       </c>
@@ -9780,7 +9876,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="10" t="s">
         <v>161</v>
       </c>
@@ -9788,10 +9884,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="55" t="s">
         <v>141</v>
       </c>
@@ -9799,53 +9895,53 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="55"/>
       <c r="B51" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="55"/>
       <c r="B52" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="55"/>
       <c r="B53" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="55"/>
       <c r="B54" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="55"/>
       <c r="B55" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="55"/>
       <c r="B56" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="18">
       <c r="A57" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="55" t="s">
         <v>134</v>
       </c>
@@ -9853,21 +9949,21 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="55"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="55"/>
       <c r="B61" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="11" t="s">
         <v>134</v>
       </c>
@@ -9875,27 +9971,27 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="18">
       <c r="A64" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="11" t="s">
         <v>134</v>
       </c>
@@ -9903,10 +9999,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="10"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="55" t="s">
         <v>141</v>
       </c>
@@ -9914,25 +10010,25 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="55"/>
       <c r="B71" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="55"/>
       <c r="B72" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="55"/>
       <c r="B73" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="11" t="s">
         <v>134</v>
       </c>
@@ -9940,7 +10036,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="11" t="s">
         <v>134</v>
       </c>
@@ -9948,30 +10044,30 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="10"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="11" t="s">
         <v>134</v>
       </c>
@@ -9979,12 +10075,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="11" t="s">
         <v>134</v>
       </c>
@@ -9992,12 +10088,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="11" t="s">
         <v>134</v>
       </c>
@@ -10005,12 +10101,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="11" t="s">
         <v>134</v>
       </c>
@@ -10018,12 +10114,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="11" t="s">
         <v>134</v>
       </c>
@@ -10031,20 +10127,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="10"/>
     </row>
-    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="18">
       <c r="A91" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="11" t="s">
         <v>141</v>
       </c>
@@ -10052,10 +10148,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="10"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="11" t="s">
         <v>202</v>
       </c>
@@ -10063,7 +10159,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="11" t="s">
         <v>204</v>
       </c>
@@ -10071,7 +10167,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="55" t="s">
         <v>206</v>
       </c>
@@ -10079,25 +10175,25 @@
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="55"/>
       <c r="B98" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="55"/>
       <c r="B99" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="55"/>
       <c r="B100" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="11" t="s">
         <v>134</v>
       </c>
@@ -10105,7 +10201,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="11" t="s">
         <v>134</v>
       </c>
@@ -10113,7 +10209,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="11" t="s">
         <v>134</v>
       </c>
@@ -10121,10 +10217,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="10"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="11" t="s">
         <v>141</v>
       </c>
@@ -10132,31 +10228,31 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="10"/>
     </row>
-    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="18">
       <c r="A107" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" s="10"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" s="10"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" s="55" t="s">
         <v>134</v>
       </c>
@@ -10164,16 +10260,16 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="55"/>
       <c r="B113" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="10"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="55" t="s">
         <v>141</v>
       </c>
@@ -10181,36 +10277,36 @@
         <v>218</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="55"/>
       <c r="B116" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="55"/>
       <c r="B117" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="55"/>
       <c r="B118" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="10"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="10"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="11" t="s">
         <v>223</v>
       </c>
@@ -10221,7 +10317,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="55" t="s">
         <v>225</v>
       </c>
@@ -10232,14 +10328,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="55"/>
       <c r="B124" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C124" s="56"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="55" t="s">
         <v>229</v>
       </c>
@@ -10250,14 +10346,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="55"/>
       <c r="B126" s="10" t="s">
         <v>231</v>
       </c>
       <c r="C126" s="56"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="55" t="s">
         <v>233</v>
       </c>
@@ -10268,14 +10364,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="55"/>
       <c r="B128" s="10" t="s">
         <v>235</v>
       </c>
       <c r="C128" s="56"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="55" t="s">
         <v>237</v>
       </c>
@@ -10286,7 +10382,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="55"/>
       <c r="B130" s="10" t="s">
         <v>239</v>
@@ -10295,7 +10391,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="55"/>
       <c r="B131" s="10" t="s">
         <v>240</v>
@@ -10304,7 +10400,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="55"/>
       <c r="B132" s="10" t="s">
         <v>241</v>
@@ -10313,7 +10409,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="55"/>
       <c r="B133" s="10" t="s">
         <v>242</v>
@@ -10322,7 +10418,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="55"/>
       <c r="B134" s="10" t="s">
         <v>243</v>
@@ -10331,17 +10427,17 @@
         <v>250</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="55"/>
       <c r="B135" s="10"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="55"/>
       <c r="B136" s="10" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="55" t="s">
         <v>251</v>
       </c>
@@ -10352,7 +10448,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="55"/>
       <c r="B138" s="10" t="s">
         <v>253</v>
@@ -10361,7 +10457,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="55" t="s">
         <v>256</v>
       </c>
@@ -10372,7 +10468,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="55"/>
       <c r="B140" s="10" t="s">
         <v>258</v>
@@ -10381,7 +10477,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="55" t="s">
         <v>261</v>
       </c>
@@ -10392,7 +10488,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="55"/>
       <c r="B142" s="10" t="s">
         <v>263</v>
@@ -10401,7 +10497,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="55" t="s">
         <v>266</v>
       </c>
@@ -10412,7 +10508,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="55"/>
       <c r="B144" s="10" t="s">
         <v>268</v>
@@ -10421,13 +10517,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="55"/>
       <c r="C145" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="55" t="s">
         <v>272</v>
       </c>
@@ -10438,14 +10534,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="55"/>
       <c r="B147" s="10" t="s">
         <v>274</v>
       </c>
       <c r="C147" s="56"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="55" t="s">
         <v>276</v>
       </c>
@@ -10456,7 +10552,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="55"/>
       <c r="B149" s="10" t="s">
         <v>278</v>
@@ -10465,14 +10561,14 @@
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="55"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="55"/>
       <c r="B151" s="10" t="s">
         <v>279</v>
@@ -10481,14 +10577,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="55"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="55"/>
       <c r="B153" s="10" t="s">
         <v>280</v>
@@ -10497,7 +10593,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="55"/>
       <c r="B154" s="10" t="s">
         <v>281</v>
@@ -10506,7 +10602,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="55"/>
       <c r="B155" s="10" t="s">
         <v>282</v>
@@ -10515,7 +10611,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="55"/>
       <c r="B156" s="10" t="s">
         <v>283</v>
@@ -10524,29 +10620,29 @@
         <v>294</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="55"/>
       <c r="B157" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="55"/>
       <c r="B158" s="10"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="55"/>
       <c r="B159" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="55"/>
       <c r="B160" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="55" t="s">
         <v>295</v>
       </c>
@@ -10557,7 +10653,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="55"/>
       <c r="B162" s="10" t="s">
         <v>297</v>
@@ -10566,7 +10662,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="55"/>
       <c r="B163" s="10" t="s">
         <v>280</v>
@@ -10575,13 +10671,13 @@
         <v>300</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="55"/>
       <c r="B164" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="55" t="s">
         <v>301</v>
       </c>
@@ -10592,35 +10688,35 @@
         <v>303</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="55"/>
       <c r="B166" s="56"/>
       <c r="C166" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="55"/>
       <c r="B167" s="56"/>
       <c r="C167" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="55"/>
       <c r="B168" s="56"/>
       <c r="C168" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="55"/>
       <c r="B169" s="56"/>
       <c r="C169" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="11" t="s">
         <v>308</v>
       </c>
@@ -10631,7 +10727,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="55" t="s">
         <v>311</v>
       </c>
@@ -10642,14 +10738,14 @@
         <v>314</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="55"/>
       <c r="B172" s="10" t="s">
         <v>313</v>
       </c>
       <c r="C172" s="56"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="11" t="s">
         <v>315</v>
       </c>
@@ -10660,7 +10756,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="55" t="s">
         <v>318</v>
       </c>
@@ -10671,14 +10767,14 @@
         <v>321</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" s="55"/>
       <c r="B175" s="10" t="s">
         <v>320</v>
       </c>
       <c r="C175" s="56"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="55" t="s">
         <v>322</v>
       </c>
@@ -10689,14 +10785,14 @@
         <v>325</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="55"/>
       <c r="B177" s="10" t="s">
         <v>324</v>
       </c>
       <c r="C177" s="56"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="11" t="s">
         <v>326</v>
       </c>
@@ -10707,7 +10803,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="11" t="s">
         <v>329</v>
       </c>
@@ -10718,7 +10814,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="55" t="s">
         <v>332</v>
       </c>
@@ -10729,7 +10825,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="55"/>
       <c r="B181" s="10" t="s">
         <v>334</v>
@@ -10738,7 +10834,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="18">
       <c r="A182" s="55" t="s">
         <v>337</v>
       </c>
@@ -10749,14 +10845,14 @@
         <v>339</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="55"/>
       <c r="B183" s="56"/>
       <c r="C183" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="55" t="s">
         <v>341</v>
       </c>
@@ -10767,14 +10863,14 @@
         <v>343</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="55"/>
       <c r="B185" s="56"/>
       <c r="C185" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="55" t="s">
         <v>344</v>
       </c>
@@ -10785,21 +10881,21 @@
         <v>346</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="55"/>
       <c r="B187" s="56"/>
       <c r="C187" s="10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="55"/>
       <c r="B188" s="56"/>
       <c r="C188" s="10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="55" t="s">
         <v>349</v>
       </c>
@@ -10810,14 +10906,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="55"/>
       <c r="B190" s="10" t="s">
         <v>351</v>
       </c>
       <c r="C190" s="56"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="55" t="s">
         <v>353</v>
       </c>
@@ -10828,14 +10924,14 @@
         <v>356</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="55"/>
       <c r="B192" s="10" t="s">
         <v>355</v>
       </c>
       <c r="C192" s="56"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="11" t="s">
         <v>357</v>
       </c>
@@ -10846,7 +10942,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="55" t="s">
         <v>360</v>
       </c>
@@ -10857,14 +10953,14 @@
         <v>363</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="55"/>
       <c r="B195" s="10" t="s">
         <v>362</v>
       </c>
       <c r="C195" s="56"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="11" t="s">
         <v>364</v>
       </c>
@@ -10875,7 +10971,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="55" t="s">
         <v>367</v>
       </c>
@@ -10886,14 +10982,14 @@
         <v>370</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="55"/>
       <c r="B198" s="10" t="s">
         <v>369</v>
       </c>
       <c r="C198" s="56"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="55" t="s">
         <v>371</v>
       </c>
@@ -10904,21 +11000,21 @@
         <v>375</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="55"/>
       <c r="B200" s="12" t="s">
         <v>373</v>
       </c>
       <c r="C200" s="56"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="55"/>
       <c r="B201" s="10" t="s">
         <v>374</v>
       </c>
       <c r="C201" s="56"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="55" t="s">
         <v>376</v>
       </c>
@@ -10929,14 +11025,14 @@
         <v>379</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="55"/>
       <c r="B203" s="10" t="s">
         <v>378</v>
       </c>
       <c r="C203" s="56"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="11" t="s">
         <v>380</v>
       </c>
@@ -10947,7 +11043,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="11" t="s">
         <v>383</v>
       </c>
@@ -10958,7 +11054,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" s="11" t="s">
         <v>386</v>
       </c>
@@ -10969,7 +11065,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" s="55" t="s">
         <v>389</v>
       </c>
@@ -10980,14 +11076,14 @@
         <v>392</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" s="55"/>
       <c r="B208" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C208" s="56"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" s="55" t="s">
         <v>393</v>
       </c>
@@ -10998,14 +11094,14 @@
         <v>396</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" s="55"/>
       <c r="B210" s="10" t="s">
         <v>395</v>
       </c>
       <c r="C210" s="56"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" s="55" t="s">
         <v>397</v>
       </c>
@@ -11016,7 +11112,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" s="55"/>
       <c r="B212" s="10" t="s">
         <v>399</v>
@@ -11025,7 +11121,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" s="55" t="s">
         <v>402</v>
       </c>
@@ -11036,14 +11132,14 @@
         <v>405</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" s="55"/>
       <c r="B214" s="10" t="s">
         <v>404</v>
       </c>
       <c r="C214" s="56"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" s="55" t="s">
         <v>406</v>
       </c>
@@ -11054,14 +11150,14 @@
         <v>409</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" s="55"/>
       <c r="B216" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C216" s="56"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" s="55" t="s">
         <v>410</v>
       </c>
@@ -11072,14 +11168,14 @@
         <v>413</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" s="55"/>
       <c r="B218" s="10" t="s">
         <v>412</v>
       </c>
       <c r="C218" s="56"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" s="55" t="s">
         <v>414</v>
       </c>
@@ -11090,14 +11186,14 @@
         <v>417</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" s="55"/>
       <c r="B220" s="10" t="s">
         <v>416</v>
       </c>
       <c r="C220" s="56"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" s="11" t="s">
         <v>418</v>
       </c>
@@ -11108,7 +11204,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" s="55" t="s">
         <v>421</v>
       </c>
@@ -11119,14 +11215,14 @@
         <v>423</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" s="55"/>
       <c r="B223" s="56"/>
       <c r="C223" s="10" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" s="55" t="s">
         <v>425</v>
       </c>
@@ -11137,21 +11233,21 @@
         <v>427</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" s="55"/>
       <c r="B225" s="56"/>
       <c r="C225" s="10" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" s="55"/>
       <c r="B226" s="56"/>
       <c r="C226" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" s="55" t="s">
         <v>430</v>
       </c>
@@ -11162,21 +11258,21 @@
         <v>432</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" s="55"/>
       <c r="B228" s="56"/>
       <c r="C228" s="10" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" s="55"/>
       <c r="B229" s="56"/>
       <c r="C229" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" s="55" t="s">
         <v>433</v>
       </c>
@@ -11187,7 +11283,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" s="55"/>
       <c r="B231" s="10" t="s">
         <v>435</v>
@@ -11196,25 +11292,25 @@
         <v>437</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" s="55"/>
       <c r="C232" s="10" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" s="55"/>
       <c r="C233" s="10" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" s="55"/>
       <c r="C234" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" s="55" t="s">
         <v>439</v>
       </c>
@@ -11225,14 +11321,14 @@
         <v>442</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" s="55"/>
       <c r="B236" s="10" t="s">
         <v>441</v>
       </c>
       <c r="C236" s="56"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" s="55" t="s">
         <v>443</v>
       </c>
@@ -11243,14 +11339,14 @@
         <v>446</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" s="55"/>
       <c r="B238" s="10" t="s">
         <v>445</v>
       </c>
       <c r="C238" s="56"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" s="55" t="s">
         <v>447</v>
       </c>
@@ -11261,7 +11357,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" s="55"/>
       <c r="B240" s="10" t="s">
         <v>449</v>
@@ -11270,13 +11366,13 @@
         <v>451</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" s="55"/>
       <c r="C241" s="10" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" s="55" t="s">
         <v>453</v>
       </c>
@@ -11287,7 +11383,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" s="55"/>
       <c r="B243" s="10" t="s">
         <v>455</v>
@@ -11296,7 +11392,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" s="55"/>
       <c r="B244" s="10" t="s">
         <v>456</v>
@@ -11305,7 +11401,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" s="55"/>
       <c r="B245" s="10" t="s">
         <v>457</v>
@@ -11314,31 +11410,31 @@
         <v>465</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" s="55"/>
       <c r="B246" s="10" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" s="55"/>
       <c r="B247" s="10" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" s="55"/>
       <c r="B248" s="10" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" s="55"/>
       <c r="B249" s="10" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" s="55" t="s">
         <v>466</v>
       </c>
@@ -11349,28 +11445,28 @@
         <v>471</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251" s="55"/>
       <c r="B251" s="10" t="s">
         <v>468</v>
       </c>
       <c r="C251" s="56"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252" s="55"/>
       <c r="B252" s="10" t="s">
         <v>469</v>
       </c>
       <c r="C252" s="56"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253" s="55"/>
       <c r="B253" s="10" t="s">
         <v>470</v>
       </c>
       <c r="C253" s="56"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254" s="11" t="s">
         <v>472</v>
       </c>
@@ -11381,7 +11477,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255" s="11" t="s">
         <v>475</v>
       </c>
@@ -11392,7 +11488,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256" s="55" t="s">
         <v>478</v>
       </c>
@@ -11403,14 +11499,14 @@
         <v>481</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257" s="55"/>
       <c r="B257" s="10" t="s">
         <v>480</v>
       </c>
       <c r="C257" s="56"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258" s="55" t="s">
         <v>482</v>
       </c>
@@ -11421,7 +11517,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259" s="55"/>
       <c r="B259" s="10" t="s">
         <v>268</v>
@@ -11430,13 +11526,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" s="55"/>
       <c r="C260" s="10" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" s="55" t="s">
         <v>485</v>
       </c>
@@ -11447,21 +11543,21 @@
         <v>487</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" s="55"/>
       <c r="B262" s="56"/>
       <c r="C262" s="10" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263" s="55"/>
       <c r="B263" s="56"/>
       <c r="C263" s="10" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264" s="55" t="s">
         <v>490</v>
       </c>
@@ -11472,21 +11568,21 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265" s="55"/>
       <c r="B265" s="56"/>
       <c r="C265" s="10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266" s="55"/>
       <c r="B266" s="56"/>
       <c r="C266" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267" s="55" t="s">
         <v>495</v>
       </c>
@@ -11497,14 +11593,14 @@
         <v>498</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268" s="55"/>
       <c r="B268" s="10" t="s">
         <v>497</v>
       </c>
       <c r="C268" s="56"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269" s="55" t="s">
         <v>499</v>
       </c>
@@ -11515,14 +11611,14 @@
         <v>502</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270" s="55"/>
       <c r="B270" s="10" t="s">
         <v>501</v>
       </c>
       <c r="C270" s="56"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271" s="55" t="s">
         <v>503</v>
       </c>
@@ -11533,7 +11629,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272" s="55"/>
       <c r="B272" s="10" t="s">
         <v>505</v>
@@ -11542,19 +11638,19 @@
         <v>507</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273" s="55"/>
       <c r="C273" s="10" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274" s="55"/>
       <c r="C274" s="10" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275" s="55" t="s">
         <v>510</v>
       </c>
@@ -11565,14 +11661,14 @@
         <v>512</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276" s="55"/>
       <c r="B276" s="10" t="s">
         <v>351</v>
       </c>
       <c r="C276" s="56"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277" s="55" t="s">
         <v>513</v>
       </c>
@@ -11583,14 +11679,14 @@
         <v>515</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278" s="55"/>
       <c r="B278" s="10" t="s">
         <v>351</v>
       </c>
       <c r="C278" s="56"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279" s="55" t="s">
         <v>516</v>
       </c>
@@ -11601,14 +11697,14 @@
         <v>519</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280" s="55"/>
       <c r="B280" s="10" t="s">
         <v>518</v>
       </c>
       <c r="C280" s="56"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281" s="11" t="s">
         <v>520</v>
       </c>
@@ -11619,7 +11715,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282" s="11" t="s">
         <v>523</v>
       </c>
@@ -11630,7 +11726,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283" s="11" t="s">
         <v>526</v>
       </c>
@@ -11641,7 +11737,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284" s="55" t="s">
         <v>529</v>
       </c>
@@ -11652,14 +11748,14 @@
         <v>531</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285" s="55"/>
       <c r="B285" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C285" s="56"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286" s="11" t="s">
         <v>532</v>
       </c>
@@ -11670,7 +11766,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287" s="55" t="s">
         <v>141</v>
       </c>
@@ -11678,13 +11774,13 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288" s="55"/>
       <c r="B288" s="10" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2">
       <c r="A289" s="55" t="s">
         <v>141</v>
       </c>
@@ -11692,13 +11788,13 @@
         <v>537</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2">
       <c r="A290" s="55"/>
       <c r="B290" s="10" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2">
       <c r="A291" s="11" t="s">
         <v>141</v>
       </c>
@@ -11706,7 +11802,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2">
       <c r="A292" s="11" t="s">
         <v>141</v>
       </c>
@@ -11714,7 +11810,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2">
       <c r="A293" s="11" t="s">
         <v>540</v>
       </c>
@@ -11722,7 +11818,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2">
       <c r="A294" s="11" t="s">
         <v>542</v>
       </c>
@@ -11730,7 +11826,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2">
       <c r="A295" s="10" t="s">
         <v>544</v>
       </c>
@@ -11738,7 +11834,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2">
       <c r="A296" s="11" t="s">
         <v>546</v>
       </c>
@@ -11746,7 +11842,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2">
       <c r="A297" s="11" t="s">
         <v>548</v>
       </c>
@@ -11754,7 +11850,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2">
       <c r="A298" s="11" t="s">
         <v>550</v>
       </c>
@@ -11762,7 +11858,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2">
       <c r="A299" s="11" t="s">
         <v>552</v>
       </c>
@@ -11770,7 +11866,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2">
       <c r="A300" s="11" t="s">
         <v>554</v>
       </c>
@@ -11778,7 +11874,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2">
       <c r="A301" s="11" t="s">
         <v>556</v>
       </c>
@@ -11786,7 +11882,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2">
       <c r="A302" s="11" t="s">
         <v>558</v>
       </c>
@@ -11794,7 +11890,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2">
       <c r="A303" s="11" t="s">
         <v>560</v>
       </c>
@@ -11802,7 +11898,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2">
       <c r="A304" s="11" t="s">
         <v>562</v>
       </c>
@@ -11810,7 +11906,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2">
       <c r="A305" s="11" t="s">
         <v>563</v>
       </c>
@@ -11818,7 +11914,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2">
       <c r="A306" s="11" t="s">
         <v>565</v>
       </c>
@@ -11826,7 +11922,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2">
       <c r="A307" s="11" t="s">
         <v>567</v>
       </c>
@@ -11834,7 +11930,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2">
       <c r="A308" s="55" t="s">
         <v>141</v>
       </c>
@@ -11842,31 +11938,31 @@
         <v>569</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2">
       <c r="A309" s="55"/>
       <c r="B309" s="10" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2">
       <c r="A310" s="55"/>
       <c r="B310" s="10" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2">
       <c r="A311" s="55"/>
       <c r="B311" s="10" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2">
       <c r="A312" s="55"/>
       <c r="B312" s="10" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2">
       <c r="A313" s="11" t="s">
         <v>141</v>
       </c>
@@ -11874,7 +11970,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2">
       <c r="A314" s="11" t="s">
         <v>141</v>
       </c>
@@ -11882,7 +11978,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2">
       <c r="A315" s="11" t="s">
         <v>576</v>
       </c>
@@ -11890,7 +11986,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2">
       <c r="A316" s="11" t="s">
         <v>578</v>
       </c>
@@ -11898,7 +11994,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2">
       <c r="A317" s="11" t="s">
         <v>579</v>
       </c>
@@ -11906,7 +12002,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2">
       <c r="A318" s="11" t="s">
         <v>581</v>
       </c>
@@ -11914,7 +12010,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2">
       <c r="A319" s="11" t="s">
         <v>583</v>
       </c>
@@ -11922,7 +12018,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2">
       <c r="A320" s="11" t="s">
         <v>585</v>
       </c>
@@ -11930,7 +12026,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2">
       <c r="A321" s="11" t="s">
         <v>587</v>
       </c>
@@ -11938,7 +12034,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2">
       <c r="A322" s="11" t="s">
         <v>589</v>
       </c>
@@ -11946,7 +12042,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2">
       <c r="A323" s="11" t="s">
         <v>591</v>
       </c>
@@ -11954,7 +12050,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2">
       <c r="A324" s="11" t="s">
         <v>593</v>
       </c>
@@ -11962,7 +12058,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2">
       <c r="A325" s="11" t="s">
         <v>595</v>
       </c>
@@ -11970,7 +12066,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2">
       <c r="A326" s="11" t="s">
         <v>322</v>
       </c>
@@ -11978,7 +12074,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2">
       <c r="A327" s="11" t="s">
         <v>598</v>
       </c>
@@ -11986,7 +12082,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2">
       <c r="A328" s="11" t="s">
         <v>600</v>
       </c>
@@ -11994,7 +12090,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2">
       <c r="A329" s="11" t="s">
         <v>602</v>
       </c>
@@ -12002,7 +12098,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2">
       <c r="A330" s="11" t="s">
         <v>604</v>
       </c>
@@ -12010,7 +12106,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2">
       <c r="A331" s="11" t="s">
         <v>606</v>
       </c>
@@ -12018,7 +12114,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2">
       <c r="A332" s="11" t="s">
         <v>608</v>
       </c>
@@ -12026,7 +12122,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2">
       <c r="A333" s="11" t="s">
         <v>610</v>
       </c>
@@ -12034,7 +12130,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2">
       <c r="A334" s="11" t="s">
         <v>612</v>
       </c>
@@ -12042,7 +12138,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2">
       <c r="A335" s="11" t="s">
         <v>614</v>
       </c>
@@ -12050,7 +12146,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2">
       <c r="A336" s="11" t="s">
         <v>616</v>
       </c>
@@ -12058,7 +12154,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2">
       <c r="A337" s="11" t="s">
         <v>618</v>
       </c>
@@ -12066,7 +12162,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2">
       <c r="A338" s="11" t="s">
         <v>620</v>
       </c>
@@ -12074,7 +12170,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2">
       <c r="A339" s="11" t="s">
         <v>622</v>
       </c>
@@ -12082,7 +12178,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2">
       <c r="A340" s="11" t="s">
         <v>624</v>
       </c>
@@ -12090,7 +12186,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2">
       <c r="A341" s="11" t="s">
         <v>626</v>
       </c>
@@ -12098,7 +12194,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2">
       <c r="A342" s="11" t="s">
         <v>628</v>
       </c>
@@ -12106,7 +12202,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2">
       <c r="A343" s="11" t="s">
         <v>630</v>
       </c>
@@ -12114,7 +12210,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2">
       <c r="A344" s="11" t="s">
         <v>632</v>
       </c>
@@ -12122,7 +12218,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2">
       <c r="A345" s="11" t="s">
         <v>634</v>
       </c>
@@ -12130,7 +12226,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2">
       <c r="A346" s="11" t="s">
         <v>636</v>
       </c>
@@ -12138,7 +12234,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2">
       <c r="A347" s="11" t="s">
         <v>638</v>
       </c>
@@ -12146,7 +12242,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2">
       <c r="A348" s="10" t="s">
         <v>141</v>
       </c>
@@ -12154,10 +12250,10 @@
         <v>640</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2">
       <c r="A349" s="10"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2">
       <c r="A350" s="10"/>
     </row>
   </sheetData>
@@ -12279,339 +12375,339 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="26">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="23">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="23">
       <c r="A48" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="23">
       <c r="A95" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="23">
       <c r="A115" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1">
       <c r="A119" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1">
       <c r="A121" s="3" t="s">
         <v>67</v>
       </c>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31727675-D6EA-A641-B3BF-DE52586DC8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92446A09-B61E-9E41-92A7-79F79FCC2132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38680" yWindow="10980" windowWidth="37300" windowHeight="29060" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="29900" yWindow="8560" windowWidth="37300" windowHeight="29060" activeTab="3" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="baseQueries" sheetId="1" r:id="rId1"/>
@@ -5183,9 +5183,6 @@
     <t>Potato* OR "Solanum tuberosum" OR sweetpotato* OR "sweet potat*" OR "Ipomoea batatas" OR cassava OR "Manihot esculenta" OR turnip* OR carrot* OR beetroot OR radish* OR yam* OR Dioscorea OR taro* OR cocoyam* OR yautia OR onion* OR garlic OR ginger</t>
   </si>
   <si>
-    <t xml:space="preserve">"sugar cane" OR sugarcane OR "Saccharum officinarum" OR "sugar beet" OR Beta vulgaris </t>
-  </si>
-  <si>
     <t>"oil crop*" OR rapeseed OR "rape seed" OR canola OR "Brassica napus" OR sunflower OR "sun flower" OR "Helianthus annuus" OR sesame OR "Sesamum indicum" OR "chinese tallow" OR "Triadica sebifera" OR safflower OR linseed OR "castor oil" OR "poppy oil" OR "poppyseed oil"</t>
   </si>
   <si>
@@ -5205,9 +5202,6 @@
   </si>
   <si>
     <t>barley OR oats OR triticale OR sorghum* OR millet* OR rye* OR buckwheat* OR fonio* OR teff OR Quinoa</t>
-  </si>
-  <si>
-    <t>almond* OR cashew* OR hazel* OR walnut* OR pistachio* OR macadamia* OR chestnut* OR Areca OR "Karite nut*" OR sheanut* OR "Vitellaria paradoxa" OR kola* OR "brazil nut" OR "Bertholletia excelsa" OR "pine nut"</t>
   </si>
   <si>
     <t>pig OR hog OR swine OR poultry OR chicken OR broilers OR ruminant OR sheep OR goat OR cattle OR buffalo OR beef OR pork OR lamb OR mutton</t>
@@ -5502,9 +5496,6 @@
     <t>searchStrings.climateChangeSource</t>
   </si>
   <si>
-    <t>"heat stress" OR "yield decline" OR "yield variability" OR "nutrition* quality"</t>
-  </si>
-  <si>
     <t>searchStrings.climateImpacts</t>
   </si>
   <si>
@@ -5559,9 +5550,6 @@
     <t>maize OR corn</t>
   </si>
   <si>
-    <t>"greenhouse gas" OR "global warming" OR "climate change" OR "climate variability" OR "climate warming"</t>
-  </si>
-  <si>
     <t>geneticEngCropMain</t>
   </si>
   <si>
@@ -5628,12 +5616,6 @@
     <t>(livestock OR ruminant OR cattle OR beef OR goat OR sheep OR pig OR shoat OR swine OR pork OR chicken OR poultry) AND (pasture OR grass* OR rangeland OR feed OR forag* OR hay OR silage)</t>
   </si>
   <si>
-    <t>c("greenhouse gas", "global warming", "climate change", "climate variability", "climate warming")</t>
-  </si>
-  <si>
-    <t>"climate hazard" OR "extreme weather" OR "heat wave" OR "precipitation variability" OR "rainfall variability" OR "temperature  variability" OR "sea level rise" OR drought OR "intense rainfall" OR flood*</t>
-  </si>
-  <si>
     <t>searchStrings.mitigation</t>
   </si>
   <si>
@@ -5914,6 +5896,24 @@
   </si>
   <si>
     <t>(crop OR plant) AND (pest* OR insect* OR fung* OR weed* OR  locust  OR  "desert locust"  OR  "Schistocerca gregaria")</t>
+  </si>
+  <si>
+    <t>"sugar cane" OR sugarcane OR "Saccharum officinarum" OR "sugar beet" OR "Beta vulgaris"</t>
+  </si>
+  <si>
+    <t>almond* OR cashew* OR hazel* OR walnut* OR pistachio* OR macadamia* OR chestnut* OR Areca OR "Karite nut*" OR sheanut* OR "Vitellaria paradoxa" OR "kola nut" OR "kola nuts" OR "kola tree" OR "kola trees" OR "brazil nut" OR "Bertholletia excelsa" OR "pine nut"</t>
+  </si>
+  <si>
+    <t>{greenhouse gas} OR {global warming} OR {climate change} OR {climatic change} OR {climate variability} OR {climate warming}</t>
+  </si>
+  <si>
+    <t>c("greenhouse gas", "global warming", "climate change", "climatic change", "climate variability", "climate warming")</t>
+  </si>
+  <si>
+    <t>{climate hazard} OR {extreme weather} OR {heat wave} OR {precipitation variability} OR {rainfall variability} OR {temperature  variability} OR {sea level rise} OR drought OR {intense rainfall} OR flood*</t>
+  </si>
+  <si>
+    <t>{heat stress} OR {yield decline} OR {yield variability} OR {nutritional quality}</t>
   </si>
 </sst>
 </file>
@@ -6619,8 +6619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6651,16 +6651,16 @@
         <v>7</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32">
@@ -6668,25 +6668,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="80">
@@ -6698,10 +6698,10 @@
         <v>678</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48">
@@ -6713,10 +6713,10 @@
         <v>678</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="64">
@@ -6728,10 +6728,10 @@
         <v>678</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32">
@@ -6744,22 +6744,22 @@
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="47" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32">
@@ -6775,19 +6775,19 @@
         <v>78</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32">
@@ -6803,19 +6803,19 @@
         <v>79</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16">
@@ -6828,22 +6828,22 @@
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="47" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>78</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16">
@@ -6856,13 +6856,13 @@
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>78</v>
@@ -6880,10 +6880,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>78</v>
@@ -6899,13 +6899,13 @@
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="50" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>78</v>
@@ -6923,13 +6923,13 @@
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>78</v>
@@ -6947,13 +6947,13 @@
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>78</v>
@@ -6970,10 +6970,10 @@
         <v>678</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>78</v>
@@ -6988,13 +6988,13 @@
         <v>678</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>78</v>
@@ -7009,13 +7009,13 @@
         <v>678</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>78</v>
@@ -7030,13 +7030,13 @@
         <v>678</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>78</v>
@@ -7052,13 +7052,13 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>78</v>
@@ -7082,7 +7082,7 @@
         <v>645</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>78</v>
@@ -7103,10 +7103,10 @@
         <v>87</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>78</v>
@@ -7127,10 +7127,10 @@
         <v>690</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>78</v>
@@ -7154,7 +7154,7 @@
         <v>703</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>78</v>
@@ -7171,13 +7171,13 @@
         <v>682</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>78</v>
@@ -7192,13 +7192,13 @@
         <v>682</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>78</v>
@@ -7213,13 +7213,13 @@
         <v>682</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>78</v>
@@ -7240,16 +7240,16 @@
         <v>663</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16">
@@ -7267,16 +7267,16 @@
         <v>662</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16">
@@ -7294,16 +7294,16 @@
         <v>698</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="32">
@@ -7318,19 +7318,19 @@
         <v>69</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="32">
@@ -7345,19 +7345,19 @@
         <v>666</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="32">
@@ -7372,19 +7372,19 @@
         <v>665</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="32">
@@ -7399,19 +7399,19 @@
         <v>70</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16">
@@ -7423,22 +7423,22 @@
         <v>696</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>806</v>
-      </c>
       <c r="F34" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="32">
@@ -7453,19 +7453,19 @@
         <v>664</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="32">
@@ -7480,13 +7480,13 @@
         <v>77</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16">
@@ -7501,16 +7501,16 @@
         <v>715</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16">
@@ -7522,16 +7522,16 @@
         <v>678</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="32">
@@ -7546,13 +7546,13 @@
         <v>694</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="48">
@@ -7567,13 +7567,13 @@
         <v>73</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16">
@@ -7588,13 +7588,13 @@
         <v>4</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="32">
@@ -7609,16 +7609,16 @@
         <v>716</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16">
@@ -7633,13 +7633,13 @@
         <v>90</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="32">
@@ -7651,16 +7651,16 @@
         <v>678</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16">
@@ -7675,13 +7675,13 @@
         <v>88</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="48">
@@ -7696,16 +7696,16 @@
         <v>712</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16">
@@ -7720,13 +7720,13 @@
         <v>75</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="48">
@@ -7741,16 +7741,16 @@
         <v>715</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16">
@@ -7765,16 +7765,16 @@
         <v>715</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16">
@@ -7787,16 +7787,16 @@
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="32">
@@ -7811,13 +7811,13 @@
         <v>673</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16">
@@ -7829,16 +7829,16 @@
         <v>678</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16">
@@ -7856,10 +7856,10 @@
         <v>76</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48">
@@ -7874,16 +7874,16 @@
         <v>713</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>718</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="32">
@@ -7898,16 +7898,16 @@
         <v>711</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16">
@@ -7925,13 +7925,13 @@
         <v>641</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="48">
@@ -7943,19 +7943,19 @@
         <v>678</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16">
@@ -7970,16 +7970,16 @@
         <v>712</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="48">
@@ -7994,16 +7994,16 @@
         <v>715</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16">
@@ -8018,16 +8018,16 @@
         <v>714</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>719</v>
+        <v>955</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16">
@@ -8042,16 +8042,16 @@
         <v>707</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>708</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16">
@@ -8066,16 +8066,16 @@
         <v>707</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E62" s="22" t="s">
         <v>709</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="96">
@@ -8090,16 +8090,16 @@
         <v>707</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="32">
@@ -8114,16 +8114,16 @@
         <v>710</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>717</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="18" customFormat="1" ht="48">
@@ -8138,16 +8138,16 @@
         <v>707</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>727</v>
+        <v>956</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
@@ -8164,16 +8164,16 @@
         <v>711</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
@@ -8194,10 +8194,10 @@
         <v>74</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
@@ -8215,13 +8215,13 @@
         <v>693</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
@@ -8239,13 +8239,13 @@
         <v>687</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
@@ -8266,10 +8266,10 @@
         <v>699</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
@@ -8284,16 +8284,16 @@
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -8311,13 +8311,13 @@
         <v>68</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -8335,13 +8335,13 @@
         <v>5</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -8362,10 +8362,10 @@
         <v>700</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -8383,13 +8383,13 @@
         <v>0</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -8407,13 +8407,13 @@
         <v>686</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -8431,13 +8431,13 @@
         <v>688</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -8458,10 +8458,10 @@
         <v>697</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -8479,13 +8479,13 @@
         <v>89</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -8503,13 +8503,13 @@
         <v>93</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -8530,10 +8530,10 @@
         <v>701</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -8551,13 +8551,13 @@
         <v>92</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -8575,13 +8575,13 @@
         <v>674</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -8602,10 +8602,10 @@
         <v>702</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -8620,16 +8620,16 @@
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -8644,16 +8644,16 @@
       </c>
       <c r="C86" s="19"/>
       <c r="D86" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -8671,13 +8671,13 @@
         <v>661</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -8692,16 +8692,16 @@
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16">
@@ -8720,10 +8720,10 @@
         <v>704</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="32">
@@ -8732,20 +8732,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C90" s="30"/>
       <c r="D90" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="F90" s="30" t="s">
         <v>818</v>
       </c>
-      <c r="E90" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="F90" s="30" t="s">
-        <v>820</v>
-      </c>
       <c r="G90" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -8763,13 +8763,13 @@
         <v>676</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16">
@@ -8788,10 +8788,10 @@
         <v>705</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="48">
@@ -8807,13 +8807,13 @@
         <v>86</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16">
@@ -8825,16 +8825,16 @@
         <v>683</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="F94" s="28" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -8846,16 +8846,16 @@
         <v>682</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F95" s="28" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16">
@@ -8871,13 +8871,13 @@
         <v>669</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F96" s="28" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16">
@@ -8889,16 +8889,16 @@
         <v>678</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="48">
@@ -8910,16 +8910,16 @@
         <v>85</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="32">
@@ -8931,22 +8931,22 @@
         <v>691</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="48">
@@ -8958,16 +8958,16 @@
         <v>683</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16">
@@ -8979,16 +8979,16 @@
         <v>683</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16">
@@ -8997,19 +8997,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16">
@@ -9018,19 +9018,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16">
@@ -9039,16 +9039,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="32">
@@ -9057,16 +9057,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E105" s="54" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16">
@@ -9075,19 +9075,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16">
@@ -9096,16 +9096,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="64">
@@ -9114,19 +9114,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -9160,7 +9160,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -9173,7 +9173,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9195,7 +9195,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9203,7 +9203,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9216,42 +9216,42 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="35" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>865</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="35" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="35" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="37" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="37" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9307,7 +9307,7 @@
         <v>105</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9315,15 +9315,15 @@
         <v>106</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="35" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9331,7 +9331,7 @@
         <v>107</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9347,7 +9347,7 @@
         <v>110</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9379,7 +9379,7 @@
         <v>652</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -9395,7 +9395,7 @@
         <v>655</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -9435,87 +9435,87 @@
         <v>677</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="27" customFormat="1">
       <c r="A33" s="44" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="27" customFormat="1">
       <c r="A34" s="44" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="27" customFormat="1">
       <c r="A35" s="44" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="27" customFormat="1">
       <c r="A36" s="44" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="27" customFormat="1">
       <c r="A37" s="44" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="27" customFormat="1">
       <c r="A38" s="44" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="27" customFormat="1">
       <c r="A39" s="44" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="44" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="44" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="51" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -9527,8 +9527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5825E51-79F8-3943-A43A-0FB9AED7F8CD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9546,40 +9546,40 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>842</v>
+        <v>957</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>866</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>823</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -9591,13 +9591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB3225A-4DA2-B449-9413-FA03533C994C}">
   <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12258,15 +12258,87 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="A230:A234"/>
+    <mergeCell ref="A235:A236"/>
     <mergeCell ref="A267:A268"/>
     <mergeCell ref="C267:C268"/>
     <mergeCell ref="A269:A270"/>
@@ -12281,87 +12353,15 @@
     <mergeCell ref="B261:B263"/>
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A249"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="A230:A234"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A129:A136"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="C284:C285"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/queries_wg2_ch05.xlsx
+++ b/data-raw/queries_wg2_ch05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/citationManagement/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C720CD37-2414-DE48-A21C-4A50E9521221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC550995-4470-E443-B999-5B4BE4678F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33520" yWindow="3700" windowWidth="37300" windowHeight="29060" activeTab="3" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
+    <workbookView xWindow="33520" yWindow="3700" windowWidth="37300" windowHeight="29060" xr2:uid="{AEACCC75-8DEC-AC42-A6C7-72B5A2F10F93}"/>
   </bookViews>
   <sheets>
     <sheet name="baseQueries" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="968">
   <si>
     <t>valueChain</t>
   </si>
@@ -5462,20 +5462,12 @@
     <t>c("gene* engineer*",  "gene* modif*",  "biotech*",  "GMO", "gene* editing", "CRISPR")</t>
   </si>
   <si>
-    <t>5.8 Other Terrestrial Ecosystem Products</t>
-    <phoneticPr fontId="20"/>
-  </si>
-  <si>
     <t>soilHealth</t>
-    <phoneticPr fontId="20"/>
-  </si>
-  <si>
-    <t>(soil health OR soil quality OR land health) AND (crop OR agroforestry OR pasture OR grassland OR agriculture OR food)</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>HN</t>
-    <phoneticPr fontId="20"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>(cultur* ecosystem service*) AND (touris* OR relig* OR recreat* OR spiritual OR Aesthetic OR beaut*)</t>
@@ -5655,9 +5647,6 @@
     <t>emissions OR mitigation OR REDD OR MRV</t>
   </si>
   <si>
-    <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (barley OR oats OR triticale OR sorghum* OR millet* OR rye* OR buckwheat* OR fonio* OR teff OR Quinoa)</t>
-  </si>
-  <si>
     <t>("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (coffee OR Coffea OR 'cocoa OR cacao OR theobroma)</t>
   </si>
   <si>
@@ -5751,9 +5740,6 @@
     <t>"food *securit*" OR "food access*" OR "food afford*" OR "food *sufficien*" OR "food choice*" OR "food availab*" OR "food utiliz*" OR "food stabil*" OR "food quality"</t>
   </si>
   <si>
-    <t>(global OR international) AND ("wood trade" OR "forest products trade" OR "lumber trade")</t>
-  </si>
-  <si>
     <t>stunting OR obesity OR overweight OR malnutrition OR overnutrition OR undernutrition OR "mineral deficiency" OR "vitamin deficiency" OR "micronutrient deficiency"</t>
   </si>
   <si>
@@ -5868,9 +5854,6 @@
     <t>{heat stress} OR {yield decline} OR {yield variability} OR {nutritional quality}</t>
   </si>
   <si>
-    <t>c("climate hazard",  "extreme weather",  "heat", "heat wave",  "high temperature", "precipitation variability", "rain* variability", " temp* variability", "sea level rise", "drought", "intense rainfall", "flood*", "O3", "ozone", "CO2","carbon dioxide", "variability", "projection")</t>
-  </si>
-  <si>
     <t>c("greenhouse gas", "global warming", "climate change", "climate-change", "climatic change", "climate variability", "climate warming", "changing climate")</t>
   </si>
   <si>
@@ -5898,51 +5881,6 @@
     <t>SLC / HGS</t>
   </si>
   <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fisheries</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  OR aquaculture) AND (pest* OR fung* OR weed* OR pathogen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR lice OR "harmful algal blooms" OR "invasive species" OR viral</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>searchStrings.aquaticmanagement</t>
   </si>
   <si>
@@ -5971,13 +5909,37 @@
   </si>
   <si>
     <t>{greenhouse gas} OR {global warming} OR {climate change} OR {climatic change} OR {climate variability} OR {climate warming}</t>
+  </si>
+  <si>
+    <t>c("climate hazard",  "extreme weather",  "heat", "heat wave",  "high temperature", "precipitation variability", "rain* variability", " temp* variability", "sea level rise", "drought", "intense rainfall", "flood*", "O3", "ozone", "CO2","carbon dioxide", "variability", "projection", "crop yield")</t>
+  </si>
+  <si>
+    <t>(soil health OR soil quality OR land health) AND (crop OR agroforestry OR agriforestry OR pasture OR grassland OR agriculture OR food)</t>
+  </si>
+  <si>
+    <t>Forest production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forestProducts </t>
+  </si>
+  <si>
+    <t>(fisheries  OR aquaculture) AND (pest* OR fung* OR weed* OR pathogen OR lice OR "harmful algal blooms" OR "invasive species" OR viral)</t>
+  </si>
+  <si>
+    <t>(global OR international) AND ("wood trade" OR "forest products trade" OR "lumber trade" OR "timber trade")</t>
+  </si>
+  <si>
+    <t>timber OR lumber OR wood OR "forestry product" OR agroforestry OR agroforestry</t>
+  </si>
+  <si>
+    <t>(("gen* engineering" OR "gen* editing" OR "gene* modif*" OR biotech* OR GMO OR CRISPR OR "marker assisted selection" OR MAS OR "genotype by sequence" OR GBS) AND (barley OR oats OR triticale OR sorghum* OR millet* OR rye* OR buckwheat* OR fonio* OR teff OR Quinoa))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6028,13 +5990,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="17"/>
       <color theme="1"/>
@@ -6069,47 +6024,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF323232"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6142,13 +6060,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6250,7 +6161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6258,117 +6169,82 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6684,275 +6560,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F86CE5-FC64-FA44-BB0B-0B6C961403B7}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="15"/>
-    <col min="2" max="2" width="37.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="83.33203125" style="7" customWidth="1"/>
-    <col min="6" max="9" width="10.83203125" style="13"/>
-    <col min="10" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="33"/>
+    <col min="2" max="2" width="37.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="20" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="83.33203125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="10.83203125" style="14"/>
+    <col min="10" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>827</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>727</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>861</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="33">
         <f t="shared" ref="A3:A35" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>836</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>899</v>
+      <c r="D3" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>837</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>874</v>
+      <c r="D4" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>863</v>
+      <c r="D5" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
-        <v>823</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>903</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+      <c r="A7" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>893</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+      <c r="A9" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37" t="s">
-        <v>937</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>938</v>
-      </c>
-      <c r="F9" s="34" t="s">
+      <c r="D9" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="14" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+      <c r="A10" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37" t="s">
-        <v>822</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>819</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>881</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="35" t="s">
+        <v>878</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6961,2238 +6832,2252 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>856</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>774</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="E13" s="39" t="s">
-        <v>896</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>772</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="36">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="E14" s="39" t="s">
-        <v>842</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>770</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+      <c r="A15" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="D15" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>835</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+      <c r="A17" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+      <c r="A18" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+    <row r="19" spans="1:9" s="37" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A19" s="33">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>841</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" s="37" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="33">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="35" t="s">
         <v>644</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" s="37" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="38" t="s">
+        <v>873</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="33">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>894</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="33">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
         <v>658</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="38" t="s">
         <v>701</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="A24" s="33">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>909</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>912</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="D24" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+      <c r="A25" s="33">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>910</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>911</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="D25" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+      <c r="A26" s="33">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>913</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>914</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="D26" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+      <c r="A27" s="33">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="H27" s="13" t="s">
+      <c r="G27" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="14" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="A28" s="33">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="H28" s="13" t="s">
+      <c r="G28" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="14" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+      <c r="A29" s="33">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="15" t="s">
         <v>696</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="H29" s="13" t="s">
+      <c r="G29" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="14" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+      <c r="A30" s="33">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="H30" s="13" t="s">
+      <c r="G30" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="14" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+      <c r="A31" s="33">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>664</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>908</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="H31" s="13" t="s">
+      <c r="G31" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="14" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="H32" s="13" t="s">
+      <c r="G32" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="14" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+      <c r="A33" s="33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="H33" s="13" t="s">
+      <c r="G33" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="14" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
+      <c r="A34" s="33">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="G34" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="H34" s="13" t="s">
+      <c r="G34" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="14" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+      <c r="A35" s="33">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="E35" s="32" t="s">
-        <v>886</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="H35" s="13" t="s">
+      <c r="G35" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="14" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+      <c r="A36" s="33">
         <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>826</v>
+      <c r="G36" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+      <c r="A37" s="33">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="39" t="s">
         <v>732</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>826</v>
+      <c r="G37" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="A38" s="33">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="F38" s="13" t="s">
+      <c r="E38" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>826</v>
+      <c r="G38" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="A39" s="33">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="F39" s="13" t="s">
+      <c r="E39" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>826</v>
+      <c r="G39" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="A40" s="33">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>826</v>
+      <c r="G40" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="A41" s="33">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="21" t="s">
-        <v>857</v>
-      </c>
-      <c r="F41" s="13" t="s">
+      <c r="E41" s="35" t="s">
+        <v>855</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>826</v>
+      <c r="G41" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="A42" s="33">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="G42" s="13" t="s">
-        <v>826</v>
+      <c r="G42" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="A43" s="33">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>850</v>
-      </c>
-      <c r="F43" s="13" t="s">
+      <c r="E43" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="G43" s="13" t="s">
-        <v>826</v>
+      <c r="G43" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="A44" s="33">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="G44" s="14" t="s">
         <v>824</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>826</v>
-      </c>
     </row>
     <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="A45" s="33">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="21" t="s">
-        <v>843</v>
-      </c>
-      <c r="F45" s="13" t="s">
+      <c r="E45" s="35" t="s">
+        <v>841</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G45" s="13" t="s">
-        <v>826</v>
+      <c r="G45" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="A46" s="33">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G46" s="13" t="s">
-        <v>826</v>
+      <c r="G46" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="A47" s="33">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="F47" s="13" t="s">
+      <c r="E47" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="G47" s="13" t="s">
-        <v>826</v>
+      <c r="G47" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+      <c r="A48" s="33">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="39" t="s">
         <v>717</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G48" s="13" t="s">
-        <v>826</v>
+      <c r="G48" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+      <c r="A49" s="33">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>826</v>
+      <c r="G49" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
+      <c r="A50" s="33">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19" t="s">
+      <c r="C50" s="17"/>
+      <c r="D50" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="E50" s="23" t="s">
-        <v>858</v>
-      </c>
-      <c r="F50" s="13" t="s">
+      <c r="E50" s="16" t="s">
+        <v>856</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>826</v>
+      <c r="G50" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
+      <c r="A51" s="33">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="14" t="s">
         <v>671</v>
       </c>
-      <c r="E51" s="20" t="s">
-        <v>941</v>
-      </c>
-      <c r="F51" s="13" t="s">
+      <c r="E51" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>826</v>
+      <c r="G51" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+      <c r="A52" s="33">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>820</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="F52" s="13" t="s">
+      <c r="D52" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="F52" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="G52" s="19" t="s">
-        <v>826</v>
+      <c r="G52" s="17" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
+      <c r="A53" s="33">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G53" s="13" t="s">
-        <v>826</v>
+      <c r="G53" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
+      <c r="A54" s="33">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="G54" s="13" t="s">
-        <v>826</v>
+      <c r="G54" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
+      <c r="A55" s="33">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G55" s="13" t="s">
-        <v>826</v>
+      <c r="G55" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
+      <c r="A56" s="33">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="39" t="s">
         <v>723</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>826</v>
+      <c r="G56" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
+      <c r="A57" s="33">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>860</v>
-      </c>
-      <c r="F57" s="13" t="s">
+      <c r="E57" s="39" t="s">
+        <v>858</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G57" s="13" t="s">
-        <v>826</v>
+      <c r="G57" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
+      <c r="A58" s="33">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="39" t="s">
         <v>722</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G58" s="13" t="s">
-        <v>826</v>
+      <c r="G58" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
+      <c r="A59" s="33">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="39" t="s">
         <v>718</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G59" s="13" t="s">
-        <v>826</v>
+      <c r="G59" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
+      <c r="A60" s="33">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>942</v>
-      </c>
-      <c r="F60" s="13" t="s">
+      <c r="E60" s="39" t="s">
+        <v>938</v>
+      </c>
+      <c r="F60" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G60" s="13" t="s">
-        <v>826</v>
+      <c r="G60" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
+      <c r="A61" s="33">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="40" t="s">
         <v>706</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="G61" s="13" t="s">
-        <v>826</v>
+      <c r="G61" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16"